--- a/Inputs/MasterTable.xlsx
+++ b/Inputs/MasterTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoz\Desktop\WFH\Brown Workfolder\Profound\R code\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3659EF-5D86-4027-A528-0B55A8ED7DF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF76D65B-0AA8-4ABB-B19D-D5370381CE4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InitialPop" sheetId="12" r:id="rId1"/>
@@ -24,12 +24,16 @@
     <sheet name="TransProb" sheetId="8" r:id="rId9"/>
     <sheet name="DecisionTree" sheetId="9" r:id="rId10"/>
     <sheet name="ODSettingEMS" sheetId="20" r:id="rId11"/>
-    <sheet name="Survival" sheetId="10" r:id="rId12"/>
-    <sheet name="NxKit" sheetId="11" r:id="rId13"/>
-    <sheet name="NxData" sheetId="18" r:id="rId14"/>
-    <sheet name="NxMvt" sheetId="19" r:id="rId15"/>
-    <sheet name="Cost" sheetId="16" r:id="rId16"/>
-    <sheet name="NxOnSurv" sheetId="17" r:id="rId17"/>
+    <sheet name="ODSettingEMS(sp)" sheetId="22" r:id="rId12"/>
+    <sheet name="Mortality" sheetId="10" r:id="rId13"/>
+    <sheet name="NxKit" sheetId="11" r:id="rId14"/>
+    <sheet name="NxDataOEND" sheetId="18" r:id="rId15"/>
+    <sheet name="NxDataPharm" sheetId="25" r:id="rId16"/>
+    <sheet name="NxMvt" sheetId="19" r:id="rId17"/>
+    <sheet name="Cost" sheetId="16" r:id="rId18"/>
+    <sheet name="NxOnSurv" sheetId="17" r:id="rId19"/>
+    <sheet name="Target" sheetId="23" r:id="rId20"/>
+    <sheet name="CalibPar" sheetId="24" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="196">
   <si>
     <t>pe</t>
   </si>
@@ -214,16 +218,10 @@
     <t>inactive opioid use (recovery)</t>
   </si>
   <si>
-    <t>exposed to fentanyl</t>
-  </si>
-  <si>
     <t>ever overdosed</t>
   </si>
   <si>
     <t>illicit opioid use (injecting heroin) among illicit opioid users</t>
-  </si>
-  <si>
-    <t>exposed to fentanyl (10.1001/jamanetworkopen.2019.2851)</t>
   </si>
   <si>
     <t>illicit opioid use (heroin), equal 1-preb</t>
@@ -248,9 +246,6 @@
   </si>
   <si>
     <t>pub</t>
-  </si>
-  <si>
-    <t>OD_911</t>
   </si>
   <si>
     <t>OD_hosp</t>
@@ -472,9 +467,6 @@
     <t>c.hospcare</t>
   </si>
   <si>
-    <t>sur_bl</t>
-  </si>
-  <si>
     <t>public</t>
   </si>
   <si>
@@ -580,13 +572,76 @@
     <t>https://doi.org/10.1016/j.jsat.2019.12.008</t>
   </si>
   <si>
-    <t>rr_sur_Nx</t>
+    <t>nlx.adj</t>
   </si>
   <si>
-    <t>rr_sur_EMS</t>
+    <t>Cease opioid use following overdose</t>
   </si>
   <si>
-    <t>nlx.adj</t>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>EDvisits</t>
+  </si>
+  <si>
+    <t>Fx_ODD</t>
+  </si>
+  <si>
+    <t>lognormal</t>
+  </si>
+  <si>
+    <t>mor_bl</t>
+  </si>
+  <si>
+    <t>mor_Nx</t>
+  </si>
+  <si>
+    <t>rr_mor_EMS</t>
+  </si>
+  <si>
+    <t>ODdeaths</t>
+  </si>
+  <si>
+    <t>cap</t>
+  </si>
+  <si>
+    <t>exposed to fentanyl, old value 86.5800865800866%</t>
+  </si>
+  <si>
+    <t>OD_wit_priv</t>
+  </si>
+  <si>
+    <t>OD_wit_pub</t>
+  </si>
+  <si>
+    <t>pe: Dezman, lo: Carroll (beta). up: Kenney</t>
+  </si>
+  <si>
+    <t>gw.fx</t>
+  </si>
+  <si>
+    <t>annual growth rate in fentanyl exposure</t>
+  </si>
+  <si>
+    <t>fentanyl proportion (10.1001/jamanetworkopen.2019.2851), sti population (NSDUH)</t>
+  </si>
+  <si>
+    <t>OD_911_priv</t>
+  </si>
+  <si>
+    <t>OD_911_pub_mul</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.drugalcdep.2019.06.033</t>
+  </si>
+  <si>
+    <t>Probability of witness calling 911 in a private setting</t>
+  </si>
+  <si>
+    <t>Multipler (RR) for calling 911 in public setting compared to private (converted from OR to RR)</t>
+  </si>
+  <si>
+    <t>ODD Fx, range assumed</t>
   </si>
 </sst>
 </file>
@@ -600,7 +655,7 @@
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,6 +682,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -660,7 +721,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -683,6 +744,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -968,7 +1033,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,7 +1044,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>46</v>
@@ -1008,7 +1073,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -1032,12 +1097,12 @@
         <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -1062,12 +1127,12 @@
         <v>50</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -1082,7 +1147,7 @@
         <v>6.7199999999999996E-2</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G4" s="7">
         <f>C4</f>
@@ -1093,14 +1158,14 @@
         <v>7.7551020408163258E-3</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
         <v>51</v>
@@ -1115,7 +1180,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" ref="G5:G6" si="0">C5</f>
@@ -1126,12 +1191,12 @@
         <v>2.5510204081632651E-3</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -1146,7 +1211,7 @@
         <v>1.9E-2</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="0"/>
@@ -1157,7 +1222,7 @@
         <v>1.5306122448979593E-3</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1167,23 +1232,24 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89A4DCE-FC4D-4AE1-9338-95B949A6382F}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -1218,73 +1287,126 @@
         <v>0.68500000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="D3" s="15">
+        <f>1-39/91</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E3">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
         <v>63</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" s="14">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="D4" s="15">
+        <f>1-39/91</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E4">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="14">
+        <f>2651/6446</f>
+        <v>0.4112627986348123</v>
+      </c>
+      <c r="D5" s="15">
+        <f>2191/5728</f>
+        <v>0.38250698324022347</v>
+      </c>
+      <c r="E5" s="15">
+        <f>460/718</f>
+        <v>0.64066852367688021</v>
+      </c>
+      <c r="I5" t="s">
+        <v>193</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1.302</v>
+      </c>
+      <c r="D6">
+        <v>1.232</v>
+      </c>
+      <c r="E6">
+        <v>1.377</v>
+      </c>
+      <c r="I6" t="s">
+        <v>194</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="15">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="D7">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="E7">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="15">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5">
-        <v>0.63800000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6">
-        <v>0.79900000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>68</v>
-      </c>
       <c r="B8" t="s">
         <v>50</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="14">
         <v>7.5600000000000001E-2</v>
       </c>
+      <c r="D8" s="14">
+        <v>4.8390339999999997E-2</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.11579589999999999</v>
+      </c>
       <c r="F8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G8">
         <v>19</v>
@@ -1293,13 +1415,18 @@
         <f>251-G8</f>
         <v>232</v>
       </c>
-      <c r="I8" s="18" t="s">
-        <v>175</v>
+      <c r="I8" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I8" r:id="rId1" xr:uid="{52E578F8-E4A2-4175-876D-9468C59B2BB3}"/>
+    <hyperlink ref="J8" r:id="rId1" xr:uid="{15D6B813-A970-440E-AF95-498C36C49594}"/>
+    <hyperlink ref="J5" r:id="rId2" xr:uid="{7327CC0B-C88B-4874-A1C8-CDE2C37C2633}"/>
+    <hyperlink ref="J6" r:id="rId3" xr:uid="{1BAC5FB8-A8E9-4DB6-A442-539600BE9346}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1307,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF080699-EBC2-4A82-9C12-737CF1FDD727}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1320,442 +1447,25 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="13">
-        <v>0.3</v>
+        <v>174</v>
+      </c>
+      <c r="B2" s="23">
+        <f>1-C2</f>
+        <v>0.30812608444187395</v>
       </c>
       <c r="C2" s="13">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="13">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="C3" s="13">
-        <v>0.69699999999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" s="13">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="C4" s="13">
-        <v>0.83299999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="13">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="C5" s="13">
-        <v>0.70099999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="13">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="C6" s="13">
-        <v>0.89700000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="13">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="C7" s="13">
-        <v>0.81899999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="13">
-        <v>0.186</v>
-      </c>
-      <c r="C8" s="13">
-        <v>0.81399999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="13">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="C9" s="13">
-        <v>0.77100000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="13">
-        <v>0.375</v>
-      </c>
-      <c r="C10" s="13">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="13">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="C11" s="13">
-        <v>0.74299999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="13">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="C12" s="13">
-        <v>0.55200000000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13">
-        <v>0.154</v>
-      </c>
-      <c r="C13" s="13">
-        <v>0.84599999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>146</v>
-      </c>
-      <c r="B14" s="13">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="C14" s="13">
-        <v>0.67900000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="13">
-        <v>0.104</v>
-      </c>
-      <c r="C15" s="13">
-        <v>0.89600000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="13">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="C16" s="13">
-        <v>0.85699999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="13">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="C17" s="13">
-        <v>0.76500000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B18" s="13">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="C18" s="13">
-        <v>0.48899999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="13">
-        <v>0.25</v>
-      </c>
-      <c r="C19" s="13">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="13">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="C20" s="13">
-        <v>0.77300000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="13">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="C21" s="13">
-        <v>0.76100000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="13">
-        <v>0.24894736842105261</v>
-      </c>
-      <c r="C22" s="13">
-        <v>0.75105263157894742</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="13">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="C23" s="13">
-        <v>0.76700000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="13">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="C24" s="13">
-        <v>0.72799999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="13">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="C25" s="13">
-        <v>0.74399999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="13">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="C26" s="13">
-        <v>0.69799999999999995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="C27" s="13">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="13">
-        <v>0.18</v>
-      </c>
-      <c r="C28" s="13">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="13">
-        <v>0.439</v>
-      </c>
-      <c r="C29" s="13">
-        <v>0.56100000000000005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="13">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="C30" s="13">
-        <v>0.74199999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="13">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="C31" s="13">
-        <v>0.83299999999999996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>148</v>
-      </c>
-      <c r="B32" s="13">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="C32" s="13">
-        <v>0.77300000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="13">
-        <v>0.25</v>
-      </c>
-      <c r="C33" s="13">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="13">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="C34" s="13">
-        <v>0.83299999999999996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="13">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="C35" s="13">
-        <v>0.85699999999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="13">
-        <v>0.34</v>
-      </c>
-      <c r="C36" s="13">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>149</v>
-      </c>
-      <c r="B37" s="13">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="C37" s="13">
-        <v>0.66700000000000004</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>150</v>
-      </c>
-      <c r="B38" s="13">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="C38" s="13">
-        <v>0.86099999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>151</v>
-      </c>
-      <c r="B39" s="13">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="C39" s="13">
-        <v>0.80200000000000005</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="13">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="C40" s="13">
-        <v>0.77500000000000002</v>
+        <v>0.69187391555812605</v>
       </c>
     </row>
   </sheetData>
@@ -1764,11 +1474,469 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0161575F-CB03-4ED1-888E-FCC282160895}">
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.69699999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.70099999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.89700000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="13">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.81899999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="13">
+        <v>0.186</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.81399999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="13">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.77100000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="13">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.74299999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="13">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13">
+        <v>0.154</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.84599999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="13">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0.67900000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="13">
+        <v>0.104</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="13">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="C16" s="13">
+        <v>0.85699999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="13">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="C17" s="13">
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="13">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0.48899999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="13">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0.77300000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="13">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0.76100000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="13">
+        <v>0.24894736842105261</v>
+      </c>
+      <c r="C22" s="13">
+        <v>0.75105263157894742</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="13">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="C23" s="13">
+        <v>0.76700000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="13">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="C24" s="13">
+        <v>0.72799999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="C25" s="13">
+        <v>0.74399999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="C26" s="13">
+        <v>0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="C27" s="13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0.18</v>
+      </c>
+      <c r="C28" s="13">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.439</v>
+      </c>
+      <c r="C29" s="13">
+        <v>0.56100000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="C30" s="13">
+        <v>0.74199999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="C31" s="13">
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="C32" s="13">
+        <v>0.77300000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="C33" s="13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="13">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="C34" s="13">
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="C35" s="13">
+        <v>0.85699999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0.34</v>
+      </c>
+      <c r="C36" s="13">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="C37" s="13">
+        <v>0.66700000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="13">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="C38" s="13">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="13">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="C39" s="13">
+        <v>0.80200000000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="13">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C40" s="13">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB4BD01-DBD0-4627-918F-9B992A90379F}">
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1778,7 +1946,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1804,28 +1972,47 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="B2" s="14">
-        <f>NxOnSurv!M22</f>
-        <v>0.72380353016563426</v>
+        <v>0.1111111</v>
+      </c>
+      <c r="C2">
+        <v>6.850038E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.17524139999999999</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B3" s="15">
-        <f>NxOnSurv!L25</f>
-        <v>1.2949991616265983</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="B3" s="14">
+        <v>3.7000000000000033E-2</v>
+      </c>
+      <c r="C3">
+        <v>2.9000000000000026E-2</v>
+      </c>
+      <c r="D3">
+        <v>4.500000000000004E-2</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B4">
-        <v>1.089</v>
+        <v>0.8</v>
+      </c>
+      <c r="C4">
+        <v>0.65</v>
+      </c>
+      <c r="D4">
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -1949,19 +2136,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE6D060-BD9A-4D96-B4CE-F2ECE1E1EF2B}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1987,28 +2174,48 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2">
         <v>15.5</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B3" s="5">
         <v>0.3</v>
       </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B4" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5">
         <v>0.9</v>
       </c>
     </row>
@@ -2017,22 +2224,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C231C3-2912-4A67-95C1-06AD5483D65C}">
   <dimension ref="A1:AO11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
         <v>34</v>
@@ -2157,7 +2364,7 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C2">
         <f>ROUND(C4/3090*932,0)</f>
@@ -2321,7 +2528,7 @@
         <v>2015</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2446,7 +2653,7 @@
         <v>2016</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C4">
         <v>12</v>
@@ -2571,7 +2778,7 @@
         <v>2016</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2696,7 +2903,7 @@
         <v>2017</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -2821,7 +3028,7 @@
         <v>2017</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2946,7 +3153,7 @@
         <v>2018</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C8">
         <v>44</v>
@@ -3071,7 +3278,7 @@
         <v>2018</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -3196,7 +3403,7 @@
         <v>2019</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C10">
         <v>55</v>
@@ -3321,7 +3528,7 @@
         <v>2019</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C11">
         <v>60</v>
@@ -3446,12 +3653,75 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2EDF1B-CEE8-4A4A-BA54-C5F7372A6A88}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2015</v>
+      </c>
+      <c r="B2">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2016</v>
+      </c>
+      <c r="B3">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2017</v>
+      </c>
+      <c r="B4">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2018</v>
+      </c>
+      <c r="B5">
+        <v>8007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2019</v>
+      </c>
+      <c r="B6">
+        <v>11098</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6B4D2B-1423-4BB1-B82C-0D272D8DA6C7}">
   <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3947,7 +4217,7 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="B5" s="20">
         <v>0</v>
@@ -8342,19 +8612,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC045363-D7FC-49B9-A9BB-CFCFB09307A2}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -8380,7 +8648,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B2">
         <v>1019</v>
@@ -8406,7 +8674,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B3">
         <v>1511</v>
@@ -8432,7 +8700,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B4">
         <v>1511</v>
@@ -8458,7 +8726,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B5">
         <v>631</v>
@@ -8484,7 +8752,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B6" s="5">
         <v>2000</v>
@@ -8510,7 +8778,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B7">
         <v>61.5</v>
@@ -8536,7 +8804,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -8562,7 +8830,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B9">
         <v>500</v>
@@ -8588,7 +8856,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B10" s="5">
         <v>1034</v>
@@ -8617,12 +8885,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0880A51-D5C0-4CC2-9F82-0D2250CCEDDE}">
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I15:I16"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8632,36 +8900,36 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F2">
         <v>5.7</v>
       </c>
       <c r="I2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -8686,7 +8954,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B4" s="13">
         <v>0.69750000000000001</v>
@@ -8699,7 +8967,7 @@
         <v>0.66779999999999995</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I4" s="13">
         <v>0.69750000000000001</v>
@@ -8714,7 +8982,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B5" s="13">
         <f>1-B4</f>
@@ -8729,7 +8997,7 @@
         <v>0.33220000000000005</v>
       </c>
       <c r="H5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I5" s="13">
         <f>1-I4</f>
@@ -8746,7 +9014,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B6" s="13">
         <v>0.879</v>
@@ -8758,7 +9026,7 @@
         <v>0.87019999999999997</v>
       </c>
       <c r="H6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I6" s="13">
         <v>0.879</v>
@@ -8772,7 +9040,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B7" s="13">
         <f>1-B6</f>
@@ -8787,7 +9055,7 @@
         <v>0.12980000000000003</v>
       </c>
       <c r="H7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I7" s="13">
         <f>1-I6</f>
@@ -8804,7 +9072,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B8" s="13">
         <v>0.94099999999999995</v>
@@ -8816,7 +9084,7 @@
         <v>0.93600000000000005</v>
       </c>
       <c r="H8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I8" s="13">
         <v>0.94099999999999995</v>
@@ -8830,7 +9098,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B9" s="13">
         <f>1-B8</f>
@@ -8845,7 +9113,7 @@
         <v>6.3999999999999946E-2</v>
       </c>
       <c r="H9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I9" s="13">
         <f>1-I8</f>
@@ -8862,7 +9130,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B10" s="13">
         <v>0.72699999999999998</v>
@@ -8874,7 +9142,7 @@
         <v>0.73799999999999999</v>
       </c>
       <c r="H10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I10" s="13">
         <v>0.72699999999999998</v>
@@ -8888,7 +9156,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B11" s="13">
         <f>1-B10</f>
@@ -8903,7 +9171,7 @@
         <v>0.26200000000000001</v>
       </c>
       <c r="H11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I11" s="13">
         <f>1-I10</f>
@@ -8920,7 +9188,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B13" s="17">
         <f>B3*B4*B8</f>
@@ -8935,7 +9203,7 @@
         <v>370.66105439999995</v>
       </c>
       <c r="H13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I13" s="17">
         <f>I3*I4*I8</f>
@@ -8952,7 +9220,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B14" s="17">
         <f>B3*B4*B9</f>
@@ -8967,7 +9235,7 @@
         <v>25.344345599999976</v>
       </c>
       <c r="H14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I14" s="17">
         <f>I3*I4*I9</f>
@@ -8984,7 +9252,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B15" s="17">
         <f>B3*B5*B10</f>
@@ -8999,7 +9267,7 @@
         <v>145.38201480000001</v>
       </c>
       <c r="H15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I15" s="17">
         <f>I3*I5*I10</f>
@@ -9016,7 +9284,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B16" s="17">
         <f>B3*B5*B11</f>
@@ -9031,7 +9299,7 @@
         <v>51.612585200000005</v>
       </c>
       <c r="H16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I16" s="17">
         <f>I3*I5*I11</f>
@@ -9100,21 +9368,21 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B21" s="17">
         <f>B13+C13+D13</f>
@@ -9125,7 +9393,7 @@
         <v>408.91196549999978</v>
       </c>
       <c r="H21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I21" s="17">
         <f>I13+J13+K13</f>
@@ -9138,7 +9406,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B22" s="17">
         <f>B15+C15+D15</f>
@@ -9153,7 +9421,7 @@
         <v>0.60199623624764098</v>
       </c>
       <c r="H22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I22" s="17">
         <f>I15+J15+K15</f>
@@ -9170,14 +9438,14 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E24" s="15">
         <f>B21*C22/C21/B22</f>
         <v>8.4783479955198739</v>
       </c>
       <c r="K24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L24" s="15">
         <f>I21*J22/J21/I22</f>
@@ -9186,14 +9454,14 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E25" s="15">
         <f>(B21/(B21+C21))/(B22/(B22+C22))</f>
         <v>1.5409750168597309</v>
       </c>
       <c r="K25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L25" s="15">
         <f>(I21/(I21+J21))/(I22/(I22+J22))</f>
@@ -9217,7 +9485,7 @@
   <dimension ref="A1:CC52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9233,10 +9501,10 @@
         <v>46</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>34</v>
@@ -9248,7 +9516,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>37</v>
@@ -9361,10 +9629,10 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D2" s="11">
         <v>919</v>
@@ -9528,10 +9796,10 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D3" s="11">
         <v>462</v>
@@ -9695,10 +9963,10 @@
         <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D4" s="11">
         <v>301</v>
@@ -9862,10 +10130,10 @@
         <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D5" s="11">
         <v>1630</v>
@@ -10029,10 +10297,10 @@
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D6" s="11">
         <v>1800</v>
@@ -10196,10 +10464,10 @@
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D7" s="11">
         <v>998</v>
@@ -10363,10 +10631,10 @@
         <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D8" s="11">
         <v>6</v>
@@ -10491,10 +10759,10 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D9" s="11">
         <v>6</v>
@@ -10619,10 +10887,10 @@
         <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D10" s="11">
         <v>2</v>
@@ -10747,10 +11015,10 @@
         <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D11" s="11">
         <v>10</v>
@@ -10875,10 +11143,10 @@
         <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D12" s="11">
         <v>6</v>
@@ -11003,10 +11271,10 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D13" s="11">
         <v>3</v>
@@ -11131,10 +11399,10 @@
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D14" s="11">
         <v>28</v>
@@ -11259,10 +11527,10 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D15" s="11">
         <v>17</v>
@@ -11387,10 +11655,10 @@
         <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D16" s="11">
         <v>11</v>
@@ -11515,10 +11783,10 @@
         <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D17" s="11">
         <v>33</v>
@@ -11643,10 +11911,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D18" s="11">
         <v>19</v>
@@ -11771,10 +12039,10 @@
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D19" s="11">
         <v>6</v>
@@ -11899,10 +12167,10 @@
         <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D20" s="11">
         <v>60</v>
@@ -12027,10 +12295,10 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D21" s="11">
         <v>13</v>
@@ -12155,10 +12423,10 @@
         <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D22" s="11">
         <v>16</v>
@@ -12283,10 +12551,10 @@
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D23" s="11">
         <v>79</v>
@@ -12411,10 +12679,10 @@
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D24" s="11">
         <v>47</v>
@@ -12539,10 +12807,10 @@
         <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D25" s="11">
         <v>18</v>
@@ -12667,10 +12935,10 @@
         <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D26" s="11">
         <v>803</v>
@@ -12795,10 +13063,10 @@
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D27" s="11">
         <v>367</v>
@@ -12923,10 +13191,10 @@
         <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D28" s="11">
         <v>390</v>
@@ -13051,10 +13319,10 @@
         <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D29" s="11">
         <v>1883</v>
@@ -13179,10 +13447,10 @@
         <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D30" s="11">
         <v>1943</v>
@@ -13307,10 +13575,10 @@
         <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D31" s="11">
         <v>1325</v>
@@ -13435,10 +13703,10 @@
         <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D32" s="11">
         <v>5</v>
@@ -13563,10 +13831,10 @@
         <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D33" s="11">
         <v>5</v>
@@ -13691,10 +13959,10 @@
         <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D34" s="11">
         <v>3</v>
@@ -13819,10 +14087,10 @@
         <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D35" s="11">
         <v>12</v>
@@ -13947,10 +14215,10 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D36" s="11">
         <v>7</v>
@@ -14075,10 +14343,10 @@
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D37" s="11">
         <v>3</v>
@@ -14203,10 +14471,10 @@
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D38" s="11">
         <v>24</v>
@@ -14331,10 +14599,10 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D39" s="11">
         <v>13</v>
@@ -14459,10 +14727,10 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D40" s="11">
         <v>14</v>
@@ -14587,10 +14855,10 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D41" s="11">
         <v>38</v>
@@ -14715,10 +14983,10 @@
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D42" s="11">
         <v>20</v>
@@ -14843,10 +15111,10 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D43" s="11">
         <v>9</v>
@@ -14971,10 +15239,10 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D44" s="11">
         <v>52</v>
@@ -15099,10 +15367,10 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D45" s="11">
         <v>11</v>
@@ -15227,10 +15495,10 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D46" s="11">
         <v>21</v>
@@ -15355,10 +15623,10 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D47" s="11">
         <v>92</v>
@@ -15483,10 +15751,10 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D48" s="11">
         <v>50</v>
@@ -15611,10 +15879,10 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D49" s="11">
         <v>24</v>
@@ -15737,6 +16005,603 @@
     <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="D52" s="4"/>
     </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA37401-9159-4050-A15F-AA39CA2DB101}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="24">
+        <v>2016</v>
+      </c>
+      <c r="C2" s="24">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="24">
+        <v>2017</v>
+      </c>
+      <c r="C3" s="24">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="24">
+        <v>2018</v>
+      </c>
+      <c r="C4" s="24">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="24">
+        <v>2019</v>
+      </c>
+      <c r="C5" s="24">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6">
+        <v>2016</v>
+      </c>
+      <c r="C6" s="2">
+        <f>197/290</f>
+        <v>0.67931034482758623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7">
+        <v>2017</v>
+      </c>
+      <c r="C7" s="2">
+        <f>207/286</f>
+        <v>0.72377622377622375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8">
+        <v>2018</v>
+      </c>
+      <c r="C8" s="2">
+        <f>226/272</f>
+        <v>0.83088235294117652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9">
+        <v>2019</v>
+      </c>
+      <c r="C9" s="2">
+        <f>214/256</f>
+        <v>0.8359375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10">
+        <v>2016</v>
+      </c>
+      <c r="C10">
+        <f>110+108+107+149+147+169+151+167+134+132+107+127</f>
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11">
+        <v>2017</v>
+      </c>
+      <c r="C11">
+        <f>124+109+106+150+121+153+141+165+156+171+139+144</f>
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12">
+        <v>2018</v>
+      </c>
+      <c r="C12">
+        <f>114+102+119+134+163+142+120+149+112+139+148+119</f>
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13">
+        <v>2019</v>
+      </c>
+      <c r="C13">
+        <f>141+93+115+160+177+123+120+162+154+150+124+133</f>
+        <v>1652</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FBC180-692F-4365-89A2-152D7783C468}">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="4">
+        <f>OpioidPattern!D7</f>
+        <v>0.5641025641025641</v>
+      </c>
+      <c r="D2" s="4">
+        <f>OpioidPattern!E7</f>
+        <v>0.41550429999999999</v>
+      </c>
+      <c r="E2" s="4">
+        <f>OpioidPattern!F7</f>
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="23">
+        <f>OpioidPattern!D8</f>
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="23">
+        <f>OpioidPattern!E8</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="23">
+        <f>OpioidPattern!F8</f>
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="18"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="21">
+        <f>OverdoseRisk!C2</f>
+        <v>7.5438493580000003E-3</v>
+      </c>
+      <c r="D4" s="21">
+        <f>OverdoseRisk!D2</f>
+        <v>6.5657605787018403E-3</v>
+      </c>
+      <c r="E4" s="21">
+        <f>OverdoseRisk!E2</f>
+        <v>8.6259541200034429E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <f>OverdoseRisk!C3</f>
+        <v>1.538E-2</v>
+      </c>
+      <c r="D5" s="25">
+        <f>OverdoseRisk!D3</f>
+        <v>1.2175274191616903E-2</v>
+      </c>
+      <c r="E5" s="25">
+        <f>OverdoseRisk!E3</f>
+        <v>1.8575312252222864E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <f>OverdoseRisk!C5</f>
+        <v>2.9</v>
+      </c>
+      <c r="D6">
+        <f>OverdoseRisk!D5</f>
+        <v>1.7</v>
+      </c>
+      <c r="E6">
+        <f>OverdoseRisk!E5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="15">
+        <f>OverdoseRisk!C6</f>
+        <v>2.9950980392156863</v>
+      </c>
+      <c r="D7" s="15">
+        <f>OverdoseRisk!D6</f>
+        <v>1.5079650915246505</v>
+      </c>
+      <c r="E7" s="15">
+        <f>OverdoseRisk!E6</f>
+        <v>5.9488195813894986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="15">
+        <f>OverdoseRisk!C7</f>
+        <v>5.9153225806451619</v>
+      </c>
+      <c r="D8" s="15">
+        <f>OverdoseRisk!D7</f>
+        <v>3.6078748383811243</v>
+      </c>
+      <c r="E8" s="15">
+        <f>OverdoseRisk!E7</f>
+        <v>9.6985186018235687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <f>OverdoseRisk!C8</f>
+        <v>3.5</v>
+      </c>
+      <c r="D9">
+        <f>OverdoseRisk!D8</f>
+        <v>1.9</v>
+      </c>
+      <c r="E9">
+        <f>OverdoseRisk!E8</f>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="14">
+        <f>Mortality!B2</f>
+        <v>0.1111111</v>
+      </c>
+      <c r="D10" s="14">
+        <f>Mortality!C2</f>
+        <v>6.850038E-2</v>
+      </c>
+      <c r="E10" s="14">
+        <f>Mortality!D2</f>
+        <v>0.17524139999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="14">
+        <f>Mortality!B3</f>
+        <v>3.7000000000000033E-2</v>
+      </c>
+      <c r="D11" s="14">
+        <f>Mortality!C3</f>
+        <v>2.9000000000000026E-2</v>
+      </c>
+      <c r="E11" s="14">
+        <f>Mortality!D3</f>
+        <v>4.500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <f>Mortality!B4</f>
+        <v>0.8</v>
+      </c>
+      <c r="D12">
+        <f>Mortality!C4</f>
+        <v>0.65</v>
+      </c>
+      <c r="E12">
+        <f>Mortality!D4</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="15">
+        <f>DecisionTree!C3</f>
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="D13" s="15">
+        <f>DecisionTree!D3</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E13" s="15">
+        <f>DecisionTree!E3</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="15">
+        <f>DecisionTree!C4</f>
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="D14" s="15">
+        <f>DecisionTree!D4</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E14" s="15">
+        <f>DecisionTree!E4</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>DecisionTree!A5</f>
+        <v>OD_911_priv</v>
+      </c>
+      <c r="B15" t="str">
+        <f>DecisionTree!B5</f>
+        <v>na</v>
+      </c>
+      <c r="C15" s="15">
+        <f>DecisionTree!C5</f>
+        <v>0.4112627986348123</v>
+      </c>
+      <c r="D15" s="15">
+        <f>DecisionTree!D5</f>
+        <v>0.38250698324022347</v>
+      </c>
+      <c r="E15" s="15">
+        <f>DecisionTree!E5</f>
+        <v>0.64066852367688021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>DecisionTree!A6</f>
+        <v>OD_911_pub_mul</v>
+      </c>
+      <c r="B16" t="str">
+        <f>DecisionTree!B6</f>
+        <v>na</v>
+      </c>
+      <c r="C16" s="15">
+        <f>DecisionTree!C6</f>
+        <v>1.302</v>
+      </c>
+      <c r="D16" s="15">
+        <f>DecisionTree!D6</f>
+        <v>1.232</v>
+      </c>
+      <c r="E16" s="15">
+        <f>DecisionTree!E6</f>
+        <v>1.377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <f>DecisionTree!C7</f>
+        <v>0.95</v>
+      </c>
+      <c r="D17">
+        <f>DecisionTree!D7</f>
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="E17">
+        <f>DecisionTree!E7</f>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="14">
+        <f>DecisionTree!C8</f>
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="D18" s="14">
+        <f>DecisionTree!D8</f>
+        <v>4.8390339999999997E-2</v>
+      </c>
+      <c r="E18" s="14">
+        <f>DecisionTree!E8</f>
+        <v>0.11579589999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>0.5</v>
+      </c>
+      <c r="D19">
+        <v>0.1</v>
+      </c>
+      <c r="E19">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <f>NxKit!B4</f>
+        <v>0.7</v>
+      </c>
+      <c r="D20">
+        <f>NxKit!C4</f>
+        <v>0.4</v>
+      </c>
+      <c r="E20">
+        <f>NxKit!D4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15747,7 +16612,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15757,10 +16622,10 @@
         <v>46</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>0</v>
@@ -15789,10 +16654,10 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D2" s="9">
         <v>2.4942686840898669E-2</v>
@@ -15813,7 +16678,7 @@
         <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -15821,10 +16686,10 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D3" s="9">
         <v>6.7126436781609192E-2</v>
@@ -15850,10 +16715,10 @@
         <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D4" s="9">
         <v>6.9954776710005648E-2</v>
@@ -15879,10 +16744,10 @@
         <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D5" s="9">
         <v>5.6965357481309889E-2</v>
@@ -15908,10 +16773,10 @@
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D6" s="9">
         <v>3.7692145714887347E-2</v>
@@ -15937,10 +16802,10 @@
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D7" s="9">
         <v>1.5907447577729574E-2</v>
@@ -15966,10 +16831,10 @@
         <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D8" s="9">
         <v>2.6074182886522218E-2</v>
@@ -15995,10 +16860,10 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D9" s="9">
         <v>5.373573794626426E-2</v>
@@ -16024,10 +16889,10 @@
         <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D10" s="9">
         <v>6.8940493468795355E-2</v>
@@ -16053,10 +16918,10 @@
         <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D11" s="9">
         <v>4.1410184667039732E-2</v>
@@ -16082,10 +16947,10 @@
         <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D12" s="9">
         <v>3.7641154328732745E-2</v>
@@ -16111,10 +16976,10 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D13" s="9">
         <v>2.5056947608200455E-2</v>
@@ -16140,10 +17005,10 @@
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D14" s="9">
         <v>2.436938862761864E-2</v>
@@ -16169,10 +17034,10 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D15" s="9">
         <v>6.2884483937115515E-2</v>
@@ -16198,10 +17063,10 @@
         <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D16" s="9">
         <v>5.9245960502692999E-2</v>
@@ -16227,10 +17092,10 @@
         <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D17" s="9">
         <v>4.6042617960426177E-2</v>
@@ -16256,10 +17121,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D18" s="9">
         <v>2.6683608640406607E-2</v>
@@ -16285,10 +17150,10 @@
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D19" s="9">
         <v>2.9069767441860465E-2</v>
@@ -16314,10 +17179,10 @@
         <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D20" s="9">
         <v>2.2212908633696564E-2</v>
@@ -16343,10 +17208,10 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D21" s="9">
         <v>5.5646481178396073E-2</v>
@@ -16372,10 +17237,10 @@
         <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D22" s="9">
         <v>6.0267857142857144E-2</v>
@@ -16401,10 +17266,10 @@
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D23" s="9">
         <v>4.1769041769041768E-2</v>
@@ -16430,10 +17295,10 @@
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D24" s="9">
         <v>3.0120481927710843E-2</v>
@@ -16459,10 +17324,10 @@
         <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D25" s="9">
         <v>1.7964071856287425E-2</v>
@@ -16488,10 +17353,10 @@
         <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D26" s="9">
         <v>2.7733912356889063E-2</v>
@@ -16517,10 +17382,10 @@
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D27" s="9">
         <v>6.7545891997861346E-2</v>
@@ -16546,10 +17411,10 @@
         <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D28" s="9">
         <v>5.9462835727670207E-2</v>
@@ -16575,10 +17440,10 @@
         <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D29" s="9">
         <v>4.374098124098124E-2</v>
@@ -16604,10 +17469,10 @@
         <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D30" s="9">
         <v>3.1348543869411986E-2</v>
@@ -16633,10 +17498,10 @@
         <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D31" s="9">
         <v>1.1685116851168511E-2</v>
@@ -16662,10 +17527,10 @@
         <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D32" s="9">
         <v>3.5166479610924055E-2</v>
@@ -16691,10 +17556,10 @@
         <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D33" s="9">
         <v>4.6284224250325946E-2</v>
@@ -16720,10 +17585,10 @@
         <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D34" s="9">
         <v>4.4698544698544701E-2</v>
@@ -16749,10 +17614,10 @@
         <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D35" s="9">
         <v>3.0814689742507388E-2</v>
@@ -16778,10 +17643,10 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D36" s="9">
         <v>3.125E-2</v>
@@ -16807,10 +17672,10 @@
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D37" s="9">
         <v>8.3056478405315621E-3</v>
@@ -16836,10 +17701,10 @@
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D38" s="9">
         <v>3.6120840630472856E-2</v>
@@ -16865,10 +17730,10 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D39" s="9">
         <v>5.2423777144110548E-2</v>
@@ -16894,10 +17759,10 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D40" s="9">
         <v>4.7795479807336047E-2</v>
@@ -16923,10 +17788,10 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D41" s="9">
         <v>3.065373787926181E-2</v>
@@ -16952,10 +17817,10 @@
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D42" s="9">
         <v>1.3197969543147208E-2</v>
@@ -16981,10 +17846,10 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D43" s="9">
         <v>2.0876826722338204E-2</v>
@@ -17010,10 +17875,10 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D44" s="9">
         <v>3.0328919265271252E-2</v>
@@ -17039,10 +17904,10 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D45" s="9">
         <v>6.0930424042815977E-2</v>
@@ -17068,10 +17933,10 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D46" s="9">
         <v>4.7806155861165683E-2</v>
@@ -17097,10 +17962,10 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D47" s="9">
         <v>2.9858849077090119E-2</v>
@@ -17126,10 +17991,10 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D48" s="9">
         <v>2.3972602739726026E-2</v>
@@ -17155,10 +18020,10 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D49" s="9">
         <v>1.3927576601671309E-2</v>
@@ -17189,7 +18054,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17199,10 +18064,10 @@
         <v>46</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>0</v>
@@ -17231,10 +18096,10 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D2" s="9">
         <v>3.9431453461714807E-3</v>
@@ -17255,7 +18120,7 @@
         <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -17263,10 +18128,10 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D3" s="9">
         <v>5.6091954022988506E-2</v>
@@ -17292,10 +18157,10 @@
         <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D4" s="9">
         <v>4.8473713962690783E-2</v>
@@ -17321,10 +18186,10 @@
         <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D5" s="9">
         <v>2.2428135200589661E-2</v>
@@ -17350,10 +18215,10 @@
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D6" s="9">
         <v>1.284480943356496E-2</v>
@@ -17379,10 +18244,10 @@
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D7" s="9">
         <v>2.1691973969631237E-3</v>
@@ -17408,10 +18273,10 @@
         <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D8" s="9">
         <v>1.1017260374586854E-3</v>
@@ -17437,10 +18302,10 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D9" s="9">
         <v>1.6562384983437616E-2</v>
@@ -17466,10 +18331,10 @@
         <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D10" s="9">
         <v>2.0319303338171262E-2</v>
@@ -17495,10 +18360,10 @@
         <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D11" s="9">
         <v>1.9026301063234472E-2</v>
@@ -17524,10 +18389,10 @@
         <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D12" s="9">
         <v>3.7641154328732745E-2</v>
@@ -17553,10 +18418,10 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D13" s="9">
         <v>6.8337129840546698E-3</v>
@@ -17582,10 +18447,10 @@
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D14" s="9">
         <v>3.3528918692372171E-3</v>
@@ -17611,10 +18476,10 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D15" s="9">
         <v>4.0916530278232409E-2</v>
@@ -17640,10 +18505,10 @@
         <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D16" s="9">
         <v>3.9434523809523808E-2</v>
@@ -17669,10 +18534,10 @@
         <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D17" s="9">
         <v>2.5798525798525797E-2</v>
@@ -17698,10 +18563,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D18" s="9">
         <v>1.2048192771084338E-2</v>
@@ -17727,10 +18592,10 @@
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D19" s="9">
         <v>2.9940119760479044E-3</v>
@@ -17756,10 +18621,10 @@
         <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D20" s="9">
         <v>3.8477982043608381E-3</v>
@@ -17785,10 +18650,10 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D21" s="9">
         <v>4.5340624287992709E-2</v>
@@ -17814,10 +18679,10 @@
         <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D22" s="9">
         <v>3.7701974865350089E-2</v>
@@ -17843,10 +18708,10 @@
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D23" s="9">
         <v>2.5875190258751901E-2</v>
@@ -17872,10 +18737,10 @@
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D24" s="9">
         <v>1.5247776365946633E-2</v>
@@ -17901,10 +18766,10 @@
         <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D25" s="9">
         <v>5.8139534883720929E-3</v>
@@ -17930,10 +18795,10 @@
         <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D26" s="9">
         <v>3.3557046979865771E-3</v>
@@ -17959,10 +18824,10 @@
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D27" s="9">
         <v>3.920869720192479E-2</v>
@@ -17988,10 +18853,10 @@
         <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D28" s="9">
         <v>2.7357901311680199E-2</v>
@@ -18017,10 +18882,10 @@
         <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D29" s="9">
         <v>1.0281385281385282E-2</v>
@@ -18046,10 +18911,10 @@
         <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D30" s="9">
         <v>6.3068076423669081E-3</v>
@@ -18075,10 +18940,10 @@
         <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D31" s="9">
         <v>1.025010250102501E-3</v>
@@ -18104,10 +18969,10 @@
         <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D32" s="9">
         <v>1.4964459408903852E-3</v>
@@ -18133,10 +18998,10 @@
         <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D33" s="9">
         <v>1.2059973924380704E-2</v>
@@ -18162,10 +19027,10 @@
         <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D34" s="9">
         <v>1.0914760914760915E-2</v>
@@ -18191,10 +19056,10 @@
         <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D35" s="9">
         <v>1.2241452089489235E-2</v>
@@ -18220,10 +19085,10 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D36" s="9">
         <v>1.46484375E-2</v>
@@ -18249,10 +19114,10 @@
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D37" s="9">
         <v>0</v>
@@ -18278,10 +19143,10 @@
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D38" s="9">
         <v>3.8445108927808629E-3</v>
@@ -18307,10 +19172,10 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D39" s="9">
         <v>3.1700288184438041E-2</v>
@@ -18336,10 +19201,10 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D40" s="9">
         <v>2.2920759659463E-2</v>
@@ -18365,10 +19230,10 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D41" s="9">
         <v>1.1400651465798045E-2</v>
@@ -18394,10 +19259,10 @@
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D42" s="9">
         <v>5.1369863013698627E-3</v>
@@ -18423,10 +19288,10 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D43" s="9">
         <v>0</v>
@@ -18452,10 +19317,10 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D44" s="9">
         <v>4.5971978984238179E-3</v>
@@ -18481,10 +19346,10 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D45" s="9">
         <v>3.2243913138846239E-2</v>
@@ -18510,10 +19375,10 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D46" s="9">
         <v>1.7413856984068173E-2</v>
@@ -18539,10 +19404,10 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D47" s="9">
         <v>1.0009383797309979E-2</v>
@@ -18568,10 +19433,10 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D48" s="9">
         <v>5.076142131979695E-3</v>
@@ -18597,10 +19462,10 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D49" s="9">
         <v>0</v>
@@ -18628,26 +19493,29 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE310753-5FDB-4C95-9210-5EA6DD07A095}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>0</v>
@@ -18671,12 +19539,12 @@
         <v>6</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
@@ -18689,12 +19557,12 @@
         <v>0.16559829059829059</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -18707,12 +19575,12 @@
         <v>0.12125534950071326</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -18724,12 +19592,12 @@
         <v>0.48599999999999999</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -18741,12 +19609,12 @@
         <v>0.41049999999999998</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -18769,7 +19637,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -18778,70 +19646,108 @@
         <v>50</v>
       </c>
       <c r="D7" s="4">
-        <v>0.86580086580086602</v>
+        <f>22/39</f>
+        <v>0.5641025641025641</v>
       </c>
       <c r="E7" s="4">
-        <v>0.503</v>
+        <v>0.41550429999999999</v>
       </c>
       <c r="F7" s="4">
-        <v>0.93500000000000005</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>183</v>
+      </c>
+      <c r="K7" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.191</v>
+      <c r="A8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0</v>
+      </c>
+      <c r="F8" s="23">
+        <v>0.1</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>188</v>
       </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="10">
-        <v>0.25244517036746611</v>
+        <v>0.191</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.25244517036746611</v>
+      </c>
+      <c r="J10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D11" s="4">
         <f>684/1427</f>
         <v>0.47932725998598458</v>
       </c>
-      <c r="J10" t="s">
-        <v>55</v>
-      </c>
+      <c r="J11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="3"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="3"/>
+      <c r="H19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18850,17 +19756,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFD3F66-8BBD-4D99-AF60-845E4FEC384A}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -18886,22 +19795,30 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B2" s="2">
-        <f>39576/(39576+30578)*0.176+30578/(39576+30578)*0.079</f>
-        <v>0.1337206431564843</v>
+        <f>3587000/(3587000+891000)*0.176+891000/(3587000+891000)*0.079</f>
+        <v>0.15669964269763287</v>
       </c>
       <c r="C2" s="2">
-        <f>39576/(39576+30578)*0.161+30578/(39576+30578)*0.071</f>
-        <v>0.12177173076374832</v>
+        <f>3587000/(3587000+891000)*0.161+891000/(3587000+891000)*0.071</f>
+        <v>0.14309245198749443</v>
       </c>
       <c r="D2" s="2">
-        <f>39576/(39576+30578)*0.191+30578/(39576+30578)*0.087</f>
-        <v>0.14566955554922029</v>
+        <f>3587000/(3587000+891000)*0.191+891000/(3587000+891000)*0.087</f>
+        <v>0.17030683340777131</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.25244517036746611</v>
       </c>
     </row>
   </sheetData>
@@ -18914,7 +19831,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18925,7 +19842,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -18946,18 +19863,18 @@
         <v>5</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B2">
         <v>13.3</v>
@@ -18982,16 +19899,16 @@
         <v>34.447000000000003</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B3">
         <v>70.2</v>
@@ -19012,20 +19929,20 @@
         <v>50</v>
       </c>
       <c r="H3" s="16">
-        <f t="shared" ref="H3:H8" si="0">B3*2.59</f>
+        <f>B3*2.59</f>
         <v>181.81799999999998</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B4">
         <v>128.80000000000001</v>
@@ -19046,17 +19963,17 @@
         <v>50</v>
       </c>
       <c r="H4" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H4:H8" si="0">B4*2.59</f>
         <v>333.59199999999998</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B5">
         <v>194.7</v>
@@ -19081,13 +19998,13 @@
         <v>504.27299999999997</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B6">
         <v>359.9</v>
@@ -19112,13 +20029,13 @@
         <v>932.14099999999985</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B7">
         <v>886.7</v>
@@ -19143,13 +20060,13 @@
         <v>2296.5529999999999</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B8">
         <v>4386.1000000000004</v>
@@ -19174,7 +20091,7 @@
         <v>11359.999</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K8" s="12"/>
     </row>
@@ -19192,21 +20109,21 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
@@ -19232,32 +20149,44 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C2" s="21">
         <v>7.5438493580000003E-3</v>
       </c>
+      <c r="D2" s="25">
+        <v>6.5657605787018403E-3</v>
+      </c>
+      <c r="E2" s="25">
+        <v>8.6259541200034429E-3</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C3">
-        <v>1.52E-2</v>
+        <v>1.538E-2</v>
+      </c>
+      <c r="D3" s="25">
+        <v>1.2175274191616903E-2</v>
+      </c>
+      <c r="E3" s="25">
+        <v>1.8575312252222864E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -19265,10 +20194,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C5">
         <v>2.9</v>
@@ -19279,35 +20208,53 @@
       <c r="E5">
         <v>5</v>
       </c>
+      <c r="F5" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
+        <v>157</v>
+      </c>
+      <c r="C6" s="15">
+        <v>2.9950980392156863</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1.5079650915246505</v>
+      </c>
+      <c r="E6" s="15">
+        <v>5.9488195813894986</v>
+      </c>
+      <c r="F6" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7">
-        <v>5.9</v>
+        <v>157</v>
+      </c>
+      <c r="C7" s="15">
+        <v>5.9153225806451619</v>
+      </c>
+      <c r="D7" s="15">
+        <v>3.6078748383811243</v>
+      </c>
+      <c r="E7" s="15">
+        <v>9.6985186018235687</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C8">
         <v>3.5</v>
@@ -19321,13 +20268,22 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9">
-        <v>0.5</v>
+        <v>157</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.8</v>
+      </c>
+      <c r="E9">
+        <v>1.2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -19340,14 +20296,17 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -19373,7 +20332,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B2">
         <v>4.1800000000000002E-4</v>
@@ -19381,7 +20340,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B3">
         <v>2.0199999999999999E-2</v>
@@ -19389,7 +20348,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B4">
         <v>8.2400000000000008E-3</v>
@@ -19397,7 +20356,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B5">
         <v>5.9500000000000004E-3</v>
@@ -19405,7 +20364,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B6">
         <v>1.4800000000000001E-2</v>
@@ -19413,7 +20372,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B7">
         <v>2.5400000000000002E-3</v>
@@ -19421,7 +20380,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B8">
         <v>4.5199999999999997E-2</v>

--- a/Inputs/MasterTable.xlsx
+++ b/Inputs/MasterTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoz\Desktop\WFH\Brown Workfolder\Profound\R code\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoz\Desktop\WFH\Brown Workfolder\profound-model\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF76D65B-0AA8-4ABB-B19D-D5370381CE4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D371FB5-C561-40A6-9787-A6A604A4AC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="10" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InitialPop" sheetId="12" r:id="rId1"/>
@@ -3657,7 +3657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2EDF1B-CEE8-4A4A-BA54-C5F7372A6A88}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -16180,8 +16180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FBC180-692F-4365-89A2-152D7783C468}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16234,8 +16234,8 @@
         <v>0.41550429999999999</v>
       </c>
       <c r="E2" s="4">
-        <f>OpioidPattern!F7</f>
-        <v>0.86599999999999999</v>
+        <f>207/286</f>
+        <v>0.72377622377622375</v>
       </c>
       <c r="I2" s="18"/>
     </row>

--- a/Inputs/MasterTable.xlsx
+++ b/Inputs/MasterTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoz\Desktop\WFH\Brown Workfolder\profound-model\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sbessey/PycharmProjects/profound-model/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D371FB5-C561-40A6-9787-A6A604A4AC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF909B57-AC23-FF40-9842-AA19424C7E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="10" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="37860" windowHeight="18180" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InitialPop" sheetId="12" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="198">
   <si>
     <t>pe</t>
   </si>
@@ -643,6 +643,12 @@
   <si>
     <t>ODD Fx, range assumed</t>
   </si>
+  <si>
+    <t>mortality_nx</t>
+  </si>
+  <si>
+    <t>init_oud_fx</t>
+  </si>
 </sst>
 </file>
 
@@ -1036,13 +1042,13 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>66</v>
       </c>
@@ -1071,7 +1077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>148</v>
       </c>
@@ -1100,7 +1106,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>149</v>
       </c>
@@ -1130,7 +1136,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>150</v>
       </c>
@@ -1163,7 +1169,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>151</v>
       </c>
@@ -1194,7 +1200,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>151</v>
       </c>
@@ -1238,13 +1244,13 @@
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>66</v>
       </c>
@@ -1276,7 +1282,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -1287,7 +1293,7 @@
         <v>0.68500000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1305,7 +1311,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1323,7 +1329,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>190</v>
       </c>
@@ -1349,7 +1355,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>191</v>
       </c>
@@ -1372,7 +1378,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -1389,7 +1395,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -1440,12 +1446,12 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>139</v>
       </c>
@@ -1456,7 +1462,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>174</v>
       </c>
@@ -1481,12 +1487,12 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>139</v>
       </c>
@@ -1497,7 +1503,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1508,7 +1514,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1519,7 +1525,7 @@
         <v>0.69699999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -1530,7 +1536,7 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>141</v>
       </c>
@@ -1541,7 +1547,7 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1552,7 +1558,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1563,7 +1569,7 @@
         <v>0.81899999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1574,7 +1580,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1585,7 +1591,7 @@
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1596,7 +1602,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1607,7 +1613,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1618,7 +1624,7 @@
         <v>0.55200000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1629,7 +1635,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>142</v>
       </c>
@@ -1640,7 +1646,7 @@
         <v>0.67900000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1651,7 +1657,7 @@
         <v>0.89600000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1662,7 +1668,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1673,7 +1679,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>143</v>
       </c>
@@ -1684,7 +1690,7 @@
         <v>0.48899999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1695,7 +1701,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1706,7 +1712,7 @@
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1717,7 +1723,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1728,7 +1734,7 @@
         <v>0.75105263157894742</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1739,7 +1745,7 @@
         <v>0.76700000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1750,7 +1756,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1761,7 +1767,7 @@
         <v>0.74399999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1772,7 +1778,7 @@
         <v>0.69799999999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1783,7 +1789,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1794,7 +1800,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1805,7 +1811,7 @@
         <v>0.56100000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1816,7 +1822,7 @@
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1827,7 +1833,7 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>144</v>
       </c>
@@ -1838,7 +1844,7 @@
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -1849,7 +1855,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -1860,7 +1866,7 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1871,7 +1877,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -1882,7 +1888,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>145</v>
       </c>
@@ -1893,7 +1899,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>146</v>
       </c>
@@ -1904,7 +1910,7 @@
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>147</v>
       </c>
@@ -1915,7 +1921,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -1936,15 +1942,15 @@
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>66</v>
       </c>
@@ -1970,7 +1976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>178</v>
       </c>
@@ -1984,9 +1990,9 @@
         <v>0.17524139999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="B3" s="14">
         <v>3.7000000000000033E-2</v>
@@ -2001,7 +2007,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>180</v>
       </c>
@@ -2015,7 +2021,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
@@ -2023,7 +2029,7 @@
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
@@ -2031,7 +2037,7 @@
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
@@ -2039,7 +2045,7 @@
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
@@ -2047,7 +2053,7 @@
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
@@ -2055,7 +2061,7 @@
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
     </row>
-    <row r="17" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="12:22" x14ac:dyDescent="0.2">
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
@@ -2063,7 +2069,7 @@
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
     </row>
-    <row r="18" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="12:22" x14ac:dyDescent="0.2">
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
@@ -2071,7 +2077,7 @@
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
     </row>
-    <row r="19" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="12:22" x14ac:dyDescent="0.2">
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
@@ -2079,7 +2085,7 @@
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
     </row>
-    <row r="21" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="12:22" x14ac:dyDescent="0.2">
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
@@ -2087,7 +2093,7 @@
       <c r="T21" s="17"/>
       <c r="U21" s="17"/>
     </row>
-    <row r="22" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="12:22" x14ac:dyDescent="0.2">
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
@@ -2095,7 +2101,7 @@
       <c r="T22" s="17"/>
       <c r="U22" s="17"/>
     </row>
-    <row r="23" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="12:22" x14ac:dyDescent="0.2">
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
@@ -2103,7 +2109,7 @@
       <c r="T23" s="17"/>
       <c r="U23" s="17"/>
     </row>
-    <row r="24" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="12:22" x14ac:dyDescent="0.2">
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
@@ -2111,23 +2117,23 @@
       <c r="T24" s="17"/>
       <c r="U24" s="17"/>
     </row>
-    <row r="29" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="12:22" x14ac:dyDescent="0.2">
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
       <c r="S29" s="17"/>
       <c r="T29" s="17"/>
     </row>
-    <row r="30" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="12:22" x14ac:dyDescent="0.2">
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
     </row>
-    <row r="32" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="12:22" x14ac:dyDescent="0.2">
       <c r="O32" s="15"/>
       <c r="V32" s="15"/>
     </row>
-    <row r="33" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="15:22" x14ac:dyDescent="0.2">
       <c r="O33" s="15"/>
       <c r="V33" s="15"/>
     </row>
@@ -2144,9 +2150,9 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>66</v>
       </c>
@@ -2172,7 +2178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -2183,7 +2189,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>169</v>
       </c>
@@ -2197,7 +2203,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>172</v>
       </c>
@@ -2211,7 +2217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>182</v>
       </c>
@@ -2232,9 +2238,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -2359,7 +2365,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -2523,7 +2529,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -2648,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -2773,7 +2779,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -2898,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -3023,7 +3029,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -3148,7 +3154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -3273,7 +3279,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2018</v>
       </c>
@@ -3398,7 +3404,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2019</v>
       </c>
@@ -3523,7 +3529,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -3661,9 +3667,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -3671,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -3679,7 +3685,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -3687,7 +3693,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -3695,7 +3701,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -3703,7 +3709,7 @@
         <v>8007</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -3724,13 +3730,13 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="19" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="16.83203125" style="19" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B1" s="19" t="s">
         <v>34</v>
       </c>
@@ -3849,7 +3855,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>34</v>
       </c>
@@ -3971,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>35</v>
       </c>
@@ -4093,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>7</v>
       </c>
@@ -4215,7 +4221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>141</v>
       </c>
@@ -4337,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>37</v>
       </c>
@@ -4459,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>29</v>
       </c>
@@ -4581,7 +4587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>9</v>
       </c>
@@ -4703,7 +4709,7 @@
         <v>1.9736842105263157E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>10</v>
       </c>
@@ -4825,7 +4831,7 @@
         <v>7.3684210526315783E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>30</v>
       </c>
@@ -4947,7 +4953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
@@ -5069,7 +5075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>38</v>
       </c>
@@ -5191,7 +5197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>12</v>
       </c>
@@ -5313,7 +5319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>13</v>
       </c>
@@ -5435,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>39</v>
       </c>
@@ -5557,7 +5563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
         <v>23</v>
       </c>
@@ -5679,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
         <v>14</v>
       </c>
@@ -5801,7 +5807,7 @@
         <v>6.5637065637065631E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>15</v>
       </c>
@@ -5923,7 +5929,7 @@
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>24</v>
       </c>
@@ -6045,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>25</v>
       </c>
@@ -6167,7 +6173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>40</v>
       </c>
@@ -6289,7 +6295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>41</v>
       </c>
@@ -6411,7 +6417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
         <v>26</v>
       </c>
@@ -6533,7 +6539,7 @@
         <v>8.1967213114754103E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
         <v>42</v>
       </c>
@@ -6655,7 +6661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>16</v>
       </c>
@@ -6777,7 +6783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>17</v>
       </c>
@@ -6899,7 +6905,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
         <v>18</v>
       </c>
@@ -7021,7 +7027,7 @@
         <v>2.8772753963593658E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>27</v>
       </c>
@@ -7143,7 +7149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
         <v>19</v>
       </c>
@@ -7265,7 +7271,7 @@
         <v>2.7018486332753989E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>43</v>
       </c>
@@ -7387,7 +7393,7 @@
         <v>7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>20</v>
       </c>
@@ -7509,7 +7515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>21</v>
       </c>
@@ -7631,7 +7637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>44</v>
       </c>
@@ -7753,7 +7759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>28</v>
       </c>
@@ -7875,7 +7881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
         <v>36</v>
       </c>
@@ -7997,7 +8003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
         <v>31</v>
       </c>
@@ -8119,7 +8125,7 @@
         <v>9.1923834537097834E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
         <v>32</v>
       </c>
@@ -8241,7 +8247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
         <v>33</v>
       </c>
@@ -8363,7 +8369,7 @@
         <v>2.6595744680851064E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
         <v>45</v>
       </c>
@@ -8485,7 +8491,7 @@
         <v>1.3157894736842105E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
         <v>22</v>
       </c>
@@ -8618,9 +8624,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>66</v>
       </c>
@@ -8646,7 +8652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -8672,7 +8678,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -8698,7 +8704,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -8724,7 +8730,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -8750,7 +8756,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -8776,7 +8782,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>133</v>
       </c>
@@ -8802,7 +8808,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -8828,7 +8834,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -8854,7 +8860,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -8893,12 +8899,12 @@
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>102</v>
       </c>
@@ -8909,7 +8915,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>80</v>
       </c>
@@ -8932,7 +8938,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>519</v>
       </c>
@@ -8952,7 +8958,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -8980,7 +8986,7 @@
         <v>0.66779999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>96</v>
       </c>
@@ -9012,7 +9018,7 @@
         <v>0.33220000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -9038,7 +9044,7 @@
         <v>0.87019999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -9070,7 +9076,7 @@
         <v>0.12980000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -9096,7 +9102,7 @@
         <v>0.93600000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -9128,7 +9134,7 @@
         <v>6.3999999999999946E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -9154,7 +9160,7 @@
         <v>0.73799999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -9186,7 +9192,7 @@
         <v>0.26200000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>94</v>
       </c>
@@ -9218,7 +9224,7 @@
         <v>562.55471999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -9250,7 +9256,7 @@
         <v>38.465279999999964</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -9282,7 +9288,7 @@
         <v>220.64724000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>98</v>
       </c>
@@ -9314,7 +9320,7 @@
         <v>78.332760000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B17">
         <f>B13/(B13+B14)</f>
         <v>0.94099999999999995</v>
@@ -9340,7 +9346,7 @@
         <v>0.93599999999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B18">
         <f>B15/(B15+B16)</f>
         <v>0.72699999999999998</v>
@@ -9366,7 +9372,7 @@
         <v>0.73799999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>91</v>
       </c>
@@ -9380,7 +9386,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -9404,7 +9410,7 @@
         <v>68.003039999999984</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>96</v>
       </c>
@@ -9436,7 +9442,7 @@
         <v>0.72380353016563426</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>100</v>
       </c>
@@ -9452,7 +9458,7 @@
         <v>5.7068048774948226</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>101</v>
       </c>
@@ -9485,18 +9491,18 @@
   <dimension ref="A1:CC52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="4" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>46</v>
       </c>
@@ -9624,7 +9630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -9791,7 +9797,7 @@
       <c r="CB2" s="7"/>
       <c r="CC2" s="7"/>
     </row>
-    <row r="3" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -9958,7 +9964,7 @@
       <c r="CB3" s="7"/>
       <c r="CC3" s="7"/>
     </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -10125,7 +10131,7 @@
       <c r="CB4" s="7"/>
       <c r="CC4" s="7"/>
     </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -10292,7 +10298,7 @@
       <c r="CB5" s="7"/>
       <c r="CC5" s="7"/>
     </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -10459,7 +10465,7 @@
       <c r="CB6" s="7"/>
       <c r="CC6" s="7"/>
     </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -10626,7 +10632,7 @@
       <c r="CB7" s="7"/>
       <c r="CC7" s="7"/>
     </row>
-    <row r="8" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -10754,7 +10760,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -10882,7 +10888,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -11010,7 +11016,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -11138,7 +11144,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -11266,7 +11272,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -11394,7 +11400,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -11522,7 +11528,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -11650,7 +11656,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="16" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -11778,7 +11784,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -11906,7 +11912,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -12034,7 +12040,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -12162,7 +12168,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -12290,7 +12296,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -12418,7 +12424,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -12546,7 +12552,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -12674,7 +12680,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -12802,7 +12808,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -12930,7 +12936,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -13058,7 +13064,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -13186,7 +13192,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -13314,7 +13320,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -13442,7 +13448,7 @@
         <v>3155</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -13570,7 +13576,7 @@
         <v>3235</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -13698,7 +13704,7 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -13826,7 +13832,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -13954,7 +13960,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -14082,7 +14088,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -14210,7 +14216,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -14338,7 +14344,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -14466,7 +14472,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -14594,7 +14600,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -14722,7 +14728,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -14850,7 +14856,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -14978,7 +14984,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -15106,7 +15112,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -15234,7 +15240,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -15362,7 +15368,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -15490,7 +15496,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -15618,7 +15624,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -15746,7 +15752,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -15874,7 +15880,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -16002,7 +16008,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
       <c r="D52" s="4"/>
     </row>
   </sheetData>
@@ -16018,9 +16024,9 @@
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>66</v>
       </c>
@@ -16031,7 +16037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
         <v>181</v>
       </c>
@@ -16042,7 +16048,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>181</v>
       </c>
@@ -16053,7 +16059,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
         <v>181</v>
       </c>
@@ -16064,7 +16070,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>181</v>
       </c>
@@ -16075,7 +16081,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>176</v>
       </c>
@@ -16087,7 +16093,7 @@
         <v>0.67931034482758623</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
         <v>176</v>
       </c>
@@ -16099,7 +16105,7 @@
         <v>0.72377622377622375</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
         <v>176</v>
       </c>
@@ -16111,7 +16117,7 @@
         <v>0.83088235294117652</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
         <v>176</v>
       </c>
@@ -16123,7 +16129,7 @@
         <v>0.8359375</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>175</v>
       </c>
@@ -16135,7 +16141,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>175</v>
       </c>
@@ -16147,7 +16153,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>175</v>
       </c>
@@ -16159,7 +16165,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>175</v>
       </c>
@@ -16180,16 +16186,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FBC180-692F-4365-89A2-152D7783C468}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>66</v>
       </c>
@@ -16218,7 +16224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -16239,7 +16245,7 @@
       </c>
       <c r="I2" s="18"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>187</v>
       </c>
@@ -16260,7 +16266,7 @@
       </c>
       <c r="I3" s="18"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>153</v>
       </c>
@@ -16280,7 +16286,7 @@
         <v>8.6259541200034429E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>154</v>
       </c>
@@ -16300,7 +16306,7 @@
         <v>1.8575312252222864E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -16320,7 +16326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -16340,7 +16346,7 @@
         <v>5.9488195813894986</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -16360,7 +16366,7 @@
         <v>9.6985186018235687</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>156</v>
       </c>
@@ -16380,7 +16386,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>178</v>
       </c>
@@ -16400,7 +16406,7 @@
         <v>0.17524139999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>179</v>
       </c>
@@ -16420,7 +16426,7 @@
         <v>4.500000000000004E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>180</v>
       </c>
@@ -16440,7 +16446,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>184</v>
       </c>
@@ -16460,7 +16466,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>185</v>
       </c>
@@ -16480,7 +16486,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>DecisionTree!A5</f>
         <v>OD_911_priv</v>
@@ -16502,7 +16508,7 @@
         <v>0.64066852367688021</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f>DecisionTree!A6</f>
         <v>OD_911_pub_mul</v>
@@ -16524,7 +16530,7 @@
         <v>1.377</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -16544,7 +16550,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -16564,7 +16570,7 @@
         <v>0.11579589999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>169</v>
       </c>
@@ -16581,7 +16587,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>172</v>
       </c>
@@ -16601,7 +16607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16615,9 +16621,9 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>46</v>
       </c>
@@ -16649,7 +16655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -16681,7 +16687,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -16710,7 +16716,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -16739,7 +16745,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -16768,7 +16774,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -16797,7 +16803,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -16826,7 +16832,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -16855,7 +16861,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -16884,7 +16890,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -16913,7 +16919,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -16942,7 +16948,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -16971,7 +16977,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -17000,7 +17006,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -17029,7 +17035,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -17058,7 +17064,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -17087,7 +17093,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -17116,7 +17122,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -17145,7 +17151,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -17174,7 +17180,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -17203,7 +17209,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -17232,7 +17238,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -17261,7 +17267,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -17290,7 +17296,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -17319,7 +17325,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -17348,7 +17354,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -17377,7 +17383,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -17406,7 +17412,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -17435,7 +17441,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -17464,7 +17470,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -17493,7 +17499,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -17522,7 +17528,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -17551,7 +17557,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -17580,7 +17586,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -17609,7 +17615,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -17638,7 +17644,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -17667,7 +17673,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -17696,7 +17702,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -17725,7 +17731,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -17754,7 +17760,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -17783,7 +17789,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -17812,7 +17818,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -17841,7 +17847,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -17870,7 +17876,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -17899,7 +17905,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -17928,7 +17934,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -17957,7 +17963,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -17986,7 +17992,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -18015,7 +18021,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -18057,9 +18063,9 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>46</v>
       </c>
@@ -18091,7 +18097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -18123,7 +18129,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -18152,7 +18158,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -18181,7 +18187,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -18210,7 +18216,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -18239,7 +18245,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -18268,7 +18274,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -18297,7 +18303,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -18326,7 +18332,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -18355,7 +18361,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -18384,7 +18390,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -18413,7 +18419,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -18442,7 +18448,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -18471,7 +18477,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -18500,7 +18506,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -18529,7 +18535,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -18558,7 +18564,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -18587,7 +18593,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -18616,7 +18622,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -18645,7 +18651,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -18674,7 +18680,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -18703,7 +18709,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -18732,7 +18738,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -18761,7 +18767,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -18790,7 +18796,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -18819,7 +18825,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -18848,7 +18854,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -18877,7 +18883,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -18906,7 +18912,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -18935,7 +18941,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -18964,7 +18970,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -18993,7 +18999,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -19022,7 +19028,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -19051,7 +19057,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -19080,7 +19086,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -19109,7 +19115,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -19138,7 +19144,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -19167,7 +19173,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -19196,7 +19202,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -19225,7 +19231,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -19254,7 +19260,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -19283,7 +19289,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -19312,7 +19318,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -19341,7 +19347,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -19370,7 +19376,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -19399,7 +19405,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -19428,7 +19434,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -19457,7 +19463,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -19495,19 +19501,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE310753-5FDB-4C95-9210-5EA6DD07A095}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>66</v>
       </c>
@@ -19542,7 +19548,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -19560,7 +19566,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -19578,7 +19584,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -19595,7 +19601,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -19612,7 +19618,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>120</v>
       </c>
@@ -19635,9 +19641,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -19662,7 +19668,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>187</v>
       </c>
@@ -19686,7 +19692,7 @@
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>122</v>
       </c>
@@ -19703,7 +19709,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>122</v>
       </c>
@@ -19720,7 +19726,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>122</v>
       </c>
@@ -19738,14 +19744,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E13" s="3"/>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F18" s="3"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F19" s="3"/>
       <c r="H19" s="4"/>
     </row>
@@ -19762,12 +19768,12 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>66</v>
       </c>
@@ -19793,7 +19799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -19813,7 +19819,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -19834,13 +19840,13 @@
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>82</v>
       </c>
@@ -19872,7 +19878,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>159</v>
       </c>
@@ -19906,7 +19912,7 @@
       </c>
       <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>160</v>
       </c>
@@ -19940,7 +19946,7 @@
       </c>
       <c r="K3" s="12"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>161</v>
       </c>
@@ -19971,7 +19977,7 @@
       </c>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>162</v>
       </c>
@@ -20002,7 +20008,7 @@
       </c>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>163</v>
       </c>
@@ -20033,7 +20039,7 @@
       </c>
       <c r="K6" s="12"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>164</v>
       </c>
@@ -20064,7 +20070,7 @@
       </c>
       <c r="K7" s="12"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>166</v>
       </c>
@@ -20112,13 +20118,13 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>66</v>
       </c>
@@ -20147,7 +20153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -20164,7 +20170,7 @@
         <v>8.6259541200034429E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>154</v>
       </c>
@@ -20181,7 +20187,7 @@
         <v>1.8575312252222864E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -20192,7 +20198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -20212,7 +20218,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>125</v>
       </c>
@@ -20232,7 +20238,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -20249,7 +20255,7 @@
         <v>9.6985186018235687</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -20266,7 +20272,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>127</v>
       </c>
@@ -20299,12 +20305,12 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>66</v>
       </c>
@@ -20330,7 +20336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -20338,7 +20344,7 @@
         <v>4.1800000000000002E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -20346,7 +20352,7 @@
         <v>2.0199999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -20354,7 +20360,7 @@
         <v>8.2400000000000008E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -20362,7 +20368,7 @@
         <v>5.9500000000000004E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -20370,7 +20376,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>116</v>
       </c>
@@ -20378,7 +20384,7 @@
         <v>2.5400000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>117</v>
       </c>

--- a/Inputs/MasterTable.xlsx
+++ b/Inputs/MasterTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sbessey/PycharmProjects/profound-model/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF909B57-AC23-FF40-9842-AA19424C7E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420F4757-8D0A-5247-9135-7E203C4EF4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="37860" windowHeight="18180" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="37860" windowHeight="18180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InitialPop" sheetId="12" r:id="rId1"/>
@@ -416,9 +416,6 @@
     <t>ini.il.hr</t>
   </si>
   <si>
-    <t>ini.inact</t>
-  </si>
-  <si>
     <t>ini.OUD.fx</t>
   </si>
   <si>
@@ -648,6 +645,9 @@
   </si>
   <si>
     <t>init_oud_fx</t>
+  </si>
+  <si>
+    <t>init_inactive</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
         <v>51</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -1349,15 +1349,15 @@
         <v>0.64066852367688021</v>
       </c>
       <c r="I5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -1372,10 +1372,10 @@
         <v>1.377</v>
       </c>
       <c r="I6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1412,7 +1412,7 @@
         <v>0.11579589999999999</v>
       </c>
       <c r="F8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G8">
         <v>19</v>
@@ -1422,10 +1422,10 @@
         <v>232</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1453,18 +1453,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" t="s">
         <v>137</v>
-      </c>
-      <c r="C1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B2" s="23">
         <f>1-C2</f>
@@ -1494,13 +1494,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" t="s">
         <v>137</v>
-      </c>
-      <c r="C1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1527,7 +1527,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" s="13">
         <v>0.16700000000000001</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" s="13">
         <v>0.29899999999999999</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14" s="13">
         <v>0.32100000000000001</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B18" s="13">
         <v>0.51100000000000001</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B32" s="13">
         <v>0.22600000000000001</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B37" s="13">
         <v>0.33300000000000002</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B38" s="13">
         <v>0.13900000000000001</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B39" s="13">
         <v>0.19800000000000001</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" s="14">
         <v>0.1111111</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B3" s="14">
         <v>3.7000000000000033E-2</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4">
         <v>0.8</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" s="5">
         <v>0.3</v>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" s="5">
         <v>0.7</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" s="20">
         <v>0</v>
@@ -8654,7 +8654,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2">
         <v>1019</v>
@@ -8680,7 +8680,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3">
         <v>1511</v>
@@ -8706,7 +8706,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4">
         <v>1511</v>
@@ -8732,7 +8732,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5">
         <v>631</v>
@@ -8758,7 +8758,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="5">
         <v>2000</v>
@@ -8784,7 +8784,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7">
         <v>61.5</v>
@@ -8810,7 +8810,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -8836,7 +8836,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9">
         <v>500</v>
@@ -8862,7 +8862,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="5">
         <v>1034</v>
@@ -9522,7 +9522,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>37</v>
@@ -16039,7 +16039,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="24">
         <v>2016</v>
@@ -16050,7 +16050,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B3" s="24">
         <v>2017</v>
@@ -16061,7 +16061,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" s="24">
         <v>2018</v>
@@ -16072,7 +16072,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" s="24">
         <v>2019</v>
@@ -16083,7 +16083,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6">
         <v>2016</v>
@@ -16095,7 +16095,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B7">
         <v>2017</v>
@@ -16107,7 +16107,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8">
         <v>2018</v>
@@ -16119,7 +16119,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9">
         <v>2019</v>
@@ -16131,7 +16131,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B10">
         <v>2016</v>
@@ -16143,7 +16143,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B11">
         <v>2017</v>
@@ -16155,7 +16155,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B12">
         <v>2018</v>
@@ -16167,7 +16167,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B13">
         <v>2019</v>
@@ -16226,7 +16226,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -16247,7 +16247,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -16268,7 +16268,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -16288,7 +16288,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -16308,7 +16308,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -16328,7 +16328,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -16348,7 +16348,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -16368,7 +16368,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
@@ -16388,7 +16388,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
@@ -16408,7 +16408,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -16428,7 +16428,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B12" t="s">
         <v>50</v>
@@ -16448,7 +16448,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -16468,7 +16468,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B14" t="s">
         <v>63</v>
@@ -16572,7 +16572,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
@@ -16589,7 +16589,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s">
         <v>50</v>
@@ -18126,7 +18126,7 @@
         <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -19502,7 +19502,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19620,7 +19620,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -19643,7 +19643,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -19662,15 +19662,15 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="J7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -19688,13 +19688,13 @@
         <v>0.1</v>
       </c>
       <c r="J8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>50</v>
@@ -19711,7 +19711,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>50</v>
@@ -19728,7 +19728,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -19801,7 +19801,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="2">
         <f>3587000/(3587000+891000)*0.176+891000/(3587000+891000)*0.079</f>
@@ -19816,12 +19816,12 @@
         <v>0.17030683340777131</v>
       </c>
       <c r="H2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="10">
         <v>0.25244517036746611</v>
@@ -19869,7 +19869,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>6</v>
@@ -19880,7 +19880,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2">
         <v>13.3</v>
@@ -19905,16 +19905,16 @@
         <v>34.447000000000003</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B3">
         <v>70.2</v>
@@ -19939,16 +19939,16 @@
         <v>181.81799999999998</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4">
         <v>128.80000000000001</v>
@@ -19973,13 +19973,13 @@
         <v>333.59199999999998</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B5">
         <v>194.7</v>
@@ -20004,13 +20004,13 @@
         <v>504.27299999999997</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B6">
         <v>359.9</v>
@@ -20035,13 +20035,13 @@
         <v>932.14099999999985</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B7">
         <v>886.7</v>
@@ -20066,13 +20066,13 @@
         <v>2296.5529999999999</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B8">
         <v>4386.1000000000004</v>
@@ -20097,7 +20097,7 @@
         <v>11359.999</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K8" s="12"/>
     </row>
@@ -20155,7 +20155,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
         <v>110</v>
@@ -20172,7 +20172,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
         <v>110</v>
@@ -20189,7 +20189,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
         <v>110</v>
@@ -20200,10 +20200,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5">
         <v>2.9</v>
@@ -20215,15 +20215,15 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" s="15">
         <v>2.9950980392156863</v>
@@ -20235,15 +20235,15 @@
         <v>5.9488195813894986</v>
       </c>
       <c r="F6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" s="15">
         <v>5.9153225806451619</v>
@@ -20257,10 +20257,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" t="s">
         <v>156</v>
-      </c>
-      <c r="B8" t="s">
-        <v>157</v>
       </c>
       <c r="C8">
         <v>3.5</v>
@@ -20274,10 +20274,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -20289,7 +20289,7 @@
         <v>1.2</v>
       </c>
       <c r="I9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/MasterTable.xlsx
+++ b/Inputs/MasterTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sbessey/PycharmProjects/profound-model/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420F4757-8D0A-5247-9135-7E203C4EF4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91995E2B-A199-E84A-A6B0-4D0906377E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="37860" windowHeight="18180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="37860" windowHeight="18180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InitialPop" sheetId="12" r:id="rId1"/>
@@ -497,9 +497,6 @@
     <t>Westerley</t>
   </si>
   <si>
-    <t>pop.size</t>
-  </si>
-  <si>
     <t>prop.12older</t>
   </si>
   <si>
@@ -648,6 +645,9 @@
   </si>
   <si>
     <t>init_inactive</t>
+  </si>
+  <si>
+    <t>ppl_size</t>
   </si>
 </sst>
 </file>
@@ -1038,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADE474C-D15B-46D6-BDBE-860BFA9FCA0F}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1079,13 +1079,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
       </c>
       <c r="C2">
-        <v>1059000</v>
+        <v>909141</v>
       </c>
       <c r="D2" t="s">
         <v>50</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
         <v>51</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -1349,15 +1349,15 @@
         <v>0.64066852367688021</v>
       </c>
       <c r="I5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -1372,10 +1372,10 @@
         <v>1.377</v>
       </c>
       <c r="I6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1412,7 +1412,7 @@
         <v>0.11579589999999999</v>
       </c>
       <c r="F8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G8">
         <v>19</v>
@@ -1422,10 +1422,10 @@
         <v>232</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" s="23">
         <f>1-C2</f>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" s="14">
         <v>0.1111111</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B3" s="14">
         <v>3.7000000000000033E-2</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B4">
         <v>0.8</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="5">
         <v>0.3</v>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="5">
         <v>0.7</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -9488,10 +9488,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB658D2-F688-4298-B00E-9C23AB00DF3A}">
-  <dimension ref="A1:CC52"/>
+  <dimension ref="A1:CC53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16011,6 +16011,12 @@
     <row r="52" spans="1:42" x14ac:dyDescent="0.2">
       <c r="D52" s="4"/>
     </row>
+    <row r="53" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f>SUM(D2:AP49)</f>
+        <v>909141</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16039,7 +16045,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="24">
         <v>2016</v>
@@ -16050,7 +16056,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B3" s="24">
         <v>2017</v>
@@ -16061,7 +16067,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" s="24">
         <v>2018</v>
@@ -16072,7 +16078,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B5" s="24">
         <v>2019</v>
@@ -16083,7 +16089,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B6">
         <v>2016</v>
@@ -16095,7 +16101,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B7">
         <v>2017</v>
@@ -16107,7 +16113,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8">
         <v>2018</v>
@@ -16119,7 +16125,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B9">
         <v>2019</v>
@@ -16131,7 +16137,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B10">
         <v>2016</v>
@@ -16143,7 +16149,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11">
         <v>2017</v>
@@ -16155,7 +16161,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B12">
         <v>2018</v>
@@ -16167,7 +16173,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B13">
         <v>2019</v>
@@ -16247,7 +16253,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -16268,7 +16274,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -16288,7 +16294,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -16368,7 +16374,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
@@ -16388,7 +16394,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
@@ -16408,7 +16414,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -16428,7 +16434,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" t="s">
         <v>50</v>
@@ -16448,7 +16454,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -16468,7 +16474,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B14" t="s">
         <v>63</v>
@@ -16572,7 +16578,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
@@ -16589,7 +16595,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s">
         <v>50</v>
@@ -18126,7 +18132,7 @@
         <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -19501,7 +19507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE310753-5FDB-4C95-9210-5EA6DD07A095}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -19620,7 +19626,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -19643,7 +19649,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -19662,15 +19668,15 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="J7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -19688,7 +19694,7 @@
         <v>0.1</v>
       </c>
       <c r="J8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -19816,7 +19822,7 @@
         <v>0.17030683340777131</v>
       </c>
       <c r="H2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -19869,7 +19875,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>6</v>
@@ -19880,7 +19886,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2">
         <v>13.3</v>
@@ -19905,16 +19911,16 @@
         <v>34.447000000000003</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3">
         <v>70.2</v>
@@ -19939,16 +19945,16 @@
         <v>181.81799999999998</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4">
         <v>128.80000000000001</v>
@@ -19973,13 +19979,13 @@
         <v>333.59199999999998</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5">
         <v>194.7</v>
@@ -20004,13 +20010,13 @@
         <v>504.27299999999997</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6">
         <v>359.9</v>
@@ -20035,13 +20041,13 @@
         <v>932.14099999999985</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B7">
         <v>886.7</v>
@@ -20066,13 +20072,13 @@
         <v>2296.5529999999999</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B8">
         <v>4386.1000000000004</v>
@@ -20097,7 +20103,7 @@
         <v>11359.999</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K8" s="12"/>
     </row>
@@ -20155,7 +20161,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
         <v>110</v>
@@ -20172,7 +20178,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
         <v>110</v>
@@ -20189,7 +20195,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
         <v>110</v>
@@ -20203,7 +20209,7 @@
         <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5">
         <v>2.9</v>
@@ -20215,7 +20221,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -20223,7 +20229,7 @@
         <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="15">
         <v>2.9950980392156863</v>
@@ -20235,7 +20241,7 @@
         <v>5.9488195813894986</v>
       </c>
       <c r="F6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -20243,7 +20249,7 @@
         <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" s="15">
         <v>5.9153225806451619</v>
@@ -20257,10 +20263,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" t="s">
         <v>155</v>
-      </c>
-      <c r="B8" t="s">
-        <v>156</v>
       </c>
       <c r="C8">
         <v>3.5</v>
@@ -20277,7 +20283,7 @@
         <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -20289,7 +20295,7 @@
         <v>1.2</v>
       </c>
       <c r="I9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/MasterTable.xlsx
+++ b/Inputs/MasterTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sbessey/PycharmProjects/profound-model/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91995E2B-A199-E84A-A6B0-4D0906377E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54462295-8473-B54E-9E92-D7C2B1823847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="37860" windowHeight="18180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="37860" windowHeight="18180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InitialPop" sheetId="12" r:id="rId1"/>
@@ -1038,7 +1038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADE474C-D15B-46D6-BDBE-860BFA9FCA0F}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -9488,10 +9488,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB658D2-F688-4298-B00E-9C23AB00DF3A}">
-  <dimension ref="A1:CC53"/>
+  <dimension ref="A1:CC52"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16011,12 +16011,6 @@
     <row r="52" spans="1:42" x14ac:dyDescent="0.2">
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <f>SUM(D2:AP49)</f>
-        <v>909141</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Inputs/MasterTable.xlsx
+++ b/Inputs/MasterTable.xlsx
@@ -8,33 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sbessey/PycharmProjects/profound-model/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54462295-8473-B54E-9E92-D7C2B1823847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C0E6B5-0F14-6147-8263-2FA6E377EA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="37860" windowHeight="18180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="48120" windowHeight="20120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InitialPop" sheetId="12" r:id="rId1"/>
     <sheet name="Demographic" sheetId="2" r:id="rId2"/>
-    <sheet name="OUDPrevNSDUH" sheetId="14" r:id="rId3"/>
-    <sheet name="StimPrevNSDUH" sheetId="21" r:id="rId4"/>
-    <sheet name="OpioidPattern" sheetId="5" r:id="rId5"/>
-    <sheet name="StimulantPattern" sheetId="6" r:id="rId6"/>
-    <sheet name="LifeTable" sheetId="1" r:id="rId7"/>
-    <sheet name="OverdoseRisk" sheetId="7" r:id="rId8"/>
-    <sheet name="TransProb" sheetId="8" r:id="rId9"/>
-    <sheet name="DecisionTree" sheetId="9" r:id="rId10"/>
-    <sheet name="ODSettingEMS" sheetId="20" r:id="rId11"/>
-    <sheet name="ODSettingEMS(sp)" sheetId="22" r:id="rId12"/>
-    <sheet name="Mortality" sheetId="10" r:id="rId13"/>
-    <sheet name="NxKit" sheetId="11" r:id="rId14"/>
-    <sheet name="NxDataOEND" sheetId="18" r:id="rId15"/>
-    <sheet name="NxDataPharm" sheetId="25" r:id="rId16"/>
-    <sheet name="NxMvt" sheetId="19" r:id="rId17"/>
-    <sheet name="Cost" sheetId="16" r:id="rId18"/>
-    <sheet name="NxOnSurv" sheetId="17" r:id="rId19"/>
-    <sheet name="Target" sheetId="23" r:id="rId20"/>
-    <sheet name="CalibPar" sheetId="24" r:id="rId21"/>
+    <sheet name="region_prob" sheetId="26" r:id="rId3"/>
+    <sheet name="OUDPrevNSDUH" sheetId="14" r:id="rId4"/>
+    <sheet name="StimPrevNSDUH" sheetId="21" r:id="rId5"/>
+    <sheet name="OpioidPattern" sheetId="5" r:id="rId6"/>
+    <sheet name="StimulantPattern" sheetId="6" r:id="rId7"/>
+    <sheet name="LifeTable" sheetId="1" r:id="rId8"/>
+    <sheet name="OverdoseRisk" sheetId="7" r:id="rId9"/>
+    <sheet name="TransProb" sheetId="8" r:id="rId10"/>
+    <sheet name="DecisionTree" sheetId="9" r:id="rId11"/>
+    <sheet name="ODSettingEMS" sheetId="20" r:id="rId12"/>
+    <sheet name="ODSettingEMS(sp)" sheetId="22" r:id="rId13"/>
+    <sheet name="Mortality" sheetId="10" r:id="rId14"/>
+    <sheet name="NxKit" sheetId="11" r:id="rId15"/>
+    <sheet name="NxDataOEND" sheetId="18" r:id="rId16"/>
+    <sheet name="NxDataPharm" sheetId="25" r:id="rId17"/>
+    <sheet name="NxMvt" sheetId="19" r:id="rId18"/>
+    <sheet name="Cost" sheetId="16" r:id="rId19"/>
+    <sheet name="NxOnSurv" sheetId="17" r:id="rId20"/>
+    <sheet name="Target" sheetId="23" r:id="rId21"/>
+    <sheet name="CalibPar" sheetId="24" r:id="rId22"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">OUDPrevNSDUH!$A$1:$J$49</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -54,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="248">
   <si>
     <t>pe</t>
   </si>
@@ -649,6 +653,156 @@
   <si>
     <t>ppl_size</t>
   </si>
+  <si>
+    <t>prob</t>
+  </si>
+  <si>
+    <t>m_white_12to17</t>
+  </si>
+  <si>
+    <t>m_white_18to25</t>
+  </si>
+  <si>
+    <t>m_white_26to34</t>
+  </si>
+  <si>
+    <t>m_white_35to49</t>
+  </si>
+  <si>
+    <t>m_white_50to64</t>
+  </si>
+  <si>
+    <t>m_black_12to17</t>
+  </si>
+  <si>
+    <t>m_black_18to25</t>
+  </si>
+  <si>
+    <t>m_black_26to34</t>
+  </si>
+  <si>
+    <t>m_black_35to49</t>
+  </si>
+  <si>
+    <t>m_black_50to64</t>
+  </si>
+  <si>
+    <t>m_hisp_12to17</t>
+  </si>
+  <si>
+    <t>m_hisp_18to25</t>
+  </si>
+  <si>
+    <t>m_hisp_26to34</t>
+  </si>
+  <si>
+    <t>m_hisp_35to49</t>
+  </si>
+  <si>
+    <t>m_hisp_50to64</t>
+  </si>
+  <si>
+    <t>m_other_12to17</t>
+  </si>
+  <si>
+    <t>m_other_18to25</t>
+  </si>
+  <si>
+    <t>m_other_26to34</t>
+  </si>
+  <si>
+    <t>m_other_35to49</t>
+  </si>
+  <si>
+    <t>m_other_50to64</t>
+  </si>
+  <si>
+    <t>f_white_12to17</t>
+  </si>
+  <si>
+    <t>f_white_18to25</t>
+  </si>
+  <si>
+    <t>f_white_26to34</t>
+  </si>
+  <si>
+    <t>f_white_35to49</t>
+  </si>
+  <si>
+    <t>f_white_50to64</t>
+  </si>
+  <si>
+    <t>f_black_12to17</t>
+  </si>
+  <si>
+    <t>f_black_18to25</t>
+  </si>
+  <si>
+    <t>f_black_26to34</t>
+  </si>
+  <si>
+    <t>f_black_35to49</t>
+  </si>
+  <si>
+    <t>f_black_50to64</t>
+  </si>
+  <si>
+    <t>f_hisp_12to17</t>
+  </si>
+  <si>
+    <t>f_hisp_18to25</t>
+  </si>
+  <si>
+    <t>f_hisp_26to34</t>
+  </si>
+  <si>
+    <t>f_hisp_35to49</t>
+  </si>
+  <si>
+    <t>f_hisp_50to64</t>
+  </si>
+  <si>
+    <t>f_other_12to17</t>
+  </si>
+  <si>
+    <t>f_other_18to25</t>
+  </si>
+  <si>
+    <t>f_other_26to34</t>
+  </si>
+  <si>
+    <t>f_other_35to49</t>
+  </si>
+  <si>
+    <t>f_other_50to64</t>
+  </si>
+  <si>
+    <t>Barringon</t>
+  </si>
+  <si>
+    <t>m_white_65</t>
+  </si>
+  <si>
+    <t>m_black_65</t>
+  </si>
+  <si>
+    <t>m_hisp_65</t>
+  </si>
+  <si>
+    <t>m_other_65</t>
+  </si>
+  <si>
+    <t>f_white_65</t>
+  </si>
+  <si>
+    <t>f_black_65</t>
+  </si>
+  <si>
+    <t>f_hisp_65</t>
+  </si>
+  <si>
+    <t>f_other_65</t>
+  </si>
 </sst>
 </file>
 
@@ -1237,6 +1391,106 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2AC051-F066-42E9-A916-4CE8811C6F18}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2">
+        <v>4.1800000000000002E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3">
+        <v>2.0199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4">
+        <v>8.2400000000000008E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5">
+        <v>5.9500000000000004E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6">
+        <v>1.4800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7">
+        <v>2.5400000000000002E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8">
+        <v>4.5199999999999997E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89A4DCE-FC4D-4AE1-9338-95B949A6382F}">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -1438,7 +1692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF080699-EBC2-4A82-9C12-737CF1FDD727}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1479,7 +1733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0161575F-CB03-4ED1-888E-FCC282160895}">
   <dimension ref="A1:C40"/>
   <sheetViews>
@@ -1937,7 +2191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB4BD01-DBD0-4627-918F-9B992A90379F}">
   <dimension ref="A1:V33"/>
   <sheetViews>
@@ -2142,7 +2396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE6D060-BD9A-4D96-B4CE-F2ECE1E1EF2B}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -2230,7 +2484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C231C3-2912-4A67-95C1-06AD5483D65C}">
   <dimension ref="A1:AO11"/>
   <sheetViews>
@@ -3659,7 +3913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2EDF1B-CEE8-4A4A-BA54-C5F7372A6A88}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -3722,7 +3976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6B4D2B-1423-4BB1-B82C-0D272D8DA6C7}">
   <dimension ref="A1:AN40"/>
   <sheetViews>
@@ -8618,7 +8872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC045363-D7FC-49B9-A9BB-CFCFB09307A2}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -8891,607 +9145,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0880A51-D5C0-4CC2-9F82-0D2250CCEDDE}">
-  <dimension ref="A1:N25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="6" max="6" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2">
-        <v>5.7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>519</v>
-      </c>
-      <c r="C3">
-        <v>7474</v>
-      </c>
-      <c r="D3">
-        <v>593</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
-      <c r="K3">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="13">
-        <v>0.69750000000000001</v>
-      </c>
-      <c r="C4" s="13">
-        <f>0.6549</f>
-        <v>0.65490000000000004</v>
-      </c>
-      <c r="D4" s="13">
-        <v>0.66779999999999995</v>
-      </c>
-      <c r="H4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0.69750000000000001</v>
-      </c>
-      <c r="J4" s="13">
-        <f>0.6549</f>
-        <v>0.65490000000000004</v>
-      </c>
-      <c r="K4" s="13">
-        <v>0.66779999999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="13">
-        <f>1-B4</f>
-        <v>0.30249999999999999</v>
-      </c>
-      <c r="C5" s="13">
-        <f t="shared" ref="C5:D5" si="0">1-C4</f>
-        <v>0.34509999999999996</v>
-      </c>
-      <c r="D5" s="13">
-        <f t="shared" si="0"/>
-        <v>0.33220000000000005</v>
-      </c>
-      <c r="H5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="13">
-        <f>1-I4</f>
-        <v>0.30249999999999999</v>
-      </c>
-      <c r="J5" s="13">
-        <f t="shared" ref="J5:K5" si="1">1-J4</f>
-        <v>0.34509999999999996</v>
-      </c>
-      <c r="K5" s="13">
-        <f t="shared" si="1"/>
-        <v>0.33220000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="13">
-        <v>0.879</v>
-      </c>
-      <c r="C6" s="13">
-        <v>0.80940000000000001</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0.87019999999999997</v>
-      </c>
-      <c r="H6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0.879</v>
-      </c>
-      <c r="J6" s="13">
-        <v>0.80940000000000001</v>
-      </c>
-      <c r="K6" s="13">
-        <v>0.87019999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="13">
-        <f>1-B6</f>
-        <v>0.121</v>
-      </c>
-      <c r="C7" s="13">
-        <f t="shared" ref="C7:D7" si="2">1-C6</f>
-        <v>0.19059999999999999</v>
-      </c>
-      <c r="D7" s="13">
-        <f t="shared" si="2"/>
-        <v>0.12980000000000003</v>
-      </c>
-      <c r="H7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="13">
-        <f>1-I6</f>
-        <v>0.121</v>
-      </c>
-      <c r="J7" s="13">
-        <f t="shared" ref="J7:K7" si="3">1-J6</f>
-        <v>0.19059999999999999</v>
-      </c>
-      <c r="K7" s="13">
-        <f t="shared" si="3"/>
-        <v>0.12980000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="13">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="C8" s="13">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="H8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I8" s="13">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="J8" s="13">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="K8" s="13">
-        <v>0.93600000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="13">
-        <f>1-B8</f>
-        <v>5.9000000000000052E-2</v>
-      </c>
-      <c r="C9" s="13">
-        <f t="shared" ref="C9:D9" si="4">1-C8</f>
-        <v>7.3999999999999955E-2</v>
-      </c>
-      <c r="D9" s="13">
-        <f t="shared" si="4"/>
-        <v>6.3999999999999946E-2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I9" s="13">
-        <f>1-I8</f>
-        <v>5.9000000000000052E-2</v>
-      </c>
-      <c r="J9" s="13">
-        <f t="shared" ref="J9:K9" si="5">1-J8</f>
-        <v>7.3999999999999955E-2</v>
-      </c>
-      <c r="K9" s="13">
-        <f t="shared" si="5"/>
-        <v>6.3999999999999946E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="13">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="C10" s="13">
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="D10" s="13">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="H10" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" s="13">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="J10" s="13">
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="K10" s="13">
-        <v>0.73799999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="13">
-        <f>1-B10</f>
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="C11" s="13">
-        <f t="shared" ref="C11:D11" si="6">1-C10</f>
-        <v>0.41600000000000004</v>
-      </c>
-      <c r="D11" s="13">
-        <f t="shared" si="6"/>
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="H11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" s="13">
-        <f>1-I10</f>
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="J11" s="13">
-        <f t="shared" ref="J11:K11" si="7">1-J10</f>
-        <v>0.41600000000000004</v>
-      </c>
-      <c r="K11" s="13">
-        <f t="shared" si="7"/>
-        <v>0.26200000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="17">
-        <f>B3*B4*B8</f>
-        <v>340.64435249999997</v>
-      </c>
-      <c r="C13" s="17">
-        <f t="shared" ref="C13:D13" si="8">C3*C4*C8</f>
-        <v>4532.5131276000002</v>
-      </c>
-      <c r="D13" s="17">
-        <f t="shared" si="8"/>
-        <v>370.66105439999995</v>
-      </c>
-      <c r="H13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="17">
-        <f>I3*I4*I8</f>
-        <v>393.80849999999998</v>
-      </c>
-      <c r="J13" s="17">
-        <f t="shared" ref="J13:K13" si="9">J3*J4*J8</f>
-        <v>60.643740000000008</v>
-      </c>
-      <c r="K13" s="17">
-        <f t="shared" si="9"/>
-        <v>562.55471999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="17">
-        <f>B3*B4*B9</f>
-        <v>21.358147500000019</v>
-      </c>
-      <c r="C14" s="17">
-        <f t="shared" ref="C14:D14" si="10">C3*C4*C9</f>
-        <v>362.20947239999975</v>
-      </c>
-      <c r="D14" s="17">
-        <f t="shared" si="10"/>
-        <v>25.344345599999976</v>
-      </c>
-      <c r="H14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" s="17">
-        <f>I3*I4*I9</f>
-        <v>24.691500000000023</v>
-      </c>
-      <c r="J14" s="17">
-        <f t="shared" ref="J14:K14" si="11">J3*J4*J9</f>
-        <v>4.8462599999999973</v>
-      </c>
-      <c r="K14" s="17">
-        <f t="shared" si="11"/>
-        <v>38.465279999999964</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="17">
-        <f>B3*B5*B10</f>
-        <v>114.13718249999999</v>
-      </c>
-      <c r="C15" s="17">
-        <f t="shared" ref="C15:D15" si="12">C3*C5*C10</f>
-        <v>1506.2980015999999</v>
-      </c>
-      <c r="D15" s="17">
-        <f t="shared" si="12"/>
-        <v>145.38201480000001</v>
-      </c>
-      <c r="H15" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" s="17">
-        <f>I3*I5*I10</f>
-        <v>131.95050000000001</v>
-      </c>
-      <c r="J15" s="17">
-        <f t="shared" ref="J15:K15" si="13">J3*J5*J10</f>
-        <v>20.153839999999999</v>
-      </c>
-      <c r="K15" s="17">
-        <f t="shared" si="13"/>
-        <v>220.64724000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="17">
-        <f>B3*B5*B11</f>
-        <v>42.860317500000001</v>
-      </c>
-      <c r="C16" s="17">
-        <f t="shared" ref="C16:D16" si="14">C3*C5*C11</f>
-        <v>1072.9793984</v>
-      </c>
-      <c r="D16" s="17">
-        <f t="shared" si="14"/>
-        <v>51.612585200000005</v>
-      </c>
-      <c r="H16" t="s">
-        <v>98</v>
-      </c>
-      <c r="I16" s="17">
-        <f>I3*I5*I11</f>
-        <v>49.549500000000002</v>
-      </c>
-      <c r="J16" s="17">
-        <f t="shared" ref="J16:K16" si="15">J3*J5*J11</f>
-        <v>14.356160000000001</v>
-      </c>
-      <c r="K16" s="17">
-        <f t="shared" si="15"/>
-        <v>78.332760000000007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <f>B13/(B13+B14)</f>
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ref="C17:D17" si="16">C13/(C13+C14)</f>
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="16"/>
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="I17">
-        <f>I13/(I13+I14)</f>
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="J17">
-        <f t="shared" ref="J17:K17" si="17">J13/(J13+J14)</f>
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="17"/>
-        <v>0.93599999999999994</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <f>B15/(B15+B16)</f>
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="C18">
-        <f t="shared" ref="C18" si="18">C15/(C15+C16)</f>
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="D18">
-        <f>D15/(D15+D16)</f>
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="I18">
-        <f>I15/(I15+I16)</f>
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="J18">
-        <f t="shared" ref="J18" si="19">J15/(J15+J16)</f>
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="K18">
-        <f>K15/(K15+K16)</f>
-        <v>0.73799999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" t="s">
-        <v>99</v>
-      </c>
-      <c r="I20" t="s">
-        <v>91</v>
-      </c>
-      <c r="J20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="17">
-        <f>B13+C13+D13</f>
-        <v>5243.8185345000002</v>
-      </c>
-      <c r="C21" s="17">
-        <f>B14+C14+D14</f>
-        <v>408.91196549999978</v>
-      </c>
-      <c r="H21" t="s">
-        <v>90</v>
-      </c>
-      <c r="I21" s="17">
-        <f>I13+J13+K13</f>
-        <v>1017.0069599999999</v>
-      </c>
-      <c r="J21" s="17">
-        <f>I14+J14+K14</f>
-        <v>68.003039999999984</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="17">
-        <f>B15+C15+D15</f>
-        <v>1765.8171988999998</v>
-      </c>
-      <c r="C22" s="17">
-        <f>B16+C16+D16</f>
-        <v>1167.4523011000001</v>
-      </c>
-      <c r="E22">
-        <f>B22/(B22+C22)</f>
-        <v>0.60199623624764098</v>
-      </c>
-      <c r="H22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I22" s="17">
-        <f>I15+J15+K15</f>
-        <v>372.75157999999999</v>
-      </c>
-      <c r="J22" s="17">
-        <f>I16+J16+K16</f>
-        <v>142.23842000000002</v>
-      </c>
-      <c r="M22">
-        <f>I22/(I22+J22)</f>
-        <v>0.72380353016563426</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="15">
-        <f>B21*C22/C21/B22</f>
-        <v>8.4783479955198739</v>
-      </c>
-      <c r="K24" t="s">
-        <v>100</v>
-      </c>
-      <c r="L24" s="15">
-        <f>I21*J22/J21/I22</f>
-        <v>5.7068048774948226</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="15">
-        <f>(B21/(B21+C21))/(B22/(B22+C22))</f>
-        <v>1.5409750168597309</v>
-      </c>
-      <c r="K25" t="s">
-        <v>101</v>
-      </c>
-      <c r="L25" s="15">
-        <f>(I21/(I21+J21))/(I22/(I22+J22))</f>
-        <v>1.2949991616265983</v>
-      </c>
-      <c r="N25">
-        <f>M22*L25</f>
-        <v>0.93732496474686866</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" tooltip="Persistent link using digital object identifier" xr:uid="{4D626F25-AE3D-43BD-BCDE-4A5EC98FAE02}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB658D2-F688-4298-B00E-9C23AB00DF3A}">
   <dimension ref="A1:CC52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D42" sqref="D38:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16017,6 +15676,601 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0880A51-D5C0-4CC2-9F82-0D2250CCEDDE}">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2">
+        <v>5.7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>519</v>
+      </c>
+      <c r="C3">
+        <v>7474</v>
+      </c>
+      <c r="D3">
+        <v>593</v>
+      </c>
+      <c r="I3">
+        <v>600</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="C4" s="13">
+        <f>0.6549</f>
+        <v>0.65490000000000004</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.66779999999999995</v>
+      </c>
+      <c r="H4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="J4" s="13">
+        <f>0.6549</f>
+        <v>0.65490000000000004</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0.66779999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="13">
+        <f>1-B4</f>
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="C5" s="13">
+        <f t="shared" ref="C5:D5" si="0">1-C4</f>
+        <v>0.34509999999999996</v>
+      </c>
+      <c r="D5" s="13">
+        <f t="shared" si="0"/>
+        <v>0.33220000000000005</v>
+      </c>
+      <c r="H5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="13">
+        <f>1-I4</f>
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="J5" s="13">
+        <f t="shared" ref="J5:K5" si="1">1-J4</f>
+        <v>0.34509999999999996</v>
+      </c>
+      <c r="K5" s="13">
+        <f t="shared" si="1"/>
+        <v>0.33220000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0.879</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.80940000000000001</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.87019999999999997</v>
+      </c>
+      <c r="H6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.879</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.80940000000000001</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0.87019999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="13">
+        <f>1-B6</f>
+        <v>0.121</v>
+      </c>
+      <c r="C7" s="13">
+        <f t="shared" ref="C7:D7" si="2">1-C6</f>
+        <v>0.19059999999999999</v>
+      </c>
+      <c r="D7" s="13">
+        <f t="shared" si="2"/>
+        <v>0.12980000000000003</v>
+      </c>
+      <c r="H7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="13">
+        <f>1-I6</f>
+        <v>0.121</v>
+      </c>
+      <c r="J7" s="13">
+        <f t="shared" ref="J7:K7" si="3">1-J6</f>
+        <v>0.19059999999999999</v>
+      </c>
+      <c r="K7" s="13">
+        <f t="shared" si="3"/>
+        <v>0.12980000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="13">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="H8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="13">
+        <f>1-B8</f>
+        <v>5.9000000000000052E-2</v>
+      </c>
+      <c r="C9" s="13">
+        <f t="shared" ref="C9:D9" si="4">1-C8</f>
+        <v>7.3999999999999955E-2</v>
+      </c>
+      <c r="D9" s="13">
+        <f t="shared" si="4"/>
+        <v>6.3999999999999946E-2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="13">
+        <f>1-I8</f>
+        <v>5.9000000000000052E-2</v>
+      </c>
+      <c r="J9" s="13">
+        <f t="shared" ref="J9:K9" si="5">1-J8</f>
+        <v>7.3999999999999955E-2</v>
+      </c>
+      <c r="K9" s="13">
+        <f t="shared" si="5"/>
+        <v>6.3999999999999946E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="H10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="K10" s="13">
+        <v>0.73799999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="13">
+        <f>1-B10</f>
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="C11" s="13">
+        <f t="shared" ref="C11:D11" si="6">1-C10</f>
+        <v>0.41600000000000004</v>
+      </c>
+      <c r="D11" s="13">
+        <f t="shared" si="6"/>
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="H11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="13">
+        <f>1-I10</f>
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="J11" s="13">
+        <f t="shared" ref="J11:K11" si="7">1-J10</f>
+        <v>0.41600000000000004</v>
+      </c>
+      <c r="K11" s="13">
+        <f t="shared" si="7"/>
+        <v>0.26200000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="17">
+        <f>B3*B4*B8</f>
+        <v>340.64435249999997</v>
+      </c>
+      <c r="C13" s="17">
+        <f t="shared" ref="C13:D13" si="8">C3*C4*C8</f>
+        <v>4532.5131276000002</v>
+      </c>
+      <c r="D13" s="17">
+        <f t="shared" si="8"/>
+        <v>370.66105439999995</v>
+      </c>
+      <c r="H13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="17">
+        <f>I3*I4*I8</f>
+        <v>393.80849999999998</v>
+      </c>
+      <c r="J13" s="17">
+        <f t="shared" ref="J13:K13" si="9">J3*J4*J8</f>
+        <v>60.643740000000008</v>
+      </c>
+      <c r="K13" s="17">
+        <f t="shared" si="9"/>
+        <v>562.55471999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="17">
+        <f>B3*B4*B9</f>
+        <v>21.358147500000019</v>
+      </c>
+      <c r="C14" s="17">
+        <f t="shared" ref="C14:D14" si="10">C3*C4*C9</f>
+        <v>362.20947239999975</v>
+      </c>
+      <c r="D14" s="17">
+        <f t="shared" si="10"/>
+        <v>25.344345599999976</v>
+      </c>
+      <c r="H14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" s="17">
+        <f>I3*I4*I9</f>
+        <v>24.691500000000023</v>
+      </c>
+      <c r="J14" s="17">
+        <f t="shared" ref="J14:K14" si="11">J3*J4*J9</f>
+        <v>4.8462599999999973</v>
+      </c>
+      <c r="K14" s="17">
+        <f t="shared" si="11"/>
+        <v>38.465279999999964</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="17">
+        <f>B3*B5*B10</f>
+        <v>114.13718249999999</v>
+      </c>
+      <c r="C15" s="17">
+        <f t="shared" ref="C15:D15" si="12">C3*C5*C10</f>
+        <v>1506.2980015999999</v>
+      </c>
+      <c r="D15" s="17">
+        <f t="shared" si="12"/>
+        <v>145.38201480000001</v>
+      </c>
+      <c r="H15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="17">
+        <f>I3*I5*I10</f>
+        <v>131.95050000000001</v>
+      </c>
+      <c r="J15" s="17">
+        <f t="shared" ref="J15:K15" si="13">J3*J5*J10</f>
+        <v>20.153839999999999</v>
+      </c>
+      <c r="K15" s="17">
+        <f t="shared" si="13"/>
+        <v>220.64724000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="17">
+        <f>B3*B5*B11</f>
+        <v>42.860317500000001</v>
+      </c>
+      <c r="C16" s="17">
+        <f t="shared" ref="C16:D16" si="14">C3*C5*C11</f>
+        <v>1072.9793984</v>
+      </c>
+      <c r="D16" s="17">
+        <f t="shared" si="14"/>
+        <v>51.612585200000005</v>
+      </c>
+      <c r="H16" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="17">
+        <f>I3*I5*I11</f>
+        <v>49.549500000000002</v>
+      </c>
+      <c r="J16" s="17">
+        <f t="shared" ref="J16:K16" si="15">J3*J5*J11</f>
+        <v>14.356160000000001</v>
+      </c>
+      <c r="K16" s="17">
+        <f t="shared" si="15"/>
+        <v>78.332760000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <f>B13/(B13+B14)</f>
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:D17" si="16">C13/(C13+C14)</f>
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="16"/>
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="I17">
+        <f>I13/(I13+I14)</f>
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17:K17" si="17">J13/(J13+J14)</f>
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="17"/>
+        <v>0.93599999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <f>B15/(B15+B16)</f>
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18" si="18">C15/(C15+C16)</f>
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="D18">
+        <f>D15/(D15+D16)</f>
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="I18">
+        <f>I15/(I15+I16)</f>
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18" si="19">J15/(J15+J16)</f>
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="K18">
+        <f>K15/(K15+K16)</f>
+        <v>0.73799999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="17">
+        <f>B13+C13+D13</f>
+        <v>5243.8185345000002</v>
+      </c>
+      <c r="C21" s="17">
+        <f>B14+C14+D14</f>
+        <v>408.91196549999978</v>
+      </c>
+      <c r="H21" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="17">
+        <f>I13+J13+K13</f>
+        <v>1017.0069599999999</v>
+      </c>
+      <c r="J21" s="17">
+        <f>I14+J14+K14</f>
+        <v>68.003039999999984</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="17">
+        <f>B15+C15+D15</f>
+        <v>1765.8171988999998</v>
+      </c>
+      <c r="C22" s="17">
+        <f>B16+C16+D16</f>
+        <v>1167.4523011000001</v>
+      </c>
+      <c r="E22">
+        <f>B22/(B22+C22)</f>
+        <v>0.60199623624764098</v>
+      </c>
+      <c r="H22" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" s="17">
+        <f>I15+J15+K15</f>
+        <v>372.75157999999999</v>
+      </c>
+      <c r="J22" s="17">
+        <f>I16+J16+K16</f>
+        <v>142.23842000000002</v>
+      </c>
+      <c r="M22">
+        <f>I22/(I22+J22)</f>
+        <v>0.72380353016563426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="15">
+        <f>B21*C22/C21/B22</f>
+        <v>8.4783479955198739</v>
+      </c>
+      <c r="K24" t="s">
+        <v>100</v>
+      </c>
+      <c r="L24" s="15">
+        <f>I21*J22/J21/I22</f>
+        <v>5.7068048774948226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="15">
+        <f>(B21/(B21+C21))/(B22/(B22+C22))</f>
+        <v>1.5409750168597309</v>
+      </c>
+      <c r="K25" t="s">
+        <v>101</v>
+      </c>
+      <c r="L25" s="15">
+        <f>(I21/(I21+J21))/(I22/(I22+J22))</f>
+        <v>1.2949991616265983</v>
+      </c>
+      <c r="N25">
+        <f>M22*L25</f>
+        <v>0.93732496474686866</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" tooltip="Persistent link using digital object identifier" xr:uid="{4D626F25-AE3D-43BD-BCDE-4A5EC98FAE02}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA37401-9159-4050-A15F-AA39CA2DB101}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -16182,7 +16436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FBC180-692F-4365-89A2-152D7783C468}">
   <dimension ref="A1:I28"/>
   <sheetViews>
@@ -16614,11 +16868,6106 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFAFC30-DA51-9747-82A8-2DB4FF280C82}">
+  <dimension ref="A1:AX40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" t="s">
+        <v>208</v>
+      </c>
+      <c r="N1" t="s">
+        <v>241</v>
+      </c>
+      <c r="O1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P1" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>211</v>
+      </c>
+      <c r="R1" t="s">
+        <v>212</v>
+      </c>
+      <c r="S1" t="s">
+        <v>213</v>
+      </c>
+      <c r="T1" t="s">
+        <v>242</v>
+      </c>
+      <c r="U1" t="s">
+        <v>214</v>
+      </c>
+      <c r="V1" t="s">
+        <v>215</v>
+      </c>
+      <c r="W1" t="s">
+        <v>216</v>
+      </c>
+      <c r="X1" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2">
+        <v>1.4963575506989565E-2</v>
+      </c>
+      <c r="C2" s="11">
+        <v>6.7553660688032938E-2</v>
+      </c>
+      <c r="D2" s="11">
+        <v>3.3960599823581301E-2</v>
+      </c>
+      <c r="E2" s="11">
+        <v>2.2125845339605998E-2</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.11981770067627169</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.13231402528668038</v>
+      </c>
+      <c r="H2" s="11">
+        <v>7.3360776242281683E-2</v>
+      </c>
+      <c r="I2" s="11">
+        <v>4.4104675095560131E-4</v>
+      </c>
+      <c r="J2" s="11">
+        <v>4.4104675095560131E-4</v>
+      </c>
+      <c r="K2" s="11">
+        <v>1.4701558365186709E-4</v>
+      </c>
+      <c r="L2" s="11">
+        <v>7.3507791825933554E-4</v>
+      </c>
+      <c r="M2" s="11">
+        <v>4.4104675095560131E-4</v>
+      </c>
+      <c r="N2" s="11">
+        <v>2.2052337547780066E-4</v>
+      </c>
+      <c r="O2" s="11">
+        <v>2.0582181711261394E-3</v>
+      </c>
+      <c r="P2" s="11">
+        <v>1.2496324610408703E-3</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>8.0858571008526902E-4</v>
+      </c>
+      <c r="R2" s="11">
+        <v>2.4257571302558072E-3</v>
+      </c>
+      <c r="S2" s="11">
+        <v>1.3966480446927375E-3</v>
+      </c>
+      <c r="T2" s="11">
+        <v>4.4104675095560131E-4</v>
+      </c>
+      <c r="U2" s="11">
+        <v>4.4104675095560132E-3</v>
+      </c>
+      <c r="V2" s="11">
+        <v>9.5560129373713611E-4</v>
+      </c>
+      <c r="W2" s="11">
+        <v>1.1761246692149367E-3</v>
+      </c>
+      <c r="X2" s="11">
+        <v>5.80711555424875E-3</v>
+      </c>
+      <c r="Y2" s="11">
+        <v>3.4548662158188767E-3</v>
+      </c>
+      <c r="Z2" s="11">
+        <v>1.3231402528668039E-3</v>
+      </c>
+      <c r="AA2" s="11">
+        <v>5.9026756836224638E-2</v>
+      </c>
+      <c r="AB2" s="11">
+        <v>2.6977359600117611E-2</v>
+      </c>
+      <c r="AC2" s="11">
+        <v>2.8668038812114084E-2</v>
+      </c>
+      <c r="AD2" s="11">
+        <v>0.13841517200823286</v>
+      </c>
+      <c r="AE2" s="11">
+        <v>0.1428256395177889</v>
+      </c>
+      <c r="AF2" s="11">
+        <v>9.7397824169361949E-2</v>
+      </c>
+      <c r="AG2" s="11">
+        <v>3.6753895912966777E-4</v>
+      </c>
+      <c r="AH2" s="11">
+        <v>3.6753895912966777E-4</v>
+      </c>
+      <c r="AI2" s="11">
+        <v>2.2052337547780066E-4</v>
+      </c>
+      <c r="AJ2" s="11">
+        <v>8.8209350191120262E-4</v>
+      </c>
+      <c r="AK2" s="11">
+        <v>5.1455454278153485E-4</v>
+      </c>
+      <c r="AL2" s="11">
+        <v>2.2052337547780066E-4</v>
+      </c>
+      <c r="AM2" s="11">
+        <v>1.7641870038224052E-3</v>
+      </c>
+      <c r="AN2" s="11">
+        <v>9.5560129373713611E-4</v>
+      </c>
+      <c r="AO2" s="11">
+        <v>1.0291090855630697E-3</v>
+      </c>
+      <c r="AP2" s="11">
+        <v>2.7932960893854749E-3</v>
+      </c>
+      <c r="AQ2" s="11">
+        <v>1.4701558365186711E-3</v>
+      </c>
+      <c r="AR2" s="11">
+        <v>6.6157012643340194E-4</v>
+      </c>
+      <c r="AS2" s="11">
+        <v>3.8224051749485444E-3</v>
+      </c>
+      <c r="AT2" s="11">
+        <v>8.0858571008526902E-4</v>
+      </c>
+      <c r="AU2" s="11">
+        <v>1.5436636283446045E-3</v>
+      </c>
+      <c r="AV2" s="11">
+        <v>6.7627168479858866E-3</v>
+      </c>
+      <c r="AW2" s="11">
+        <v>3.6753895912966772E-3</v>
+      </c>
+      <c r="AX2" s="11">
+        <v>1.7641870038224052E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>2.2703849017919112E-2</v>
+      </c>
+      <c r="C3" s="11">
+        <v>3.0376435250230125E-2</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.10479143452352115</v>
+      </c>
+      <c r="E3" s="11">
+        <v>4.6606269076110651E-2</v>
+      </c>
+      <c r="F3" s="11">
+        <v>9.2631170970398719E-2</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0.1029988857129015</v>
+      </c>
+      <c r="H3" s="11">
+        <v>8.3523085121844878E-2</v>
+      </c>
+      <c r="I3" s="11">
+        <v>3.8757812121505744E-4</v>
+      </c>
+      <c r="J3" s="11">
+        <v>1.2111816287970543E-3</v>
+      </c>
+      <c r="K3" s="11">
+        <v>5.3291991667070394E-4</v>
+      </c>
+      <c r="L3" s="11">
+        <v>7.7515624243011487E-4</v>
+      </c>
+      <c r="M3" s="11">
+        <v>6.782617121263505E-4</v>
+      </c>
+      <c r="N3" s="11">
+        <v>3.3913085606317525E-4</v>
+      </c>
+      <c r="O3" s="11">
+        <v>9.2049803788576132E-4</v>
+      </c>
+      <c r="P3" s="11">
+        <v>3.2944140303279878E-3</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>1.6956542803158762E-3</v>
+      </c>
+      <c r="R3" s="11">
+        <v>1.4534179545564654E-3</v>
+      </c>
+      <c r="S3" s="11">
+        <v>1.0658398333414079E-3</v>
+      </c>
+      <c r="T3" s="11">
+        <v>4.8447265151882175E-4</v>
+      </c>
+      <c r="U3" s="11">
+        <v>9.6894530303764351E-4</v>
+      </c>
+      <c r="V3" s="11">
+        <v>3.5850976212392811E-3</v>
+      </c>
+      <c r="W3" s="11">
+        <v>1.3080761591008187E-3</v>
+      </c>
+      <c r="X3" s="11">
+        <v>1.5987597500121118E-3</v>
+      </c>
+      <c r="Y3" s="11">
+        <v>1.356523424252701E-3</v>
+      </c>
+      <c r="Z3" s="11">
+        <v>7.7515624243011487E-4</v>
+      </c>
+      <c r="AA3" s="11">
+        <v>2.8196308318395428E-2</v>
+      </c>
+      <c r="AB3" s="11">
+        <v>0.10227217673562328</v>
+      </c>
+      <c r="AC3" s="11">
+        <v>4.2682040598808195E-2</v>
+      </c>
+      <c r="AD3" s="11">
+        <v>9.7815028341650109E-2</v>
+      </c>
+      <c r="AE3" s="11">
+        <v>0.11356038951601181</v>
+      </c>
+      <c r="AF3" s="11">
+        <v>0.10944237197810183</v>
+      </c>
+      <c r="AG3" s="11">
+        <v>3.3913085606317525E-4</v>
+      </c>
+      <c r="AH3" s="11">
+        <v>1.1627343636451723E-3</v>
+      </c>
+      <c r="AI3" s="11">
+        <v>4.8447265151882175E-4</v>
+      </c>
+      <c r="AJ3" s="11">
+        <v>8.2360350758199695E-4</v>
+      </c>
+      <c r="AK3" s="11">
+        <v>7.2670897727823269E-4</v>
+      </c>
+      <c r="AL3" s="11">
+        <v>4.3602538636693957E-4</v>
+      </c>
+      <c r="AM3" s="11">
+        <v>8.2360350758199695E-4</v>
+      </c>
+      <c r="AN3" s="11">
+        <v>3.1975195000242236E-3</v>
+      </c>
+      <c r="AO3" s="11">
+        <v>1.5503124848602297E-3</v>
+      </c>
+      <c r="AP3" s="11">
+        <v>1.5503124848602297E-3</v>
+      </c>
+      <c r="AQ3" s="11">
+        <v>1.1627343636451723E-3</v>
+      </c>
+      <c r="AR3" s="11">
+        <v>6.2981444697446831E-4</v>
+      </c>
+      <c r="AS3" s="11">
+        <v>9.2049803788576132E-4</v>
+      </c>
+      <c r="AT3" s="11">
+        <v>3.4882030909355165E-3</v>
+      </c>
+      <c r="AU3" s="11">
+        <v>1.2111816287970543E-3</v>
+      </c>
+      <c r="AV3" s="11">
+        <v>1.6956542803158762E-3</v>
+      </c>
+      <c r="AW3" s="11">
+        <v>1.5018652197083474E-3</v>
+      </c>
+      <c r="AX3" s="11">
+        <v>9.6894530303764351E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1.5080169082683545E-2</v>
+      </c>
+      <c r="C4">
+        <v>4.8942377826404086E-2</v>
+      </c>
+      <c r="D4">
+        <v>4.7702407002188182E-2</v>
+      </c>
+      <c r="E4">
+        <v>5.2662290299051784E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.13289569657184536</v>
+      </c>
+      <c r="G4">
+        <v>0.137563822027717</v>
+      </c>
+      <c r="H4">
+        <v>6.0539752005835154E-2</v>
+      </c>
+      <c r="I4">
+        <v>5.1057622173595913E-4</v>
+      </c>
+      <c r="J4">
+        <v>2.188183807439825E-4</v>
+      </c>
+      <c r="K4">
+        <v>2.188183807439825E-4</v>
+      </c>
+      <c r="L4">
+        <v>6.5645514223194748E-4</v>
+      </c>
+      <c r="M4">
+        <v>2.9175784099197665E-4</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.8234865061998542E-3</v>
+      </c>
+      <c r="P4">
+        <v>1.2399708242159008E-3</v>
+      </c>
+      <c r="Q4">
+        <v>1.0211524434719183E-3</v>
+      </c>
+      <c r="R4">
+        <v>1.9693654266958426E-3</v>
+      </c>
+      <c r="S4">
+        <v>1.0211524434719183E-3</v>
+      </c>
+      <c r="T4">
+        <v>2.188183807439825E-4</v>
+      </c>
+      <c r="U4">
+        <v>1.6046681254558717E-3</v>
+      </c>
+      <c r="V4">
+        <v>9.4821298322392419E-4</v>
+      </c>
+      <c r="W4">
+        <v>7.2939460247994166E-4</v>
+      </c>
+      <c r="X4">
+        <v>1.6046681254558717E-3</v>
+      </c>
+      <c r="Y4">
+        <v>1.1670313639679066E-3</v>
+      </c>
+      <c r="Z4">
+        <v>5.835156819839533E-4</v>
+      </c>
+      <c r="AA4">
+        <v>4.0991976659372723E-2</v>
+      </c>
+      <c r="AB4">
+        <v>4.4347191830780452E-2</v>
+      </c>
+      <c r="AC4">
+        <v>5.2224653537563823E-2</v>
+      </c>
+      <c r="AD4">
+        <v>0.13544857768052515</v>
+      </c>
+      <c r="AE4">
+        <v>0.13296863603209336</v>
+      </c>
+      <c r="AF4">
+        <v>8.2421590080233406E-2</v>
+      </c>
+      <c r="AG4">
+        <v>4.3763676148796501E-4</v>
+      </c>
+      <c r="AH4">
+        <v>2.188183807439825E-4</v>
+      </c>
+      <c r="AI4">
+        <v>2.188183807439825E-4</v>
+      </c>
+      <c r="AJ4">
+        <v>6.5645514223194748E-4</v>
+      </c>
+      <c r="AK4">
+        <v>2.188183807439825E-4</v>
+      </c>
+      <c r="AL4">
+        <v>7.2939460247994163E-5</v>
+      </c>
+      <c r="AM4">
+        <v>1.5317286652078775E-3</v>
+      </c>
+      <c r="AN4">
+        <v>1.1670313639679066E-3</v>
+      </c>
+      <c r="AO4">
+        <v>1.0211524434719183E-3</v>
+      </c>
+      <c r="AP4">
+        <v>1.9693654266958426E-3</v>
+      </c>
+      <c r="AQ4">
+        <v>9.4821298322392419E-4</v>
+      </c>
+      <c r="AR4">
+        <v>3.6469730123997083E-4</v>
+      </c>
+      <c r="AS4">
+        <v>1.3858497447118891E-3</v>
+      </c>
+      <c r="AT4">
+        <v>8.7527352297593001E-4</v>
+      </c>
+      <c r="AU4">
+        <v>7.2939460247994166E-4</v>
+      </c>
+      <c r="AV4">
+        <v>1.6776075857038658E-3</v>
+      </c>
+      <c r="AW4">
+        <v>1.0940919037199124E-3</v>
+      </c>
+      <c r="AX4">
+        <v>8.7527352297593001E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5">
+        <v>1.708645853613466E-2</v>
+      </c>
+      <c r="C5">
+        <v>8.1112398609501733E-3</v>
+      </c>
+      <c r="D5">
+        <v>1.660872923908845E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.0471224410969487E-2</v>
+      </c>
+      <c r="F5">
+        <v>3.0449336938328828E-2</v>
+      </c>
+      <c r="G5">
+        <v>3.3989957512553112E-2</v>
+      </c>
+      <c r="H5">
+        <v>2.9226213467233166E-2</v>
+      </c>
+      <c r="I5">
+        <v>7.4031157461053173E-3</v>
+      </c>
+      <c r="J5">
+        <v>9.7849877687652895E-3</v>
+      </c>
+      <c r="K5">
+        <v>1.0299987125016093E-2</v>
+      </c>
+      <c r="L5">
+        <v>1.3389983262520921E-2</v>
+      </c>
+      <c r="M5">
+        <v>6.6306167117291103E-3</v>
+      </c>
+      <c r="N5">
+        <v>1.3518733101583623E-3</v>
+      </c>
+      <c r="O5">
+        <v>4.3517445603192997E-2</v>
+      </c>
+      <c r="P5">
+        <v>6.1993047508690613E-2</v>
+      </c>
+      <c r="Q5">
+        <v>6.5984292519634349E-2</v>
+      </c>
+      <c r="R5">
+        <v>7.7571778035277456E-2</v>
+      </c>
+      <c r="S5">
+        <v>3.8045577443028195E-2</v>
+      </c>
+      <c r="T5">
+        <v>1.1265610917986352E-2</v>
+      </c>
+      <c r="U5">
+        <v>2.6393717007853739E-3</v>
+      </c>
+      <c r="V5">
+        <v>3.6049954937556329E-3</v>
+      </c>
+      <c r="W5">
+        <v>3.8624951718810351E-3</v>
+      </c>
+      <c r="X5">
+        <v>3.7337453328183338E-3</v>
+      </c>
+      <c r="Y5">
+        <v>3.7981202523496844E-3</v>
+      </c>
+      <c r="Z5">
+        <v>1.8024977468778164E-3</v>
+      </c>
+      <c r="AA5">
+        <v>7.1456160679799147E-3</v>
+      </c>
+      <c r="AB5">
+        <v>1.3969357538303077E-2</v>
+      </c>
+      <c r="AC5">
+        <v>1.7896227629715464E-2</v>
+      </c>
+      <c r="AD5">
+        <v>3.0127462340672075E-2</v>
+      </c>
+      <c r="AE5">
+        <v>3.5534955581305525E-2</v>
+      </c>
+      <c r="AF5">
+        <v>4.3388695764130292E-2</v>
+      </c>
+      <c r="AG5">
+        <v>6.5662417921977601E-3</v>
+      </c>
+      <c r="AH5">
+        <v>8.2399897000128754E-3</v>
+      </c>
+      <c r="AI5">
+        <v>9.0124887343890816E-3</v>
+      </c>
+      <c r="AJ5">
+        <v>1.319685850392687E-2</v>
+      </c>
+      <c r="AK5">
+        <v>6.9524913093858632E-3</v>
+      </c>
+      <c r="AL5">
+        <v>1.9956225054718682E-3</v>
+      </c>
+      <c r="AM5">
+        <v>3.8303077121153599E-2</v>
+      </c>
+      <c r="AN5">
+        <v>5.2014934981331272E-2</v>
+      </c>
+      <c r="AO5">
+        <v>5.7744302819621472E-2</v>
+      </c>
+      <c r="AP5">
+        <v>7.6734904081369903E-2</v>
+      </c>
+      <c r="AQ5">
+        <v>3.9783700270374665E-2</v>
+      </c>
+      <c r="AR5">
+        <v>1.6737479078151152E-2</v>
+      </c>
+      <c r="AS5">
+        <v>2.3174971031286211E-3</v>
+      </c>
+      <c r="AT5">
+        <v>3.0256212179734774E-3</v>
+      </c>
+      <c r="AU5">
+        <v>3.4118707351615809E-3</v>
+      </c>
+      <c r="AV5">
+        <v>3.6693704132869836E-3</v>
+      </c>
+      <c r="AW5">
+        <v>3.9912450109437364E-3</v>
+      </c>
+      <c r="AX5">
+        <v>2.7037466203167246E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>7.5697829049619367E-3</v>
+      </c>
+      <c r="C6">
+        <v>3.6181342632955533E-2</v>
+      </c>
+      <c r="D6">
+        <v>4.4173205463528042E-2</v>
+      </c>
+      <c r="E6">
+        <v>4.1557686718977041E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.11115954664341761</v>
+      </c>
+      <c r="G6">
+        <v>0.14603312990409764</v>
+      </c>
+      <c r="H6">
+        <v>9.2996222028480097E-2</v>
+      </c>
+      <c r="I6">
+        <v>2.906131938390003E-4</v>
+      </c>
+      <c r="J6">
+        <v>1.4530659691950015E-4</v>
+      </c>
+      <c r="K6">
+        <v>2.906131938390003E-4</v>
+      </c>
+      <c r="L6">
+        <v>4.3591979075850045E-4</v>
+      </c>
+      <c r="M6">
+        <v>2.906131938390003E-4</v>
+      </c>
+      <c r="N6">
+        <v>2.906131938390003E-4</v>
+      </c>
+      <c r="O6">
+        <v>1.3077593722755014E-3</v>
+      </c>
+      <c r="P6">
+        <v>1.1624527753560012E-3</v>
+      </c>
+      <c r="Q6">
+        <v>1.1624527753560012E-3</v>
+      </c>
+      <c r="R6">
+        <v>1.888985759953502E-3</v>
+      </c>
+      <c r="S6">
+        <v>1.4530659691950015E-3</v>
+      </c>
+      <c r="T6">
+        <v>4.3591979075850045E-4</v>
+      </c>
+      <c r="U6">
+        <v>3.1967451322290033E-3</v>
+      </c>
+      <c r="V6">
+        <v>2.6155187445510027E-3</v>
+      </c>
+      <c r="W6">
+        <v>1.3077593722755014E-3</v>
+      </c>
+      <c r="X6">
+        <v>5.0857308921825051E-3</v>
+      </c>
+      <c r="Y6">
+        <v>3.1967451322290033E-3</v>
+      </c>
+      <c r="Z6">
+        <v>2.4702121476315024E-3</v>
+      </c>
+      <c r="AA6">
+        <v>3.6181342632955533E-2</v>
+      </c>
+      <c r="AB6">
+        <v>3.4873583260680033E-2</v>
+      </c>
+      <c r="AC6">
+        <v>3.7925021795989541E-2</v>
+      </c>
+      <c r="AD6">
+        <v>0.11740773031095612</v>
+      </c>
+      <c r="AE6">
+        <v>0.14661435629177566</v>
+      </c>
+      <c r="AF6">
+        <v>0.1008427782621331</v>
+      </c>
+      <c r="AG6">
+        <v>2.906131938390003E-4</v>
+      </c>
+      <c r="AH6">
+        <v>1.4530659691950015E-4</v>
+      </c>
+      <c r="AI6">
+        <v>2.906131938390003E-4</v>
+      </c>
+      <c r="AJ6">
+        <v>5.812263876780006E-4</v>
+      </c>
+      <c r="AK6">
+        <v>4.3591979075850045E-4</v>
+      </c>
+      <c r="AL6">
+        <v>2.906131938390003E-4</v>
+      </c>
+      <c r="AM6">
+        <v>1.3077593722755014E-3</v>
+      </c>
+      <c r="AN6">
+        <v>8.7183958151700091E-4</v>
+      </c>
+      <c r="AO6">
+        <v>1.0171461784365011E-3</v>
+      </c>
+      <c r="AP6">
+        <v>2.0342923568730021E-3</v>
+      </c>
+      <c r="AQ6">
+        <v>1.4530659691950015E-3</v>
+      </c>
+      <c r="AR6">
+        <v>5.812263876780006E-4</v>
+      </c>
+      <c r="AS6">
+        <v>3.1967451322290033E-3</v>
+      </c>
+      <c r="AT6">
+        <v>2.0342923568730021E-3</v>
+      </c>
+      <c r="AU6">
+        <v>1.1624527753560012E-3</v>
+      </c>
+      <c r="AV6">
+        <v>5.2310374891020054E-3</v>
+      </c>
+      <c r="AW6">
+        <v>3.3420517291485033E-3</v>
+      </c>
+      <c r="AX6">
+        <v>2.7608253414705027E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>3.3262167254584273E-2</v>
+      </c>
+      <c r="C7">
+        <v>4.6858465608465606E-2</v>
+      </c>
+      <c r="D7">
+        <v>4.732142857142857E-2</v>
+      </c>
+      <c r="E7">
+        <v>4.6825396825396826E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.12744708994708995</v>
+      </c>
+      <c r="G7">
+        <v>0.12248677248677249</v>
+      </c>
+      <c r="H7">
+        <v>7.0436507936507936E-2</v>
+      </c>
+      <c r="I7">
+        <v>5.6216931216931216E-4</v>
+      </c>
+      <c r="J7">
+        <v>3.3068783068783067E-4</v>
+      </c>
+      <c r="K7">
+        <v>3.6375661375661375E-4</v>
+      </c>
+      <c r="L7">
+        <v>8.9285714285714283E-4</v>
+      </c>
+      <c r="M7">
+        <v>6.6137566137566134E-4</v>
+      </c>
+      <c r="N7">
+        <v>1.6534391534391533E-4</v>
+      </c>
+      <c r="O7">
+        <v>1.8849206349206349E-3</v>
+      </c>
+      <c r="P7">
+        <v>1.0912698412698413E-3</v>
+      </c>
+      <c r="Q7">
+        <v>1.025132275132275E-3</v>
+      </c>
+      <c r="R7">
+        <v>2.1164021164021165E-3</v>
+      </c>
+      <c r="S7">
+        <v>9.9206349206349201E-4</v>
+      </c>
+      <c r="T7">
+        <v>5.2910052910052914E-4</v>
+      </c>
+      <c r="U7">
+        <v>1.5542328042328043E-3</v>
+      </c>
+      <c r="V7">
+        <v>1.3227513227513227E-3</v>
+      </c>
+      <c r="W7">
+        <v>1.1243386243386243E-3</v>
+      </c>
+      <c r="X7">
+        <v>2.48015873015873E-3</v>
+      </c>
+      <c r="Y7">
+        <v>1.6534391534391533E-3</v>
+      </c>
+      <c r="Z7">
+        <v>4.6296296296296298E-4</v>
+      </c>
+      <c r="AA7">
+        <v>4.4675925925925924E-2</v>
+      </c>
+      <c r="AB7">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="AC7">
+        <v>4.7354497354497357E-2</v>
+      </c>
+      <c r="AD7">
+        <v>0.13716931216931216</v>
+      </c>
+      <c r="AE7">
+        <v>0.12893518518518518</v>
+      </c>
+      <c r="AF7">
+        <v>9.689153439153439E-2</v>
+      </c>
+      <c r="AG7">
+        <v>5.2910052910052914E-4</v>
+      </c>
+      <c r="AH7">
+        <v>2.9761904761904765E-4</v>
+      </c>
+      <c r="AI7">
+        <v>3.6375661375661375E-4</v>
+      </c>
+      <c r="AJ7">
+        <v>9.9206349206349201E-4</v>
+      </c>
+      <c r="AK7">
+        <v>7.2751322751322749E-4</v>
+      </c>
+      <c r="AL7">
+        <v>1.9841269841269841E-4</v>
+      </c>
+      <c r="AM7">
+        <v>1.8187830687830687E-3</v>
+      </c>
+      <c r="AN7">
+        <v>1.025132275132275E-3</v>
+      </c>
+      <c r="AO7">
+        <v>1.025132275132275E-3</v>
+      </c>
+      <c r="AP7">
+        <v>2.2817460317460319E-3</v>
+      </c>
+      <c r="AQ7">
+        <v>1.0582010582010583E-3</v>
+      </c>
+      <c r="AR7">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="AS7">
+        <v>1.488095238095238E-3</v>
+      </c>
+      <c r="AT7">
+        <v>1.2566137566137566E-3</v>
+      </c>
+      <c r="AU7">
+        <v>1.1243386243386243E-3</v>
+      </c>
+      <c r="AV7">
+        <v>2.6785714285714286E-3</v>
+      </c>
+      <c r="AW7">
+        <v>1.7526455026455026E-3</v>
+      </c>
+      <c r="AX7">
+        <v>6.2830687830687832E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>7.6979258442859799E-2</v>
+      </c>
+      <c r="C8">
+        <v>3.0678002429091949E-2</v>
+      </c>
+      <c r="D8">
+        <v>4.4580981638922629E-2</v>
+      </c>
+      <c r="E8">
+        <v>4.7167250125026788E-2</v>
+      </c>
+      <c r="F8">
+        <v>9.932128313209973E-2</v>
+      </c>
+      <c r="G8">
+        <v>9.7935271843966568E-2</v>
+      </c>
+      <c r="H8">
+        <v>6.6885761234550256E-2</v>
+      </c>
+      <c r="I8">
+        <v>2.5576909337715224E-3</v>
+      </c>
+      <c r="J8">
+        <v>5.7440880188611848E-3</v>
+      </c>
+      <c r="K8">
+        <v>5.6726441380295775E-3</v>
+      </c>
+      <c r="L8">
+        <v>7.0586554261627488E-3</v>
+      </c>
+      <c r="M8">
+        <v>4.3866542830606559E-3</v>
+      </c>
+      <c r="N8">
+        <v>1.285989854968922E-3</v>
+      </c>
+      <c r="O8">
+        <v>7.2586982924912483E-3</v>
+      </c>
+      <c r="P8">
+        <v>1.013074230192184E-2</v>
+      </c>
+      <c r="Q8">
+        <v>1.0773737229406301E-2</v>
+      </c>
+      <c r="R8">
+        <v>1.3117096520683004E-2</v>
+      </c>
+      <c r="S8">
+        <v>6.3442166178466815E-3</v>
+      </c>
+      <c r="T8">
+        <v>1.771808244623848E-3</v>
+      </c>
+      <c r="U8">
+        <v>4.0294348789026218E-3</v>
+      </c>
+      <c r="V8">
+        <v>5.2439808530399369E-3</v>
+      </c>
+      <c r="W8">
+        <v>6.1441737515181821E-3</v>
+      </c>
+      <c r="X8">
+        <v>8.0160034293062805E-3</v>
+      </c>
+      <c r="Y8">
+        <v>5.4583124955347572E-3</v>
+      </c>
+      <c r="Z8">
+        <v>1.8003857969564907E-3</v>
+      </c>
+      <c r="AA8">
+        <v>2.8648996213474318E-2</v>
+      </c>
+      <c r="AB8">
+        <v>3.6479245552618417E-2</v>
+      </c>
+      <c r="AC8">
+        <v>4.1623204972494103E-2</v>
+      </c>
+      <c r="AD8">
+        <v>9.6877902407658784E-2</v>
+      </c>
+      <c r="AE8">
+        <v>0.10420804458098164</v>
+      </c>
+      <c r="AF8">
+        <v>9.6863613631492457E-2</v>
+      </c>
+      <c r="AG8">
+        <v>2.4005143959419874E-3</v>
+      </c>
+      <c r="AH8">
+        <v>4.7010073587197259E-3</v>
+      </c>
+      <c r="AI8">
+        <v>5.015360434378795E-3</v>
+      </c>
+      <c r="AJ8">
+        <v>6.8871901121668926E-3</v>
+      </c>
+      <c r="AK8">
+        <v>4.6724298063870826E-3</v>
+      </c>
+      <c r="AL8">
+        <v>1.8575409016217761E-3</v>
+      </c>
+      <c r="AM8">
+        <v>6.7871686790026437E-3</v>
+      </c>
+      <c r="AN8">
+        <v>8.2874901764663864E-3</v>
+      </c>
+      <c r="AO8">
+        <v>9.5163249267700215E-3</v>
+      </c>
+      <c r="AP8">
+        <v>1.2788454668857613E-2</v>
+      </c>
+      <c r="AQ8">
+        <v>6.7443023505036797E-3</v>
+      </c>
+      <c r="AR8">
+        <v>2.5576909337715224E-3</v>
+      </c>
+      <c r="AS8">
+        <v>3.7579481317425163E-3</v>
+      </c>
+      <c r="AT8">
+        <v>4.3009216260627278E-3</v>
+      </c>
+      <c r="AU8">
+        <v>5.4154461670357932E-3</v>
+      </c>
+      <c r="AV8">
+        <v>7.815960562977781E-3</v>
+      </c>
+      <c r="AW8">
+        <v>5.8155318996927913E-3</v>
+      </c>
+      <c r="AX8">
+        <v>2.6148460384368081E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>3.1646356285768652E-2</v>
+      </c>
+      <c r="C9">
+        <v>4.2090994404087451E-2</v>
+      </c>
+      <c r="D9">
+        <v>3.9936046713704772E-2</v>
+      </c>
+      <c r="E9">
+        <v>4.6400889784852802E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.11581105974766258</v>
+      </c>
+      <c r="G9">
+        <v>0.11654096138472768</v>
+      </c>
+      <c r="H9">
+        <v>7.3059678148135271E-2</v>
+      </c>
+      <c r="I9">
+        <v>1.0774738451913386E-3</v>
+      </c>
+      <c r="J9">
+        <v>7.2990163706510025E-4</v>
+      </c>
+      <c r="K9">
+        <v>8.341732995029717E-4</v>
+      </c>
+      <c r="L9">
+        <v>2.1549476903826772E-3</v>
+      </c>
+      <c r="M9">
+        <v>1.3207743908797052E-3</v>
+      </c>
+      <c r="N9">
+        <v>1.7378610406311912E-4</v>
+      </c>
+      <c r="O9">
+        <v>3.2671787563866394E-3</v>
+      </c>
+      <c r="P9">
+        <v>3.0238782106982724E-3</v>
+      </c>
+      <c r="Q9">
+        <v>3.6842654061381252E-3</v>
+      </c>
+      <c r="R9">
+        <v>5.2483403427061974E-3</v>
+      </c>
+      <c r="S9">
+        <v>2.8500921066351536E-3</v>
+      </c>
+      <c r="T9">
+        <v>1.2512599492544576E-3</v>
+      </c>
+      <c r="U9">
+        <v>2.2939765736331723E-3</v>
+      </c>
+      <c r="V9">
+        <v>2.2244621320079245E-3</v>
+      </c>
+      <c r="W9">
+        <v>5.3873692259566921E-3</v>
+      </c>
+      <c r="X9">
+        <v>3.8928087310138681E-3</v>
+      </c>
+      <c r="Y9">
+        <v>2.3634910152584201E-3</v>
+      </c>
+      <c r="Z9">
+        <v>1.0079594035660908E-3</v>
+      </c>
+      <c r="AA9">
+        <v>4.1743422195961208E-2</v>
+      </c>
+      <c r="AB9">
+        <v>3.757255569844635E-2</v>
+      </c>
+      <c r="AC9">
+        <v>4.782593583817038E-2</v>
+      </c>
+      <c r="AD9">
+        <v>0.12557783879600987</v>
+      </c>
+      <c r="AE9">
+        <v>0.12029474123249105</v>
+      </c>
+      <c r="AF9">
+        <v>0.10538389350387543</v>
+      </c>
+      <c r="AG9">
+        <v>1.0774738451913386E-3</v>
+      </c>
+      <c r="AH9">
+        <v>6.9514441625247647E-4</v>
+      </c>
+      <c r="AI9">
+        <v>8.6893052031559558E-4</v>
+      </c>
+      <c r="AJ9">
+        <v>2.328733794445796E-3</v>
+      </c>
+      <c r="AK9">
+        <v>1.355531611692329E-3</v>
+      </c>
+      <c r="AL9">
+        <v>2.7805776650099057E-4</v>
+      </c>
+      <c r="AM9">
+        <v>3.2324215355740153E-3</v>
+      </c>
+      <c r="AN9">
+        <v>2.8500921066351536E-3</v>
+      </c>
+      <c r="AO9">
+        <v>3.7885370685759967E-3</v>
+      </c>
+      <c r="AP9">
+        <v>5.7001842132703073E-3</v>
+      </c>
+      <c r="AQ9">
+        <v>2.9543637690730251E-3</v>
+      </c>
+      <c r="AR9">
+        <v>1.8073754822564387E-3</v>
+      </c>
+      <c r="AS9">
+        <v>2.2939765736331723E-3</v>
+      </c>
+      <c r="AT9">
+        <v>2.0854332487574294E-3</v>
+      </c>
+      <c r="AU9">
+        <v>5.5611553300198117E-3</v>
+      </c>
+      <c r="AV9">
+        <v>4.2056237183274829E-3</v>
+      </c>
+      <c r="AW9">
+        <v>2.4330054568836674E-3</v>
+      </c>
+      <c r="AX9">
+        <v>1.4598032741302005E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>1.2244525326654501E-2</v>
+      </c>
+      <c r="C10">
+        <v>5.6863097376931369E-2</v>
+      </c>
+      <c r="D10">
+        <v>3.1620553359683792E-2</v>
+      </c>
+      <c r="E10">
+        <v>2.7488321954725118E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.11381602587136185</v>
+      </c>
+      <c r="G10">
+        <v>0.12917714696370822</v>
+      </c>
+      <c r="H10">
+        <v>7.7434423284225659E-2</v>
+      </c>
+      <c r="I10">
+        <v>6.2881782249371186E-4</v>
+      </c>
+      <c r="J10">
+        <v>7.1864893999281352E-4</v>
+      </c>
+      <c r="K10">
+        <v>4.4915558749550842E-4</v>
+      </c>
+      <c r="L10">
+        <v>8.9831117499101685E-4</v>
+      </c>
+      <c r="M10">
+        <v>1.0779734099892202E-3</v>
+      </c>
+      <c r="N10">
+        <v>1.7966223499820338E-4</v>
+      </c>
+      <c r="O10">
+        <v>2.0661157024793389E-3</v>
+      </c>
+      <c r="P10">
+        <v>1.0779734099892202E-3</v>
+      </c>
+      <c r="Q10">
+        <v>8.0848005749191518E-4</v>
+      </c>
+      <c r="R10">
+        <v>1.7966223499820337E-3</v>
+      </c>
+      <c r="S10">
+        <v>1.1678045274883221E-3</v>
+      </c>
+      <c r="T10">
+        <v>3.5932446999640676E-4</v>
+      </c>
+      <c r="U10">
+        <v>4.7610492274523892E-3</v>
+      </c>
+      <c r="V10">
+        <v>1.7966223499820337E-3</v>
+      </c>
+      <c r="W10">
+        <v>1.976284584980237E-3</v>
+      </c>
+      <c r="X10">
+        <v>8.3542939274164566E-3</v>
+      </c>
+      <c r="Y10">
+        <v>5.3000359324469996E-3</v>
+      </c>
+      <c r="Z10">
+        <v>1.3474667624865254E-3</v>
+      </c>
+      <c r="AA10">
+        <v>5.6863097376931369E-2</v>
+      </c>
+      <c r="AB10">
+        <v>2.9374775422206251E-2</v>
+      </c>
+      <c r="AC10">
+        <v>3.2249371182177508E-2</v>
+      </c>
+      <c r="AD10">
+        <v>0.12872799137621271</v>
+      </c>
+      <c r="AE10">
+        <v>0.1323212360761768</v>
+      </c>
+      <c r="AF10">
+        <v>0.1117499101688825</v>
+      </c>
+      <c r="AG10">
+        <v>6.2881782249371186E-4</v>
+      </c>
+      <c r="AH10">
+        <v>6.2881782249371186E-4</v>
+      </c>
+      <c r="AI10">
+        <v>5.3898670499461009E-4</v>
+      </c>
+      <c r="AJ10">
+        <v>9.8814229249011851E-4</v>
+      </c>
+      <c r="AK10">
+        <v>1.0779734099892202E-3</v>
+      </c>
+      <c r="AL10">
+        <v>3.5932446999640676E-4</v>
+      </c>
+      <c r="AM10">
+        <v>2.0661157024793389E-3</v>
+      </c>
+      <c r="AN10">
+        <v>1.0779734099892202E-3</v>
+      </c>
+      <c r="AO10">
+        <v>8.9831117499101685E-4</v>
+      </c>
+      <c r="AP10">
+        <v>2.0661157024793389E-3</v>
+      </c>
+      <c r="AQ10">
+        <v>1.1678045274883221E-3</v>
+      </c>
+      <c r="AR10">
+        <v>4.4915558749550842E-4</v>
+      </c>
+      <c r="AS10">
+        <v>4.7610492274523892E-3</v>
+      </c>
+      <c r="AT10">
+        <v>1.706791232482932E-3</v>
+      </c>
+      <c r="AU10">
+        <v>2.2457779374775422E-3</v>
+      </c>
+      <c r="AV10">
+        <v>9.4322673374056774E-3</v>
+      </c>
+      <c r="AW10">
+        <v>5.4796981674452034E-3</v>
+      </c>
+      <c r="AX10">
+        <v>1.976284584980237E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>4.5177810702630286E-2</v>
+      </c>
+      <c r="C11">
+        <v>2.9849292722713219E-2</v>
+      </c>
+      <c r="D11">
+        <v>4.0756701482725879E-2</v>
+      </c>
+      <c r="E11">
+        <v>5.154237576997054E-2</v>
+      </c>
+      <c r="F11" s="8">
+        <v>9.4052053660555593E-2</v>
+      </c>
+      <c r="G11">
+        <v>9.7338884425291552E-2</v>
+      </c>
+      <c r="H11">
+        <v>7.3381540184549454E-2</v>
+      </c>
+      <c r="I11">
+        <v>3.0920556083071605E-3</v>
+      </c>
+      <c r="J11">
+        <v>3.9198500231295503E-3</v>
+      </c>
+      <c r="K11">
+        <v>4.0415844958975487E-3</v>
+      </c>
+      <c r="L11">
+        <v>6.3301925839359188E-3</v>
+      </c>
+      <c r="M11">
+        <v>5.3563168017919313E-3</v>
+      </c>
+      <c r="N11">
+        <v>3.2868307647359579E-3</v>
+      </c>
+      <c r="O11">
+        <v>2.8972804518783628E-3</v>
+      </c>
+      <c r="P11">
+        <v>2.9216273464319625E-3</v>
+      </c>
+      <c r="Q11">
+        <v>3.5789934993791543E-3</v>
+      </c>
+      <c r="R11">
+        <v>3.6520341830399532E-3</v>
+      </c>
+      <c r="S11">
+        <v>2.0938329316095732E-3</v>
+      </c>
+      <c r="T11">
+        <v>7.3040683660799063E-4</v>
+      </c>
+      <c r="U11">
+        <v>4.1876658632191465E-3</v>
+      </c>
+      <c r="V11">
+        <v>5.7215202200959266E-3</v>
+      </c>
+      <c r="W11">
+        <v>6.0623767438463226E-3</v>
+      </c>
+      <c r="X11">
+        <v>8.5214130937598907E-3</v>
+      </c>
+      <c r="Y11">
+        <v>6.3301925839359188E-3</v>
+      </c>
+      <c r="Z11">
+        <v>3.9198500231295503E-3</v>
+      </c>
+      <c r="AA11">
+        <v>2.8339785260390039E-2</v>
+      </c>
+      <c r="AB11">
+        <v>3.9880213278796289E-2</v>
+      </c>
+      <c r="AC11">
+        <v>5.5023981691135294E-2</v>
+      </c>
+      <c r="AD11">
+        <v>0.1021839164414579</v>
+      </c>
+      <c r="AE11">
+        <v>0.1097071068585202</v>
+      </c>
+      <c r="AF11">
+        <v>0.1164998904389745</v>
+      </c>
+      <c r="AG11">
+        <v>2.9459742409855623E-3</v>
+      </c>
+      <c r="AH11">
+        <v>3.8224624449151512E-3</v>
+      </c>
+      <c r="AI11">
+        <v>4.3337472305407443E-3</v>
+      </c>
+      <c r="AJ11">
+        <v>6.8901711586687115E-3</v>
+      </c>
+      <c r="AK11">
+        <v>6.0380298492927224E-3</v>
+      </c>
+      <c r="AL11">
+        <v>5.2102354344703335E-3</v>
+      </c>
+      <c r="AM11">
+        <v>2.751199084556765E-3</v>
+      </c>
+      <c r="AN11">
+        <v>2.8729335573247634E-3</v>
+      </c>
+      <c r="AO11">
+        <v>3.8224624449151512E-3</v>
+      </c>
+      <c r="AP11">
+        <v>3.9685438122367489E-3</v>
+      </c>
+      <c r="AQ11">
+        <v>2.3616487716991699E-3</v>
+      </c>
+      <c r="AR11">
+        <v>1.1443040440191853E-3</v>
+      </c>
+      <c r="AS11">
+        <v>3.9685438122367489E-3</v>
+      </c>
+      <c r="AT11">
+        <v>5.5997857473279282E-3</v>
+      </c>
+      <c r="AU11">
+        <v>6.4762739512575175E-3</v>
+      </c>
+      <c r="AV11">
+        <v>9.2518199303678814E-3</v>
+      </c>
+      <c r="AW11">
+        <v>7.1336401042047084E-3</v>
+      </c>
+      <c r="AX11">
+        <v>6.2084581111679204E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>6.2366563602345507E-3</v>
+      </c>
+      <c r="C12">
+        <v>4.4268077601410938E-2</v>
+      </c>
+      <c r="D12">
+        <v>5.4497354497354496E-2</v>
+      </c>
+      <c r="E12">
+        <v>4.4091710758377423E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.12398589065255732</v>
+      </c>
+      <c r="G12">
+        <v>0.14867724867724869</v>
+      </c>
+      <c r="H12">
+        <v>6.0846560846560843E-2</v>
+      </c>
+      <c r="I12">
+        <v>5.2910052910052914E-4</v>
+      </c>
+      <c r="J12">
+        <v>4.2328042328042331E-3</v>
+      </c>
+      <c r="K12">
+        <v>3.5273368606701942E-4</v>
+      </c>
+      <c r="L12">
+        <v>8.8183421516754845E-4</v>
+      </c>
+      <c r="M12">
+        <v>3.5273368606701942E-4</v>
+      </c>
+      <c r="N12">
+        <v>3.5273368606701942E-4</v>
+      </c>
+      <c r="O12">
+        <v>2.8218694885361554E-3</v>
+      </c>
+      <c r="P12">
+        <v>4.7619047619047623E-3</v>
+      </c>
+      <c r="Q12">
+        <v>1.4109347442680777E-3</v>
+      </c>
+      <c r="R12">
+        <v>1.2345679012345679E-3</v>
+      </c>
+      <c r="S12">
+        <v>1.5873015873015873E-3</v>
+      </c>
+      <c r="T12">
+        <v>1.7636684303350971E-4</v>
+      </c>
+      <c r="U12">
+        <v>1.4109347442680777E-3</v>
+      </c>
+      <c r="V12">
+        <v>2.2927689594356261E-3</v>
+      </c>
+      <c r="W12">
+        <v>1.0582010582010583E-3</v>
+      </c>
+      <c r="X12">
+        <v>2.4691358024691358E-3</v>
+      </c>
+      <c r="Y12">
+        <v>2.2927689594356261E-3</v>
+      </c>
+      <c r="Z12">
+        <v>8.8183421516754845E-4</v>
+      </c>
+      <c r="AA12">
+        <v>4.797178130511464E-2</v>
+      </c>
+      <c r="AB12">
+        <v>4.5326278659611995E-2</v>
+      </c>
+      <c r="AC12">
+        <v>3.968253968253968E-2</v>
+      </c>
+      <c r="AD12">
+        <v>0.12751322751322752</v>
+      </c>
+      <c r="AE12">
+        <v>0.14303350970017636</v>
+      </c>
+      <c r="AF12">
+        <v>6.3315696649029987E-2</v>
+      </c>
+      <c r="AG12">
+        <v>5.2910052910052914E-4</v>
+      </c>
+      <c r="AH12">
+        <v>3.5273368606701938E-3</v>
+      </c>
+      <c r="AI12">
+        <v>3.5273368606701942E-4</v>
+      </c>
+      <c r="AJ12">
+        <v>8.8183421516754845E-4</v>
+      </c>
+      <c r="AK12">
+        <v>3.5273368606701942E-4</v>
+      </c>
+      <c r="AL12">
+        <v>5.2910052910052914E-4</v>
+      </c>
+      <c r="AM12">
+        <v>3.1746031746031746E-3</v>
+      </c>
+      <c r="AN12">
+        <v>3.8800705467372134E-3</v>
+      </c>
+      <c r="AO12">
+        <v>1.2345679012345679E-3</v>
+      </c>
+      <c r="AP12">
+        <v>1.4109347442680777E-3</v>
+      </c>
+      <c r="AQ12">
+        <v>1.5873015873015873E-3</v>
+      </c>
+      <c r="AR12">
+        <v>3.5273368606701942E-4</v>
+      </c>
+      <c r="AS12">
+        <v>1.5873015873015873E-3</v>
+      </c>
+      <c r="AT12">
+        <v>1.9400352733686067E-3</v>
+      </c>
+      <c r="AU12">
+        <v>8.8183421516754845E-4</v>
+      </c>
+      <c r="AV12">
+        <v>2.4691358024691358E-3</v>
+      </c>
+      <c r="AW12">
+        <v>2.1164021164021165E-3</v>
+      </c>
+      <c r="AX12">
+        <v>8.8183421516754845E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>4.4239562400111756E-3</v>
+      </c>
+      <c r="C13">
+        <v>5.171556439582297E-2</v>
+      </c>
+      <c r="D13">
+        <v>5.0223769269020391E-2</v>
+      </c>
+      <c r="E13">
+        <v>3.2322227747389361E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.13625062158130283</v>
+      </c>
+      <c r="G13">
+        <v>0.14992541024365988</v>
+      </c>
+      <c r="H13">
+        <v>6.6384883142715068E-2</v>
+      </c>
+      <c r="I13">
+        <v>9.945300845350571E-4</v>
+      </c>
+      <c r="J13">
+        <v>2.4863252113376428E-4</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>4.9726504226752855E-4</v>
+      </c>
+      <c r="M13">
+        <v>7.4589756340129288E-4</v>
+      </c>
+      <c r="N13">
+        <v>2.4863252113376428E-4</v>
+      </c>
+      <c r="O13">
+        <v>1.2431626056688214E-3</v>
+      </c>
+      <c r="P13">
+        <v>1.2431626056688214E-3</v>
+      </c>
+      <c r="Q13">
+        <v>9.945300845350571E-4</v>
+      </c>
+      <c r="R13">
+        <v>9.945300845350571E-4</v>
+      </c>
+      <c r="S13">
+        <v>9.945300845350571E-4</v>
+      </c>
+      <c r="T13">
+        <v>2.4863252113376428E-4</v>
+      </c>
+      <c r="U13">
+        <v>9.945300845350571E-4</v>
+      </c>
+      <c r="V13">
+        <v>1.7404276479363501E-3</v>
+      </c>
+      <c r="W13">
+        <v>7.4589756340129288E-4</v>
+      </c>
+      <c r="X13">
+        <v>1.9890601690701142E-3</v>
+      </c>
+      <c r="Y13">
+        <v>2.2376926902038788E-3</v>
+      </c>
+      <c r="Z13">
+        <v>1.7404276479363501E-3</v>
+      </c>
+      <c r="AA13">
+        <v>4.2516161113873692E-2</v>
+      </c>
+      <c r="AB13">
+        <v>3.804077573346594E-2</v>
+      </c>
+      <c r="AC13">
+        <v>3.1576330183988068E-2</v>
+      </c>
+      <c r="AD13">
+        <v>0.13898557931377425</v>
+      </c>
+      <c r="AE13">
+        <v>0.15141720537046247</v>
+      </c>
+      <c r="AF13">
+        <v>7.6081551466931879E-2</v>
+      </c>
+      <c r="AG13">
+        <v>7.4589756340129288E-4</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>7.4589756340129288E-4</v>
+      </c>
+      <c r="AK13">
+        <v>7.4589756340129288E-4</v>
+      </c>
+      <c r="AL13">
+        <v>2.4863252113376428E-4</v>
+      </c>
+      <c r="AM13">
+        <v>9.945300845350571E-4</v>
+      </c>
+      <c r="AN13">
+        <v>9.945300845350571E-4</v>
+      </c>
+      <c r="AO13">
+        <v>9.945300845350571E-4</v>
+      </c>
+      <c r="AP13">
+        <v>9.945300845350571E-4</v>
+      </c>
+      <c r="AQ13">
+        <v>9.945300845350571E-4</v>
+      </c>
+      <c r="AR13">
+        <v>2.4863252113376428E-4</v>
+      </c>
+      <c r="AS13">
+        <v>7.4589756340129288E-4</v>
+      </c>
+      <c r="AT13">
+        <v>1.2431626056688214E-3</v>
+      </c>
+      <c r="AU13">
+        <v>7.4589756340129288E-4</v>
+      </c>
+      <c r="AV13">
+        <v>1.9890601690701142E-3</v>
+      </c>
+      <c r="AW13">
+        <v>2.2376926902038788E-3</v>
+      </c>
+      <c r="AX13">
+        <v>1.9890601690701142E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>9.3593842979251846E-3</v>
+      </c>
+      <c r="C14">
+        <v>4.9241979080973088E-2</v>
+      </c>
+      <c r="D14">
+        <v>5.2650135151016568E-2</v>
+      </c>
+      <c r="E14">
+        <v>3.9017510870842639E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.1312727700082266</v>
+      </c>
+      <c r="G14">
+        <v>0.1507815254436479</v>
+      </c>
+      <c r="H14">
+        <v>6.6047714184980608E-2</v>
+      </c>
+      <c r="I14">
+        <v>4.7009049241979081E-4</v>
+      </c>
+      <c r="J14">
+        <v>3.5256786931484312E-4</v>
+      </c>
+      <c r="K14">
+        <v>1.175226231049477E-4</v>
+      </c>
+      <c r="L14">
+        <v>3.5256786931484312E-4</v>
+      </c>
+      <c r="M14">
+        <v>2.350452462098954E-4</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1.0577036079445293E-3</v>
+      </c>
+      <c r="P14">
+        <v>8.2265836173463387E-4</v>
+      </c>
+      <c r="Q14">
+        <v>5.876131155247385E-4</v>
+      </c>
+      <c r="R14">
+        <v>1.4102714772593725E-3</v>
+      </c>
+      <c r="S14">
+        <v>9.4018098483958162E-4</v>
+      </c>
+      <c r="T14">
+        <v>3.5256786931484312E-4</v>
+      </c>
+      <c r="U14">
+        <v>1.997884592784111E-3</v>
+      </c>
+      <c r="V14">
+        <v>7.0513573862968624E-4</v>
+      </c>
+      <c r="W14">
+        <v>5.876131155247385E-4</v>
+      </c>
+      <c r="X14">
+        <v>1.8803619696791632E-3</v>
+      </c>
+      <c r="Y14">
+        <v>1.997884592784111E-3</v>
+      </c>
+      <c r="Z14">
+        <v>3.5256786931484312E-4</v>
+      </c>
+      <c r="AA14">
+        <v>4.4776119402985072E-2</v>
+      </c>
+      <c r="AB14">
+        <v>4.0427782348102008E-2</v>
+      </c>
+      <c r="AC14">
+        <v>3.9605123986367376E-2</v>
+      </c>
+      <c r="AD14">
+        <v>0.13855917264073334</v>
+      </c>
+      <c r="AE14">
+        <v>0.14161476084146199</v>
+      </c>
+      <c r="AF14">
+        <v>7.8270066987895168E-2</v>
+      </c>
+      <c r="AG14">
+        <v>4.7009049241979081E-4</v>
+      </c>
+      <c r="AH14">
+        <v>2.350452462098954E-4</v>
+      </c>
+      <c r="AI14">
+        <v>1.175226231049477E-4</v>
+      </c>
+      <c r="AJ14">
+        <v>3.5256786931484312E-4</v>
+      </c>
+      <c r="AK14">
+        <v>2.350452462098954E-4</v>
+      </c>
+      <c r="AL14">
+        <v>1.175226231049477E-4</v>
+      </c>
+      <c r="AM14">
+        <v>9.4018098483958162E-4</v>
+      </c>
+      <c r="AN14">
+        <v>5.876131155247385E-4</v>
+      </c>
+      <c r="AO14">
+        <v>5.876131155247385E-4</v>
+      </c>
+      <c r="AP14">
+        <v>1.5277941003643202E-3</v>
+      </c>
+      <c r="AQ14">
+        <v>8.2265836173463387E-4</v>
+      </c>
+      <c r="AR14">
+        <v>4.7009049241979081E-4</v>
+      </c>
+      <c r="AS14">
+        <v>1.8803619696791632E-3</v>
+      </c>
+      <c r="AT14">
+        <v>5.876131155247385E-4</v>
+      </c>
+      <c r="AU14">
+        <v>5.876131155247385E-4</v>
+      </c>
+      <c r="AV14">
+        <v>1.8803619696791632E-3</v>
+      </c>
+      <c r="AW14">
+        <v>1.7628393465742155E-3</v>
+      </c>
+      <c r="AX14">
+        <v>3.5256786931484312E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>7.7490730260762631E-3</v>
+      </c>
+      <c r="C15">
+        <v>5.0816181689141232E-2</v>
+      </c>
+      <c r="D15">
+        <v>4.1873669268985093E-2</v>
+      </c>
+      <c r="E15">
+        <v>4.4854506742370473E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.13200851667849539</v>
+      </c>
+      <c r="G15">
+        <v>0.1334279630943932</v>
+      </c>
+      <c r="H15">
+        <v>6.9836763662171758E-2</v>
+      </c>
+      <c r="I15">
+        <v>2.8388928317955999E-4</v>
+      </c>
+      <c r="J15">
+        <v>4.2583392476933996E-4</v>
+      </c>
+      <c r="K15">
+        <v>2.8388928317955999E-4</v>
+      </c>
+      <c r="L15">
+        <v>5.6777856635911999E-4</v>
+      </c>
+      <c r="M15">
+        <v>7.0972320794889996E-4</v>
+      </c>
+      <c r="N15">
+        <v>5.6777856635911999E-4</v>
+      </c>
+      <c r="O15">
+        <v>1.4194464158977999E-3</v>
+      </c>
+      <c r="P15">
+        <v>1.13555713271824E-3</v>
+      </c>
+      <c r="Q15">
+        <v>1.13555713271824E-3</v>
+      </c>
+      <c r="R15">
+        <v>2.2711142654364799E-3</v>
+      </c>
+      <c r="S15">
+        <v>1.8452803406671398E-3</v>
+      </c>
+      <c r="T15">
+        <v>5.6777856635911999E-4</v>
+      </c>
+      <c r="U15">
+        <v>2.6969481902058196E-3</v>
+      </c>
+      <c r="V15">
+        <v>1.5613910574875799E-3</v>
+      </c>
+      <c r="W15">
+        <v>1.5613910574875799E-3</v>
+      </c>
+      <c r="X15">
+        <v>3.5486160397444995E-3</v>
+      </c>
+      <c r="Y15">
+        <v>2.1291696238466998E-3</v>
+      </c>
+      <c r="Z15">
+        <v>1.5613910574875799E-3</v>
+      </c>
+      <c r="AA15">
+        <v>4.1589779985805535E-2</v>
+      </c>
+      <c r="AB15">
+        <v>3.9744499645138397E-2</v>
+      </c>
+      <c r="AC15">
+        <v>4.7551454932576294E-2</v>
+      </c>
+      <c r="AD15">
+        <v>0.13286018452803405</v>
+      </c>
+      <c r="AE15">
+        <v>0.13484740951029098</v>
+      </c>
+      <c r="AF15">
+        <v>8.2469836763662166E-2</v>
+      </c>
+      <c r="AG15">
+        <v>1.4194464158978E-4</v>
+      </c>
+      <c r="AH15">
+        <v>4.2583392476933996E-4</v>
+      </c>
+      <c r="AI15">
+        <v>2.8388928317955999E-4</v>
+      </c>
+      <c r="AJ15">
+        <v>5.6777856635911999E-4</v>
+      </c>
+      <c r="AK15">
+        <v>7.0972320794889996E-4</v>
+      </c>
+      <c r="AL15">
+        <v>5.6777856635911999E-4</v>
+      </c>
+      <c r="AM15">
+        <v>1.13555713271824E-3</v>
+      </c>
+      <c r="AN15">
+        <v>1.13555713271824E-3</v>
+      </c>
+      <c r="AO15">
+        <v>1.2775017743080199E-3</v>
+      </c>
+      <c r="AP15">
+        <v>2.2711142654364799E-3</v>
+      </c>
+      <c r="AQ15">
+        <v>1.8452803406671398E-3</v>
+      </c>
+      <c r="AR15">
+        <v>5.6777856635911999E-4</v>
+      </c>
+      <c r="AS15">
+        <v>2.1291696238466998E-3</v>
+      </c>
+      <c r="AT15">
+        <v>1.5613910574875799E-3</v>
+      </c>
+      <c r="AU15">
+        <v>1.7033356990773599E-3</v>
+      </c>
+      <c r="AV15">
+        <v>3.5486160397444995E-3</v>
+      </c>
+      <c r="AW15">
+        <v>2.1291696238466998E-3</v>
+      </c>
+      <c r="AX15">
+        <v>1.8452803406671398E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>5.2885086031759648E-3</v>
+      </c>
+      <c r="C16">
+        <v>4.8044925124792012E-2</v>
+      </c>
+      <c r="D16">
+        <v>3.1405990016638935E-2</v>
+      </c>
+      <c r="E16">
+        <v>2.7038269550748752E-2</v>
+      </c>
+      <c r="F16">
+        <v>0.10024958402662229</v>
+      </c>
+      <c r="G16">
+        <v>0.17013311148086521</v>
+      </c>
+      <c r="H16">
+        <v>9.6505823627287851E-2</v>
+      </c>
+      <c r="I16">
+        <v>4.1597337770382697E-4</v>
+      </c>
+      <c r="J16">
+        <v>6.2396006655574042E-4</v>
+      </c>
+      <c r="K16">
+        <v>2.0798668885191348E-4</v>
+      </c>
+      <c r="L16">
+        <v>6.2396006655574042E-4</v>
+      </c>
+      <c r="M16">
+        <v>2.0798668885191348E-4</v>
+      </c>
+      <c r="N16">
+        <v>8.3194675540765393E-4</v>
+      </c>
+      <c r="O16">
+        <v>1.8718801996672214E-3</v>
+      </c>
+      <c r="P16">
+        <v>8.3194675540765393E-4</v>
+      </c>
+      <c r="Q16">
+        <v>6.2396006655574042E-4</v>
+      </c>
+      <c r="R16">
+        <v>2.2878535773710484E-3</v>
+      </c>
+      <c r="S16">
+        <v>1.4559068219633944E-3</v>
+      </c>
+      <c r="T16">
+        <v>4.1597337770382697E-4</v>
+      </c>
+      <c r="U16">
+        <v>2.2878535773710484E-3</v>
+      </c>
+      <c r="V16">
+        <v>8.3194675540765393E-4</v>
+      </c>
+      <c r="W16">
+        <v>8.3194675540765393E-4</v>
+      </c>
+      <c r="X16">
+        <v>2.7038269550748754E-3</v>
+      </c>
+      <c r="Y16">
+        <v>2.0798668885191347E-3</v>
+      </c>
+      <c r="Z16">
+        <v>1.4559068219633944E-3</v>
+      </c>
+      <c r="AA16">
+        <v>3.7437603993344427E-2</v>
+      </c>
+      <c r="AB16">
+        <v>2.3918469217970049E-2</v>
+      </c>
+      <c r="AC16">
+        <v>2.4334442595673876E-2</v>
+      </c>
+      <c r="AD16">
+        <v>0.11751247920133112</v>
+      </c>
+      <c r="AE16">
+        <v>0.17866056572379369</v>
+      </c>
+      <c r="AF16">
+        <v>0.10420133111480866</v>
+      </c>
+      <c r="AG16">
+        <v>2.0798668885191348E-4</v>
+      </c>
+      <c r="AH16">
+        <v>4.1597337770382697E-4</v>
+      </c>
+      <c r="AI16">
+        <v>2.0798668885191348E-4</v>
+      </c>
+      <c r="AJ16">
+        <v>6.2396006655574042E-4</v>
+      </c>
+      <c r="AK16">
+        <v>2.0798668885191348E-4</v>
+      </c>
+      <c r="AL16">
+        <v>1.0399334442595673E-3</v>
+      </c>
+      <c r="AM16">
+        <v>1.4559068219633944E-3</v>
+      </c>
+      <c r="AN16">
+        <v>6.2396006655574042E-4</v>
+      </c>
+      <c r="AO16">
+        <v>6.2396006655574042E-4</v>
+      </c>
+      <c r="AP16">
+        <v>2.4958402662229617E-3</v>
+      </c>
+      <c r="AQ16">
+        <v>1.4559068219633944E-3</v>
+      </c>
+      <c r="AR16">
+        <v>6.2396006655574042E-4</v>
+      </c>
+      <c r="AS16">
+        <v>1.6638935108153079E-3</v>
+      </c>
+      <c r="AT16">
+        <v>6.2396006655574042E-4</v>
+      </c>
+      <c r="AU16">
+        <v>6.2396006655574042E-4</v>
+      </c>
+      <c r="AV16">
+        <v>3.3277870216306157E-3</v>
+      </c>
+      <c r="AW16">
+        <v>2.0798668885191347E-3</v>
+      </c>
+      <c r="AX16">
+        <v>1.6638935108153079E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>2.7820767075734127E-2</v>
+      </c>
+      <c r="C17">
+        <v>3.1906060965484519E-2</v>
+      </c>
+      <c r="D17">
+        <v>4.2343731467204368E-2</v>
+      </c>
+      <c r="E17">
+        <v>4.6732297473609297E-2</v>
+      </c>
+      <c r="F17">
+        <v>0.10943739374530502</v>
+      </c>
+      <c r="G17">
+        <v>0.1062744632902384</v>
+      </c>
+      <c r="H17">
+        <v>8.4213023366148734E-2</v>
+      </c>
+      <c r="I17">
+        <v>1.1465622899616494E-3</v>
+      </c>
+      <c r="J17">
+        <v>1.4233187047799788E-3</v>
+      </c>
+      <c r="K17">
+        <v>1.5023919661566441E-3</v>
+      </c>
+      <c r="L17">
+        <v>2.6884908868066264E-3</v>
+      </c>
+      <c r="M17">
+        <v>1.7396117502866406E-3</v>
+      </c>
+      <c r="N17">
+        <v>3.9536630688332742E-4</v>
+      </c>
+      <c r="O17">
+        <v>4.1118095915866053E-3</v>
+      </c>
+      <c r="P17">
+        <v>4.4281026370932668E-3</v>
+      </c>
+      <c r="Q17">
+        <v>4.5467125291582654E-3</v>
+      </c>
+      <c r="R17">
+        <v>6.4444708021982365E-3</v>
+      </c>
+      <c r="S17">
+        <v>3.360613608508283E-3</v>
+      </c>
+      <c r="T17">
+        <v>8.698058751433203E-4</v>
+      </c>
+      <c r="U17">
+        <v>2.0163681651049698E-3</v>
+      </c>
+      <c r="V17">
+        <v>2.2140513185466334E-3</v>
+      </c>
+      <c r="W17">
+        <v>3.4001502391966159E-3</v>
+      </c>
+      <c r="X17">
+        <v>3.835053176768276E-3</v>
+      </c>
+      <c r="Y17">
+        <v>2.3326612106116316E-3</v>
+      </c>
+      <c r="Z17">
+        <v>7.9073261376665484E-4</v>
+      </c>
+      <c r="AA17">
+        <v>3.2538647056497845E-2</v>
+      </c>
+      <c r="AB17">
+        <v>4.1592535484126045E-2</v>
+      </c>
+      <c r="AC17">
+        <v>4.8195152809077609E-2</v>
+      </c>
+      <c r="AD17">
+        <v>0.11477483888822995</v>
+      </c>
+      <c r="AE17">
+        <v>0.11849128217293323</v>
+      </c>
+      <c r="AF17">
+        <v>0.12635907167991145</v>
+      </c>
+      <c r="AG17">
+        <v>1.1860989206499823E-3</v>
+      </c>
+      <c r="AH17">
+        <v>1.3837820740916459E-3</v>
+      </c>
+      <c r="AI17">
+        <v>1.5419285968449768E-3</v>
+      </c>
+      <c r="AJ17">
+        <v>2.8071007788716246E-3</v>
+      </c>
+      <c r="AK17">
+        <v>1.9372949037283042E-3</v>
+      </c>
+      <c r="AL17">
+        <v>5.5351282963665835E-4</v>
+      </c>
+      <c r="AM17">
+        <v>4.1908828529632703E-3</v>
+      </c>
+      <c r="AN17">
+        <v>4.3490293757166018E-3</v>
+      </c>
+      <c r="AO17">
+        <v>4.6653224212232633E-3</v>
+      </c>
+      <c r="AP17">
+        <v>6.7607638477048988E-3</v>
+      </c>
+      <c r="AQ17">
+        <v>3.7559799153916102E-3</v>
+      </c>
+      <c r="AR17">
+        <v>1.2651721820266476E-3</v>
+      </c>
+      <c r="AS17">
+        <v>2.0559047957933027E-3</v>
+      </c>
+      <c r="AT17">
+        <v>2.1745146878583009E-3</v>
+      </c>
+      <c r="AU17">
+        <v>3.4792235005732812E-3</v>
+      </c>
+      <c r="AV17">
+        <v>4.0327363302099396E-3</v>
+      </c>
+      <c r="AW17">
+        <v>2.609417625429961E-3</v>
+      </c>
+      <c r="AX17">
+        <v>1.1465622899616494E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>2.0054095019364435E-2</v>
+      </c>
+      <c r="C18">
+        <v>4.4701623519087318E-2</v>
+      </c>
+      <c r="D18">
+        <v>4.3604651162790699E-2</v>
+      </c>
+      <c r="E18">
+        <v>4.2014041246160594E-2</v>
+      </c>
+      <c r="F18">
+        <v>0.10728389644580956</v>
+      </c>
+      <c r="G18">
+        <v>0.11419482229047828</v>
+      </c>
+      <c r="H18">
+        <v>7.333260201842913E-2</v>
+      </c>
+      <c r="I18">
+        <v>1.3712154453707766E-3</v>
+      </c>
+      <c r="J18">
+        <v>7.6788064940763495E-4</v>
+      </c>
+      <c r="K18">
+        <v>1.0969723562966214E-3</v>
+      </c>
+      <c r="L18">
+        <v>2.4133391838525669E-3</v>
+      </c>
+      <c r="M18">
+        <v>1.3163668275559457E-3</v>
+      </c>
+      <c r="N18">
+        <v>2.7424308907415536E-4</v>
+      </c>
+      <c r="O18">
+        <v>3.6748573935936816E-3</v>
+      </c>
+      <c r="P18">
+        <v>2.9618253620008776E-3</v>
+      </c>
+      <c r="Q18">
+        <v>2.7424308907415531E-3</v>
+      </c>
+      <c r="R18">
+        <v>4.936375603334796E-3</v>
+      </c>
+      <c r="S18">
+        <v>2.3584905660377358E-3</v>
+      </c>
+      <c r="T18">
+        <v>4.3878894251864854E-4</v>
+      </c>
+      <c r="U18">
+        <v>4.2233435717419924E-3</v>
+      </c>
+      <c r="V18">
+        <v>2.1939447125932428E-3</v>
+      </c>
+      <c r="W18">
+        <v>2.8521281263712154E-3</v>
+      </c>
+      <c r="X18">
+        <v>5.5945590171127685E-3</v>
+      </c>
+      <c r="Y18">
+        <v>4.1684949539271612E-3</v>
+      </c>
+      <c r="Z18">
+        <v>1.6454585344449319E-3</v>
+      </c>
+      <c r="AA18">
+        <v>4.0587977182974987E-2</v>
+      </c>
+      <c r="AB18">
+        <v>4.1026766125493636E-2</v>
+      </c>
+      <c r="AC18">
+        <v>4.6950416849495392E-2</v>
+      </c>
+      <c r="AD18">
+        <v>0.11792452830188679</v>
+      </c>
+      <c r="AE18">
+        <v>0.12318999561211058</v>
+      </c>
+      <c r="AF18">
+        <v>0.11227512066695919</v>
+      </c>
+      <c r="AG18">
+        <v>1.2615182097411146E-3</v>
+      </c>
+      <c r="AH18">
+        <v>7.1303203159280384E-4</v>
+      </c>
+      <c r="AI18">
+        <v>1.2066695919262834E-3</v>
+      </c>
+      <c r="AJ18">
+        <v>2.6875822729267224E-3</v>
+      </c>
+      <c r="AK18">
+        <v>1.4260640631856077E-3</v>
+      </c>
+      <c r="AL18">
+        <v>4.3878894251864854E-4</v>
+      </c>
+      <c r="AM18">
+        <v>3.345765686704695E-3</v>
+      </c>
+      <c r="AN18">
+        <v>2.7972795085563842E-3</v>
+      </c>
+      <c r="AO18">
+        <v>3.0715225976305398E-3</v>
+      </c>
+      <c r="AP18">
+        <v>5.4300131636682751E-3</v>
+      </c>
+      <c r="AQ18">
+        <v>2.5230364194822291E-3</v>
+      </c>
+      <c r="AR18">
+        <v>7.1303203159280384E-4</v>
+      </c>
+      <c r="AS18">
+        <v>3.8394032470381746E-3</v>
+      </c>
+      <c r="AT18">
+        <v>2.0293988591487495E-3</v>
+      </c>
+      <c r="AU18">
+        <v>3.181219833260202E-3</v>
+      </c>
+      <c r="AV18">
+        <v>6.1978938130759107E-3</v>
+      </c>
+      <c r="AW18">
+        <v>4.4427380430013159E-3</v>
+      </c>
+      <c r="AX18">
+        <v>2.5778850372970602E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>3.3900132102721138E-3</v>
+      </c>
+      <c r="C19">
+        <v>3.8611291369240755E-2</v>
+      </c>
+      <c r="D19">
+        <v>3.5691109669046074E-2</v>
+      </c>
+      <c r="E19">
+        <v>3.2121998702141469E-2</v>
+      </c>
+      <c r="F19">
+        <v>0.10415314730694354</v>
+      </c>
+      <c r="G19">
+        <v>0.14763140817650877</v>
+      </c>
+      <c r="H19">
+        <v>0.11940298507462686</v>
+      </c>
+      <c r="I19">
+        <v>6.4892926670992858E-4</v>
+      </c>
+      <c r="J19">
+        <v>3.2446463335496429E-4</v>
+      </c>
+      <c r="K19">
+        <v>3.2446463335496429E-4</v>
+      </c>
+      <c r="L19">
+        <v>6.4892926670992858E-4</v>
+      </c>
+      <c r="M19">
+        <v>6.4892926670992858E-4</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>1.9467878001297859E-3</v>
+      </c>
+      <c r="P19">
+        <v>3.2446463335496429E-4</v>
+      </c>
+      <c r="Q19">
+        <v>3.2446463335496429E-4</v>
+      </c>
+      <c r="R19">
+        <v>9.7339390006489297E-4</v>
+      </c>
+      <c r="S19">
+        <v>3.2446463335496429E-4</v>
+      </c>
+      <c r="T19">
+        <v>3.2446463335496429E-4</v>
+      </c>
+      <c r="U19">
+        <v>9.7339390006489297E-4</v>
+      </c>
+      <c r="V19">
+        <v>3.2446463335496429E-4</v>
+      </c>
+      <c r="W19">
+        <v>3.2446463335496429E-4</v>
+      </c>
+      <c r="X19">
+        <v>1.9467878001297859E-3</v>
+      </c>
+      <c r="Y19">
+        <v>9.7339390006489297E-4</v>
+      </c>
+      <c r="Z19">
+        <v>3.2446463335496429E-4</v>
+      </c>
+      <c r="AA19">
+        <v>3.5042180402336143E-2</v>
+      </c>
+      <c r="AB19">
+        <v>2.6606099935107073E-2</v>
+      </c>
+      <c r="AC19">
+        <v>2.8877352368591822E-2</v>
+      </c>
+      <c r="AD19">
+        <v>0.11648280337443219</v>
+      </c>
+      <c r="AE19">
+        <v>0.15574302401038287</v>
+      </c>
+      <c r="AF19">
+        <v>0.13595068137573005</v>
+      </c>
+      <c r="AG19">
+        <v>6.4892926670992858E-4</v>
+      </c>
+      <c r="AH19">
+        <v>3.2446463335496429E-4</v>
+      </c>
+      <c r="AI19">
+        <v>3.2446463335496429E-4</v>
+      </c>
+      <c r="AJ19">
+        <v>6.4892926670992858E-4</v>
+      </c>
+      <c r="AK19">
+        <v>6.4892926670992858E-4</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>1.6223231667748216E-3</v>
+      </c>
+      <c r="AN19">
+        <v>3.2446463335496429E-4</v>
+      </c>
+      <c r="AO19">
+        <v>3.2446463335496429E-4</v>
+      </c>
+      <c r="AP19">
+        <v>9.7339390006489297E-4</v>
+      </c>
+      <c r="AQ19">
+        <v>3.2446463335496429E-4</v>
+      </c>
+      <c r="AR19">
+        <v>3.2446463335496429E-4</v>
+      </c>
+      <c r="AS19">
+        <v>9.7339390006489297E-4</v>
+      </c>
+      <c r="AT19">
+        <v>3.2446463335496429E-4</v>
+      </c>
+      <c r="AU19">
+        <v>3.2446463335496429E-4</v>
+      </c>
+      <c r="AV19">
+        <v>1.9467878001297859E-3</v>
+      </c>
+      <c r="AW19">
+        <v>1.2978585334198572E-3</v>
+      </c>
+      <c r="AX19">
+        <v>6.4892926670992858E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>1.5150565203857267E-2</v>
+      </c>
+      <c r="C20">
+        <v>3.6372876433860897E-2</v>
+      </c>
+      <c r="D20">
+        <v>3.8623493538550893E-2</v>
+      </c>
+      <c r="E20">
+        <v>4.493974154203572E-2</v>
+      </c>
+      <c r="F20">
+        <v>0.10098736750399304</v>
+      </c>
+      <c r="G20">
+        <v>0.11049803978510236</v>
+      </c>
+      <c r="H20">
+        <v>7.9207201974735006E-2</v>
+      </c>
+      <c r="I20">
+        <v>2.2506171046899957E-3</v>
+      </c>
+      <c r="J20">
+        <v>2.3958182082183823E-3</v>
+      </c>
+      <c r="K20">
+        <v>3.7752286917380573E-3</v>
+      </c>
+      <c r="L20">
+        <v>5.2998402787861184E-3</v>
+      </c>
+      <c r="M20">
+        <v>4.5012342093799914E-3</v>
+      </c>
+      <c r="N20">
+        <v>3.1218237258603164E-3</v>
+      </c>
+      <c r="O20">
+        <v>2.9766226223319299E-3</v>
+      </c>
+      <c r="P20">
+        <v>3.6300275882096703E-3</v>
+      </c>
+      <c r="Q20">
+        <v>4.7190358646725713E-3</v>
+      </c>
+      <c r="R20">
+        <v>5.2998402787861184E-3</v>
+      </c>
+      <c r="S20">
+        <v>2.323217656454189E-3</v>
+      </c>
+      <c r="T20">
+        <v>8.7120662117032093E-4</v>
+      </c>
+      <c r="U20">
+        <v>4.0656308987948309E-3</v>
+      </c>
+      <c r="V20">
+        <v>3.557427036445477E-3</v>
+      </c>
+      <c r="W20">
+        <v>5.0820386234935386E-3</v>
+      </c>
+      <c r="X20">
+        <v>6.82445186583418E-3</v>
+      </c>
+      <c r="Y20">
+        <v>3.6300275882096703E-3</v>
+      </c>
+      <c r="Z20">
+        <v>2.1054160011616087E-3</v>
+      </c>
+      <c r="AA20">
+        <v>3.7316683606795409E-2</v>
+      </c>
+      <c r="AB20">
+        <v>3.3178452156236389E-2</v>
+      </c>
+      <c r="AC20">
+        <v>4.3850733265572817E-2</v>
+      </c>
+      <c r="AD20">
+        <v>0.10977203426746043</v>
+      </c>
+      <c r="AE20">
+        <v>0.11659648613329461</v>
+      </c>
+      <c r="AF20">
+        <v>0.11260345578626398</v>
+      </c>
+      <c r="AG20">
+        <v>2.323217656454189E-3</v>
+      </c>
+      <c r="AH20">
+        <v>2.0328154493974154E-3</v>
+      </c>
+      <c r="AI20">
+        <v>3.702628139973864E-3</v>
+      </c>
+      <c r="AJ20">
+        <v>5.735443589371279E-3</v>
+      </c>
+      <c r="AK20">
+        <v>4.7190358646725713E-3</v>
+      </c>
+      <c r="AL20">
+        <v>4.4286336576157981E-3</v>
+      </c>
+      <c r="AM20">
+        <v>3.1218237258603164E-3</v>
+      </c>
+      <c r="AN20">
+        <v>3.1218237258603164E-3</v>
+      </c>
+      <c r="AO20">
+        <v>4.646435312908378E-3</v>
+      </c>
+      <c r="AP20">
+        <v>5.735443589371279E-3</v>
+      </c>
+      <c r="AQ20">
+        <v>2.468418759982576E-3</v>
+      </c>
+      <c r="AR20">
+        <v>1.234209379991288E-3</v>
+      </c>
+      <c r="AS20">
+        <v>4.1382314505590241E-3</v>
+      </c>
+      <c r="AT20">
+        <v>3.0492231740961231E-3</v>
+      </c>
+      <c r="AU20">
+        <v>4.936837519965152E-3</v>
+      </c>
+      <c r="AV20">
+        <v>7.405256279947728E-3</v>
+      </c>
+      <c r="AW20">
+        <v>3.8478292435022506E-3</v>
+      </c>
+      <c r="AX20">
+        <v>2.9766226223319299E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>1.5954620900388388E-2</v>
+      </c>
+      <c r="C21">
+        <v>2.8335056876938988E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.1280248190279214</v>
+      </c>
+      <c r="E21">
+        <v>3.7435367114788003E-2</v>
+      </c>
+      <c r="F21">
+        <v>7.762840399862117E-2</v>
+      </c>
+      <c r="G21">
+        <v>0.11085832471561531</v>
+      </c>
+      <c r="H21">
+        <v>7.9351947604274387E-2</v>
+      </c>
+      <c r="I21">
+        <v>6.2047569803516027E-4</v>
+      </c>
+      <c r="J21">
+        <v>1.5167183729748364E-3</v>
+      </c>
+      <c r="K21">
+        <v>2.0682523267838676E-4</v>
+      </c>
+      <c r="L21">
+        <v>6.2047569803516027E-4</v>
+      </c>
+      <c r="M21">
+        <v>6.8941744226128923E-4</v>
+      </c>
+      <c r="N21">
+        <v>2.7576697690451566E-4</v>
+      </c>
+      <c r="O21">
+        <v>1.1030679076180626E-3</v>
+      </c>
+      <c r="P21">
+        <v>3.0334367459496727E-3</v>
+      </c>
+      <c r="Q21">
+        <v>8.2730093071354703E-4</v>
+      </c>
+      <c r="R21">
+        <v>1.2409513960703205E-3</v>
+      </c>
+      <c r="S21">
+        <v>8.9624267493967598E-4</v>
+      </c>
+      <c r="T21">
+        <v>2.7576697690451566E-4</v>
+      </c>
+      <c r="U21">
+        <v>1.4477766287487074E-3</v>
+      </c>
+      <c r="V21">
+        <v>3.447087211306446E-3</v>
+      </c>
+      <c r="W21">
+        <v>1.723543605653223E-3</v>
+      </c>
+      <c r="X21">
+        <v>2.2750775594622542E-3</v>
+      </c>
+      <c r="Y21">
+        <v>1.8614270941054809E-3</v>
+      </c>
+      <c r="Z21">
+        <v>1.1720096518441916E-3</v>
+      </c>
+      <c r="AA21">
+        <v>2.8266115132712856E-2</v>
+      </c>
+      <c r="AB21">
+        <v>0.12643915891072044</v>
+      </c>
+      <c r="AC21">
+        <v>3.3919338159255429E-2</v>
+      </c>
+      <c r="AD21">
+        <v>8.3902102723198896E-2</v>
+      </c>
+      <c r="AE21">
+        <v>0.11988969320923819</v>
+      </c>
+      <c r="AF21">
+        <v>9.8862461220268871E-2</v>
+      </c>
+      <c r="AG21">
+        <v>6.2047569803516027E-4</v>
+      </c>
+      <c r="AH21">
+        <v>1.5167183729748364E-3</v>
+      </c>
+      <c r="AI21">
+        <v>2.0682523267838676E-4</v>
+      </c>
+      <c r="AJ21">
+        <v>6.8941744226128923E-4</v>
+      </c>
+      <c r="AK21">
+        <v>7.5835918648741818E-4</v>
+      </c>
+      <c r="AL21">
+        <v>2.7576697690451566E-4</v>
+      </c>
+      <c r="AM21">
+        <v>1.1030679076180626E-3</v>
+      </c>
+      <c r="AN21">
+        <v>2.9644950017235438E-3</v>
+      </c>
+      <c r="AO21">
+        <v>7.5835918648741818E-4</v>
+      </c>
+      <c r="AP21">
+        <v>1.3098931402964495E-3</v>
+      </c>
+      <c r="AQ21">
+        <v>9.6518441916580494E-4</v>
+      </c>
+      <c r="AR21">
+        <v>3.4470872113064461E-4</v>
+      </c>
+      <c r="AS21">
+        <v>1.4477766287487074E-3</v>
+      </c>
+      <c r="AT21">
+        <v>3.3781454670803171E-3</v>
+      </c>
+      <c r="AU21">
+        <v>1.5856601172009651E-3</v>
+      </c>
+      <c r="AV21">
+        <v>2.4819027921406411E-3</v>
+      </c>
+      <c r="AW21">
+        <v>1.9993105825577388E-3</v>
+      </c>
+      <c r="AX21">
+        <v>1.4477766287487074E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>1.0350429691324008E-3</v>
+      </c>
+      <c r="C22">
+        <v>3.1880977683315624E-2</v>
+      </c>
+      <c r="D22">
+        <v>2.2316684378320937E-2</v>
+      </c>
+      <c r="E22">
+        <v>4.6758767268862911E-2</v>
+      </c>
+      <c r="F22">
+        <v>0.11052072263549416</v>
+      </c>
+      <c r="G22">
+        <v>0.14984059511158343</v>
+      </c>
+      <c r="H22">
+        <v>0.12539851222104145</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1.0626992561105207E-3</v>
+      </c>
+      <c r="K22">
+        <v>1.0626992561105207E-3</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.1253985122210413E-3</v>
+      </c>
+      <c r="P22">
+        <v>2.1253985122210413E-3</v>
+      </c>
+      <c r="Q22">
+        <v>1.0626992561105207E-3</v>
+      </c>
+      <c r="R22">
+        <v>4.2507970244420826E-3</v>
+      </c>
+      <c r="S22">
+        <v>2.1253985122210413E-3</v>
+      </c>
+      <c r="T22">
+        <v>1.0626992561105207E-3</v>
+      </c>
+      <c r="U22">
+        <v>1.0626992561105207E-3</v>
+      </c>
+      <c r="V22">
+        <v>1.0626992561105207E-3</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>2.1253985122210413E-3</v>
+      </c>
+      <c r="Y22">
+        <v>1.0626992561105207E-3</v>
+      </c>
+      <c r="Z22">
+        <v>3.188097768331562E-3</v>
+      </c>
+      <c r="AA22">
+        <v>2.0191285866099893E-2</v>
+      </c>
+      <c r="AB22">
+        <v>1.8065887353878853E-2</v>
+      </c>
+      <c r="AC22">
+        <v>4.0382571732199786E-2</v>
+      </c>
+      <c r="AD22">
+        <v>0.12433581296493093</v>
+      </c>
+      <c r="AE22">
+        <v>0.15515409139213601</v>
+      </c>
+      <c r="AF22">
+        <v>0.10626992561105207</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>1.0626992561105207E-3</v>
+      </c>
+      <c r="AI22">
+        <v>1.0626992561105207E-3</v>
+      </c>
+      <c r="AJ22">
+        <v>1.0626992561105207E-3</v>
+      </c>
+      <c r="AK22">
+        <v>1.0626992561105207E-3</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>1.0626992561105207E-3</v>
+      </c>
+      <c r="AN22">
+        <v>2.1253985122210413E-3</v>
+      </c>
+      <c r="AO22">
+        <v>1.0626992561105207E-3</v>
+      </c>
+      <c r="AP22">
+        <v>5.3134962805526037E-3</v>
+      </c>
+      <c r="AQ22">
+        <v>3.188097768331562E-3</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>1.0626992561105207E-3</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>3.188097768331562E-3</v>
+      </c>
+      <c r="AW22">
+        <v>2.1253985122210413E-3</v>
+      </c>
+      <c r="AX22">
+        <v>2.1253985122210413E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>2.4046875017186553E-2</v>
+      </c>
+      <c r="C23">
+        <v>1.724453389442869E-2</v>
+      </c>
+      <c r="D23">
+        <v>7.195133107675418E-2</v>
+      </c>
+      <c r="E23">
+        <v>6.2208398133748059E-2</v>
+      </c>
+      <c r="F23">
+        <v>9.1620162839630412E-2</v>
+      </c>
+      <c r="G23">
+        <v>8.7183240325679257E-2</v>
+      </c>
+      <c r="H23">
+        <v>6.1339310218644222E-2</v>
+      </c>
+      <c r="I23">
+        <v>3.339127252767359E-3</v>
+      </c>
+      <c r="J23">
+        <v>5.9006495288628667E-3</v>
+      </c>
+      <c r="K23">
+        <v>6.2208398133748056E-3</v>
+      </c>
+      <c r="L23">
+        <v>7.8217912359344974E-3</v>
+      </c>
+      <c r="M23">
+        <v>5.9921324672948494E-3</v>
+      </c>
+      <c r="N23">
+        <v>3.5220931296313239E-3</v>
+      </c>
+      <c r="O23">
+        <v>4.7113713292470955E-3</v>
+      </c>
+      <c r="P23">
+        <v>9.9258988198700944E-3</v>
+      </c>
+      <c r="Q23">
+        <v>9.2397767816302257E-3</v>
+      </c>
+      <c r="R23">
+        <v>7.5016009514225594E-3</v>
+      </c>
+      <c r="S23">
+        <v>3.0646784374714115E-3</v>
+      </c>
+      <c r="T23">
+        <v>1.0977952611837892E-3</v>
+      </c>
+      <c r="U23">
+        <v>3.933766352575245E-3</v>
+      </c>
+      <c r="V23">
+        <v>5.7634251212148931E-3</v>
+      </c>
+      <c r="W23">
+        <v>4.7571127984630864E-3</v>
+      </c>
+      <c r="X23">
+        <v>5.8091665904308849E-3</v>
+      </c>
+      <c r="Y23">
+        <v>3.2933857835513677E-3</v>
+      </c>
+      <c r="Z23">
+        <v>1.8296587686396487E-3</v>
+      </c>
+      <c r="AA23">
+        <v>1.7198792425212699E-2</v>
+      </c>
+      <c r="AB23">
+        <v>8.2883542219376091E-2</v>
+      </c>
+      <c r="AC23">
+        <v>5.639923154331717E-2</v>
+      </c>
+      <c r="AD23">
+        <v>8.1465556673680356E-2</v>
+      </c>
+      <c r="AE23">
+        <v>9.6514500045741469E-2</v>
+      </c>
+      <c r="AF23">
+        <v>8.3935596011343885E-2</v>
+      </c>
+      <c r="AG23">
+        <v>3.2933857835513677E-3</v>
+      </c>
+      <c r="AH23">
+        <v>6.8154789131826916E-3</v>
+      </c>
+      <c r="AI23">
+        <v>5.6262007135669196E-3</v>
+      </c>
+      <c r="AJ23">
+        <v>6.9527033208306652E-3</v>
+      </c>
+      <c r="AK23">
+        <v>6.6325130363187263E-3</v>
+      </c>
+      <c r="AL23">
+        <v>4.8485957368950691E-3</v>
+      </c>
+      <c r="AM23">
+        <v>4.6656298600311046E-3</v>
+      </c>
+      <c r="AN23">
+        <v>1.1435367303997804E-2</v>
+      </c>
+      <c r="AO23">
+        <v>8.3706888665263934E-3</v>
+      </c>
+      <c r="AP23">
+        <v>6.6325130363187263E-3</v>
+      </c>
+      <c r="AQ23">
+        <v>3.4306101911993413E-3</v>
+      </c>
+      <c r="AR23">
+        <v>1.4637270149117189E-3</v>
+      </c>
+      <c r="AS23">
+        <v>3.8880248833592537E-3</v>
+      </c>
+      <c r="AT23">
+        <v>6.6325130363187263E-3</v>
+      </c>
+      <c r="AU23">
+        <v>4.3454395755191657E-3</v>
+      </c>
+      <c r="AV23">
+        <v>5.168786021407008E-3</v>
+      </c>
+      <c r="AW23">
+        <v>3.6593175372792975E-3</v>
+      </c>
+      <c r="AX23">
+        <v>2.4700393376635259E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24">
+        <v>2.4907027622777984E-2</v>
+      </c>
+      <c r="C24">
+        <v>4.8092209856915737E-2</v>
+      </c>
+      <c r="D24">
+        <v>4.2660307366189719E-2</v>
+      </c>
+      <c r="E24">
+        <v>3.7714184773008301E-2</v>
+      </c>
+      <c r="F24">
+        <v>0.11694046988164636</v>
+      </c>
+      <c r="G24">
+        <v>0.13610669493022434</v>
+      </c>
+      <c r="H24">
+        <v>6.9599010775481363E-2</v>
+      </c>
+      <c r="I24">
+        <v>8.3907436848613319E-4</v>
+      </c>
+      <c r="J24">
+        <v>5.7410351527998585E-4</v>
+      </c>
+      <c r="K24">
+        <v>6.1826532414767713E-4</v>
+      </c>
+      <c r="L24">
+        <v>9.7155979508920681E-4</v>
+      </c>
+      <c r="M24">
+        <v>9.2739798622151564E-4</v>
+      </c>
+      <c r="N24">
+        <v>6.1826532414767713E-4</v>
+      </c>
+      <c r="O24">
+        <v>2.031443207913796E-3</v>
+      </c>
+      <c r="P24">
+        <v>1.8989577813107224E-3</v>
+      </c>
+      <c r="Q24">
+        <v>1.4573396926338103E-3</v>
+      </c>
+      <c r="R24">
+        <v>2.2080904433845611E-3</v>
+      </c>
+      <c r="S24">
+        <v>1.5015015015015015E-3</v>
+      </c>
+      <c r="T24">
+        <v>4.857798975446034E-4</v>
+      </c>
+      <c r="U24">
+        <v>2.2522522522522522E-3</v>
+      </c>
+      <c r="V24">
+        <v>1.9872813990461048E-3</v>
+      </c>
+      <c r="W24">
+        <v>2.2964140611199434E-3</v>
+      </c>
+      <c r="X24">
+        <v>4.0187246069599012E-3</v>
+      </c>
+      <c r="Y24">
+        <v>2.9588411941353118E-3</v>
+      </c>
+      <c r="Z24">
+        <v>1.3248542660307366E-3</v>
+      </c>
+      <c r="AA24">
+        <v>5.113937466878643E-2</v>
+      </c>
+      <c r="AB24">
+        <v>3.5373608903020666E-2</v>
+      </c>
+      <c r="AC24">
+        <v>3.9348171701112877E-2</v>
+      </c>
+      <c r="AD24">
+        <v>0.12983571807101218</v>
+      </c>
+      <c r="AE24">
+        <v>0.14454160042395336</v>
+      </c>
+      <c r="AF24">
+        <v>8.9118530295000886E-2</v>
+      </c>
+      <c r="AG24">
+        <v>8.8323617735382436E-4</v>
+      </c>
+      <c r="AH24">
+        <v>4.857798975446034E-4</v>
+      </c>
+      <c r="AI24">
+        <v>6.624271330153683E-4</v>
+      </c>
+      <c r="AJ24">
+        <v>1.0598834128245894E-3</v>
+      </c>
+      <c r="AK24">
+        <v>1.015721603956898E-3</v>
+      </c>
+      <c r="AL24">
+        <v>7.5075075075075074E-4</v>
+      </c>
+      <c r="AM24">
+        <v>2.1639286345168699E-3</v>
+      </c>
+      <c r="AN24">
+        <v>1.589825119236884E-3</v>
+      </c>
+      <c r="AO24">
+        <v>1.5456633103691927E-3</v>
+      </c>
+      <c r="AP24">
+        <v>2.4288994877230173E-3</v>
+      </c>
+      <c r="AQ24">
+        <v>1.589825119236884E-3</v>
+      </c>
+      <c r="AR24">
+        <v>6.624271330153683E-4</v>
+      </c>
+      <c r="AS24">
+        <v>2.3847376788553257E-3</v>
+      </c>
+      <c r="AT24">
+        <v>1.6781487369722664E-3</v>
+      </c>
+      <c r="AU24">
+        <v>2.3847376788553257E-3</v>
+      </c>
+      <c r="AV24">
+        <v>4.4603426956368129E-3</v>
+      </c>
+      <c r="AW24">
+        <v>3.1354884296060765E-3</v>
+      </c>
+      <c r="AX24">
+        <v>1.6781487369722664E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>3.1419768770740729E-2</v>
+      </c>
+      <c r="C25">
+        <v>2.3035182916156135E-2</v>
+      </c>
+      <c r="D25">
+        <v>4.130929459128304E-2</v>
+      </c>
+      <c r="E25">
+        <v>4.953614563276737E-2</v>
+      </c>
+      <c r="F25">
+        <v>9.1650621389812711E-2</v>
+      </c>
+      <c r="G25">
+        <v>9.7251881673376506E-2</v>
+      </c>
+      <c r="H25">
+        <v>8.0658148083318754E-2</v>
+      </c>
+      <c r="I25">
+        <v>2.345527743742342E-3</v>
+      </c>
+      <c r="J25">
+        <v>2.3805356205146158E-3</v>
+      </c>
+      <c r="K25">
+        <v>3.6758270610887452E-3</v>
+      </c>
+      <c r="L25">
+        <v>6.6865044635042881E-3</v>
+      </c>
+      <c r="M25">
+        <v>3.6758270610887452E-3</v>
+      </c>
+      <c r="N25">
+        <v>1.3653071941186767E-3</v>
+      </c>
+      <c r="O25">
+        <v>5.0061263784351483E-3</v>
+      </c>
+      <c r="P25">
+        <v>5.9513390512865392E-3</v>
+      </c>
+      <c r="Q25">
+        <v>5.9163311745142654E-3</v>
+      </c>
+      <c r="R25">
+        <v>8.9270085769298096E-3</v>
+      </c>
+      <c r="S25">
+        <v>4.6560476107124103E-3</v>
+      </c>
+      <c r="T25">
+        <v>1.7854017153859619E-3</v>
+      </c>
+      <c r="U25">
+        <v>2.0304568527918783E-3</v>
+      </c>
+      <c r="V25">
+        <v>3.1857167862769124E-3</v>
+      </c>
+      <c r="W25">
+        <v>4.5510239803955889E-3</v>
+      </c>
+      <c r="X25">
+        <v>4.5160161036233151E-3</v>
+      </c>
+      <c r="Y25">
+        <v>3.6408191843164714E-3</v>
+      </c>
+      <c r="Z25">
+        <v>1.4703308244354979E-3</v>
+      </c>
+      <c r="AA25">
+        <v>2.6255907579205321E-2</v>
+      </c>
+      <c r="AB25">
+        <v>4.1764396989322598E-2</v>
+      </c>
+      <c r="AC25">
+        <v>5.2266760021004728E-2</v>
+      </c>
+      <c r="AD25">
+        <v>0.10197794503763347</v>
+      </c>
+      <c r="AE25">
+        <v>0.11454577279887974</v>
+      </c>
+      <c r="AF25">
+        <v>0.12693856117626465</v>
+      </c>
+      <c r="AG25">
+        <v>2.6956065114650796E-3</v>
+      </c>
+      <c r="AH25">
+        <v>2.3805356205146158E-3</v>
+      </c>
+      <c r="AI25">
+        <v>3.8508664449501137E-3</v>
+      </c>
+      <c r="AJ25">
+        <v>7.4566777524943109E-3</v>
+      </c>
+      <c r="AK25">
+        <v>4.3409767197619461E-3</v>
+      </c>
+      <c r="AL25">
+        <v>2.1354804831086992E-3</v>
+      </c>
+      <c r="AM25">
+        <v>5.7062839138806234E-3</v>
+      </c>
+      <c r="AN25">
+        <v>6.0213548048310868E-3</v>
+      </c>
+      <c r="AO25">
+        <v>6.2314020654647296E-3</v>
+      </c>
+      <c r="AP25">
+        <v>9.942237003325749E-3</v>
+      </c>
+      <c r="AQ25">
+        <v>5.4962366532469806E-3</v>
+      </c>
+      <c r="AR25">
+        <v>2.8356380185541748E-3</v>
+      </c>
+      <c r="AS25">
+        <v>2.3105198669700682E-3</v>
+      </c>
+      <c r="AT25">
+        <v>3.2207246630491862E-3</v>
+      </c>
+      <c r="AU25">
+        <v>4.7960791178015055E-3</v>
+      </c>
+      <c r="AV25">
+        <v>5.0411342552074221E-3</v>
+      </c>
+      <c r="AW25">
+        <v>4.2709609662173985E-3</v>
+      </c>
+      <c r="AX25">
+        <v>2.3105198669700682E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>1.1531764599770553E-2</v>
+      </c>
+      <c r="C26">
+        <v>4.2254864555513166E-2</v>
+      </c>
+      <c r="D26">
+        <v>4.1491797024036624E-2</v>
+      </c>
+      <c r="E26">
+        <v>3.691339183517741E-2</v>
+      </c>
+      <c r="F26">
+        <v>0.11932468523464326</v>
+      </c>
+      <c r="G26">
+        <v>0.12752766119801603</v>
+      </c>
+      <c r="H26">
+        <v>7.811903853491034E-2</v>
+      </c>
+      <c r="I26">
+        <v>2.8615032430370085E-4</v>
+      </c>
+      <c r="J26">
+        <v>4.7691720717283481E-4</v>
+      </c>
+      <c r="K26">
+        <v>2.8615032430370085E-4</v>
+      </c>
+      <c r="L26">
+        <v>7.6306753147653572E-4</v>
+      </c>
+      <c r="M26">
+        <v>5.7230064860740171E-4</v>
+      </c>
+      <c r="N26">
+        <v>9.5383441434566965E-5</v>
+      </c>
+      <c r="O26">
+        <v>1.7169019458222053E-3</v>
+      </c>
+      <c r="P26">
+        <v>1.5261350629530714E-3</v>
+      </c>
+      <c r="Q26">
+        <v>1.8122853872567723E-3</v>
+      </c>
+      <c r="R26">
+        <v>2.2892025944296068E-3</v>
+      </c>
+      <c r="S26">
+        <v>9.5383441434566962E-4</v>
+      </c>
+      <c r="T26">
+        <v>8.5845097291110267E-4</v>
+      </c>
+      <c r="U26">
+        <v>1.4307516215185045E-3</v>
+      </c>
+      <c r="V26">
+        <v>1.0492178557802365E-3</v>
+      </c>
+      <c r="W26">
+        <v>1.8122853872567723E-3</v>
+      </c>
+      <c r="X26">
+        <v>2.0984357115604729E-3</v>
+      </c>
+      <c r="Y26">
+        <v>1.6215185043876384E-3</v>
+      </c>
+      <c r="Z26">
+        <v>6.6768409004196877E-4</v>
+      </c>
+      <c r="AA26">
+        <v>4.339946585272797E-2</v>
+      </c>
+      <c r="AB26">
+        <v>3.7294925600915678E-2</v>
+      </c>
+      <c r="AC26">
+        <v>4.006104540251812E-2</v>
+      </c>
+      <c r="AD26">
+        <v>0.12552460892789011</v>
+      </c>
+      <c r="AE26">
+        <v>0.13229683326974437</v>
+      </c>
+      <c r="AF26">
+        <v>0.13363220144982832</v>
+      </c>
+      <c r="AG26">
+        <v>2.8615032430370085E-4</v>
+      </c>
+      <c r="AH26">
+        <v>3.8153376573826786E-4</v>
+      </c>
+      <c r="AI26">
+        <v>3.8153376573826786E-4</v>
+      </c>
+      <c r="AJ26">
+        <v>7.6306753147653572E-4</v>
+      </c>
+      <c r="AK26">
+        <v>5.7230064860740171E-4</v>
+      </c>
+      <c r="AL26">
+        <v>9.5383441434566965E-5</v>
+      </c>
+      <c r="AM26">
+        <v>1.8122853872567723E-3</v>
+      </c>
+      <c r="AN26">
+        <v>1.3353681800839375E-3</v>
+      </c>
+      <c r="AO26">
+        <v>2.003052270125906E-3</v>
+      </c>
+      <c r="AP26">
+        <v>2.3845860358641738E-3</v>
+      </c>
+      <c r="AQ26">
+        <v>9.5383441434566962E-4</v>
+      </c>
+      <c r="AR26">
+        <v>1.4307516215185045E-3</v>
+      </c>
+      <c r="AS26">
+        <v>1.5261350629530714E-3</v>
+      </c>
+      <c r="AT26">
+        <v>9.5383441434566962E-4</v>
+      </c>
+      <c r="AU26">
+        <v>1.9076688286913392E-3</v>
+      </c>
+      <c r="AV26">
+        <v>2.2892025944296068E-3</v>
+      </c>
+      <c r="AW26">
+        <v>1.6215185043876384E-3</v>
+      </c>
+      <c r="AX26">
+        <v>1.1446012972148034E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27">
+        <v>6.5996363600365621E-2</v>
+      </c>
+      <c r="C27">
+        <v>1.7983333333333334E-2</v>
+      </c>
+      <c r="D27">
+        <v>3.1683333333333334E-2</v>
+      </c>
+      <c r="E27">
+        <v>3.9583333333333331E-2</v>
+      </c>
+      <c r="F27">
+        <v>7.091666666666667E-2</v>
+      </c>
+      <c r="G27">
+        <v>7.0599999999999996E-2</v>
+      </c>
+      <c r="H27">
+        <v>4.898333333333333E-2</v>
+      </c>
+      <c r="I27">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="J27">
+        <v>1.0633333333333333E-2</v>
+      </c>
+      <c r="K27">
+        <v>1.1366666666666667E-2</v>
+      </c>
+      <c r="L27">
+        <v>1.6916666666666667E-2</v>
+      </c>
+      <c r="M27">
+        <v>1.0133333333333333E-2</v>
+      </c>
+      <c r="N27">
+        <v>2.5333333333333332E-3</v>
+      </c>
+      <c r="O27">
+        <v>1.315E-2</v>
+      </c>
+      <c r="P27">
+        <v>1.5533333333333333E-2</v>
+      </c>
+      <c r="Q27">
+        <v>1.5983333333333332E-2</v>
+      </c>
+      <c r="R27">
+        <v>2.3716666666666667E-2</v>
+      </c>
+      <c r="S27">
+        <v>1.4483333333333334E-2</v>
+      </c>
+      <c r="T27">
+        <v>4.0333333333333332E-3</v>
+      </c>
+      <c r="U27">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="V27">
+        <v>7.4833333333333332E-3</v>
+      </c>
+      <c r="W27">
+        <v>8.4666666666666675E-3</v>
+      </c>
+      <c r="X27">
+        <v>1.155E-2</v>
+      </c>
+      <c r="Y27">
+        <v>8.1833333333333341E-3</v>
+      </c>
+      <c r="Z27">
+        <v>3.7833333333333334E-3</v>
+      </c>
+      <c r="AA27">
+        <v>1.7566666666666668E-2</v>
+      </c>
+      <c r="AB27">
+        <v>3.3383333333333334E-2</v>
+      </c>
+      <c r="AC27">
+        <v>4.19E-2</v>
+      </c>
+      <c r="AD27">
+        <v>7.5649999999999995E-2</v>
+      </c>
+      <c r="AE27">
+        <v>7.6816666666666672E-2</v>
+      </c>
+      <c r="AF27">
+        <v>7.4616666666666664E-2</v>
+      </c>
+      <c r="AG27">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="AH27">
+        <v>1.12E-2</v>
+      </c>
+      <c r="AI27">
+        <v>1.2033333333333333E-2</v>
+      </c>
+      <c r="AJ27">
+        <v>1.8033333333333332E-2</v>
+      </c>
+      <c r="AK27">
+        <v>1.1016666666666666E-2</v>
+      </c>
+      <c r="AL27">
+        <v>3.8666666666666667E-3</v>
+      </c>
+      <c r="AM27">
+        <v>1.2833333333333334E-2</v>
+      </c>
+      <c r="AN27">
+        <v>1.6366666666666668E-2</v>
+      </c>
+      <c r="AO27">
+        <v>1.6916666666666667E-2</v>
+      </c>
+      <c r="AP27">
+        <v>2.53E-2</v>
+      </c>
+      <c r="AQ27">
+        <v>1.5766666666666665E-2</v>
+      </c>
+      <c r="AR27">
+        <v>6.1500000000000001E-3</v>
+      </c>
+      <c r="AS27">
+        <v>5.8666666666666667E-3</v>
+      </c>
+      <c r="AT27">
+        <v>7.8833333333333325E-3</v>
+      </c>
+      <c r="AU27">
+        <v>8.9499999999999996E-3</v>
+      </c>
+      <c r="AV27">
+        <v>1.2316666666666667E-2</v>
+      </c>
+      <c r="AW27">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="AX27">
+        <v>5.7666666666666665E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1.6512290172811479E-2</v>
+      </c>
+      <c r="C28">
+        <v>5.1425526245670129E-2</v>
+      </c>
+      <c r="D28">
+        <v>4.4497735145217161E-2</v>
+      </c>
+      <c r="E28">
+        <v>3.2507327471356248E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.11137756461497468</v>
+      </c>
+      <c r="G28">
+        <v>0.13116173727684519</v>
+      </c>
+      <c r="H28">
+        <v>8.3133493205435657E-2</v>
+      </c>
+      <c r="I28">
+        <v>1.0658140154543032E-3</v>
+      </c>
+      <c r="J28">
+        <v>7.993605115907274E-4</v>
+      </c>
+      <c r="K28">
+        <v>7.993605115907274E-4</v>
+      </c>
+      <c r="L28">
+        <v>1.5987210231814548E-3</v>
+      </c>
+      <c r="M28">
+        <v>1.398880895283773E-3</v>
+      </c>
+      <c r="N28">
+        <v>9.9920063948840928E-4</v>
+      </c>
+      <c r="O28">
+        <v>2.1316280309086064E-3</v>
+      </c>
+      <c r="P28">
+        <v>1.5987210231814548E-3</v>
+      </c>
+      <c r="Q28">
+        <v>1.398880895283773E-3</v>
+      </c>
+      <c r="R28">
+        <v>2.3314681588062882E-3</v>
+      </c>
+      <c r="S28">
+        <v>1.199040767386091E-3</v>
+      </c>
+      <c r="T28">
+        <v>3.996802557953637E-4</v>
+      </c>
+      <c r="U28">
+        <v>2.86437516653344E-3</v>
+      </c>
+      <c r="V28">
+        <v>1.9984012789768186E-3</v>
+      </c>
+      <c r="W28">
+        <v>1.2656541433519852E-3</v>
+      </c>
+      <c r="X28">
+        <v>3.5305089261923796E-3</v>
+      </c>
+      <c r="Y28">
+        <v>3.1308286703970157E-3</v>
+      </c>
+      <c r="Z28">
+        <v>1.5987210231814548E-3</v>
+      </c>
+      <c r="AA28">
+        <v>4.4364508393285373E-2</v>
+      </c>
+      <c r="AB28">
+        <v>3.910205169197975E-2</v>
+      </c>
+      <c r="AC28">
+        <v>3.4772182254196642E-2</v>
+      </c>
+      <c r="AD28">
+        <v>0.12596589395150545</v>
+      </c>
+      <c r="AE28">
+        <v>0.13908872901678657</v>
+      </c>
+      <c r="AF28">
+        <v>0.10131894484412469</v>
+      </c>
+      <c r="AG28">
+        <v>9.3258726352251535E-4</v>
+      </c>
+      <c r="AH28">
+        <v>7.3274713562483348E-4</v>
+      </c>
+      <c r="AI28">
+        <v>8.6597388755662132E-4</v>
+      </c>
+      <c r="AJ28">
+        <v>1.7985611510791368E-3</v>
+      </c>
+      <c r="AK28">
+        <v>1.465494271249667E-3</v>
+      </c>
+      <c r="AL28">
+        <v>1.2656541433519852E-3</v>
+      </c>
+      <c r="AM28">
+        <v>1.8651745270450307E-3</v>
+      </c>
+      <c r="AN28">
+        <v>1.398880895283773E-3</v>
+      </c>
+      <c r="AO28">
+        <v>1.5321076472155609E-3</v>
+      </c>
+      <c r="AP28">
+        <v>2.5979216626698643E-3</v>
+      </c>
+      <c r="AQ28">
+        <v>1.3322675193178791E-3</v>
+      </c>
+      <c r="AR28">
+        <v>4.6629363176125768E-4</v>
+      </c>
+      <c r="AS28">
+        <v>2.464694910738076E-3</v>
+      </c>
+      <c r="AT28">
+        <v>1.7319477751132426E-3</v>
+      </c>
+      <c r="AU28">
+        <v>1.3322675193178791E-3</v>
+      </c>
+      <c r="AV28">
+        <v>4.063415933919531E-3</v>
+      </c>
+      <c r="AW28">
+        <v>3.3306687982946974E-3</v>
+      </c>
+      <c r="AX28">
+        <v>1.9984012789768186E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29">
+        <v>0.16529779209165574</v>
+      </c>
+      <c r="C29">
+        <v>7.1400528350601218E-3</v>
+      </c>
+      <c r="D29">
+        <v>5.6262019310748673E-2</v>
+      </c>
+      <c r="E29">
+        <v>3.2413045069504057E-2</v>
+      </c>
+      <c r="F29">
+        <v>3.6379001723461028E-2</v>
+      </c>
+      <c r="G29">
+        <v>3.5746844203115538E-2</v>
+      </c>
+      <c r="H29">
+        <v>2.6497381537007831E-2</v>
+      </c>
+      <c r="I29">
+        <v>1.0081248877088615E-2</v>
+      </c>
+      <c r="J29">
+        <v>1.5404680627366432E-2</v>
+      </c>
+      <c r="K29">
+        <v>1.1452032552785154E-2</v>
+      </c>
+      <c r="L29">
+        <v>1.7567324775916795E-2</v>
+      </c>
+      <c r="M29">
+        <v>1.3428356590075793E-2</v>
+      </c>
+      <c r="N29">
+        <v>5.2103088255844128E-3</v>
+      </c>
+      <c r="O29">
+        <v>2.5858569726974492E-2</v>
+      </c>
+      <c r="P29">
+        <v>3.525442676621484E-2</v>
+      </c>
+      <c r="Q29">
+        <v>3.2792339581711349E-2</v>
+      </c>
+      <c r="R29">
+        <v>4.200187650969197E-2</v>
+      </c>
+      <c r="S29">
+        <v>2.430812022970608E-2</v>
+      </c>
+      <c r="T29">
+        <v>7.6990131688392926E-3</v>
+      </c>
+      <c r="U29">
+        <v>3.3537620026750244E-3</v>
+      </c>
+      <c r="V29">
+        <v>1.4972151797656359E-2</v>
+      </c>
+      <c r="W29">
+        <v>8.4975279313809649E-3</v>
+      </c>
+      <c r="X29">
+        <v>6.6276725290958819E-3</v>
+      </c>
+      <c r="Y29">
+        <v>4.3918311939791987E-3</v>
+      </c>
+      <c r="Z29">
+        <v>2.1426812794868213E-3</v>
+      </c>
+      <c r="AA29">
+        <v>7.0468927794302598E-3</v>
+      </c>
+      <c r="AB29">
+        <v>6.3741440919889009E-2</v>
+      </c>
+      <c r="AC29">
+        <v>3.3191596962982184E-2</v>
+      </c>
+      <c r="AD29">
+        <v>3.7816328296036039E-2</v>
+      </c>
+      <c r="AE29">
+        <v>3.9073989047039175E-2</v>
+      </c>
+      <c r="AF29">
+        <v>3.9326852055177372E-2</v>
+      </c>
+      <c r="AG29">
+        <v>9.9415087936438225E-3</v>
+      </c>
+      <c r="AH29">
+        <v>1.7447547561535545E-2</v>
+      </c>
+      <c r="AI29">
+        <v>1.1724858429986891E-2</v>
+      </c>
+      <c r="AJ29">
+        <v>1.825937090345291E-2</v>
+      </c>
+      <c r="AK29">
+        <v>1.467936305139108E-2</v>
+      </c>
+      <c r="AL29">
+        <v>7.725630327590681E-3</v>
+      </c>
+      <c r="AM29">
+        <v>2.5512546663206435E-2</v>
+      </c>
+      <c r="AN29">
+        <v>3.993904670645932E-2</v>
+      </c>
+      <c r="AO29">
+        <v>3.3584200054565173E-2</v>
+      </c>
+      <c r="AP29">
+        <v>4.3665448931653791E-2</v>
+      </c>
+      <c r="AQ29">
+        <v>2.6570578723574153E-2</v>
+      </c>
+      <c r="AR29">
+        <v>1.1432069683721612E-2</v>
+      </c>
+      <c r="AS29">
+        <v>3.3071819748600934E-3</v>
+      </c>
+      <c r="AT29">
+        <v>1.6961784414322695E-2</v>
+      </c>
+      <c r="AU29">
+        <v>8.6971566220163821E-3</v>
+      </c>
+      <c r="AV29">
+        <v>6.8938441166097727E-3</v>
+      </c>
+      <c r="AW29">
+        <v>4.7977428649378824E-3</v>
+      </c>
+      <c r="AX29">
+        <v>3.1807504707909956E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30">
+        <v>7.1914037536531736E-3</v>
+      </c>
+      <c r="C30">
+        <v>4.9862343224227591E-2</v>
+      </c>
+      <c r="D30">
+        <v>4.8485775466503518E-2</v>
+      </c>
+      <c r="E30">
+        <v>4.802691954726216E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.14453961456102785</v>
+      </c>
+      <c r="G30">
+        <v>0.13673906393392474</v>
+      </c>
+      <c r="H30">
+        <v>5.3839094524319363E-2</v>
+      </c>
+      <c r="I30">
+        <v>6.1180789232181097E-4</v>
+      </c>
+      <c r="J30">
+        <v>1.5295197308045274E-4</v>
+      </c>
+      <c r="K30">
+        <v>1.5295197308045274E-4</v>
+      </c>
+      <c r="L30">
+        <v>7.6475986540226369E-4</v>
+      </c>
+      <c r="M30">
+        <v>6.1180789232181097E-4</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>1.5295197308045274E-3</v>
+      </c>
+      <c r="P30">
+        <v>1.2236157846436219E-3</v>
+      </c>
+      <c r="Q30">
+        <v>9.177118384827164E-4</v>
+      </c>
+      <c r="R30">
+        <v>2.2942795962067912E-3</v>
+      </c>
+      <c r="S30">
+        <v>1.2236157846436219E-3</v>
+      </c>
+      <c r="T30">
+        <v>4.588559192413582E-4</v>
+      </c>
+      <c r="U30">
+        <v>1.6824717038849801E-3</v>
+      </c>
+      <c r="V30">
+        <v>1.6824717038849801E-3</v>
+      </c>
+      <c r="W30">
+        <v>7.6475986540226369E-4</v>
+      </c>
+      <c r="X30">
+        <v>3.5178953808504129E-3</v>
+      </c>
+      <c r="Y30">
+        <v>3.0590394616090547E-3</v>
+      </c>
+      <c r="Z30">
+        <v>9.177118384827164E-4</v>
+      </c>
+      <c r="AA30">
+        <v>4.6344447843377178E-2</v>
+      </c>
+      <c r="AB30">
+        <v>3.6708473539308659E-2</v>
+      </c>
+      <c r="AC30">
+        <v>5.3686142551238908E-2</v>
+      </c>
+      <c r="AD30">
+        <v>0.14928112572652188</v>
+      </c>
+      <c r="AE30">
+        <v>0.13153869684918937</v>
+      </c>
+      <c r="AF30">
+        <v>5.7968797797491589E-2</v>
+      </c>
+      <c r="AG30">
+        <v>6.1180789232181097E-4</v>
+      </c>
+      <c r="AH30">
+        <v>1.5295197308045274E-4</v>
+      </c>
+      <c r="AI30">
+        <v>1.5295197308045274E-4</v>
+      </c>
+      <c r="AJ30">
+        <v>7.6475986540226369E-4</v>
+      </c>
+      <c r="AK30">
+        <v>6.1180789232181097E-4</v>
+      </c>
+      <c r="AL30">
+        <v>1.5295197308045274E-4</v>
+      </c>
+      <c r="AM30">
+        <v>1.3765677577240747E-3</v>
+      </c>
+      <c r="AN30">
+        <v>9.177118384827164E-4</v>
+      </c>
+      <c r="AO30">
+        <v>1.0706638115631692E-3</v>
+      </c>
+      <c r="AP30">
+        <v>2.2942795962067912E-3</v>
+      </c>
+      <c r="AQ30">
+        <v>1.2236157846436219E-3</v>
+      </c>
+      <c r="AR30">
+        <v>6.1180789232181097E-4</v>
+      </c>
+      <c r="AS30">
+        <v>1.5295197308045274E-3</v>
+      </c>
+      <c r="AT30">
+        <v>1.3765677577240747E-3</v>
+      </c>
+      <c r="AU30">
+        <v>9.177118384827164E-4</v>
+      </c>
+      <c r="AV30">
+        <v>3.6708473539308656E-3</v>
+      </c>
+      <c r="AW30">
+        <v>2.906087488528602E-3</v>
+      </c>
+      <c r="AX30">
+        <v>1.0706638115631692E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <v>9.9434521157884207E-3</v>
+      </c>
+      <c r="C31">
+        <v>5.2876106194690263E-2</v>
+      </c>
+      <c r="D31">
+        <v>4.4247787610619468E-2</v>
+      </c>
+      <c r="E31">
+        <v>3.6836283185840708E-2</v>
+      </c>
+      <c r="F31">
+        <v>0.12168141592920353</v>
+      </c>
+      <c r="G31">
+        <v>0.14590707964601771</v>
+      </c>
+      <c r="H31">
+        <v>7.7544247787610626E-2</v>
+      </c>
+      <c r="I31">
+        <v>2.2123893805309734E-4</v>
+      </c>
+      <c r="J31">
+        <v>2.2123893805309734E-4</v>
+      </c>
+      <c r="K31">
+        <v>2.2123893805309734E-4</v>
+      </c>
+      <c r="L31">
+        <v>4.4247787610619468E-4</v>
+      </c>
+      <c r="M31">
+        <v>5.5309734513274336E-4</v>
+      </c>
+      <c r="N31">
+        <v>3.3185840707964601E-4</v>
+      </c>
+      <c r="O31">
+        <v>1.3274336283185841E-3</v>
+      </c>
+      <c r="P31">
+        <v>8.8495575221238937E-4</v>
+      </c>
+      <c r="Q31">
+        <v>5.5309734513274336E-4</v>
+      </c>
+      <c r="R31">
+        <v>1.3274336283185841E-3</v>
+      </c>
+      <c r="S31">
+        <v>9.9557522123893804E-4</v>
+      </c>
+      <c r="T31">
+        <v>1.1061946902654867E-4</v>
+      </c>
+      <c r="U31">
+        <v>1.6592920353982301E-3</v>
+      </c>
+      <c r="V31">
+        <v>8.8495575221238937E-4</v>
+      </c>
+      <c r="W31">
+        <v>7.743362831858407E-4</v>
+      </c>
+      <c r="X31">
+        <v>1.3274336283185841E-3</v>
+      </c>
+      <c r="Y31">
+        <v>1.8805309734513274E-3</v>
+      </c>
+      <c r="Z31">
+        <v>4.4247787610619468E-4</v>
+      </c>
+      <c r="AA31">
+        <v>4.9557522123893805E-2</v>
+      </c>
+      <c r="AB31">
+        <v>3.8827433628318586E-2</v>
+      </c>
+      <c r="AC31">
+        <v>3.506637168141593E-2</v>
+      </c>
+      <c r="AD31">
+        <v>0.1370575221238938</v>
+      </c>
+      <c r="AE31">
+        <v>0.14358407079646018</v>
+      </c>
+      <c r="AF31">
+        <v>8.8938053097345135E-2</v>
+      </c>
+      <c r="AG31">
+        <v>2.2123893805309734E-4</v>
+      </c>
+      <c r="AH31">
+        <v>2.2123893805309734E-4</v>
+      </c>
+      <c r="AI31">
+        <v>2.2123893805309734E-4</v>
+      </c>
+      <c r="AJ31">
+        <v>4.4247787610619468E-4</v>
+      </c>
+      <c r="AK31">
+        <v>4.4247787610619468E-4</v>
+      </c>
+      <c r="AL31">
+        <v>3.3185840707964601E-4</v>
+      </c>
+      <c r="AM31">
+        <v>1.2168141592920354E-3</v>
+      </c>
+      <c r="AN31">
+        <v>7.743362831858407E-4</v>
+      </c>
+      <c r="AO31">
+        <v>4.4247787610619468E-4</v>
+      </c>
+      <c r="AP31">
+        <v>1.4380530973451327E-3</v>
+      </c>
+      <c r="AQ31">
+        <v>9.9557522123893804E-4</v>
+      </c>
+      <c r="AR31">
+        <v>2.2123893805309734E-4</v>
+      </c>
+      <c r="AS31">
+        <v>1.5486725663716814E-3</v>
+      </c>
+      <c r="AT31">
+        <v>7.743362831858407E-4</v>
+      </c>
+      <c r="AU31">
+        <v>7.743362831858407E-4</v>
+      </c>
+      <c r="AV31">
+        <v>1.4380530973451327E-3</v>
+      </c>
+      <c r="AW31">
+        <v>1.7699115044247787E-3</v>
+      </c>
+      <c r="AX31">
+        <v>4.4247787610619468E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32">
+        <v>2.1196932049044097E-2</v>
+      </c>
+      <c r="C32">
+        <v>3.5856987182813556E-2</v>
+      </c>
+      <c r="D32">
+        <v>0.10627367547091485</v>
+      </c>
+      <c r="E32">
+        <v>3.1186757303720617E-2</v>
+      </c>
+      <c r="F32">
+        <v>9.6725649940324843E-2</v>
+      </c>
+      <c r="G32">
+        <v>0.10741528721913757</v>
+      </c>
+      <c r="H32">
+        <v>7.2803694670748792E-2</v>
+      </c>
+      <c r="I32">
+        <v>6.2269731721239163E-4</v>
+      </c>
+      <c r="J32">
+        <v>3.4248352446681544E-3</v>
+      </c>
+      <c r="K32">
+        <v>1.5567432930309791E-4</v>
+      </c>
+      <c r="L32">
+        <v>9.8593741891962023E-4</v>
+      </c>
+      <c r="M32">
+        <v>6.7458876031342436E-4</v>
+      </c>
+      <c r="N32">
+        <v>3.6324010170722849E-4</v>
+      </c>
+      <c r="O32">
+        <v>1.1935031913237507E-3</v>
+      </c>
+      <c r="P32">
+        <v>5.3448186394063615E-3</v>
+      </c>
+      <c r="Q32">
+        <v>1.141611748222718E-3</v>
+      </c>
+      <c r="R32">
+        <v>1.8162005085361425E-3</v>
+      </c>
+      <c r="S32">
+        <v>7.2648020341445699E-4</v>
+      </c>
+      <c r="T32">
+        <v>2.5945721550516319E-4</v>
+      </c>
+      <c r="U32">
+        <v>1.141611748222718E-3</v>
+      </c>
+      <c r="V32">
+        <v>4.981578537699133E-3</v>
+      </c>
+      <c r="W32">
+        <v>9.8593741891962023E-4</v>
+      </c>
+      <c r="X32">
+        <v>1.9199833947382077E-3</v>
+      </c>
+      <c r="Y32">
+        <v>1.5567432930309792E-3</v>
+      </c>
+      <c r="Z32">
+        <v>5.70805874111359E-4</v>
+      </c>
+      <c r="AA32">
+        <v>3.4767266877691869E-2</v>
+      </c>
+      <c r="AB32">
+        <v>8.5776555446006958E-2</v>
+      </c>
+      <c r="AC32">
+        <v>3.3781329458772248E-2</v>
+      </c>
+      <c r="AD32">
+        <v>0.10933527061387577</v>
+      </c>
+      <c r="AE32">
+        <v>0.11457630636708006</v>
+      </c>
+      <c r="AF32">
+        <v>0.11675574697732344</v>
+      </c>
+      <c r="AG32">
+        <v>5.70805874111359E-4</v>
+      </c>
+      <c r="AH32">
+        <v>2.8021379274557625E-3</v>
+      </c>
+      <c r="AI32">
+        <v>2.0756577240413056E-4</v>
+      </c>
+      <c r="AJ32">
+        <v>1.0897203051216855E-3</v>
+      </c>
+      <c r="AK32">
+        <v>7.2648020341445699E-4</v>
+      </c>
+      <c r="AL32">
+        <v>5.1891443101032637E-4</v>
+      </c>
+      <c r="AM32">
+        <v>1.1935031913237507E-3</v>
+      </c>
+      <c r="AN32">
+        <v>4.3069897773857094E-3</v>
+      </c>
+      <c r="AO32">
+        <v>1.2453946344247833E-3</v>
+      </c>
+      <c r="AP32">
+        <v>2.0756577240413055E-3</v>
+      </c>
+      <c r="AQ32">
+        <v>7.7837164651548961E-4</v>
+      </c>
+      <c r="AR32">
+        <v>4.1513154480826112E-4</v>
+      </c>
+      <c r="AS32">
+        <v>1.0897203051216855E-3</v>
+      </c>
+      <c r="AT32">
+        <v>4.0475325618805459E-3</v>
+      </c>
+      <c r="AU32">
+        <v>1.0897203051216855E-3</v>
+      </c>
+      <c r="AV32">
+        <v>2.179440610243371E-3</v>
+      </c>
+      <c r="AW32">
+        <v>1.6605261792330445E-3</v>
+      </c>
+      <c r="AX32">
+        <v>8.8215453271755487E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33">
+        <v>3.0106441135093455E-2</v>
+      </c>
+      <c r="C33">
+        <v>3.4452522743049212E-2</v>
+      </c>
+      <c r="D33">
+        <v>0.10624383471557487</v>
+      </c>
+      <c r="E33">
+        <v>3.2881516933981218E-2</v>
+      </c>
+      <c r="F33">
+        <v>8.1582697015088967E-2</v>
+      </c>
+      <c r="G33">
+        <v>0.10273647290928355</v>
+      </c>
+      <c r="H33">
+        <v>6.0976946403127397E-2</v>
+      </c>
+      <c r="I33">
+        <v>5.8456030104855504E-4</v>
+      </c>
+      <c r="J33">
+        <v>6.8320485185049866E-3</v>
+      </c>
+      <c r="K33">
+        <v>6.5763033867962447E-4</v>
+      </c>
+      <c r="L33">
+        <v>8.7684045157283255E-4</v>
+      </c>
+      <c r="M33">
+        <v>9.1337547038836727E-4</v>
+      </c>
+      <c r="N33">
+        <v>5.8456030104855504E-4</v>
+      </c>
+      <c r="O33">
+        <v>1.4979357714369223E-3</v>
+      </c>
+      <c r="P33">
+        <v>7.3435387819224731E-3</v>
+      </c>
+      <c r="Q33">
+        <v>1.0595155456505059E-3</v>
+      </c>
+      <c r="R33">
+        <v>1.6806108655145957E-3</v>
+      </c>
+      <c r="S33">
+        <v>9.4991048920390199E-4</v>
+      </c>
+      <c r="T33">
+        <v>4.7495524460195099E-4</v>
+      </c>
+      <c r="U33">
+        <v>3.068941580504914E-3</v>
+      </c>
+      <c r="V33">
+        <v>7.6723539512622849E-3</v>
+      </c>
+      <c r="W33">
+        <v>4.1649921449709547E-3</v>
+      </c>
+      <c r="X33">
+        <v>4.3476672390486285E-3</v>
+      </c>
+      <c r="Y33">
+        <v>3.8361769756311425E-3</v>
+      </c>
+      <c r="Z33">
+        <v>2.2286361477476162E-3</v>
+      </c>
+      <c r="AA33">
+        <v>3.4087172554893866E-2</v>
+      </c>
+      <c r="AB33">
+        <v>0.12542471959373058</v>
+      </c>
+      <c r="AC33">
+        <v>3.2552701764641409E-2</v>
+      </c>
+      <c r="AD33">
+        <v>9.0862591794234768E-2</v>
+      </c>
+      <c r="AE33">
+        <v>0.10986080157831281</v>
+      </c>
+      <c r="AF33">
+        <v>8.4578568557962808E-2</v>
+      </c>
+      <c r="AG33">
+        <v>5.8456030104855504E-4</v>
+      </c>
+      <c r="AH33">
+        <v>8.0377041394176316E-3</v>
+      </c>
+      <c r="AI33">
+        <v>6.2109531986408975E-4</v>
+      </c>
+      <c r="AJ33">
+        <v>9.864455080194367E-4</v>
+      </c>
+      <c r="AK33">
+        <v>9.864455080194367E-4</v>
+      </c>
+      <c r="AL33">
+        <v>8.0377041394176323E-4</v>
+      </c>
+      <c r="AM33">
+        <v>1.4979357714369223E-3</v>
+      </c>
+      <c r="AN33">
+        <v>8.658799459281722E-3</v>
+      </c>
+      <c r="AO33">
+        <v>1.0229805268349714E-3</v>
+      </c>
+      <c r="AP33">
+        <v>1.8632859595922693E-3</v>
+      </c>
+      <c r="AQ33">
+        <v>1.0229805268349714E-3</v>
+      </c>
+      <c r="AR33">
+        <v>6.5763033867962447E-4</v>
+      </c>
+      <c r="AS33">
+        <v>3.068941580504914E-3</v>
+      </c>
+      <c r="AT33">
+        <v>9.0606846662526028E-3</v>
+      </c>
+      <c r="AU33">
+        <v>4.0919221073398857E-3</v>
+      </c>
+      <c r="AV33">
+        <v>4.8591575024661141E-3</v>
+      </c>
+      <c r="AW33">
+        <v>4.0919221073398857E-3</v>
+      </c>
+      <c r="AX33">
+        <v>3.068941580504914E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34">
+        <v>1.530015696135143E-2</v>
+      </c>
+      <c r="C34">
+        <v>3.8677210639827465E-2</v>
+      </c>
+      <c r="D34">
+        <v>3.9755571531272467E-2</v>
+      </c>
+      <c r="E34">
+        <v>4.191229331416247E-2</v>
+      </c>
+      <c r="F34">
+        <v>0.1194823867721064</v>
+      </c>
+      <c r="G34">
+        <v>0.12940330697340044</v>
+      </c>
+      <c r="H34">
+        <v>9.288281811646297E-2</v>
+      </c>
+      <c r="I34">
+        <v>4.3134435657800146E-4</v>
+      </c>
+      <c r="J34">
+        <v>6.4701653486700218E-4</v>
+      </c>
+      <c r="K34">
+        <v>5.7512580877066861E-4</v>
+      </c>
+      <c r="L34">
+        <v>1.0783608914450035E-3</v>
+      </c>
+      <c r="M34">
+        <v>8.6268871315600291E-4</v>
+      </c>
+      <c r="N34">
+        <v>4.3134435657800146E-4</v>
+      </c>
+      <c r="O34">
+        <v>1.0064701653486701E-3</v>
+      </c>
+      <c r="P34">
+        <v>5.7512580877066861E-4</v>
+      </c>
+      <c r="Q34">
+        <v>7.1890726096333576E-4</v>
+      </c>
+      <c r="R34">
+        <v>1.4378145219266715E-3</v>
+      </c>
+      <c r="S34">
+        <v>7.1890726096333576E-4</v>
+      </c>
+      <c r="T34">
+        <v>2.1567217828900073E-4</v>
+      </c>
+      <c r="U34">
+        <v>1.3659237958303378E-3</v>
+      </c>
+      <c r="V34">
+        <v>8.6268871315600291E-4</v>
+      </c>
+      <c r="W34">
+        <v>1.2940330697340044E-3</v>
+      </c>
+      <c r="X34">
+        <v>2.5880661394680087E-3</v>
+      </c>
+      <c r="Y34">
+        <v>1.7972681524083393E-3</v>
+      </c>
+      <c r="Z34">
+        <v>1.0064701653486701E-3</v>
+      </c>
+      <c r="AA34">
+        <v>3.716750539180446E-2</v>
+      </c>
+      <c r="AB34">
+        <v>3.6664270309130123E-2</v>
+      </c>
+      <c r="AC34">
+        <v>4.1984184040258804E-2</v>
+      </c>
+      <c r="AD34">
+        <v>0.12602444284687275</v>
+      </c>
+      <c r="AE34">
+        <v>0.13666427030913011</v>
+      </c>
+      <c r="AF34">
+        <v>0.12336448598130841</v>
+      </c>
+      <c r="AG34">
+        <v>4.3134435657800146E-4</v>
+      </c>
+      <c r="AH34">
+        <v>5.7512580877066861E-4</v>
+      </c>
+      <c r="AI34">
+        <v>5.7512580877066861E-4</v>
+      </c>
+      <c r="AJ34">
+        <v>1.1502516175413372E-3</v>
+      </c>
+      <c r="AK34">
+        <v>9.3457943925233649E-4</v>
+      </c>
+      <c r="AL34">
+        <v>5.0323508267433503E-4</v>
+      </c>
+      <c r="AM34">
+        <v>9.3457943925233649E-4</v>
+      </c>
+      <c r="AN34">
+        <v>5.0323508267433503E-4</v>
+      </c>
+      <c r="AO34">
+        <v>7.1890726096333576E-4</v>
+      </c>
+      <c r="AP34">
+        <v>1.509705248023005E-3</v>
+      </c>
+      <c r="AQ34">
+        <v>7.9079798705966934E-4</v>
+      </c>
+      <c r="AR34">
+        <v>3.5945363048166788E-4</v>
+      </c>
+      <c r="AS34">
+        <v>1.2940330697340044E-3</v>
+      </c>
+      <c r="AT34">
+        <v>7.9079798705966934E-4</v>
+      </c>
+      <c r="AU34">
+        <v>1.2940330697340044E-3</v>
+      </c>
+      <c r="AV34">
+        <v>2.7318475916606757E-3</v>
+      </c>
+      <c r="AW34">
+        <v>1.9410496046010064E-3</v>
+      </c>
+      <c r="AX34">
+        <v>1.3659237958303378E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>1.0266834297430211E-2</v>
+      </c>
+      <c r="C35">
+        <v>3.4818941504178275E-2</v>
+      </c>
+      <c r="D35">
+        <v>5.1103492607670879E-2</v>
+      </c>
+      <c r="E35">
+        <v>5.8388686522391257E-2</v>
+      </c>
+      <c r="F35">
+        <v>0.10734947503749732</v>
+      </c>
+      <c r="G35">
+        <v>0.12138418684379687</v>
+      </c>
+      <c r="H35">
+        <v>7.7565888150846363E-2</v>
+      </c>
+      <c r="I35">
+        <v>8.5708163702592668E-4</v>
+      </c>
+      <c r="J35">
+        <v>7.4994643239768583E-4</v>
+      </c>
+      <c r="K35">
+        <v>9.6421684165416753E-4</v>
+      </c>
+      <c r="L35">
+        <v>1.2856224555388902E-3</v>
+      </c>
+      <c r="M35">
+        <v>1.0713520462824085E-3</v>
+      </c>
+      <c r="N35">
+        <v>1.0713520462824084E-4</v>
+      </c>
+      <c r="O35">
+        <v>9.6421684165416753E-4</v>
+      </c>
+      <c r="P35">
+        <v>1.4998928647953717E-3</v>
+      </c>
+      <c r="Q35">
+        <v>1.8212984786800943E-3</v>
+      </c>
+      <c r="R35">
+        <v>1.4998928647953717E-3</v>
+      </c>
+      <c r="S35">
+        <v>9.6421684165416753E-4</v>
+      </c>
+      <c r="T35">
+        <v>3.2140561388472255E-4</v>
+      </c>
+      <c r="U35">
+        <v>1.2856224555388902E-3</v>
+      </c>
+      <c r="V35">
+        <v>1.4998928647953717E-3</v>
+      </c>
+      <c r="W35">
+        <v>1.8212984786800943E-3</v>
+      </c>
+      <c r="X35">
+        <v>1.7141632740518534E-3</v>
+      </c>
+      <c r="Y35">
+        <v>1.6070280694236126E-3</v>
+      </c>
+      <c r="Z35">
+        <v>8.5708163702592668E-4</v>
+      </c>
+      <c r="AA35">
+        <v>3.0962074137561604E-2</v>
+      </c>
+      <c r="AB35">
+        <v>4.7568030854938936E-2</v>
+      </c>
+      <c r="AC35">
+        <v>5.892436254553246E-2</v>
+      </c>
+      <c r="AD35">
+        <v>0.11634883222626956</v>
+      </c>
+      <c r="AE35">
+        <v>0.13049067923719734</v>
+      </c>
+      <c r="AF35">
+        <v>0.12234840368545104</v>
+      </c>
+      <c r="AG35">
+        <v>7.4994643239768583E-4</v>
+      </c>
+      <c r="AH35">
+        <v>6.4281122776944509E-4</v>
+      </c>
+      <c r="AI35">
+        <v>9.6421684165416753E-4</v>
+      </c>
+      <c r="AJ35">
+        <v>1.4998928647953717E-3</v>
+      </c>
+      <c r="AK35">
+        <v>1.0713520462824085E-3</v>
+      </c>
+      <c r="AL35">
+        <v>2.1427040925648167E-4</v>
+      </c>
+      <c r="AM35">
+        <v>8.5708163702592668E-4</v>
+      </c>
+      <c r="AN35">
+        <v>1.3927576601671309E-3</v>
+      </c>
+      <c r="AO35">
+        <v>1.8212984786800943E-3</v>
+      </c>
+      <c r="AP35">
+        <v>1.6070280694236126E-3</v>
+      </c>
+      <c r="AQ35">
+        <v>1.0713520462824085E-3</v>
+      </c>
+      <c r="AR35">
+        <v>6.4281122776944509E-4</v>
+      </c>
+      <c r="AS35">
+        <v>1.1784872509106492E-3</v>
+      </c>
+      <c r="AT35">
+        <v>1.3927576601671309E-3</v>
+      </c>
+      <c r="AU35">
+        <v>1.8212984786800943E-3</v>
+      </c>
+      <c r="AV35">
+        <v>1.8212984786800943E-3</v>
+      </c>
+      <c r="AW35">
+        <v>1.8212984786800943E-3</v>
+      </c>
+      <c r="AX35">
+        <v>1.2856224555388902E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36">
+        <v>7.9972193532136374E-2</v>
+      </c>
+      <c r="C36">
+        <v>3.5416609358237282E-2</v>
+      </c>
+      <c r="D36">
+        <v>4.6474843891838362E-2</v>
+      </c>
+      <c r="E36">
+        <v>5.3049266910571345E-2</v>
+      </c>
+      <c r="F36">
+        <v>0.10953703958407834</v>
+      </c>
+      <c r="G36">
+        <v>0.11388331086842901</v>
+      </c>
+      <c r="H36">
+        <v>7.4354248617720678E-2</v>
+      </c>
+      <c r="I36">
+        <v>8.2524138310455806E-4</v>
+      </c>
+      <c r="J36">
+        <v>1.471680466536462E-3</v>
+      </c>
+      <c r="K36">
+        <v>1.2791241438120651E-3</v>
+      </c>
+      <c r="L36">
+        <v>1.9118092041922263E-3</v>
+      </c>
+      <c r="M36">
+        <v>1.7054988584160866E-3</v>
+      </c>
+      <c r="N36">
+        <v>6.7394712953538908E-4</v>
+      </c>
+      <c r="O36">
+        <v>2.516986218468902E-3</v>
+      </c>
+      <c r="P36">
+        <v>2.599510356779358E-3</v>
+      </c>
+      <c r="Q36">
+        <v>2.627018402882843E-3</v>
+      </c>
+      <c r="R36">
+        <v>3.7961103622809671E-3</v>
+      </c>
+      <c r="S36">
+        <v>2.1868896652270787E-3</v>
+      </c>
+      <c r="T36">
+        <v>7.2896322174235962E-4</v>
+      </c>
+      <c r="U36">
+        <v>2.4619701262619314E-3</v>
+      </c>
+      <c r="V36">
+        <v>2.8195747256072401E-3</v>
+      </c>
+      <c r="W36">
+        <v>3.5485379473495999E-3</v>
+      </c>
+      <c r="X36">
+        <v>4.5525816301268118E-3</v>
+      </c>
+      <c r="Y36">
+        <v>3.2046873710560339E-3</v>
+      </c>
+      <c r="Z36">
+        <v>1.2241080516050946E-3</v>
+      </c>
+      <c r="AA36">
+        <v>3.3587324292355517E-2</v>
+      </c>
+      <c r="AB36">
+        <v>4.0725662256209938E-2</v>
+      </c>
+      <c r="AC36">
+        <v>5.3049266910571345E-2</v>
+      </c>
+      <c r="AD36">
+        <v>0.11708799823948506</v>
+      </c>
+      <c r="AE36">
+        <v>0.12696338679063626</v>
+      </c>
+      <c r="AF36">
+        <v>0.11384204879927379</v>
+      </c>
+      <c r="AG36">
+        <v>7.7022529089758752E-4</v>
+      </c>
+      <c r="AH36">
+        <v>1.2928781668638076E-3</v>
+      </c>
+      <c r="AI36">
+        <v>1.2791241438120651E-3</v>
+      </c>
+      <c r="AJ36">
+        <v>2.0493494347096526E-3</v>
+      </c>
+      <c r="AK36">
+        <v>1.8980551811404835E-3</v>
+      </c>
+      <c r="AL36">
+        <v>1.0315517288806977E-3</v>
+      </c>
+      <c r="AM36">
+        <v>2.3932000110032186E-3</v>
+      </c>
+      <c r="AN36">
+        <v>2.2831678265892775E-3</v>
+      </c>
+      <c r="AO36">
+        <v>2.627018402882843E-3</v>
+      </c>
+      <c r="AP36">
+        <v>4.0436827772123343E-3</v>
+      </c>
+      <c r="AQ36">
+        <v>2.4344620801584464E-3</v>
+      </c>
+      <c r="AR36">
+        <v>1.127829890242896E-3</v>
+      </c>
+      <c r="AS36">
+        <v>2.338183918796248E-3</v>
+      </c>
+      <c r="AT36">
+        <v>2.4757241493136742E-3</v>
+      </c>
+      <c r="AU36">
+        <v>3.5485379473495999E-3</v>
+      </c>
+      <c r="AV36">
+        <v>4.8689241603168927E-3</v>
+      </c>
+      <c r="AW36">
+        <v>3.5622919704013426E-3</v>
+      </c>
+      <c r="AX36">
+        <v>1.8705471350369983E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37">
+        <v>5.7570827847385608E-3</v>
+      </c>
+      <c r="C37">
+        <v>4.8146732900267483E-2</v>
+      </c>
+      <c r="D37">
+        <v>4.852884982804738E-2</v>
+      </c>
+      <c r="E37">
+        <v>4.222392051967902E-2</v>
+      </c>
+      <c r="F37">
+        <v>0.13985479556744365</v>
+      </c>
+      <c r="G37">
+        <v>0.13584256782575468</v>
+      </c>
+      <c r="H37">
+        <v>5.4451662208635843E-2</v>
+      </c>
+      <c r="I37">
+        <v>5.7317539166985094E-4</v>
+      </c>
+      <c r="J37">
+        <v>5.7317539166985094E-4</v>
+      </c>
+      <c r="K37">
+        <v>5.7317539166985094E-4</v>
+      </c>
+      <c r="L37">
+        <v>1.1463507833397019E-3</v>
+      </c>
+      <c r="M37">
+        <v>7.6423385555980129E-4</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>2.1016431027894534E-3</v>
+      </c>
+      <c r="P37">
+        <v>9.5529231944975165E-4</v>
+      </c>
+      <c r="Q37">
+        <v>1.3374092472296522E-3</v>
+      </c>
+      <c r="R37">
+        <v>2.6748184944593045E-3</v>
+      </c>
+      <c r="S37">
+        <v>1.3374092472296522E-3</v>
+      </c>
+      <c r="T37">
+        <v>1.9105846388995032E-4</v>
+      </c>
+      <c r="U37">
+        <v>1.1463507833397019E-3</v>
+      </c>
+      <c r="V37">
+        <v>1.5284677111196026E-3</v>
+      </c>
+      <c r="W37">
+        <v>2.1016431027894534E-3</v>
+      </c>
+      <c r="X37">
+        <v>3.6301108139090562E-3</v>
+      </c>
+      <c r="Y37">
+        <v>2.4837600305693541E-3</v>
+      </c>
+      <c r="Z37">
+        <v>5.7317539166985094E-4</v>
+      </c>
+      <c r="AA37">
+        <v>5.3687428353076043E-2</v>
+      </c>
+      <c r="AB37">
+        <v>4.6427206725257929E-2</v>
+      </c>
+      <c r="AC37">
+        <v>4.5662972869698129E-2</v>
+      </c>
+      <c r="AD37">
+        <v>0.14329384791746275</v>
+      </c>
+      <c r="AE37">
+        <v>0.13565150936186474</v>
+      </c>
+      <c r="AF37">
+        <v>5.73175391669851E-2</v>
+      </c>
+      <c r="AG37">
+        <v>5.7317539166985094E-4</v>
+      </c>
+      <c r="AH37">
+        <v>5.7317539166985094E-4</v>
+      </c>
+      <c r="AI37">
+        <v>7.6423385555980129E-4</v>
+      </c>
+      <c r="AJ37">
+        <v>1.1463507833397019E-3</v>
+      </c>
+      <c r="AK37">
+        <v>7.6423385555980129E-4</v>
+      </c>
+      <c r="AL37">
+        <v>1.9105846388995032E-4</v>
+      </c>
+      <c r="AM37">
+        <v>2.2927015666794038E-3</v>
+      </c>
+      <c r="AN37">
+        <v>9.5529231944975165E-4</v>
+      </c>
+      <c r="AO37">
+        <v>1.3374092472296522E-3</v>
+      </c>
+      <c r="AP37">
+        <v>2.8658769583492548E-3</v>
+      </c>
+      <c r="AQ37">
+        <v>1.3374092472296522E-3</v>
+      </c>
+      <c r="AR37">
+        <v>3.8211692777990065E-4</v>
+      </c>
+      <c r="AS37">
+        <v>1.3374092472296522E-3</v>
+      </c>
+      <c r="AT37">
+        <v>1.5284677111196026E-3</v>
+      </c>
+      <c r="AU37">
+        <v>2.2927015666794038E-3</v>
+      </c>
+      <c r="AV37">
+        <v>3.6301108139090562E-3</v>
+      </c>
+      <c r="AW37">
+        <v>2.4837600305693541E-3</v>
+      </c>
+      <c r="AX37">
+        <v>7.6423385555980129E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38">
+        <v>2.7821867015127465E-2</v>
+      </c>
+      <c r="C38">
+        <v>3.0916422867083102E-2</v>
+      </c>
+      <c r="D38">
+        <v>5.3293271131493632E-2</v>
+      </c>
+      <c r="E38">
+        <v>7.0293350201628843E-2</v>
+      </c>
+      <c r="F38">
+        <v>0.10836562030521073</v>
+      </c>
+      <c r="G38">
+        <v>0.1056377006404681</v>
+      </c>
+      <c r="H38">
+        <v>6.2228196410215861E-2</v>
+      </c>
+      <c r="I38">
+        <v>1.1465169605440026E-3</v>
+      </c>
+      <c r="J38">
+        <v>1.8186131098284178E-3</v>
+      </c>
+      <c r="K38">
+        <v>2.0558235154582113E-3</v>
+      </c>
+      <c r="L38">
+        <v>2.6883845971376612E-3</v>
+      </c>
+      <c r="M38">
+        <v>1.897683245038349E-3</v>
+      </c>
+      <c r="N38">
+        <v>5.1395587886455282E-4</v>
+      </c>
+      <c r="O38">
+        <v>3.7953664900766981E-3</v>
+      </c>
+      <c r="P38">
+        <v>3.5976911520518699E-3</v>
+      </c>
+      <c r="Q38">
+        <v>4.4674626393611137E-3</v>
+      </c>
+      <c r="R38">
+        <v>5.5744445323001506E-3</v>
+      </c>
+      <c r="S38">
+        <v>2.2534988534830395E-3</v>
+      </c>
+      <c r="T38">
+        <v>7.9070135209931205E-4</v>
+      </c>
+      <c r="U38">
+        <v>2.6488495295326955E-3</v>
+      </c>
+      <c r="V38">
+        <v>2.9651300703724204E-3</v>
+      </c>
+      <c r="W38">
+        <v>3.7953664900766981E-3</v>
+      </c>
+      <c r="X38">
+        <v>5.1000237210405627E-3</v>
+      </c>
+      <c r="Y38">
+        <v>3.0046651379773861E-3</v>
+      </c>
+      <c r="Z38">
+        <v>1.2255870957539336E-3</v>
+      </c>
+      <c r="AA38">
+        <v>2.7595477188265993E-2</v>
+      </c>
+      <c r="AB38">
+        <v>5.3609551672333361E-2</v>
+      </c>
+      <c r="AC38">
+        <v>7.1993358108642366E-2</v>
+      </c>
+      <c r="AD38">
+        <v>0.10777259429113624</v>
+      </c>
+      <c r="AE38">
+        <v>0.11761682612477267</v>
+      </c>
+      <c r="AF38">
+        <v>9.0653910018186137E-2</v>
+      </c>
+      <c r="AG38">
+        <v>1.0279117577291056E-3</v>
+      </c>
+      <c r="AH38">
+        <v>1.8186131098284178E-3</v>
+      </c>
+      <c r="AI38">
+        <v>2.1348936506681427E-3</v>
+      </c>
+      <c r="AJ38">
+        <v>2.6488495295326955E-3</v>
+      </c>
+      <c r="AK38">
+        <v>2.095358583063177E-3</v>
+      </c>
+      <c r="AL38">
+        <v>7.5116628449434654E-4</v>
+      </c>
+      <c r="AM38">
+        <v>3.3604807464220764E-3</v>
+      </c>
+      <c r="AN38">
+        <v>3.6372262196568356E-3</v>
+      </c>
+      <c r="AO38">
+        <v>4.5860678421760104E-3</v>
+      </c>
+      <c r="AP38">
+        <v>5.5349094646951844E-3</v>
+      </c>
+      <c r="AQ38">
+        <v>2.5302443267177987E-3</v>
+      </c>
+      <c r="AR38">
+        <v>1.1465169605440026E-3</v>
+      </c>
+      <c r="AS38">
+        <v>2.3325689886929705E-3</v>
+      </c>
+      <c r="AT38">
+        <v>3.0046651379773861E-3</v>
+      </c>
+      <c r="AU38">
+        <v>3.8744366252866291E-3</v>
+      </c>
+      <c r="AV38">
+        <v>5.0604886534355974E-3</v>
+      </c>
+      <c r="AW38">
+        <v>3.3604807464220764E-3</v>
+      </c>
+      <c r="AX38">
+        <v>1.7790780422234523E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <v>2.1716103442700307E-2</v>
+      </c>
+      <c r="C39">
+        <v>3.8697259788279391E-2</v>
+      </c>
+      <c r="D39">
+        <v>3.9760927923821104E-2</v>
+      </c>
+      <c r="E39">
+        <v>4.8878083371321483E-2</v>
+      </c>
+      <c r="F39">
+        <v>0.10773438687129616</v>
+      </c>
+      <c r="G39">
+        <v>0.11695284404599099</v>
+      </c>
+      <c r="H39">
+        <v>8.6359722433267491E-2</v>
+      </c>
+      <c r="I39">
+        <v>9.1171554475003795E-4</v>
+      </c>
+      <c r="J39">
+        <v>4.5585777237501897E-4</v>
+      </c>
+      <c r="K39">
+        <v>9.6236640834726234E-4</v>
+      </c>
+      <c r="L39">
+        <v>1.0636681355417109E-3</v>
+      </c>
+      <c r="M39">
+        <v>9.1171554475003795E-4</v>
+      </c>
+      <c r="N39">
+        <v>2.5325431798612166E-4</v>
+      </c>
+      <c r="O39">
+        <v>1.5701767715139542E-3</v>
+      </c>
+      <c r="P39">
+        <v>1.7727802259028516E-3</v>
+      </c>
+      <c r="Q39">
+        <v>2.7857974978473385E-3</v>
+      </c>
+      <c r="R39">
+        <v>3.1403535430279085E-3</v>
+      </c>
+      <c r="S39">
+        <v>1.3675733171250571E-3</v>
+      </c>
+      <c r="T39">
+        <v>7.0911209036114069E-4</v>
+      </c>
+      <c r="U39">
+        <v>4.2040216785696194E-3</v>
+      </c>
+      <c r="V39">
+        <v>2.5325431798612166E-3</v>
+      </c>
+      <c r="W39">
+        <v>2.4818923162639923E-3</v>
+      </c>
+      <c r="X39">
+        <v>5.7235475864863498E-3</v>
+      </c>
+      <c r="Y39">
+        <v>4.6092285873474146E-3</v>
+      </c>
+      <c r="Z39">
+        <v>1.6208276351111787E-3</v>
+      </c>
+      <c r="AA39">
+        <v>3.6164716608418176E-2</v>
+      </c>
+      <c r="AB39">
+        <v>3.9406371878640531E-2</v>
+      </c>
+      <c r="AC39">
+        <v>4.9333941143696498E-2</v>
+      </c>
+      <c r="AD39">
+        <v>0.11350858532137972</v>
+      </c>
+      <c r="AE39">
+        <v>0.12480372790356076</v>
+      </c>
+      <c r="AF39">
+        <v>0.12267639163247733</v>
+      </c>
+      <c r="AG39">
+        <v>8.6106468115281366E-4</v>
+      </c>
+      <c r="AH39">
+        <v>4.5585777237501897E-4</v>
+      </c>
+      <c r="AI39">
+        <v>9.6236640834726234E-4</v>
+      </c>
+      <c r="AJ39">
+        <v>1.1143189991389354E-3</v>
+      </c>
+      <c r="AK39">
+        <v>9.6236640834726234E-4</v>
+      </c>
+      <c r="AL39">
+        <v>3.03905181583346E-4</v>
+      </c>
+      <c r="AM39">
+        <v>1.4688750443195057E-3</v>
+      </c>
+      <c r="AN39">
+        <v>1.7727802259028516E-3</v>
+      </c>
+      <c r="AO39">
+        <v>2.8364483614445627E-3</v>
+      </c>
+      <c r="AP39">
+        <v>3.2923061338195818E-3</v>
+      </c>
+      <c r="AQ39">
+        <v>1.4688750443195057E-3</v>
+      </c>
+      <c r="AR39">
+        <v>1.0636681355417109E-3</v>
+      </c>
+      <c r="AS39">
+        <v>3.9001164969862737E-3</v>
+      </c>
+      <c r="AT39">
+        <v>2.4818923162639923E-3</v>
+      </c>
+      <c r="AU39">
+        <v>2.4818923162639923E-3</v>
+      </c>
+      <c r="AV39">
+        <v>6.0274527680696955E-3</v>
+      </c>
+      <c r="AW39">
+        <v>4.9131337689307603E-3</v>
+      </c>
+      <c r="AX39">
+        <v>2.2792888618750951E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>3.7839015070269627E-2</v>
+      </c>
+      <c r="C40">
+        <v>2.5580651725240544E-2</v>
+      </c>
+      <c r="D40">
+        <v>4.0929042760384872E-2</v>
+      </c>
+      <c r="E40">
+        <v>5.1161303450481088E-2</v>
+      </c>
+      <c r="F40">
+        <v>8.8776489055550717E-2</v>
+      </c>
+      <c r="G40">
+        <v>9.0724106857358794E-2</v>
+      </c>
+      <c r="H40">
+        <v>6.0492427545710881E-2</v>
+      </c>
+      <c r="I40">
+        <v>4.0987180605214961E-3</v>
+      </c>
+      <c r="J40">
+        <v>4.0987180605214961E-3</v>
+      </c>
+      <c r="K40">
+        <v>5.0870614226330626E-3</v>
+      </c>
+      <c r="L40">
+        <v>8.2555739658730851E-3</v>
+      </c>
+      <c r="M40">
+        <v>5.435888491613616E-3</v>
+      </c>
+      <c r="N40">
+        <v>1.5406528879974418E-3</v>
+      </c>
+      <c r="O40">
+        <v>1.2296154181564489E-2</v>
+      </c>
+      <c r="P40">
+        <v>1.1220604052207785E-2</v>
+      </c>
+      <c r="Q40">
+        <v>1.1365948664283015E-2</v>
+      </c>
+      <c r="R40">
+        <v>1.3691462457486701E-2</v>
+      </c>
+      <c r="S40">
+        <v>7.03467922444115E-3</v>
+      </c>
+      <c r="T40">
+        <v>1.5406528879974418E-3</v>
+      </c>
+      <c r="U40">
+        <v>5.116130345048109E-3</v>
+      </c>
+      <c r="V40">
+        <v>5.7265777157640765E-3</v>
+      </c>
+      <c r="W40">
+        <v>7.3835062934217025E-3</v>
+      </c>
+      <c r="X40">
+        <v>9.2148484055696051E-3</v>
+      </c>
+      <c r="Y40">
+        <v>6.1335426295747219E-3</v>
+      </c>
+      <c r="Z40">
+        <v>1.5115839655823959E-3</v>
+      </c>
+      <c r="AA40">
+        <v>2.3691171768262551E-2</v>
+      </c>
+      <c r="AB40">
+        <v>4.4068486381209845E-2</v>
+      </c>
+      <c r="AC40">
+        <v>5.5376297200662769E-2</v>
+      </c>
+      <c r="AD40">
+        <v>9.1712450219470359E-2</v>
+      </c>
+      <c r="AE40">
+        <v>9.4037964012674044E-2</v>
+      </c>
+      <c r="AF40">
+        <v>8.6334699572686843E-2</v>
+      </c>
+      <c r="AG40">
+        <v>3.7789599139559896E-3</v>
+      </c>
+      <c r="AH40">
+        <v>4.4184762070870031E-3</v>
+      </c>
+      <c r="AI40">
+        <v>5.4940263364437079E-3</v>
+      </c>
+      <c r="AJ40">
+        <v>8.5171942676085001E-3</v>
+      </c>
+      <c r="AK40">
+        <v>5.6393709485189382E-3</v>
+      </c>
+      <c r="AL40">
+        <v>2.2092381035435016E-3</v>
+      </c>
+      <c r="AM40">
+        <v>1.1365948664283015E-2</v>
+      </c>
+      <c r="AN40">
+        <v>1.2092671724659167E-2</v>
+      </c>
+      <c r="AO40">
+        <v>1.2296154181564489E-2</v>
+      </c>
+      <c r="AP40">
+        <v>1.4156565216127438E-2</v>
+      </c>
+      <c r="AQ40">
+        <v>7.296299526176565E-3</v>
+      </c>
+      <c r="AR40">
+        <v>2.1801691811284556E-3</v>
+      </c>
+      <c r="AS40">
+        <v>4.7382343536525101E-3</v>
+      </c>
+      <c r="AT40">
+        <v>6.1626115519897674E-3</v>
+      </c>
+      <c r="AU40">
+        <v>7.99395366413767E-3</v>
+      </c>
+      <c r="AV40">
+        <v>9.5055376297200657E-3</v>
+      </c>
+      <c r="AW40">
+        <v>6.3660940088950905E-3</v>
+      </c>
+      <c r="AX40">
+        <v>2.1511002587134096E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3F1794-BA7F-46A4-A538-473EACC83541}">
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16810,8 +23159,8 @@
       <c r="B7" t="s">
         <v>83</v>
       </c>
-      <c r="C7" t="s">
-        <v>79</v>
+      <c r="C7">
+        <v>65</v>
       </c>
       <c r="D7" s="9">
         <v>1.5907447577729574E-2</v>
@@ -16984,8 +23333,8 @@
       <c r="B13" t="s">
         <v>84</v>
       </c>
-      <c r="C13" t="s">
-        <v>79</v>
+      <c r="C13">
+        <v>65</v>
       </c>
       <c r="D13" s="9">
         <v>2.5056947608200455E-2</v>
@@ -17158,8 +23507,8 @@
       <c r="B19" t="s">
         <v>86</v>
       </c>
-      <c r="C19" t="s">
-        <v>79</v>
+      <c r="C19">
+        <v>65</v>
       </c>
       <c r="D19" s="9">
         <v>2.9069767441860465E-2</v>
@@ -17332,8 +23681,8 @@
       <c r="B25" t="s">
         <v>85</v>
       </c>
-      <c r="C25" t="s">
-        <v>79</v>
+      <c r="C25">
+        <v>65</v>
       </c>
       <c r="D25" s="9">
         <v>1.7964071856287425E-2</v>
@@ -17506,8 +23855,8 @@
       <c r="B31" t="s">
         <v>83</v>
       </c>
-      <c r="C31" t="s">
-        <v>79</v>
+      <c r="C31">
+        <v>65</v>
       </c>
       <c r="D31" s="9">
         <v>1.1685116851168511E-2</v>
@@ -17680,8 +24029,8 @@
       <c r="B37" t="s">
         <v>84</v>
       </c>
-      <c r="C37" t="s">
-        <v>79</v>
+      <c r="C37">
+        <v>65</v>
       </c>
       <c r="D37" s="9">
         <v>8.3056478405315621E-3</v>
@@ -17854,8 +24203,8 @@
       <c r="B43" t="s">
         <v>86</v>
       </c>
-      <c r="C43" t="s">
-        <v>79</v>
+      <c r="C43">
+        <v>65</v>
       </c>
       <c r="D43" s="9">
         <v>2.0876826722338204E-2</v>
@@ -18028,8 +24377,8 @@
       <c r="B49" t="s">
         <v>85</v>
       </c>
-      <c r="C49" t="s">
-        <v>79</v>
+      <c r="C49">
+        <v>65</v>
       </c>
       <c r="D49" s="9">
         <v>1.3927576601671309E-2</v>
@@ -18051,16 +24400,17 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J49" xr:uid="{EF3F1794-BA7F-46A4-A538-473EACC83541}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8E04AD-7E04-4390-97A6-C2EE83CBA72D}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18252,8 +24602,8 @@
       <c r="B7" t="s">
         <v>83</v>
       </c>
-      <c r="C7" t="s">
-        <v>79</v>
+      <c r="C7">
+        <v>65</v>
       </c>
       <c r="D7" s="9">
         <v>2.1691973969631237E-3</v>
@@ -18426,8 +24776,8 @@
       <c r="B13" t="s">
         <v>84</v>
       </c>
-      <c r="C13" t="s">
-        <v>79</v>
+      <c r="C13">
+        <v>65</v>
       </c>
       <c r="D13" s="9">
         <v>6.8337129840546698E-3</v>
@@ -18600,8 +24950,8 @@
       <c r="B19" t="s">
         <v>86</v>
       </c>
-      <c r="C19" t="s">
-        <v>79</v>
+      <c r="C19">
+        <v>65</v>
       </c>
       <c r="D19" s="9">
         <v>2.9940119760479044E-3</v>
@@ -18774,8 +25124,8 @@
       <c r="B25" t="s">
         <v>85</v>
       </c>
-      <c r="C25" t="s">
-        <v>79</v>
+      <c r="C25">
+        <v>65</v>
       </c>
       <c r="D25" s="9">
         <v>5.8139534883720929E-3</v>
@@ -18948,8 +25298,8 @@
       <c r="B31" t="s">
         <v>83</v>
       </c>
-      <c r="C31" t="s">
-        <v>79</v>
+      <c r="C31">
+        <v>65</v>
       </c>
       <c r="D31" s="9">
         <v>1.025010250102501E-3</v>
@@ -19122,8 +25472,8 @@
       <c r="B37" t="s">
         <v>84</v>
       </c>
-      <c r="C37" t="s">
-        <v>79</v>
+      <c r="C37">
+        <v>65</v>
       </c>
       <c r="D37" s="9">
         <v>0</v>
@@ -19296,8 +25646,8 @@
       <c r="B43" t="s">
         <v>86</v>
       </c>
-      <c r="C43" t="s">
-        <v>79</v>
+      <c r="C43">
+        <v>65</v>
       </c>
       <c r="D43" s="9">
         <v>0</v>
@@ -19470,8 +25820,8 @@
       <c r="B49" t="s">
         <v>85</v>
       </c>
-      <c r="C49" t="s">
-        <v>79</v>
+      <c r="C49">
+        <v>65</v>
       </c>
       <c r="D49" s="9">
         <v>0</v>
@@ -19497,7 +25847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE310753-5FDB-4C95-9210-5EA6DD07A095}">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -19760,7 +26110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFD3F66-8BBD-4D99-AF60-845E4FEC384A}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -19832,7 +26182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
@@ -20110,7 +26460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B9D151-15B7-4717-813C-05A73491EC4A}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -20295,104 +26645,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2AC051-F066-42E9-A916-4CE8811C6F18}">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2">
-        <v>4.1800000000000002E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3">
-        <v>2.0199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4">
-        <v>8.2400000000000008E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5">
-        <v>5.9500000000000004E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6">
-        <v>1.4800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7">
-        <v>2.5400000000000002E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8">
-        <v>4.5199999999999997E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Inputs/MasterTable.xlsx
+++ b/Inputs/MasterTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sbessey/PycharmProjects/profound-model/Inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sam/Documents/profound/profound-model/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C0E6B5-0F14-6147-8263-2FA6E377EA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826042B8-8581-F54E-BBD5-5114CBD9361F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="48120" windowHeight="20120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InitialPop" sheetId="12" r:id="rId1"/>
@@ -38,6 +38,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">OUDPrevNSDUH!$A$1:$J$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">region_prob!$A$1:$AX$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="247">
   <si>
     <t>pe</t>
   </si>
@@ -199,9 +200,6 @@
   </si>
   <si>
     <t>sex</t>
-  </si>
-  <si>
-    <t>preb</t>
   </si>
   <si>
     <t>il.lr</t>
@@ -393,12 +391,6 @@
     <t>monthly prob</t>
   </si>
   <si>
-    <t>p.preb2il.lr</t>
-  </si>
-  <si>
-    <t>p.preb2inact</t>
-  </si>
-  <si>
     <t>p.il.lr2il.hr</t>
   </si>
   <si>
@@ -439,9 +431,6 @@
   </si>
   <si>
     <t>multi.NODU.fx</t>
-  </si>
-  <si>
-    <t>c.preb</t>
   </si>
   <si>
     <t>c.il.lr</t>
@@ -511,9 +500,6 @@
   </si>
   <si>
     <t>Stimulant (cocaine, methamphetamine) prevalence estimated from NSDUH data</t>
-  </si>
-  <si>
-    <t>od.preb.sub</t>
   </si>
   <si>
     <t>od.il.lr.sub</t>
@@ -777,9 +763,6 @@
     <t>f_other_50to64</t>
   </si>
   <si>
-    <t>Barringon</t>
-  </si>
-  <si>
     <t>m_white_65</t>
   </si>
   <si>
@@ -802,6 +785,21 @@
   </si>
   <si>
     <t>f_other_65</t>
+  </si>
+  <si>
+    <t>rx</t>
+  </si>
+  <si>
+    <t>od.rx.sub</t>
+  </si>
+  <si>
+    <t>p.rx2il.lr</t>
+  </si>
+  <si>
+    <t>p.rx2inact</t>
+  </si>
+  <si>
+    <t>c.rx</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1202,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>46</v>
@@ -1233,69 +1231,69 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2">
         <v>909141</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2">
         <f>1-(0.0517+0.0545+0.0558*0.4)</f>
         <v>0.87148000000000003</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4">
         <v>5.1999999999999998E-2</v>
@@ -1307,7 +1305,7 @@
         <v>6.7199999999999996E-2</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" s="7">
         <f>C4</f>
@@ -1318,17 +1316,17 @@
         <v>7.7551020408163258E-3</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2">
         <v>3.2000000000000001E-2</v>
@@ -1340,7 +1338,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" ref="G5:G6" si="0">C5</f>
@@ -1351,15 +1349,15 @@
         <v>2.5510204081632651E-3</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2">
         <v>1.6E-2</v>
@@ -1371,7 +1369,7 @@
         <v>1.9E-2</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="0"/>
@@ -1382,7 +1380,7 @@
         <v>1.5306122448979593E-3</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1395,7 +1393,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1405,7 +1403,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1431,7 +1429,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>244</v>
       </c>
       <c r="B2">
         <v>4.1800000000000002E-4</v>
@@ -1439,7 +1437,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>245</v>
       </c>
       <c r="B3">
         <v>2.0199999999999999E-2</v>
@@ -1447,7 +1445,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B4">
         <v>8.2400000000000008E-3</v>
@@ -1455,7 +1453,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B5">
         <v>5.9500000000000004E-3</v>
@@ -1463,7 +1461,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B6">
         <v>1.4800000000000001E-2</v>
@@ -1471,7 +1469,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B7">
         <v>2.5400000000000002E-3</v>
@@ -1479,7 +1477,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B8">
         <v>4.5199999999999997E-2</v>
@@ -1506,10 +1504,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
@@ -1533,15 +1531,15 @@
         <v>6</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2">
         <v>0.68500000000000005</v>
@@ -1549,10 +1547,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
         <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
       </c>
       <c r="C3" s="14">
         <v>0.64500000000000002</v>
@@ -1567,10 +1565,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="14">
         <v>0.64500000000000002</v>
@@ -1585,10 +1583,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="14">
         <f>2651/6446</f>
@@ -1603,18 +1601,18 @@
         <v>0.64066852367688021</v>
       </c>
       <c r="I5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="14">
         <v>1.302</v>
@@ -1626,18 +1624,18 @@
         <v>1.377</v>
       </c>
       <c r="I6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="14">
         <v>0.95</v>
@@ -1651,10 +1649,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="14">
         <v>7.5600000000000001E-2</v>
@@ -1666,7 +1664,7 @@
         <v>0.11579589999999999</v>
       </c>
       <c r="F8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G8">
         <v>19</v>
@@ -1676,10 +1674,10 @@
         <v>232</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1707,18 +1705,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B2" s="23">
         <f>1-C2</f>
@@ -1748,13 +1746,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1781,7 +1779,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B4" s="13">
         <v>0.16700000000000001</v>
@@ -1792,7 +1790,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B5" s="13">
         <v>0.29899999999999999</v>
@@ -1891,7 +1889,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B14" s="13">
         <v>0.32100000000000001</v>
@@ -1935,7 +1933,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B18" s="13">
         <v>0.51100000000000001</v>
@@ -2089,7 +2087,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B32" s="13">
         <v>0.22600000000000001</v>
@@ -2144,7 +2142,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B37" s="13">
         <v>0.33300000000000002</v>
@@ -2155,7 +2153,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B38" s="13">
         <v>0.13900000000000001</v>
@@ -2166,7 +2164,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B39" s="13">
         <v>0.19800000000000001</v>
@@ -2206,7 +2204,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -2232,7 +2230,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B2" s="14">
         <v>0.1111111</v>
@@ -2246,7 +2244,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B3" s="14">
         <v>3.7000000000000033E-2</v>
@@ -2263,7 +2261,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B4">
         <v>0.8</v>
@@ -2408,7 +2406,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -2434,18 +2432,18 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>15.5</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B3" s="5">
         <v>0.3</v>
@@ -2459,7 +2457,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B4" s="5">
         <v>0.7</v>
@@ -2473,7 +2471,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -2496,10 +2494,10 @@
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
         <v>105</v>
-      </c>
-      <c r="B1" t="s">
-        <v>106</v>
       </c>
       <c r="C1" t="s">
         <v>34</v>
@@ -2624,7 +2622,7 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2">
         <f>ROUND(C4/3090*932,0)</f>
@@ -2788,7 +2786,7 @@
         <v>2015</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2913,7 +2911,7 @@
         <v>2016</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4">
         <v>12</v>
@@ -3038,7 +3036,7 @@
         <v>2016</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3163,7 +3161,7 @@
         <v>2017</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -3288,7 +3286,7 @@
         <v>2017</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -3413,7 +3411,7 @@
         <v>2018</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8">
         <v>44</v>
@@ -3538,7 +3536,7 @@
         <v>2018</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -3663,7 +3661,7 @@
         <v>2019</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10">
         <v>55</v>
@@ -3788,7 +3786,7 @@
         <v>2019</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11">
         <v>60</v>
@@ -3925,7 +3923,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4477,7 +4475,7 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B5" s="20">
         <v>0</v>
@@ -8876,13 +8874,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC045363-D7FC-49B9-A9BB-CFCFB09307A2}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -8908,236 +8908,236 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>246</v>
       </c>
       <c r="B2">
         <v>1019</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>1511</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>1511</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>631</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B6" s="5">
         <v>2000</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B7">
         <v>61.5</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B8">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B9">
         <v>500</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B10" s="5">
         <v>1034</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -9166,10 +9166,10 @@
         <v>46</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>34</v>
@@ -9181,7 +9181,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>37</v>
@@ -9291,13 +9291,13 @@
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="11">
         <v>919</v>
@@ -9458,13 +9458,13 @@
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="11">
         <v>462</v>
@@ -9625,13 +9625,13 @@
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="11">
         <v>301</v>
@@ -9792,13 +9792,13 @@
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="11">
         <v>1630</v>
@@ -9959,13 +9959,13 @@
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="11">
         <v>1800</v>
@@ -10126,13 +10126,13 @@
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="11">
         <v>998</v>
@@ -10293,13 +10293,13 @@
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="11">
         <v>6</v>
@@ -10421,13 +10421,13 @@
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="11">
         <v>6</v>
@@ -10549,13 +10549,13 @@
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="11">
         <v>2</v>
@@ -10677,13 +10677,13 @@
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" s="11">
         <v>10</v>
@@ -10805,13 +10805,13 @@
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="11">
         <v>6</v>
@@ -10933,13 +10933,13 @@
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="11">
         <v>3</v>
@@ -11061,13 +11061,13 @@
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="11">
         <v>28</v>
@@ -11189,13 +11189,13 @@
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="11">
         <v>17</v>
@@ -11317,13 +11317,13 @@
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="11">
         <v>11</v>
@@ -11445,13 +11445,13 @@
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="11">
         <v>33</v>
@@ -11573,13 +11573,13 @@
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" s="11">
         <v>19</v>
@@ -11701,13 +11701,13 @@
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="11">
         <v>6</v>
@@ -11829,13 +11829,13 @@
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="11">
         <v>60</v>
@@ -11957,13 +11957,13 @@
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="11">
         <v>13</v>
@@ -12085,13 +12085,13 @@
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="11">
         <v>16</v>
@@ -12213,13 +12213,13 @@
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" s="11">
         <v>79</v>
@@ -12341,13 +12341,13 @@
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="11">
         <v>47</v>
@@ -12469,13 +12469,13 @@
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="11">
         <v>18</v>
@@ -12597,13 +12597,13 @@
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D26" s="11">
         <v>803</v>
@@ -12725,13 +12725,13 @@
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D27" s="11">
         <v>367</v>
@@ -12853,13 +12853,13 @@
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" s="11">
         <v>390</v>
@@ -12981,13 +12981,13 @@
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D29" s="11">
         <v>1883</v>
@@ -13109,13 +13109,13 @@
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D30" s="11">
         <v>1943</v>
@@ -13237,13 +13237,13 @@
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31" s="11">
         <v>1325</v>
@@ -13365,13 +13365,13 @@
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D32" s="11">
         <v>5</v>
@@ -13493,13 +13493,13 @@
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D33" s="11">
         <v>5</v>
@@ -13621,13 +13621,13 @@
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" s="11">
         <v>3</v>
@@ -13749,13 +13749,13 @@
     </row>
     <row r="35" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D35" s="11">
         <v>12</v>
@@ -13877,13 +13877,13 @@
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D36" s="11">
         <v>7</v>
@@ -14005,13 +14005,13 @@
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D37" s="11">
         <v>3</v>
@@ -14133,13 +14133,13 @@
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D38" s="11">
         <v>24</v>
@@ -14261,13 +14261,13 @@
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D39" s="11">
         <v>13</v>
@@ -14389,13 +14389,13 @@
     </row>
     <row r="40" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D40" s="11">
         <v>14</v>
@@ -14517,13 +14517,13 @@
     </row>
     <row r="41" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D41" s="11">
         <v>38</v>
@@ -14645,13 +14645,13 @@
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D42" s="11">
         <v>20</v>
@@ -14773,13 +14773,13 @@
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D43" s="11">
         <v>9</v>
@@ -14901,13 +14901,13 @@
     </row>
     <row r="44" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D44" s="11">
         <v>52</v>
@@ -15029,13 +15029,13 @@
     </row>
     <row r="45" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D45" s="11">
         <v>11</v>
@@ -15157,13 +15157,13 @@
     </row>
     <row r="46" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D46" s="11">
         <v>21</v>
@@ -15285,13 +15285,13 @@
     </row>
     <row r="47" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D47" s="11">
         <v>92</v>
@@ -15413,13 +15413,13 @@
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D48" s="11">
         <v>50</v>
@@ -15541,13 +15541,13 @@
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D49" s="11">
         <v>24</v>
@@ -15690,36 +15690,36 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" t="s">
         <v>102</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>103</v>
-      </c>
-      <c r="H1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F2">
         <v>5.7</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -15744,7 +15744,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="13">
         <v>0.69750000000000001</v>
@@ -15757,7 +15757,7 @@
         <v>0.66779999999999995</v>
       </c>
       <c r="H4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I4" s="13">
         <v>0.69750000000000001</v>
@@ -15772,7 +15772,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="13">
         <f>1-B4</f>
@@ -15787,7 +15787,7 @@
         <v>0.33220000000000005</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I5" s="13">
         <f>1-I4</f>
@@ -15804,7 +15804,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="13">
         <v>0.879</v>
@@ -15816,7 +15816,7 @@
         <v>0.87019999999999997</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I6" s="13">
         <v>0.879</v>
@@ -15830,7 +15830,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="13">
         <f>1-B6</f>
@@ -15845,7 +15845,7 @@
         <v>0.12980000000000003</v>
       </c>
       <c r="H7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I7" s="13">
         <f>1-I6</f>
@@ -15862,7 +15862,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="13">
         <v>0.94099999999999995</v>
@@ -15874,7 +15874,7 @@
         <v>0.93600000000000005</v>
       </c>
       <c r="H8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I8" s="13">
         <v>0.94099999999999995</v>
@@ -15888,7 +15888,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="13">
         <f>1-B8</f>
@@ -15903,7 +15903,7 @@
         <v>6.3999999999999946E-2</v>
       </c>
       <c r="H9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I9" s="13">
         <f>1-I8</f>
@@ -15920,7 +15920,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" s="13">
         <v>0.72699999999999998</v>
@@ -15932,7 +15932,7 @@
         <v>0.73799999999999999</v>
       </c>
       <c r="H10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I10" s="13">
         <v>0.72699999999999998</v>
@@ -15946,7 +15946,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="13">
         <f>1-B10</f>
@@ -15961,7 +15961,7 @@
         <v>0.26200000000000001</v>
       </c>
       <c r="H11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I11" s="13">
         <f>1-I10</f>
@@ -15978,7 +15978,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="17">
         <f>B3*B4*B8</f>
@@ -15993,7 +15993,7 @@
         <v>370.66105439999995</v>
       </c>
       <c r="H13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I13" s="17">
         <f>I3*I4*I8</f>
@@ -16010,7 +16010,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" s="17">
         <f>B3*B4*B9</f>
@@ -16025,7 +16025,7 @@
         <v>25.344345599999976</v>
       </c>
       <c r="H14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I14" s="17">
         <f>I3*I4*I9</f>
@@ -16042,7 +16042,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="17">
         <f>B3*B5*B10</f>
@@ -16057,7 +16057,7 @@
         <v>145.38201480000001</v>
       </c>
       <c r="H15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I15" s="17">
         <f>I3*I5*I10</f>
@@ -16074,7 +16074,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" s="17">
         <f>B3*B5*B11</f>
@@ -16089,7 +16089,7 @@
         <v>51.612585200000005</v>
       </c>
       <c r="H16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I16" s="17">
         <f>I3*I5*I11</f>
@@ -16158,21 +16158,21 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="17">
         <f>B13+C13+D13</f>
@@ -16183,7 +16183,7 @@
         <v>408.91196549999978</v>
       </c>
       <c r="H21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I21" s="17">
         <f>I13+J13+K13</f>
@@ -16196,7 +16196,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" s="17">
         <f>B15+C15+D15</f>
@@ -16211,7 +16211,7 @@
         <v>0.60199623624764098</v>
       </c>
       <c r="H22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I22" s="17">
         <f>I15+J15+K15</f>
@@ -16228,14 +16228,14 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E24" s="15">
         <f>B21*C22/C21/B22</f>
         <v>8.4783479955198739</v>
       </c>
       <c r="K24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L24" s="15">
         <f>I21*J22/J21/I22</f>
@@ -16244,14 +16244,14 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E25" s="15">
         <f>(B21/(B21+C21))/(B22/(B22+C22))</f>
         <v>1.5409750168597309</v>
       </c>
       <c r="K25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L25" s="15">
         <f>(I21/(I21+J21))/(I22/(I22+J22))</f>
@@ -16282,10 +16282,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
@@ -16293,7 +16293,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B2" s="24">
         <v>2016</v>
@@ -16304,7 +16304,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B3" s="24">
         <v>2017</v>
@@ -16315,7 +16315,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B4" s="24">
         <v>2018</v>
@@ -16326,7 +16326,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B5" s="24">
         <v>2019</v>
@@ -16337,7 +16337,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B6">
         <v>2016</v>
@@ -16349,7 +16349,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B7">
         <v>2017</v>
@@ -16361,7 +16361,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B8">
         <v>2018</v>
@@ -16373,7 +16373,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B9">
         <v>2019</v>
@@ -16385,7 +16385,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B10">
         <v>2016</v>
@@ -16397,7 +16397,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B11">
         <v>2017</v>
@@ -16409,7 +16409,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B12">
         <v>2018</v>
@@ -16421,7 +16421,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B13">
         <v>2019</v>
@@ -16441,7 +16441,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16451,10 +16451,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
@@ -16480,10 +16480,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="4">
         <f>OpioidPattern!D7</f>
@@ -16501,10 +16501,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="23">
         <f>OpioidPattern!D8</f>
@@ -16522,10 +16522,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="21">
         <f>OverdoseRisk!C2</f>
@@ -16542,10 +16542,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5">
         <f>OverdoseRisk!C3</f>
@@ -16562,10 +16562,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6">
         <f>OverdoseRisk!C5</f>
@@ -16582,10 +16582,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="15">
         <f>OverdoseRisk!C6</f>
@@ -16602,10 +16602,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="15">
         <f>OverdoseRisk!C7</f>
@@ -16622,10 +16622,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <f>OverdoseRisk!C8</f>
@@ -16642,10 +16642,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="14">
         <f>Mortality!B2</f>
@@ -16662,10 +16662,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="14">
         <f>Mortality!B3</f>
@@ -16682,10 +16682,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <f>Mortality!B4</f>
@@ -16702,10 +16702,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="15">
         <f>DecisionTree!C3</f>
@@ -16722,10 +16722,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="15">
         <f>DecisionTree!C4</f>
@@ -16786,10 +16786,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17">
         <f>DecisionTree!C7</f>
@@ -16806,10 +16806,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="14">
         <f>DecisionTree!C8</f>
@@ -16826,10 +16826,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>0.5</v>
@@ -16843,10 +16843,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20">
         <f>NxKit!B4</f>
@@ -16872,166 +16872,166 @@
   <dimension ref="A1:AX40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" t="s">
         <v>198</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I1" t="s">
         <v>199</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>200</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>201</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>202</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>203</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
+        <v>235</v>
+      </c>
+      <c r="O1" t="s">
+        <v>204</v>
+      </c>
+      <c r="P1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>206</v>
+      </c>
+      <c r="R1" t="s">
+        <v>207</v>
+      </c>
+      <c r="S1" t="s">
+        <v>208</v>
+      </c>
+      <c r="T1" t="s">
+        <v>236</v>
+      </c>
+      <c r="U1" t="s">
+        <v>209</v>
+      </c>
+      <c r="V1" t="s">
+        <v>210</v>
+      </c>
+      <c r="W1" t="s">
+        <v>211</v>
+      </c>
+      <c r="X1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AR1" t="s">
         <v>240</v>
       </c>
-      <c r="I1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J1" t="s">
-        <v>205</v>
-      </c>
-      <c r="K1" t="s">
-        <v>206</v>
-      </c>
-      <c r="L1" t="s">
-        <v>207</v>
-      </c>
-      <c r="M1" t="s">
-        <v>208</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="AS1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AX1" t="s">
         <v>241</v>
-      </c>
-      <c r="O1" t="s">
-        <v>209</v>
-      </c>
-      <c r="P1" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>211</v>
-      </c>
-      <c r="R1" t="s">
-        <v>212</v>
-      </c>
-      <c r="S1" t="s">
-        <v>213</v>
-      </c>
-      <c r="T1" t="s">
-        <v>242</v>
-      </c>
-      <c r="U1" t="s">
-        <v>214</v>
-      </c>
-      <c r="V1" t="s">
-        <v>215</v>
-      </c>
-      <c r="W1" t="s">
-        <v>216</v>
-      </c>
-      <c r="X1" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>221</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>239</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>1.4963575506989565E-2</v>
@@ -17487,7 +17487,7 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B5">
         <v>1.708645853613466E-2</v>
@@ -22977,10 +22977,10 @@
         <v>46</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>0</v>
@@ -23006,158 +23006,158 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="9">
         <v>2.4942686840898669E-2</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="9">
         <v>6.7126436781609192E-2</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="9">
         <v>6.9954776710005648E-2</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="9">
         <v>5.6965357481309889E-2</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="9">
         <v>3.7692145714887347E-2</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7">
         <v>65</v>
@@ -23166,172 +23166,172 @@
         <v>1.5907447577729574E-2</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="9">
         <v>2.6074182886522218E-2</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="9">
         <v>5.373573794626426E-2</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="9">
         <v>6.8940493468795355E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" s="9">
         <v>4.1410184667039732E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="9">
         <v>3.7641154328732745E-2</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13">
         <v>65</v>
@@ -23340,172 +23340,172 @@
         <v>2.5056947608200455E-2</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="9">
         <v>2.436938862761864E-2</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="9">
         <v>6.2884483937115515E-2</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="9">
         <v>5.9245960502692999E-2</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="9">
         <v>4.6042617960426177E-2</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" s="9">
         <v>2.6683608640406607E-2</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19">
         <v>65</v>
@@ -23514,172 +23514,172 @@
         <v>2.9069767441860465E-2</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="9">
         <v>2.2212908633696564E-2</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="9">
         <v>5.5646481178396073E-2</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="9">
         <v>6.0267857142857144E-2</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" s="9">
         <v>4.1769041769041768E-2</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="9">
         <v>3.0120481927710843E-2</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25">
         <v>65</v>
@@ -23688,172 +23688,172 @@
         <v>1.7964071856287425E-2</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D26" s="9">
         <v>2.7733912356889063E-2</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D27" s="9">
         <v>6.7545891997861346E-2</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" s="9">
         <v>5.9462835727670207E-2</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D29" s="9">
         <v>4.374098124098124E-2</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D30" s="9">
         <v>3.1348543869411986E-2</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C31">
         <v>65</v>
@@ -23862,172 +23862,172 @@
         <v>1.1685116851168511E-2</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D32" s="9">
         <v>3.5166479610924055E-2</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D33" s="9">
         <v>4.6284224250325946E-2</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" s="9">
         <v>4.4698544698544701E-2</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D35" s="9">
         <v>3.0814689742507388E-2</v>
       </c>
       <c r="E35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D36" s="9">
         <v>3.125E-2</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37">
         <v>65</v>
@@ -24036,172 +24036,172 @@
         <v>8.3056478405315621E-3</v>
       </c>
       <c r="E37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D38" s="9">
         <v>3.6120840630472856E-2</v>
       </c>
       <c r="E38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D39" s="9">
         <v>5.2423777144110548E-2</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D40" s="9">
         <v>4.7795479807336047E-2</v>
       </c>
       <c r="E40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D41" s="9">
         <v>3.065373787926181E-2</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D42" s="9">
         <v>1.3197969543147208E-2</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43">
         <v>65</v>
@@ -24210,172 +24210,172 @@
         <v>2.0876826722338204E-2</v>
       </c>
       <c r="E43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D44" s="9">
         <v>3.0328919265271252E-2</v>
       </c>
       <c r="E44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D45" s="9">
         <v>6.0930424042815977E-2</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D46" s="9">
         <v>4.7806155861165683E-2</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D47" s="9">
         <v>2.9858849077090119E-2</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D48" s="9">
         <v>2.3972602739726026E-2</v>
       </c>
       <c r="E48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C49">
         <v>65</v>
@@ -24384,19 +24384,19 @@
         <v>1.3927576601671309E-2</v>
       </c>
       <c r="E49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -24409,7 +24409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8E04AD-7E04-4390-97A6-C2EE83CBA72D}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
@@ -24420,10 +24420,10 @@
         <v>46</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>0</v>
@@ -24449,158 +24449,158 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="9">
         <v>3.9431453461714807E-3</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="9">
         <v>5.6091954022988506E-2</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="9">
         <v>4.8473713962690783E-2</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="9">
         <v>2.2428135200589661E-2</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="9">
         <v>1.284480943356496E-2</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7">
         <v>65</v>
@@ -24609,172 +24609,172 @@
         <v>2.1691973969631237E-3</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="9">
         <v>1.1017260374586854E-3</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="9">
         <v>1.6562384983437616E-2</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="9">
         <v>2.0319303338171262E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" s="9">
         <v>1.9026301063234472E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="9">
         <v>3.7641154328732745E-2</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13">
         <v>65</v>
@@ -24783,172 +24783,172 @@
         <v>6.8337129840546698E-3</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="9">
         <v>3.3528918692372171E-3</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="9">
         <v>4.0916530278232409E-2</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="9">
         <v>3.9434523809523808E-2</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="9">
         <v>2.5798525798525797E-2</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" s="9">
         <v>1.2048192771084338E-2</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19">
         <v>65</v>
@@ -24957,172 +24957,172 @@
         <v>2.9940119760479044E-3</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="9">
         <v>3.8477982043608381E-3</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="9">
         <v>4.5340624287992709E-2</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="9">
         <v>3.7701974865350089E-2</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" s="9">
         <v>2.5875190258751901E-2</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="9">
         <v>1.5247776365946633E-2</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25">
         <v>65</v>
@@ -25131,172 +25131,172 @@
         <v>5.8139534883720929E-3</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D26" s="9">
         <v>3.3557046979865771E-3</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D27" s="9">
         <v>3.920869720192479E-2</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" s="9">
         <v>2.7357901311680199E-2</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D29" s="9">
         <v>1.0281385281385282E-2</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D30" s="9">
         <v>6.3068076423669081E-3</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C31">
         <v>65</v>
@@ -25305,172 +25305,172 @@
         <v>1.025010250102501E-3</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D32" s="9">
         <v>1.4964459408903852E-3</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D33" s="9">
         <v>1.2059973924380704E-2</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" s="9">
         <v>1.0914760914760915E-2</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D35" s="9">
         <v>1.2241452089489235E-2</v>
       </c>
       <c r="E35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D36" s="9">
         <v>1.46484375E-2</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37">
         <v>65</v>
@@ -25479,172 +25479,172 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D38" s="9">
         <v>3.8445108927808629E-3</v>
       </c>
       <c r="E38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D39" s="9">
         <v>3.1700288184438041E-2</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D40" s="9">
         <v>2.2920759659463E-2</v>
       </c>
       <c r="E40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D41" s="9">
         <v>1.1400651465798045E-2</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D42" s="9">
         <v>5.1369863013698627E-3</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43">
         <v>65</v>
@@ -25653,172 +25653,172 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D44" s="9">
         <v>4.5971978984238179E-3</v>
       </c>
       <c r="E44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D45" s="9">
         <v>3.2243913138846239E-2</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D46" s="9">
         <v>1.7413856984068173E-2</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D47" s="9">
         <v>1.0009383797309979E-2</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D48" s="9">
         <v>5.076142131979695E-3</v>
       </c>
       <c r="E48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C49">
         <v>65</v>
@@ -25827,19 +25827,19 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -25852,7 +25852,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25865,13 +25865,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>0</v>
@@ -25895,88 +25895,88 @@
         <v>6</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4">
         <f>(93000+62000)/(93000+62000+781000)</f>
         <v>0.16559829059829059</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="4">
         <f>(30000+55000)/(30000+55000+616000)</f>
         <v>0.12125534950071326</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2">
         <v>0.48599999999999999</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="4">
         <v>0.41049999999999998</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="3">
         <v>9.0999999999999998E-2</v>
@@ -25988,18 +25988,18 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="4">
         <f>22/39</f>
@@ -26012,21 +26012,21 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="J7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="23">
         <v>0.05</v>
@@ -26038,60 +26038,60 @@
         <v>0.1</v>
       </c>
       <c r="J8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>47</v>
+        <v>242</v>
       </c>
       <c r="D9" s="10">
         <v>0.191</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="10">
         <v>0.25244517036746611</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="4">
         <f>684/1427</f>
         <v>0.47932725998598458</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -26125,7 +26125,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -26151,7 +26151,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2">
         <f>3587000/(3587000+891000)*0.176+891000/(3587000+891000)*0.079</f>
@@ -26166,12 +26166,12 @@
         <v>0.17030683340777131</v>
       </c>
       <c r="H2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B3" s="10">
         <v>0.25244517036746611</v>
@@ -26198,7 +26198,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -26219,235 +26219,235 @@
         <v>5</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B2">
         <v>13.3</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" s="16">
         <f>B2*2.59</f>
         <v>34.447000000000003</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B3">
         <v>70.2</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" s="16">
         <f>B3*2.59</f>
         <v>181.81799999999998</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B4">
         <v>128.80000000000001</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" s="16">
         <f t="shared" ref="H4:H8" si="0">B4*2.59</f>
         <v>333.59199999999998</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B5">
         <v>194.7</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" s="16">
         <f t="shared" si="0"/>
         <v>504.27299999999997</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B6">
         <v>359.9</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" s="16">
         <f t="shared" si="0"/>
         <v>932.14099999999985</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B7">
         <v>886.7</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" s="16">
         <f t="shared" si="0"/>
         <v>2296.5529999999999</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B8">
         <v>4386.1000000000004</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="16">
         <f t="shared" si="0"/>
         <v>11359.999</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K8" s="12"/>
     </row>
@@ -26464,8 +26464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B9D151-15B7-4717-813C-05A73491EC4A}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26476,10 +26476,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
@@ -26505,10 +26505,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="21">
         <v>7.5438493580000003E-3</v>
@@ -26522,10 +26522,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3">
         <v>1.538E-2</v>
@@ -26539,10 +26539,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -26550,10 +26550,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C5">
         <v>2.9</v>
@@ -26565,15 +26565,15 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C6" s="15">
         <v>2.9950980392156863</v>
@@ -26585,15 +26585,15 @@
         <v>5.9488195813894986</v>
       </c>
       <c r="F6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C7" s="15">
         <v>5.9153225806451619</v>
@@ -26607,10 +26607,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C8">
         <v>3.5</v>
@@ -26624,10 +26624,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -26639,7 +26639,7 @@
         <v>1.2</v>
       </c>
       <c r="I9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/MasterTable.xlsx
+++ b/Inputs/MasterTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sbessey/PycharmProjects/profound-model/Inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Desktop\profound-model\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420F4757-8D0A-5247-9135-7E203C4EF4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97ED0EC1-C6C8-43E7-AA86-2D491657ABB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="37860" windowHeight="18180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="23040" windowHeight="12264" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InitialPop" sheetId="12" r:id="rId1"/>
@@ -43,9 +43,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -54,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="202">
   <si>
     <t>pe</t>
   </si>
@@ -649,30 +647,46 @@
   <si>
     <t>init_inactive</t>
   </si>
+  <si>
+    <t>proportion of prescription opioids from sources other than from doctors (eligible for fentanyl exposure)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_prebopioid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>na</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NSDUH</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="0.00000"/>
+    <numFmt numFmtId="178" formatCode="0.0000"/>
+    <numFmt numFmtId="179" formatCode="0.000"/>
+    <numFmt numFmtId="180" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -680,7 +694,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -688,14 +702,21 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -730,30 +751,30 @@
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1039,16 +1060,16 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>66</v>
       </c>
@@ -1077,7 +1098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>147</v>
       </c>
@@ -1106,7 +1127,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -1136,7 +1157,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -1169,7 +1190,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -1200,7 +1221,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -1232,6 +1253,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1244,13 +1266,13 @@
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>66</v>
       </c>
@@ -1282,7 +1304,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -1293,7 +1315,7 @@
         <v>0.68500000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1311,7 +1333,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1329,7 +1351,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>189</v>
       </c>
@@ -1355,7 +1377,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>190</v>
       </c>
@@ -1378,7 +1400,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -1395,7 +1417,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -1429,6 +1451,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J8" r:id="rId1" xr:uid="{15D6B813-A970-440E-AF95-498C36C49594}"/>
     <hyperlink ref="J5" r:id="rId2" xr:uid="{7327CC0B-C88B-4874-A1C8-CDE2C37C2633}"/>
@@ -1446,12 +1469,12 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>138</v>
       </c>
@@ -1462,7 +1485,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>173</v>
       </c>
@@ -1475,6 +1498,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1487,12 +1511,12 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>138</v>
       </c>
@@ -1503,7 +1527,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1514,7 +1538,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1525,7 +1549,7 @@
         <v>0.69699999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>139</v>
       </c>
@@ -1536,7 +1560,7 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -1547,7 +1571,7 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1558,7 +1582,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1569,7 +1593,7 @@
         <v>0.81899999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1580,7 +1604,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1591,7 +1615,7 @@
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1602,7 +1626,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1613,7 +1637,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1624,7 +1648,7 @@
         <v>0.55200000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1635,7 +1659,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>141</v>
       </c>
@@ -1646,7 +1670,7 @@
         <v>0.67900000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1657,7 +1681,7 @@
         <v>0.89600000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1668,7 +1692,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1679,7 +1703,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>142</v>
       </c>
@@ -1690,7 +1714,7 @@
         <v>0.48899999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1701,7 +1725,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1712,7 +1736,7 @@
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1723,7 +1747,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1734,7 +1758,7 @@
         <v>0.75105263157894742</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1745,7 +1769,7 @@
         <v>0.76700000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1756,7 +1780,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1767,7 +1791,7 @@
         <v>0.74399999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1778,7 +1802,7 @@
         <v>0.69799999999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1789,7 +1813,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1800,7 +1824,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1811,7 +1835,7 @@
         <v>0.56100000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1822,7 +1846,7 @@
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1833,7 +1857,7 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -1844,7 +1868,7 @@
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -1855,7 +1879,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -1866,7 +1890,7 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1877,7 +1901,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -1888,7 +1912,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -1899,7 +1923,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -1910,7 +1934,7 @@
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -1921,7 +1945,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -1933,6 +1957,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1945,12 +1970,12 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>66</v>
       </c>
@@ -1976,7 +2001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>177</v>
       </c>
@@ -1990,7 +2015,7 @@
         <v>0.17524139999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>195</v>
       </c>
@@ -2007,7 +2032,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>179</v>
       </c>
@@ -2021,7 +2046,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
@@ -2029,7 +2054,7 @@
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
@@ -2037,7 +2062,7 @@
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
@@ -2045,7 +2070,7 @@
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
@@ -2053,7 +2078,7 @@
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
@@ -2061,7 +2086,7 @@
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
     </row>
-    <row r="17" spans="12:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
@@ -2069,7 +2094,7 @@
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
     </row>
-    <row r="18" spans="12:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
@@ -2077,7 +2102,7 @@
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
     </row>
-    <row r="19" spans="12:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
@@ -2085,7 +2110,7 @@
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
     </row>
-    <row r="21" spans="12:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
@@ -2093,7 +2118,7 @@
       <c r="T21" s="17"/>
       <c r="U21" s="17"/>
     </row>
-    <row r="22" spans="12:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
@@ -2101,7 +2126,7 @@
       <c r="T22" s="17"/>
       <c r="U22" s="17"/>
     </row>
-    <row r="23" spans="12:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
@@ -2109,7 +2134,7 @@
       <c r="T23" s="17"/>
       <c r="U23" s="17"/>
     </row>
-    <row r="24" spans="12:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
@@ -2117,27 +2142,28 @@
       <c r="T24" s="17"/>
       <c r="U24" s="17"/>
     </row>
-    <row r="29" spans="12:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
       <c r="S29" s="17"/>
       <c r="T29" s="17"/>
     </row>
-    <row r="30" spans="12:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
     </row>
-    <row r="32" spans="12:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="12:22" x14ac:dyDescent="0.25">
       <c r="O32" s="15"/>
       <c r="V32" s="15"/>
     </row>
-    <row r="33" spans="15:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="15:22" x14ac:dyDescent="0.25">
       <c r="O33" s="15"/>
       <c r="V33" s="15"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2150,9 +2176,9 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>66</v>
       </c>
@@ -2178,7 +2204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -2189,7 +2215,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>168</v>
       </c>
@@ -2203,7 +2229,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>171</v>
       </c>
@@ -2217,7 +2243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>181</v>
       </c>
@@ -2226,6 +2252,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2238,9 +2265,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -2365,7 +2392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -2529,7 +2556,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -2654,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -2779,7 +2806,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -2904,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -3029,7 +3056,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -3154,7 +3181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -3279,7 +3306,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2018</v>
       </c>
@@ -3404,7 +3431,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2019</v>
       </c>
@@ -3529,7 +3556,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -3655,6 +3682,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3667,9 +3695,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -3677,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -3685,7 +3713,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -3693,7 +3721,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -3701,7 +3729,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -3709,7 +3737,7 @@
         <v>8007</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -3718,6 +3746,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3730,13 +3759,13 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" style="19" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="19"/>
+    <col min="1" max="1" width="16.77734375" style="19" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B1" s="19" t="s">
         <v>34</v>
       </c>
@@ -3855,7 +3884,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>34</v>
       </c>
@@ -3977,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>35</v>
       </c>
@@ -4099,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>7</v>
       </c>
@@ -4221,7 +4250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>140</v>
       </c>
@@ -4343,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>37</v>
       </c>
@@ -4465,7 +4494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>29</v>
       </c>
@@ -4587,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>9</v>
       </c>
@@ -4709,7 +4738,7 @@
         <v>1.9736842105263157E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>10</v>
       </c>
@@ -4831,7 +4860,7 @@
         <v>7.3684210526315783E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>30</v>
       </c>
@@ -4953,7 +4982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
@@ -5075,7 +5104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>38</v>
       </c>
@@ -5197,7 +5226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>12</v>
       </c>
@@ -5319,7 +5348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>13</v>
       </c>
@@ -5441,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>39</v>
       </c>
@@ -5563,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>23</v>
       </c>
@@ -5685,7 +5714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>14</v>
       </c>
@@ -5807,7 +5836,7 @@
         <v>6.5637065637065631E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>15</v>
       </c>
@@ -5929,7 +5958,7 @@
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>24</v>
       </c>
@@ -6051,7 +6080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>25</v>
       </c>
@@ -6173,7 +6202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>40</v>
       </c>
@@ -6295,7 +6324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>41</v>
       </c>
@@ -6417,7 +6446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>26</v>
       </c>
@@ -6539,7 +6568,7 @@
         <v>8.1967213114754103E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>42</v>
       </c>
@@ -6661,7 +6690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>16</v>
       </c>
@@ -6783,7 +6812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>17</v>
       </c>
@@ -6905,7 +6934,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>18</v>
       </c>
@@ -7027,7 +7056,7 @@
         <v>2.8772753963593658E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>27</v>
       </c>
@@ -7149,7 +7178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>19</v>
       </c>
@@ -7271,7 +7300,7 @@
         <v>2.7018486332753989E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>43</v>
       </c>
@@ -7393,7 +7422,7 @@
         <v>7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>20</v>
       </c>
@@ -7515,7 +7544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>21</v>
       </c>
@@ -7637,7 +7666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>44</v>
       </c>
@@ -7759,7 +7788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>28</v>
       </c>
@@ -7881,7 +7910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>36</v>
       </c>
@@ -8003,7 +8032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>31</v>
       </c>
@@ -8125,7 +8154,7 @@
         <v>9.1923834537097834E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>32</v>
       </c>
@@ -8247,7 +8276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>33</v>
       </c>
@@ -8369,7 +8398,7 @@
         <v>2.6595744680851064E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>45</v>
       </c>
@@ -8491,7 +8520,7 @@
         <v>1.3157894736842105E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>22</v>
       </c>
@@ -8614,6 +8643,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8624,9 +8654,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>66</v>
       </c>
@@ -8652,7 +8682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -8678,7 +8708,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -8704,7 +8734,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -8730,7 +8760,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -8756,7 +8786,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -8782,7 +8812,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>132</v>
       </c>
@@ -8808,7 +8838,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>133</v>
       </c>
@@ -8834,7 +8864,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>134</v>
       </c>
@@ -8860,7 +8890,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -8887,6 +8917,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8899,12 +8930,12 @@
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>102</v>
       </c>
@@ -8915,7 +8946,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>80</v>
       </c>
@@ -8938,7 +8969,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>519</v>
       </c>
@@ -8958,7 +8989,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -8986,7 +9017,7 @@
         <v>0.66779999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>96</v>
       </c>
@@ -9018,7 +9049,7 @@
         <v>0.33220000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -9044,7 +9075,7 @@
         <v>0.87019999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -9076,7 +9107,7 @@
         <v>0.12980000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -9102,7 +9133,7 @@
         <v>0.93600000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -9134,7 +9165,7 @@
         <v>6.3999999999999946E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -9160,7 +9191,7 @@
         <v>0.73799999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -9192,7 +9223,7 @@
         <v>0.26200000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>94</v>
       </c>
@@ -9224,7 +9255,7 @@
         <v>562.55471999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -9256,7 +9287,7 @@
         <v>38.465279999999964</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -9288,7 +9319,7 @@
         <v>220.64724000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>98</v>
       </c>
@@ -9320,7 +9351,7 @@
         <v>78.332760000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17">
         <f>B13/(B13+B14)</f>
         <v>0.94099999999999995</v>
@@ -9346,7 +9377,7 @@
         <v>0.93599999999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18">
         <f>B15/(B15+B16)</f>
         <v>0.72699999999999998</v>
@@ -9372,7 +9403,7 @@
         <v>0.73799999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>91</v>
       </c>
@@ -9386,7 +9417,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -9410,7 +9441,7 @@
         <v>68.003039999999984</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>96</v>
       </c>
@@ -9442,7 +9473,7 @@
         <v>0.72380353016563426</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>100</v>
       </c>
@@ -9458,7 +9489,7 @@
         <v>5.7068048774948226</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>101</v>
       </c>
@@ -9479,6 +9510,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="Persistent link using digital object identifier" xr:uid="{4D626F25-AE3D-43BD-BCDE-4A5EC98FAE02}"/>
   </hyperlinks>
@@ -9494,15 +9526,15 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="8" width="11.1640625" customWidth="1"/>
+    <col min="4" max="8" width="11.109375" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>46</v>
       </c>
@@ -9630,7 +9662,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -9797,7 +9829,7 @@
       <c r="CB2" s="7"/>
       <c r="CC2" s="7"/>
     </row>
-    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -9964,7 +9996,7 @@
       <c r="CB3" s="7"/>
       <c r="CC3" s="7"/>
     </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -10131,7 +10163,7 @@
       <c r="CB4" s="7"/>
       <c r="CC4" s="7"/>
     </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -10298,7 +10330,7 @@
       <c r="CB5" s="7"/>
       <c r="CC5" s="7"/>
     </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -10465,7 +10497,7 @@
       <c r="CB6" s="7"/>
       <c r="CC6" s="7"/>
     </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -10632,7 +10664,7 @@
       <c r="CB7" s="7"/>
       <c r="CC7" s="7"/>
     </row>
-    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -10760,7 +10792,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -10888,7 +10920,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -11016,7 +11048,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -11144,7 +11176,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -11272,7 +11304,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -11400,7 +11432,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -11528,7 +11560,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -11656,7 +11688,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="16" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -11784,7 +11816,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -11912,7 +11944,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -12040,7 +12072,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -12168,7 +12200,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -12296,7 +12328,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -12424,7 +12456,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -12552,7 +12584,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -12680,7 +12712,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -12808,7 +12840,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -12936,7 +12968,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -13064,7 +13096,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -13192,7 +13224,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -13320,7 +13352,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -13448,7 +13480,7 @@
         <v>3155</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -13576,7 +13608,7 @@
         <v>3235</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -13704,7 +13736,7 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -13832,7 +13864,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -13960,7 +13992,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -14088,7 +14120,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -14216,7 +14248,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -14344,7 +14376,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -14472,7 +14504,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -14600,7 +14632,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -14728,7 +14760,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -14856,7 +14888,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -14984,7 +15016,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -15112,7 +15144,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -15240,7 +15272,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -15368,7 +15400,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -15496,7 +15528,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -15624,7 +15656,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -15752,7 +15784,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -15880,7 +15912,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -16008,10 +16040,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="D52" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16024,9 +16057,9 @@
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>66</v>
       </c>
@@ -16037,7 +16070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>180</v>
       </c>
@@ -16048,7 +16081,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>180</v>
       </c>
@@ -16059,7 +16092,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>180</v>
       </c>
@@ -16070,7 +16103,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>180</v>
       </c>
@@ -16081,7 +16114,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>175</v>
       </c>
@@ -16093,7 +16126,7 @@
         <v>0.67931034482758623</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>175</v>
       </c>
@@ -16105,7 +16138,7 @@
         <v>0.72377622377622375</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>175</v>
       </c>
@@ -16117,7 +16150,7 @@
         <v>0.83088235294117652</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>175</v>
       </c>
@@ -16129,7 +16162,7 @@
         <v>0.8359375</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>174</v>
       </c>
@@ -16141,7 +16174,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -16153,7 +16186,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>174</v>
       </c>
@@ -16165,7 +16198,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>174</v>
       </c>
@@ -16178,6 +16211,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16190,12 +16224,12 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>66</v>
       </c>
@@ -16224,7 +16258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -16245,7 +16279,7 @@
       </c>
       <c r="I2" s="18"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>186</v>
       </c>
@@ -16266,7 +16300,7 @@
       </c>
       <c r="I3" s="18"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -16286,7 +16320,7 @@
         <v>8.6259541200034429E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -16306,7 +16340,7 @@
         <v>1.8575312252222864E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>123</v>
       </c>
@@ -16326,7 +16360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -16346,7 +16380,7 @@
         <v>5.9488195813894986</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -16366,7 +16400,7 @@
         <v>9.6985186018235687</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -16386,7 +16420,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>177</v>
       </c>
@@ -16406,7 +16440,7 @@
         <v>0.17524139999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>178</v>
       </c>
@@ -16426,7 +16460,7 @@
         <v>4.500000000000004E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>179</v>
       </c>
@@ -16446,7 +16480,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>183</v>
       </c>
@@ -16466,7 +16500,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>184</v>
       </c>
@@ -16486,7 +16520,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>DecisionTree!A5</f>
         <v>OD_911_priv</v>
@@ -16508,7 +16542,7 @@
         <v>0.64066852367688021</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>DecisionTree!A6</f>
         <v>OD_911_pub_mul</v>
@@ -16530,7 +16564,7 @@
         <v>1.377</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -16550,7 +16584,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -16570,7 +16604,7 @@
         <v>0.11579589999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>168</v>
       </c>
@@ -16587,7 +16621,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -16607,8 +16641,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16618,12 +16653,12 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>46</v>
       </c>
@@ -16655,7 +16690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -16687,7 +16722,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -16716,7 +16751,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -16745,7 +16780,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -16774,7 +16809,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -16803,7 +16838,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -16832,7 +16867,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -16861,7 +16896,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -16890,7 +16925,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -16919,7 +16954,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -16948,7 +16983,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -16977,7 +17012,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -17006,7 +17041,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -17035,7 +17070,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -17064,7 +17099,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -17093,7 +17128,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -17122,7 +17157,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -17151,7 +17186,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -17180,7 +17215,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -17209,7 +17244,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -17238,7 +17273,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -17267,7 +17302,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -17296,7 +17331,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -17325,7 +17360,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -17354,7 +17389,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -17383,7 +17418,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -17412,7 +17447,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -17441,7 +17476,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -17470,7 +17505,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -17499,7 +17534,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -17528,7 +17563,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -17557,7 +17592,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -17586,7 +17621,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -17615,7 +17650,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -17644,7 +17679,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -17673,7 +17708,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -17702,7 +17737,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -17731,7 +17766,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -17760,7 +17795,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -17789,7 +17824,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -17818,7 +17853,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -17847,7 +17882,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -17876,7 +17911,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -17905,7 +17940,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -17934,7 +17969,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -17963,7 +17998,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -17992,7 +18027,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -18021,7 +18056,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -18051,6 +18086,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18063,9 +18099,9 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>46</v>
       </c>
@@ -18097,7 +18133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -18129,7 +18165,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -18158,7 +18194,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -18187,7 +18223,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -18216,7 +18252,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -18245,7 +18281,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -18274,7 +18310,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -18303,7 +18339,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -18332,7 +18368,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -18361,7 +18397,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -18390,7 +18426,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -18419,7 +18455,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -18448,7 +18484,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -18477,7 +18513,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -18506,7 +18542,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -18535,7 +18571,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -18564,7 +18600,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -18593,7 +18629,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -18622,7 +18658,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -18651,7 +18687,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -18680,7 +18716,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -18709,7 +18745,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -18738,7 +18774,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -18767,7 +18803,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -18796,7 +18832,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -18825,7 +18861,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -18854,7 +18890,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -18883,7 +18919,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -18912,7 +18948,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -18941,7 +18977,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -18970,7 +19006,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -18999,7 +19035,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -19028,7 +19064,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -19057,7 +19093,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -19086,7 +19122,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -19115,7 +19151,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -19144,7 +19180,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -19173,7 +19209,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -19202,7 +19238,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -19231,7 +19267,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -19260,7 +19296,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -19289,7 +19325,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -19318,7 +19354,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -19347,7 +19383,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -19376,7 +19412,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -19405,7 +19441,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -19434,7 +19470,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -19463,7 +19499,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -19493,6 +19529,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19502,18 +19539,18 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>66</v>
       </c>
@@ -19548,7 +19585,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -19566,7 +19603,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -19584,7 +19621,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -19601,7 +19638,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -19618,7 +19655,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>197</v>
       </c>
@@ -19641,7 +19678,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>196</v>
       </c>
@@ -19668,7 +19705,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>186</v>
       </c>
@@ -19692,7 +19729,7 @@
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>121</v>
       </c>
@@ -19709,7 +19746,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>121</v>
       </c>
@@ -19726,7 +19763,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>121</v>
       </c>
@@ -19744,19 +19781,41 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.627</v>
+      </c>
+      <c r="J12" t="s">
+        <v>198</v>
+      </c>
+      <c r="K12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E13" s="3"/>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F18" s="3"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F19" s="3"/>
       <c r="H19" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19765,15 +19824,15 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>66</v>
       </c>
@@ -19799,7 +19858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -19819,7 +19878,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -19828,6 +19887,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19840,13 +19900,13 @@
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>82</v>
       </c>
@@ -19878,7 +19938,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>158</v>
       </c>
@@ -19912,7 +19972,7 @@
       </c>
       <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>159</v>
       </c>
@@ -19946,7 +20006,7 @@
       </c>
       <c r="K3" s="12"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -19977,7 +20037,7 @@
       </c>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -20008,7 +20068,7 @@
       </c>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>162</v>
       </c>
@@ -20039,7 +20099,7 @@
       </c>
       <c r="K6" s="12"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>163</v>
       </c>
@@ -20070,7 +20130,7 @@
       </c>
       <c r="K7" s="12"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>165</v>
       </c>
@@ -20102,6 +20162,7 @@
       <c r="K8" s="12"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{55DA9D74-5A33-4C42-807D-F2F93C00D381}"/>
     <hyperlink ref="J3" r:id="rId2" xr:uid="{9C3EACCD-C7A2-4F18-B733-6791FB183874}"/>
@@ -20118,13 +20179,13 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>66</v>
       </c>
@@ -20153,7 +20214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -20170,7 +20231,7 @@
         <v>8.6259541200034429E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>153</v>
       </c>
@@ -20187,7 +20248,7 @@
         <v>1.8575312252222864E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>154</v>
       </c>
@@ -20198,7 +20259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -20218,7 +20279,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -20238,7 +20299,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -20255,7 +20316,7 @@
         <v>9.6985186018235687</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>155</v>
       </c>
@@ -20272,7 +20333,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>126</v>
       </c>
@@ -20293,6 +20354,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -20305,12 +20367,12 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>66</v>
       </c>
@@ -20336,7 +20398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -20344,7 +20406,7 @@
         <v>4.1800000000000002E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -20352,7 +20414,7 @@
         <v>2.0199999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -20360,7 +20422,7 @@
         <v>8.2400000000000008E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -20368,7 +20430,7 @@
         <v>5.9500000000000004E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -20376,7 +20438,7 @@
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>116</v>
       </c>
@@ -20384,7 +20446,7 @@
         <v>2.5400000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -20393,6 +20455,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Inputs/MasterTable.xlsx
+++ b/Inputs/MasterTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Desktop\profound-model\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97ED0EC1-C6C8-43E7-AA86-2D491657ABB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5D79F3-552D-48A2-9766-A1400217F73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="23040" windowHeight="12264" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="19200" windowHeight="9600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InitialPop" sheetId="12" r:id="rId1"/>
@@ -19539,7 +19539,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/Inputs/MasterTable.xlsx
+++ b/Inputs/MasterTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Desktop\profound-model\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5D79F3-552D-48A2-9766-A1400217F73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2E1420-5137-477E-BDA2-317F90CE4A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="19200" windowHeight="9600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InitialPop" sheetId="12" r:id="rId1"/>
@@ -19539,7 +19539,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -19792,7 +19792,7 @@
         <v>200</v>
       </c>
       <c r="D12" s="3">
-        <v>0.627</v>
+        <v>0.19234100000000001</v>
       </c>
       <c r="J12" t="s">
         <v>198</v>

--- a/Inputs/MasterTable.xlsx
+++ b/Inputs/MasterTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Desktop\profound-model\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2E1420-5137-477E-BDA2-317F90CE4A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FA1864-FC11-43B2-8EB4-758711400916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InitialPop" sheetId="12" r:id="rId1"/>
@@ -31,9 +31,9 @@
     <sheet name="NxDataPharm" sheetId="25" r:id="rId16"/>
     <sheet name="NxMvt" sheetId="19" r:id="rId17"/>
     <sheet name="Cost" sheetId="16" r:id="rId18"/>
-    <sheet name="NxOnSurv" sheetId="17" r:id="rId19"/>
-    <sheet name="Target" sheetId="23" r:id="rId20"/>
-    <sheet name="CalibPar" sheetId="24" r:id="rId21"/>
+    <sheet name="Target" sheetId="23" r:id="rId19"/>
+    <sheet name="CalibPar" sheetId="24" r:id="rId20"/>
+    <sheet name="NxOnSurv" sheetId="17" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="208">
   <si>
     <t>pe</t>
   </si>
@@ -234,18 +234,9 @@
     <t>Avergae number of months a kit is expired/lost and out of circulation</t>
   </si>
   <si>
-    <t>OD_loc_priv</t>
-  </si>
-  <si>
     <t>OD_wit</t>
   </si>
   <si>
-    <t>priv</t>
-  </si>
-  <si>
-    <t>pub</t>
-  </si>
-  <si>
     <t>OD_hosp</t>
   </si>
   <si>
@@ -390,21 +381,12 @@
     <t>p.preb2il.lr</t>
   </si>
   <si>
-    <t>p.preb2inact</t>
-  </si>
-  <si>
     <t>p.il.lr2il.hr</t>
   </si>
   <si>
-    <t>p.il.lr2inact</t>
-  </si>
-  <si>
     <t>p.il.hr2il.lr</t>
   </si>
   <si>
-    <t>p.il.hr2inact</t>
-  </si>
-  <si>
     <t>p.inact2relap</t>
   </si>
   <si>
@@ -588,9 +570,6 @@
     <t>mor_bl</t>
   </si>
   <si>
-    <t>mor_Nx</t>
-  </si>
-  <si>
     <t>rr_mor_EMS</t>
   </si>
   <si>
@@ -603,9 +582,6 @@
     <t>exposed to fentanyl, old value 86.5800865800866%</t>
   </si>
   <si>
-    <t>OD_wit_priv</t>
-  </si>
-  <si>
     <t>OD_wit_pub</t>
   </si>
   <si>
@@ -621,46 +597,109 @@
     <t>fentanyl proportion (10.1001/jamanetworkopen.2019.2851), sti population (NSDUH)</t>
   </si>
   <si>
-    <t>OD_911_priv</t>
-  </si>
-  <si>
-    <t>OD_911_pub_mul</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.drugalcdep.2019.06.033</t>
-  </si>
-  <si>
-    <t>Probability of witness calling 911 in a private setting</t>
-  </si>
-  <si>
-    <t>Multipler (RR) for calling 911 in public setting compared to private (converted from OR to RR)</t>
-  </si>
-  <si>
     <t>ODD Fx, range assumed</t>
-  </si>
-  <si>
-    <t>mortality_nx</t>
-  </si>
-  <si>
-    <t>init_oud_fx</t>
-  </si>
-  <si>
-    <t>init_inactive</t>
   </si>
   <si>
     <t>proportion of prescription opioids from sources other than from doctors (eligible for fentanyl exposure)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>out_prebopioid</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>na</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>NSDUH</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>previous estimates: 0.111(0.0685,0.175241)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mor_nx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>OD_911_pub</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Probability of witness calling 911 in a public setting</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Multipler (RR) for calling 911 in private setting compared to public </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Karamouzian</t>
+  </si>
+  <si>
+    <t>Karamouzian. Bounds: Lim, Tracy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>OD_wit_pub</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>rr_OD_wit_priv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>rr_OD_911_priv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>OD_loc_pub</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>High2Pub</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gw.m.2inact</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ini.inactive</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ini.oud.fx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>out.prebopioid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthly growth for transition probabilities to inactive state</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p.preb2inact.ini</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p.il.lr2inact.ini</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p.il.hr2inact.ini</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>initial transition probability from prescription opioid use to inactive state</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>initial transition probability from illegal high risk opioid use to inactive state</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>initial transition probability from illegal low risk opioid use to inactive state</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1063,15 +1102,15 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>46</v>
@@ -1098,9 +1137,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -1124,12 +1163,12 @@
         <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -1154,12 +1193,12 @@
         <v>50</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -1174,7 +1213,7 @@
         <v>6.7199999999999996E-2</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G4" s="7">
         <f>C4</f>
@@ -1185,14 +1224,14 @@
         <v>7.7551020408163258E-3</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
         <v>51</v>
@@ -1207,7 +1246,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" ref="G5:G6" si="0">C5</f>
@@ -1218,12 +1257,12 @@
         <v>2.5510204081632651E-3</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -1238,7 +1277,7 @@
         <v>1.9E-2</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="0"/>
@@ -1249,7 +1288,7 @@
         <v>1.5306122448979593E-3</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1260,204 +1299,195 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89A4DCE-FC4D-4AE1-9338-95B949A6382F}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2">
+        <v>0.18</v>
+      </c>
+      <c r="C2">
+        <v>0.05</v>
+      </c>
+      <c r="D2">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>60</v>
       </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2">
-        <v>0.68500000000000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="B3" s="14">
         <v>0.64500000000000002</v>
       </c>
-      <c r="D3" s="15">
+      <c r="C3" s="15">
         <f>1-39/91</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="E3">
+      <c r="D3">
         <v>0.85</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="14">
+        <v>0.82</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D4">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="C6" s="15">
+        <f>2075/3697</f>
+        <v>0.56126589126318638</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="H6" t="s">
+        <v>188</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0.59</v>
+      </c>
+      <c r="C7">
+        <v>0.4</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>61</v>
       </c>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="14">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="D4" s="15">
-        <f>1-39/91</f>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="E4">
+      <c r="B8" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="C8">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="14">
-        <f>2651/6446</f>
-        <v>0.4112627986348123</v>
-      </c>
-      <c r="D5" s="15">
-        <f>2191/5728</f>
-        <v>0.38250698324022347</v>
-      </c>
-      <c r="E5" s="15">
-        <f>460/718</f>
-        <v>0.64066852367688021</v>
-      </c>
-      <c r="I5" t="s">
-        <v>192</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="14">
-        <v>1.302</v>
-      </c>
-      <c r="D6">
-        <v>1.232</v>
-      </c>
-      <c r="E6">
-        <v>1.377</v>
-      </c>
-      <c r="I6" t="s">
-        <v>193</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="14">
+      <c r="D8">
         <v>0.95</v>
       </c>
-      <c r="D7">
-        <v>0.85299999999999998</v>
-      </c>
-      <c r="E7">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="14">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="14">
         <v>7.5600000000000001E-2</v>
       </c>
-      <c r="D8" s="14">
+      <c r="C9" s="14">
         <v>4.8390339999999997E-2</v>
       </c>
-      <c r="E8" s="14">
+      <c r="D9" s="14">
         <v>0.11579589999999999</v>
       </c>
-      <c r="F8" t="s">
-        <v>169</v>
-      </c>
-      <c r="G8">
+      <c r="E9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9">
         <v>19</v>
       </c>
-      <c r="H8">
-        <f>251-G8</f>
+      <c r="G9">
+        <f>251-F9</f>
         <v>232</v>
       </c>
-      <c r="I8" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>170</v>
+      <c r="H9" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J8" r:id="rId1" xr:uid="{15D6B813-A970-440E-AF95-498C36C49594}"/>
-    <hyperlink ref="J5" r:id="rId2" xr:uid="{7327CC0B-C88B-4874-A1C8-CDE2C37C2633}"/>
-    <hyperlink ref="J6" r:id="rId3" xr:uid="{1BAC5FB8-A8E9-4DB6-A442-539600BE9346}"/>
+    <hyperlink ref="I9" r:id="rId1" xr:uid="{15D6B813-A970-440E-AF95-498C36C49594}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1466,28 +1496,28 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B2" s="23">
         <f>1-C2</f>
@@ -1511,23 +1541,23 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1538,7 +1568,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1549,9 +1579,9 @@
         <v>0.69699999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B4" s="13">
         <v>0.16700000000000001</v>
@@ -1560,9 +1590,9 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B5" s="13">
         <v>0.29899999999999999</v>
@@ -1571,7 +1601,7 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1582,7 +1612,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1593,7 +1623,7 @@
         <v>0.81899999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1604,7 +1634,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1615,7 +1645,7 @@
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1626,7 +1656,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1637,7 +1667,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1648,7 +1678,7 @@
         <v>0.55200000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1659,9 +1689,9 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B14" s="13">
         <v>0.32100000000000001</v>
@@ -1670,7 +1700,7 @@
         <v>0.67900000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1681,7 +1711,7 @@
         <v>0.89600000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1692,7 +1722,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1703,9 +1733,9 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B18" s="13">
         <v>0.51100000000000001</v>
@@ -1714,7 +1744,7 @@
         <v>0.48899999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1725,7 +1755,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1736,7 +1766,7 @@
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1747,7 +1777,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1758,7 +1788,7 @@
         <v>0.75105263157894742</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1769,7 +1799,7 @@
         <v>0.76700000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1780,7 +1810,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1791,7 +1821,7 @@
         <v>0.74399999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1802,7 +1832,7 @@
         <v>0.69799999999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1813,7 +1843,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1824,7 +1854,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1835,7 +1865,7 @@
         <v>0.56100000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1846,7 +1876,7 @@
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1857,9 +1887,9 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B32" s="13">
         <v>0.22600000000000001</v>
@@ -1868,7 +1898,7 @@
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -1879,7 +1909,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -1890,7 +1920,7 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1901,7 +1931,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -1912,9 +1942,9 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B37" s="13">
         <v>0.33300000000000002</v>
@@ -1923,9 +1953,9 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B38" s="13">
         <v>0.13900000000000001</v>
@@ -1934,9 +1964,9 @@
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B39" s="13">
         <v>0.19800000000000001</v>
@@ -1945,7 +1975,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -1967,17 +1997,17 @@
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -2001,52 +2031,56 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B2" s="14">
-        <v>0.1111111</v>
+        <f>9/153</f>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="C2">
-        <v>6.850038E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D2">
-        <v>0.17524139999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" s="14">
-        <v>3.7000000000000033E-2</v>
+        <v>186</v>
+      </c>
+      <c r="B3">
+        <v>8.9897260273972598E-3</v>
       </c>
       <c r="C3">
-        <v>2.9000000000000026E-2</v>
+        <v>7.2609325605900938E-3</v>
       </c>
       <c r="D3">
-        <v>4.500000000000004E-2</v>
+        <v>1.1130136986301369E-2</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="C4">
-        <v>0.65</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="D4">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.75800000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
@@ -2054,7 +2088,7 @@
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
@@ -2062,7 +2096,7 @@
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
@@ -2070,7 +2104,7 @@
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
@@ -2078,7 +2112,7 @@
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
@@ -2086,7 +2120,7 @@
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
     </row>
-    <row r="17" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="12:22" x14ac:dyDescent="0.2">
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
@@ -2094,7 +2128,7 @@
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
     </row>
-    <row r="18" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="12:22" x14ac:dyDescent="0.2">
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
@@ -2102,7 +2136,7 @@
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
     </row>
-    <row r="19" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="12:22" x14ac:dyDescent="0.2">
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
@@ -2110,7 +2144,7 @@
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
     </row>
-    <row r="21" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="12:22" x14ac:dyDescent="0.2">
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
@@ -2118,7 +2152,7 @@
       <c r="T21" s="17"/>
       <c r="U21" s="17"/>
     </row>
-    <row r="22" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="12:22" x14ac:dyDescent="0.2">
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
@@ -2126,7 +2160,7 @@
       <c r="T22" s="17"/>
       <c r="U22" s="17"/>
     </row>
-    <row r="23" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="12:22" x14ac:dyDescent="0.2">
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
@@ -2134,7 +2168,7 @@
       <c r="T23" s="17"/>
       <c r="U23" s="17"/>
     </row>
-    <row r="24" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="12:22" x14ac:dyDescent="0.2">
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
@@ -2142,45 +2176,46 @@
       <c r="T24" s="17"/>
       <c r="U24" s="17"/>
     </row>
-    <row r="29" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="12:22" x14ac:dyDescent="0.2">
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
       <c r="S29" s="17"/>
       <c r="T29" s="17"/>
     </row>
-    <row r="30" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="12:22" x14ac:dyDescent="0.2">
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
     </row>
-    <row r="32" spans="12:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="12:22" x14ac:dyDescent="0.2">
       <c r="O32" s="15"/>
       <c r="V32" s="15"/>
     </row>
-    <row r="33" spans="15:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="15:22" x14ac:dyDescent="0.2">
       <c r="O33" s="15"/>
       <c r="V33" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE6D060-BD9A-4D96-B4CE-F2ECE1E1EF2B}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -2204,7 +2239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -2215,45 +2250,60 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B3" s="5">
         <v>0.3</v>
       </c>
       <c r="C3" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D3" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="B4" s="5">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="C4" s="5">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D4" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5">
+      <c r="C5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6">
         <v>0.9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2261,18 +2311,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C231C3-2912-4A67-95C1-06AD5483D65C}">
   <dimension ref="A1:AO11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
         <v>34</v>
@@ -2392,12 +2442,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C2">
         <f>ROUND(C4/3090*932,0)</f>
@@ -2556,12 +2606,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2015</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2681,12 +2731,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2016</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C4">
         <v>12</v>
@@ -2806,12 +2856,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2016</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2931,12 +2981,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2017</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -3056,12 +3106,12 @@
         <v>430</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2017</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -3181,12 +3231,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2018</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C8">
         <v>44</v>
@@ -3306,12 +3356,12 @@
         <v>584</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2018</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -3431,12 +3481,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2019</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C10">
         <v>55</v>
@@ -3556,12 +3606,12 @@
         <v>667</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2019</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C11">
         <v>60</v>
@@ -3684,6 +3734,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3692,20 +3743,20 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -3713,7 +3764,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -3721,7 +3772,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -3729,7 +3780,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -3737,7 +3788,7 @@
         <v>8007</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -3759,13 +3810,13 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" style="19" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="19"/>
+    <col min="1" max="1" width="16.75" style="19" customWidth="1"/>
+    <col min="2" max="16384" width="9.125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B1" s="19" t="s">
         <v>34</v>
       </c>
@@ -3884,7 +3935,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>34</v>
       </c>
@@ -4006,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>35</v>
       </c>
@@ -4128,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>7</v>
       </c>
@@ -4250,9 +4301,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B5" s="20">
         <v>0</v>
@@ -4372,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>37</v>
       </c>
@@ -4494,7 +4545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>29</v>
       </c>
@@ -4616,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>9</v>
       </c>
@@ -4738,7 +4789,7 @@
         <v>1.9736842105263157E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>10</v>
       </c>
@@ -4860,7 +4911,7 @@
         <v>7.3684210526315783E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>30</v>
       </c>
@@ -4982,7 +5033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
@@ -5104,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
         <v>38</v>
       </c>
@@ -5226,7 +5277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>12</v>
       </c>
@@ -5348,7 +5399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>13</v>
       </c>
@@ -5470,7 +5521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>39</v>
       </c>
@@ -5592,7 +5643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
         <v>23</v>
       </c>
@@ -5714,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
         <v>14</v>
       </c>
@@ -5836,7 +5887,7 @@
         <v>6.5637065637065631E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>15</v>
       </c>
@@ -5958,7 +6009,7 @@
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>24</v>
       </c>
@@ -6080,7 +6131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>25</v>
       </c>
@@ -6202,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>40</v>
       </c>
@@ -6324,7 +6375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>41</v>
       </c>
@@ -6446,7 +6497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
         <v>26</v>
       </c>
@@ -6568,7 +6619,7 @@
         <v>8.1967213114754103E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
         <v>42</v>
       </c>
@@ -6690,7 +6741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>16</v>
       </c>
@@ -6812,7 +6863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>17</v>
       </c>
@@ -6934,7 +6985,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
         <v>18</v>
       </c>
@@ -7056,7 +7107,7 @@
         <v>2.8772753963593658E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>27</v>
       </c>
@@ -7178,7 +7229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
         <v>19</v>
       </c>
@@ -7300,7 +7351,7 @@
         <v>2.7018486332753989E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>43</v>
       </c>
@@ -7422,7 +7473,7 @@
         <v>7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>20</v>
       </c>
@@ -7544,7 +7595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>21</v>
       </c>
@@ -7666,7 +7717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>44</v>
       </c>
@@ -7788,7 +7839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>28</v>
       </c>
@@ -7910,7 +7961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
         <v>36</v>
       </c>
@@ -8032,7 +8083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
         <v>31</v>
       </c>
@@ -8154,7 +8205,7 @@
         <v>9.1923834537097834E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
         <v>32</v>
       </c>
@@ -8276,7 +8327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
         <v>33</v>
       </c>
@@ -8398,7 +8449,7 @@
         <v>2.6595744680851064E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
         <v>45</v>
       </c>
@@ -8520,7 +8571,7 @@
         <v>1.3157894736842105E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
         <v>22</v>
       </c>
@@ -8654,11 +8705,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -8682,9 +8733,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B2">
         <v>1019</v>
@@ -8708,9 +8759,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B3">
         <v>1511</v>
@@ -8734,9 +8785,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B4">
         <v>1511</v>
@@ -8760,9 +8811,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B5">
         <v>631</v>
@@ -8786,9 +8837,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B6" s="5">
         <v>2000</v>
@@ -8812,9 +8863,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B7">
         <v>61.5</v>
@@ -8838,9 +8889,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -8864,9 +8915,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B9">
         <v>500</v>
@@ -8890,9 +8941,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B10" s="5">
         <v>1034</v>
@@ -8923,597 +8974,168 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0880A51-D5C0-4CC2-9F82-0D2250CCEDDE}">
-  <dimension ref="A1:N25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA37401-9159-4050-A15F-AA39CA2DB101}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="15" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2">
-        <v>5.7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>519</v>
-      </c>
-      <c r="C3">
-        <v>7474</v>
-      </c>
-      <c r="D3">
-        <v>593</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
-      <c r="K3">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="13">
-        <v>0.69750000000000001</v>
-      </c>
-      <c r="C4" s="13">
-        <f>0.6549</f>
-        <v>0.65490000000000004</v>
-      </c>
-      <c r="D4" s="13">
-        <v>0.66779999999999995</v>
-      </c>
-      <c r="H4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0.69750000000000001</v>
-      </c>
-      <c r="J4" s="13">
-        <f>0.6549</f>
-        <v>0.65490000000000004</v>
-      </c>
-      <c r="K4" s="13">
-        <v>0.66779999999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="13">
-        <f>1-B4</f>
-        <v>0.30249999999999999</v>
-      </c>
-      <c r="C5" s="13">
-        <f t="shared" ref="C5:D5" si="0">1-C4</f>
-        <v>0.34509999999999996</v>
-      </c>
-      <c r="D5" s="13">
-        <f t="shared" si="0"/>
-        <v>0.33220000000000005</v>
-      </c>
-      <c r="H5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="13">
-        <f>1-I4</f>
-        <v>0.30249999999999999</v>
-      </c>
-      <c r="J5" s="13">
-        <f t="shared" ref="J5:K5" si="1">1-J4</f>
-        <v>0.34509999999999996</v>
-      </c>
-      <c r="K5" s="13">
-        <f t="shared" si="1"/>
-        <v>0.33220000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="13">
-        <v>0.879</v>
-      </c>
-      <c r="C6" s="13">
-        <v>0.80940000000000001</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0.87019999999999997</v>
-      </c>
-      <c r="H6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0.879</v>
-      </c>
-      <c r="J6" s="13">
-        <v>0.80940000000000001</v>
-      </c>
-      <c r="K6" s="13">
-        <v>0.87019999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="13">
-        <f>1-B6</f>
-        <v>0.121</v>
-      </c>
-      <c r="C7" s="13">
-        <f t="shared" ref="C7:D7" si="2">1-C6</f>
-        <v>0.19059999999999999</v>
-      </c>
-      <c r="D7" s="13">
-        <f t="shared" si="2"/>
-        <v>0.12980000000000003</v>
-      </c>
-      <c r="H7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="13">
-        <f>1-I6</f>
-        <v>0.121</v>
-      </c>
-      <c r="J7" s="13">
-        <f t="shared" ref="J7:K7" si="3">1-J6</f>
-        <v>0.19059999999999999</v>
-      </c>
-      <c r="K7" s="13">
-        <f t="shared" si="3"/>
-        <v>0.12980000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="13">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="C8" s="13">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="H8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I8" s="13">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="J8" s="13">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="K8" s="13">
-        <v>0.93600000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="13">
-        <f>1-B8</f>
-        <v>5.9000000000000052E-2</v>
-      </c>
-      <c r="C9" s="13">
-        <f t="shared" ref="C9:D9" si="4">1-C8</f>
-        <v>7.3999999999999955E-2</v>
-      </c>
-      <c r="D9" s="13">
-        <f t="shared" si="4"/>
-        <v>6.3999999999999946E-2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I9" s="13">
-        <f>1-I8</f>
-        <v>5.9000000000000052E-2</v>
-      </c>
-      <c r="J9" s="13">
-        <f t="shared" ref="J9:K9" si="5">1-J8</f>
-        <v>7.3999999999999955E-2</v>
-      </c>
-      <c r="K9" s="13">
-        <f t="shared" si="5"/>
-        <v>6.3999999999999946E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="24">
+        <v>2016</v>
+      </c>
+      <c r="C2" s="24">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="24">
+        <v>2017</v>
+      </c>
+      <c r="C3" s="24">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="24">
+        <v>2018</v>
+      </c>
+      <c r="C4" s="24">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="24">
+        <v>2019</v>
+      </c>
+      <c r="C5" s="24">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6">
+        <v>2016</v>
+      </c>
+      <c r="C6" s="2">
+        <f>197/290</f>
+        <v>0.67931034482758623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7">
+        <v>2017</v>
+      </c>
+      <c r="C7" s="2">
+        <f>207/286</f>
+        <v>0.72377622377622375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8">
+        <v>2018</v>
+      </c>
+      <c r="C8" s="2">
+        <f>226/272</f>
+        <v>0.83088235294117652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9">
+        <v>2019</v>
+      </c>
+      <c r="C9" s="2">
+        <f>214/256</f>
+        <v>0.8359375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="13">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="C10" s="13">
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="D10" s="13">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="H10" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" s="13">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="J10" s="13">
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="K10" s="13">
-        <v>0.73799999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="B10">
+        <v>2016</v>
+      </c>
+      <c r="C10">
+        <f>110+108+107+149+147+169+151+167+134+132+107+127</f>
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="13">
-        <f>1-B10</f>
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="C11" s="13">
-        <f t="shared" ref="C11:D11" si="6">1-C10</f>
-        <v>0.41600000000000004</v>
-      </c>
-      <c r="D11" s="13">
-        <f t="shared" si="6"/>
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="H11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" s="13">
-        <f>1-I10</f>
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="J11" s="13">
-        <f t="shared" ref="J11:K11" si="7">1-J10</f>
-        <v>0.41600000000000004</v>
-      </c>
-      <c r="K11" s="13">
-        <f t="shared" si="7"/>
-        <v>0.26200000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="B11">
+        <v>2017</v>
+      </c>
+      <c r="C11">
+        <f>124+109+106+150+121+153+141+165+156+171+139+144</f>
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12">
+        <v>2018</v>
+      </c>
+      <c r="C12">
+        <f>114+102+119+134+163+142+120+149+112+139+148+119</f>
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="17">
-        <f>B3*B4*B8</f>
-        <v>340.64435249999997</v>
-      </c>
-      <c r="C13" s="17">
-        <f t="shared" ref="C13:D13" si="8">C3*C4*C8</f>
-        <v>4532.5131276000002</v>
-      </c>
-      <c r="D13" s="17">
-        <f t="shared" si="8"/>
-        <v>370.66105439999995</v>
-      </c>
-      <c r="H13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="17">
-        <f>I3*I4*I8</f>
-        <v>393.80849999999998</v>
-      </c>
-      <c r="J13" s="17">
-        <f t="shared" ref="J13:K13" si="9">J3*J4*J8</f>
-        <v>60.643740000000008</v>
-      </c>
-      <c r="K13" s="17">
-        <f t="shared" si="9"/>
-        <v>562.55471999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="17">
-        <f>B3*B4*B9</f>
-        <v>21.358147500000019</v>
-      </c>
-      <c r="C14" s="17">
-        <f t="shared" ref="C14:D14" si="10">C3*C4*C9</f>
-        <v>362.20947239999975</v>
-      </c>
-      <c r="D14" s="17">
-        <f t="shared" si="10"/>
-        <v>25.344345599999976</v>
-      </c>
-      <c r="H14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" s="17">
-        <f>I3*I4*I9</f>
-        <v>24.691500000000023</v>
-      </c>
-      <c r="J14" s="17">
-        <f t="shared" ref="J14:K14" si="11">J3*J4*J9</f>
-        <v>4.8462599999999973</v>
-      </c>
-      <c r="K14" s="17">
-        <f t="shared" si="11"/>
-        <v>38.465279999999964</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="17">
-        <f>B3*B5*B10</f>
-        <v>114.13718249999999</v>
-      </c>
-      <c r="C15" s="17">
-        <f t="shared" ref="C15:D15" si="12">C3*C5*C10</f>
-        <v>1506.2980015999999</v>
-      </c>
-      <c r="D15" s="17">
-        <f t="shared" si="12"/>
-        <v>145.38201480000001</v>
-      </c>
-      <c r="H15" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" s="17">
-        <f>I3*I5*I10</f>
-        <v>131.95050000000001</v>
-      </c>
-      <c r="J15" s="17">
-        <f t="shared" ref="J15:K15" si="13">J3*J5*J10</f>
-        <v>20.153839999999999</v>
-      </c>
-      <c r="K15" s="17">
-        <f t="shared" si="13"/>
-        <v>220.64724000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="17">
-        <f>B3*B5*B11</f>
-        <v>42.860317500000001</v>
-      </c>
-      <c r="C16" s="17">
-        <f t="shared" ref="C16:D16" si="14">C3*C5*C11</f>
-        <v>1072.9793984</v>
-      </c>
-      <c r="D16" s="17">
-        <f t="shared" si="14"/>
-        <v>51.612585200000005</v>
-      </c>
-      <c r="H16" t="s">
-        <v>98</v>
-      </c>
-      <c r="I16" s="17">
-        <f>I3*I5*I11</f>
-        <v>49.549500000000002</v>
-      </c>
-      <c r="J16" s="17">
-        <f t="shared" ref="J16:K16" si="15">J3*J5*J11</f>
-        <v>14.356160000000001</v>
-      </c>
-      <c r="K16" s="17">
-        <f t="shared" si="15"/>
-        <v>78.332760000000007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <f>B13/(B13+B14)</f>
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ref="C17:D17" si="16">C13/(C13+C14)</f>
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="16"/>
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="I17">
-        <f>I13/(I13+I14)</f>
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="J17">
-        <f t="shared" ref="J17:K17" si="17">J13/(J13+J14)</f>
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="17"/>
-        <v>0.93599999999999994</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <f>B15/(B15+B16)</f>
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="C18">
-        <f t="shared" ref="C18" si="18">C15/(C15+C16)</f>
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="D18">
-        <f>D15/(D15+D16)</f>
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="I18">
-        <f>I15/(I15+I16)</f>
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="J18">
-        <f t="shared" ref="J18" si="19">J15/(J15+J16)</f>
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="K18">
-        <f>K15/(K15+K16)</f>
-        <v>0.73799999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" t="s">
-        <v>99</v>
-      </c>
-      <c r="I20" t="s">
-        <v>91</v>
-      </c>
-      <c r="J20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="17">
-        <f>B13+C13+D13</f>
-        <v>5243.8185345000002</v>
-      </c>
-      <c r="C21" s="17">
-        <f>B14+C14+D14</f>
-        <v>408.91196549999978</v>
-      </c>
-      <c r="H21" t="s">
-        <v>90</v>
-      </c>
-      <c r="I21" s="17">
-        <f>I13+J13+K13</f>
-        <v>1017.0069599999999</v>
-      </c>
-      <c r="J21" s="17">
-        <f>I14+J14+K14</f>
-        <v>68.003039999999984</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="17">
-        <f>B15+C15+D15</f>
-        <v>1765.8171988999998</v>
-      </c>
-      <c r="C22" s="17">
-        <f>B16+C16+D16</f>
-        <v>1167.4523011000001</v>
-      </c>
-      <c r="E22">
-        <f>B22/(B22+C22)</f>
-        <v>0.60199623624764098</v>
-      </c>
-      <c r="H22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I22" s="17">
-        <f>I15+J15+K15</f>
-        <v>372.75157999999999</v>
-      </c>
-      <c r="J22" s="17">
-        <f>I16+J16+K16</f>
-        <v>142.23842000000002</v>
-      </c>
-      <c r="M22">
-        <f>I22/(I22+J22)</f>
-        <v>0.72380353016563426</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="15">
-        <f>B21*C22/C21/B22</f>
-        <v>8.4783479955198739</v>
-      </c>
-      <c r="K24" t="s">
-        <v>100</v>
-      </c>
-      <c r="L24" s="15">
-        <f>I21*J22/J21/I22</f>
-        <v>5.7068048774948226</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="15">
-        <f>(B21/(B21+C21))/(B22/(B22+C22))</f>
-        <v>1.5409750168597309</v>
-      </c>
-      <c r="K25" t="s">
-        <v>101</v>
-      </c>
-      <c r="L25" s="15">
-        <f>(I21/(I21+J21))/(I22/(I22+J22))</f>
-        <v>1.2949991616265983</v>
-      </c>
-      <c r="N25">
-        <f>M22*L25</f>
-        <v>0.93732496474686866</v>
+        <v>168</v>
+      </c>
+      <c r="B13">
+        <v>2019</v>
+      </c>
+      <c r="C13">
+        <f>141+93+115+160+177+123+120+162+154+150+124+133</f>
+        <v>1652</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" tooltip="Persistent link using digital object identifier" xr:uid="{4D626F25-AE3D-43BD-BCDE-4A5EC98FAE02}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9526,23 +9148,23 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="8" width="11.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1"/>
+    <col min="4" max="8" width="11.125" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>34</v>
@@ -9554,7 +9176,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>37</v>
@@ -9662,15 +9284,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D2" s="11">
         <v>919</v>
@@ -9829,15 +9451,15 @@
       <c r="CB2" s="7"/>
       <c r="CC2" s="7"/>
     </row>
-    <row r="3" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D3" s="11">
         <v>462</v>
@@ -9996,15 +9618,15 @@
       <c r="CB3" s="7"/>
       <c r="CC3" s="7"/>
     </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D4" s="11">
         <v>301</v>
@@ -10163,15 +9785,15 @@
       <c r="CB4" s="7"/>
       <c r="CC4" s="7"/>
     </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D5" s="11">
         <v>1630</v>
@@ -10330,15 +9952,15 @@
       <c r="CB5" s="7"/>
       <c r="CC5" s="7"/>
     </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D6" s="11">
         <v>1800</v>
@@ -10497,15 +10119,15 @@
       <c r="CB6" s="7"/>
       <c r="CC6" s="7"/>
     </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D7" s="11">
         <v>998</v>
@@ -10664,15 +10286,15 @@
       <c r="CB7" s="7"/>
       <c r="CC7" s="7"/>
     </row>
-    <row r="8" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D8" s="11">
         <v>6</v>
@@ -10792,15 +10414,15 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D9" s="11">
         <v>6</v>
@@ -10920,15 +10542,15 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="11">
         <v>2</v>
@@ -11048,15 +10670,15 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="11">
         <v>10</v>
@@ -11176,15 +10798,15 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="11">
         <v>6</v>
@@ -11304,15 +10926,15 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="11">
         <v>3</v>
@@ -11432,15 +11054,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D14" s="11">
         <v>28</v>
@@ -11560,15 +11182,15 @@
         <v>423</v>
       </c>
     </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D15" s="11">
         <v>17</v>
@@ -11688,15 +11310,15 @@
         <v>386</v>
       </c>
     </row>
-    <row r="16" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D16" s="11">
         <v>11</v>
@@ -11816,15 +11438,15 @@
         <v>391</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D17" s="11">
         <v>33</v>
@@ -11944,15 +11566,15 @@
         <v>471</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D18" s="11">
         <v>19</v>
@@ -12072,15 +11694,15 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D19" s="11">
         <v>6</v>
@@ -12200,15 +11822,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D20" s="11">
         <v>60</v>
@@ -12328,15 +11950,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D21" s="11">
         <v>13</v>
@@ -12456,15 +12078,15 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D22" s="11">
         <v>16</v>
@@ -12584,15 +12206,15 @@
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D23" s="11">
         <v>79</v>
@@ -12712,15 +12334,15 @@
         <v>317</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D24" s="11">
         <v>47</v>
@@ -12840,15 +12462,15 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D25" s="11">
         <v>18</v>
@@ -12968,15 +12590,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D26" s="11">
         <v>803</v>
@@ -13096,15 +12718,15 @@
         <v>815</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D27" s="11">
         <v>367</v>
@@ -13224,15 +12846,15 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D28" s="11">
         <v>390</v>
@@ -13352,15 +12974,15 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D29" s="11">
         <v>1883</v>
@@ -13480,15 +13102,15 @@
         <v>3155</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D30" s="11">
         <v>1943</v>
@@ -13608,15 +13230,15 @@
         <v>3235</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D31" s="11">
         <v>1325</v>
@@ -13736,15 +13358,15 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D32" s="11">
         <v>5</v>
@@ -13864,15 +13486,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D33" s="11">
         <v>5</v>
@@ -13992,15 +13614,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D34" s="11">
         <v>3</v>
@@ -14120,15 +13742,15 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D35" s="11">
         <v>12</v>
@@ -14248,15 +13870,15 @@
         <v>293</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D36" s="11">
         <v>7</v>
@@ -14376,15 +13998,15 @@
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D37" s="11">
         <v>3</v>
@@ -14504,15 +14126,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D38" s="11">
         <v>24</v>
@@ -14632,15 +14254,15 @@
         <v>391</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D39" s="11">
         <v>13</v>
@@ -14760,15 +14382,15 @@
         <v>416</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D40" s="11">
         <v>14</v>
@@ -14888,15 +14510,15 @@
         <v>423</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D41" s="11">
         <v>38</v>
@@ -15016,15 +14638,15 @@
         <v>487</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D42" s="11">
         <v>20</v>
@@ -15144,15 +14766,15 @@
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D43" s="11">
         <v>9</v>
@@ -15272,15 +14894,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D44" s="11">
         <v>52</v>
@@ -15400,15 +15022,15 @@
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D45" s="11">
         <v>11</v>
@@ -15528,15 +15150,15 @@
         <v>212</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D46" s="11">
         <v>21</v>
@@ -15656,15 +15278,15 @@
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D47" s="11">
         <v>92</v>
@@ -15784,15 +15406,15 @@
         <v>327</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D48" s="11">
         <v>50</v>
@@ -15912,15 +15534,15 @@
         <v>219</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D49" s="11">
         <v>24</v>
@@ -16040,7 +15662,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
       <c r="D52" s="4"/>
     </row>
   </sheetData>
@@ -16050,600 +15672,955 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA37401-9159-4050-A15F-AA39CA2DB101}">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FBC180-692F-4365-89A2-152D7783C468}">
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="24">
-        <v>2016</v>
-      </c>
-      <c r="C2" s="24">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="B3" s="24">
-        <v>2017</v>
-      </c>
-      <c r="C3" s="24">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="B4" s="24">
-        <v>2018</v>
-      </c>
-      <c r="C4" s="24">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="B5" s="24">
-        <v>2019</v>
-      </c>
-      <c r="C5" s="24">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6">
-        <v>2016</v>
-      </c>
-      <c r="C6" s="2">
-        <f>197/290</f>
-        <v>0.67931034482758623</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="B7">
-        <v>2017</v>
-      </c>
-      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="4">
+        <f>OpioidPattern!D7</f>
+        <v>0.5641025641025641</v>
+      </c>
+      <c r="C2" s="4">
+        <f>OpioidPattern!E7</f>
+        <v>0.41550429999999999</v>
+      </c>
+      <c r="D2" s="4">
         <f>207/286</f>
         <v>0.72377622377622375</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8">
-        <v>2018</v>
-      </c>
-      <c r="C8" s="2">
-        <f>226/272</f>
-        <v>0.83088235294117652</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>175</v>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="23">
+        <f>OpioidPattern!D8</f>
+        <v>0.05</v>
+      </c>
+      <c r="C3" s="23">
+        <f>OpioidPattern!E8</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="23">
+        <f>OpioidPattern!F8</f>
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="21">
+        <f>OverdoseRisk!C2</f>
+        <v>7.5438493580000003E-3</v>
+      </c>
+      <c r="C4" s="21">
+        <f>OverdoseRisk!D2</f>
+        <v>6.5657605787018403E-3</v>
+      </c>
+      <c r="D4" s="21">
+        <f>OverdoseRisk!E2</f>
+        <v>8.6259541200034429E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5">
+        <f>OverdoseRisk!C3</f>
+        <v>1.538E-2</v>
+      </c>
+      <c r="C5" s="25">
+        <f>OverdoseRisk!D3</f>
+        <v>1.2175274191616903E-2</v>
+      </c>
+      <c r="D5" s="25">
+        <f>OverdoseRisk!E3</f>
+        <v>1.8575312252222864E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6">
+        <f>OverdoseRisk!C5</f>
+        <v>2.9</v>
+      </c>
+      <c r="C6">
+        <f>OverdoseRisk!D5</f>
+        <v>1.7</v>
+      </c>
+      <c r="D6">
+        <f>OverdoseRisk!E5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="15">
+        <f>OverdoseRisk!C6</f>
+        <v>2.9950980392156863</v>
+      </c>
+      <c r="C7" s="15">
+        <f>OverdoseRisk!D6</f>
+        <v>1.5079650915246505</v>
+      </c>
+      <c r="D7" s="15">
+        <f>OverdoseRisk!E6</f>
+        <v>5.9488195813894986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="15">
+        <f>OverdoseRisk!C7</f>
+        <v>5.9153225806451619</v>
+      </c>
+      <c r="C8" s="15">
+        <f>OverdoseRisk!D7</f>
+        <v>3.6078748383811243</v>
+      </c>
+      <c r="D8" s="15">
+        <f>OverdoseRisk!E7</f>
+        <v>9.6985186018235687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>149</v>
       </c>
       <c r="B9">
-        <v>2019</v>
-      </c>
-      <c r="C9" s="2">
-        <f>214/256</f>
-        <v>0.8359375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <f>OverdoseRisk!C8</f>
+        <v>3.5</v>
+      </c>
+      <c r="C9">
+        <f>OverdoseRisk!D8</f>
+        <v>1.9</v>
+      </c>
+      <c r="D9">
+        <f>OverdoseRisk!E8</f>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10">
-        <v>2016</v>
-      </c>
-      <c r="C10">
-        <f>110+108+107+149+147+169+151+167+134+132+107+127</f>
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="B10" s="14">
+        <f>Mortality!B2</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="C10" s="14">
+        <f>Mortality!C2</f>
+        <v>0.03</v>
+      </c>
+      <c r="D10" s="14">
+        <f>Mortality!D2</f>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B11">
-        <v>2017</v>
-      </c>
-      <c r="C11">
-        <f>124+109+106+150+121+153+141+165+156+171+139+144</f>
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="B11" s="14">
+        <f>Mortality!B3</f>
+        <v>8.9897260273972598E-3</v>
+      </c>
+      <c r="C11" s="14">
+        <f>Mortality!C3</f>
+        <v>7.2609325605900938E-3</v>
+      </c>
+      <c r="D11" s="14">
+        <f>Mortality!D3</f>
+        <v>1.1130136986301369E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B12">
-        <v>2018</v>
+        <f>Mortality!B4</f>
+        <v>0.58799999999999997</v>
       </c>
       <c r="C12">
-        <f>114+102+119+134+163+142+120+149+112+139+148+119</f>
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <f>Mortality!C4</f>
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="D12">
+        <f>Mortality!D4</f>
+        <v>0.75800000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>174</v>
-      </c>
-      <c r="B13">
-        <v>2019</v>
-      </c>
-      <c r="C13">
-        <f>141+93+115+160+177+123+120+162+154+150+124+133</f>
-        <v>1652</v>
-      </c>
-    </row>
+        <v>176</v>
+      </c>
+      <c r="B13" s="15">
+        <f>DecisionTree!B4</f>
+        <v>0.82</v>
+      </c>
+      <c r="C13" s="15">
+        <f>DecisionTree!C4</f>
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="15">
+        <f>DecisionTree!D4</f>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f>DecisionTree!A6</f>
+        <v>OD_911_pub</v>
+      </c>
+      <c r="B14" s="15">
+        <f>DecisionTree!B6</f>
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="C14" s="15">
+        <f>DecisionTree!C6</f>
+        <v>0.56126589126318638</v>
+      </c>
+      <c r="D14" s="15">
+        <f>DecisionTree!D6</f>
+        <v>0.79900000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15">
+        <f>DecisionTree!B8</f>
+        <v>0.9</v>
+      </c>
+      <c r="C15">
+        <f>DecisionTree!C8</f>
+        <v>0.85</v>
+      </c>
+      <c r="D15">
+        <f>DecisionTree!D8</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="14">
+        <f>DecisionTree!B9</f>
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="C16" s="14">
+        <f>DecisionTree!C9</f>
+        <v>4.8390339999999997E-2</v>
+      </c>
+      <c r="D16" s="14">
+        <f>DecisionTree!D9</f>
+        <v>0.11579589999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f>NxKit!A3</f>
+        <v>Low2Priv</v>
+      </c>
+      <c r="B17">
+        <f>NxKit!B3</f>
+        <v>0.3</v>
+      </c>
+      <c r="C17">
+        <f>NxKit!C3</f>
+        <v>0.1</v>
+      </c>
+      <c r="D17">
+        <f>NxKit!D3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f>NxKit!A4</f>
+        <v>High2Pub</v>
+      </c>
+      <c r="B18">
+        <f>NxKit!B4</f>
+        <v>0.1</v>
+      </c>
+      <c r="C18">
+        <f>NxKit!C4</f>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f>NxKit!D4</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19">
+        <f>NxKit!B5</f>
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f>NxKit!C5</f>
+        <v>0.5</v>
+      </c>
+      <c r="D19">
+        <f>NxKit!D5</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FBC180-692F-4365-89A2-152D7783C468}">
-  <dimension ref="A1:I28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0880A51-D5C0-4CC2-9F82-0D2250CCEDDE}">
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>120</v>
-      </c>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="4">
-        <f>OpioidPattern!D7</f>
-        <v>0.5641025641025641</v>
-      </c>
-      <c r="D2" s="4">
-        <f>OpioidPattern!E7</f>
-        <v>0.41550429999999999</v>
-      </c>
-      <c r="E2" s="4">
-        <f>207/286</f>
-        <v>0.72377622377622375</v>
-      </c>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="23">
-        <f>OpioidPattern!D8</f>
-        <v>0.05</v>
-      </c>
-      <c r="D3" s="23">
-        <f>OpioidPattern!E8</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="23">
-        <f>OpioidPattern!F8</f>
-        <v>0.1</v>
-      </c>
-      <c r="I3" s="18"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2">
+        <v>5.7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>519</v>
+      </c>
+      <c r="C3">
+        <v>7474</v>
+      </c>
+      <c r="D3">
+        <v>593</v>
+      </c>
+      <c r="I3">
+        <v>600</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="21">
-        <f>OverdoseRisk!C2</f>
-        <v>7.5438493580000003E-3</v>
-      </c>
-      <c r="D4" s="21">
-        <f>OverdoseRisk!D2</f>
-        <v>6.5657605787018403E-3</v>
-      </c>
-      <c r="E4" s="21">
-        <f>OverdoseRisk!E2</f>
-        <v>8.6259541200034429E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="C4" s="13">
+        <f>0.6549</f>
+        <v>0.65490000000000004</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.66779999999999995</v>
+      </c>
+      <c r="H4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="J4" s="13">
+        <f>0.6549</f>
+        <v>0.65490000000000004</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0.66779999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5">
-        <f>OverdoseRisk!C3</f>
-        <v>1.538E-2</v>
-      </c>
-      <c r="D5" s="25">
-        <f>OverdoseRisk!D3</f>
-        <v>1.2175274191616903E-2</v>
-      </c>
-      <c r="E5" s="25">
-        <f>OverdoseRisk!E3</f>
-        <v>1.8575312252222864E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="B5" s="13">
+        <f>1-B4</f>
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="C5" s="13">
+        <f t="shared" ref="C5:D5" si="0">1-C4</f>
+        <v>0.34509999999999996</v>
+      </c>
+      <c r="D5" s="13">
+        <f t="shared" si="0"/>
+        <v>0.33220000000000005</v>
+      </c>
+      <c r="H5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="13">
+        <f>1-I4</f>
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="J5" s="13">
+        <f t="shared" ref="J5:K5" si="1">1-J4</f>
+        <v>0.34509999999999996</v>
+      </c>
+      <c r="K5" s="13">
+        <f t="shared" si="1"/>
+        <v>0.33220000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6">
-        <f>OverdoseRisk!C5</f>
-        <v>2.9</v>
-      </c>
-      <c r="D6">
-        <f>OverdoseRisk!D5</f>
-        <v>1.7</v>
-      </c>
-      <c r="E6">
-        <f>OverdoseRisk!E5</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0.879</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.80940000000000001</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.87019999999999997</v>
+      </c>
+      <c r="H6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.879</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.80940000000000001</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0.87019999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="15">
-        <f>OverdoseRisk!C6</f>
-        <v>2.9950980392156863</v>
-      </c>
-      <c r="D7" s="15">
-        <f>OverdoseRisk!D6</f>
-        <v>1.5079650915246505</v>
-      </c>
-      <c r="E7" s="15">
-        <f>OverdoseRisk!E6</f>
-        <v>5.9488195813894986</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="B7" s="13">
+        <f>1-B6</f>
+        <v>0.121</v>
+      </c>
+      <c r="C7" s="13">
+        <f t="shared" ref="C7:D7" si="2">1-C6</f>
+        <v>0.19059999999999999</v>
+      </c>
+      <c r="D7" s="13">
+        <f t="shared" si="2"/>
+        <v>0.12980000000000003</v>
+      </c>
+      <c r="H7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="13">
+        <f>1-I6</f>
+        <v>0.121</v>
+      </c>
+      <c r="J7" s="13">
+        <f t="shared" ref="J7:K7" si="3">1-J6</f>
+        <v>0.19059999999999999</v>
+      </c>
+      <c r="K7" s="13">
+        <f t="shared" si="3"/>
+        <v>0.12980000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="15">
-        <f>OverdoseRisk!C7</f>
-        <v>5.9153225806451619</v>
-      </c>
-      <c r="D8" s="15">
-        <f>OverdoseRisk!D7</f>
-        <v>3.6078748383811243</v>
-      </c>
-      <c r="E8" s="15">
-        <f>OverdoseRisk!E7</f>
-        <v>9.6985186018235687</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="B8" s="13">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="H8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9">
-        <f>OverdoseRisk!C8</f>
-        <v>3.5</v>
-      </c>
-      <c r="D9">
-        <f>OverdoseRisk!D8</f>
-        <v>1.9</v>
-      </c>
-      <c r="E9">
-        <f>OverdoseRisk!E8</f>
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="B9" s="13">
+        <f>1-B8</f>
+        <v>5.9000000000000052E-2</v>
+      </c>
+      <c r="C9" s="13">
+        <f t="shared" ref="C9:D9" si="4">1-C8</f>
+        <v>7.3999999999999955E-2</v>
+      </c>
+      <c r="D9" s="13">
+        <f t="shared" si="4"/>
+        <v>6.3999999999999946E-2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="13">
+        <f>1-I8</f>
+        <v>5.9000000000000052E-2</v>
+      </c>
+      <c r="J9" s="13">
+        <f t="shared" ref="J9:K9" si="5">1-J8</f>
+        <v>7.3999999999999955E-2</v>
+      </c>
+      <c r="K9" s="13">
+        <f t="shared" si="5"/>
+        <v>6.3999999999999946E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="14">
-        <f>Mortality!B2</f>
-        <v>0.1111111</v>
-      </c>
-      <c r="D10" s="14">
-        <f>Mortality!C2</f>
-        <v>6.850038E-2</v>
-      </c>
-      <c r="E10" s="14">
-        <f>Mortality!D2</f>
-        <v>0.17524139999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="H10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="K10" s="13">
+        <v>0.73799999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="14">
-        <f>Mortality!B3</f>
-        <v>3.7000000000000033E-2</v>
-      </c>
-      <c r="D11" s="14">
-        <f>Mortality!C3</f>
-        <v>2.9000000000000026E-2</v>
-      </c>
-      <c r="E11" s="14">
-        <f>Mortality!D3</f>
-        <v>4.500000000000004E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12">
-        <f>Mortality!B4</f>
-        <v>0.8</v>
-      </c>
-      <c r="D12">
-        <f>Mortality!C4</f>
-        <v>0.65</v>
-      </c>
-      <c r="E12">
-        <f>Mortality!D4</f>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="B11" s="13">
+        <f>1-B10</f>
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="C11" s="13">
+        <f t="shared" ref="C11:D11" si="6">1-C10</f>
+        <v>0.41600000000000004</v>
+      </c>
+      <c r="D11" s="13">
+        <f t="shared" si="6"/>
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="H11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="13">
+        <f>1-I10</f>
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="J11" s="13">
+        <f t="shared" ref="J11:K11" si="7">1-J10</f>
+        <v>0.41600000000000004</v>
+      </c>
+      <c r="K11" s="13">
+        <f t="shared" si="7"/>
+        <v>0.26200000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>183</v>
-      </c>
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="15">
-        <f>DecisionTree!C3</f>
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="D13" s="15">
-        <f>DecisionTree!D3</f>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="E13" s="15">
-        <f>DecisionTree!E3</f>
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="B13" s="17">
+        <f>B3*B4*B8</f>
+        <v>340.64435249999997</v>
+      </c>
+      <c r="C13" s="17">
+        <f t="shared" ref="C13:D13" si="8">C3*C4*C8</f>
+        <v>4532.5131276000002</v>
+      </c>
+      <c r="D13" s="17">
+        <f t="shared" si="8"/>
+        <v>370.66105439999995</v>
+      </c>
+      <c r="H13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="17">
+        <f>I3*I4*I8</f>
+        <v>393.80849999999998</v>
+      </c>
+      <c r="J13" s="17">
+        <f t="shared" ref="J13:K13" si="9">J3*J4*J8</f>
+        <v>60.643740000000008</v>
+      </c>
+      <c r="K13" s="17">
+        <f t="shared" si="9"/>
+        <v>562.55471999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>184</v>
-      </c>
-      <c r="B14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="15">
-        <f>DecisionTree!C4</f>
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="D14" s="15">
-        <f>DecisionTree!D4</f>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="E14" s="15">
-        <f>DecisionTree!E4</f>
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f>DecisionTree!A5</f>
-        <v>OD_911_priv</v>
-      </c>
-      <c r="B15" t="str">
-        <f>DecisionTree!B5</f>
-        <v>na</v>
-      </c>
-      <c r="C15" s="15">
-        <f>DecisionTree!C5</f>
-        <v>0.4112627986348123</v>
-      </c>
-      <c r="D15" s="15">
-        <f>DecisionTree!D5</f>
-        <v>0.38250698324022347</v>
-      </c>
-      <c r="E15" s="15">
-        <f>DecisionTree!E5</f>
-        <v>0.64066852367688021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f>DecisionTree!A6</f>
-        <v>OD_911_pub_mul</v>
-      </c>
-      <c r="B16" t="str">
-        <f>DecisionTree!B6</f>
-        <v>na</v>
-      </c>
-      <c r="C16" s="15">
-        <f>DecisionTree!C6</f>
-        <v>1.302</v>
-      </c>
-      <c r="D16" s="15">
-        <f>DecisionTree!D6</f>
-        <v>1.232</v>
-      </c>
-      <c r="E16" s="15">
-        <f>DecisionTree!E6</f>
-        <v>1.377</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
+        <v>94</v>
+      </c>
+      <c r="B14" s="17">
+        <f>B3*B4*B9</f>
+        <v>21.358147500000019</v>
+      </c>
+      <c r="C14" s="17">
+        <f t="shared" ref="C14:D14" si="10">C3*C4*C9</f>
+        <v>362.20947239999975</v>
+      </c>
+      <c r="D14" s="17">
+        <f t="shared" si="10"/>
+        <v>25.344345599999976</v>
+      </c>
+      <c r="H14" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="17">
+        <f>I3*I4*I9</f>
+        <v>24.691500000000023</v>
+      </c>
+      <c r="J14" s="17">
+        <f t="shared" ref="J14:K14" si="11">J3*J4*J9</f>
+        <v>4.8462599999999973</v>
+      </c>
+      <c r="K14" s="17">
+        <f t="shared" si="11"/>
+        <v>38.465279999999964</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="17">
+        <f>B3*B5*B10</f>
+        <v>114.13718249999999</v>
+      </c>
+      <c r="C15" s="17">
+        <f t="shared" ref="C15:D15" si="12">C3*C5*C10</f>
+        <v>1506.2980015999999</v>
+      </c>
+      <c r="D15" s="17">
+        <f t="shared" si="12"/>
+        <v>145.38201480000001</v>
+      </c>
+      <c r="H15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="17">
+        <f>I3*I5*I10</f>
+        <v>131.95050000000001</v>
+      </c>
+      <c r="J15" s="17">
+        <f t="shared" ref="J15:K15" si="13">J3*J5*J10</f>
+        <v>20.153839999999999</v>
+      </c>
+      <c r="K15" s="17">
+        <f t="shared" si="13"/>
+        <v>220.64724000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="17">
+        <f>B3*B5*B11</f>
+        <v>42.860317500000001</v>
+      </c>
+      <c r="C16" s="17">
+        <f t="shared" ref="C16:D16" si="14">C3*C5*C11</f>
+        <v>1072.9793984</v>
+      </c>
+      <c r="D16" s="17">
+        <f t="shared" si="14"/>
+        <v>51.612585200000005</v>
+      </c>
+      <c r="H16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="17">
+        <f>I3*I5*I11</f>
+        <v>49.549500000000002</v>
+      </c>
+      <c r="J16" s="17">
+        <f t="shared" ref="J16:K16" si="15">J3*J5*J11</f>
+        <v>14.356160000000001</v>
+      </c>
+      <c r="K16" s="17">
+        <f t="shared" si="15"/>
+        <v>78.332760000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <f>B13/(B13+B14)</f>
+        <v>0.94099999999999995</v>
       </c>
       <c r="C17">
-        <f>DecisionTree!C7</f>
-        <v>0.95</v>
+        <f t="shared" ref="C17:D17" si="16">C13/(C13+C14)</f>
+        <v>0.92600000000000005</v>
       </c>
       <c r="D17">
-        <f>DecisionTree!D7</f>
-        <v>0.85299999999999998</v>
-      </c>
-      <c r="E17">
-        <f>DecisionTree!E7</f>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="14">
-        <f>DecisionTree!C8</f>
-        <v>7.5600000000000001E-2</v>
-      </c>
-      <c r="D18" s="14">
-        <f>DecisionTree!D8</f>
-        <v>4.8390339999999997E-2</v>
-      </c>
-      <c r="E18" s="14">
-        <f>DecisionTree!E8</f>
-        <v>0.11579589999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>168</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19">
-        <v>0.5</v>
-      </c>
-      <c r="D19">
-        <v>0.1</v>
-      </c>
-      <c r="E19">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>171</v>
-      </c>
+        <f t="shared" si="16"/>
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="I17">
+        <f>I13/(I13+I14)</f>
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17:K17" si="17">J13/(J13+J14)</f>
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="17"/>
+        <v>0.93599999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <f>B15/(B15+B16)</f>
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18" si="18">C15/(C15+C16)</f>
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="D18">
+        <f>D15/(D15+D16)</f>
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="I18">
+        <f>I15/(I15+I16)</f>
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18" si="19">J15/(J15+J16)</f>
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="K18">
+        <f>K15/(K15+K16)</f>
+        <v>0.73799999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20">
-        <f>NxKit!B4</f>
-        <v>0.7</v>
-      </c>
-      <c r="D20">
-        <f>NxKit!C4</f>
-        <v>0.4</v>
-      </c>
-      <c r="E20">
-        <f>NxKit!D4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="17">
+        <f>B13+C13+D13</f>
+        <v>5243.8185345000002</v>
+      </c>
+      <c r="C21" s="17">
+        <f>B14+C14+D14</f>
+        <v>408.91196549999978</v>
+      </c>
+      <c r="H21" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="17">
+        <f>I13+J13+K13</f>
+        <v>1017.0069599999999</v>
+      </c>
+      <c r="J21" s="17">
+        <f>I14+J14+K14</f>
+        <v>68.003039999999984</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="17">
+        <f>B15+C15+D15</f>
+        <v>1765.8171988999998</v>
+      </c>
+      <c r="C22" s="17">
+        <f>B16+C16+D16</f>
+        <v>1167.4523011000001</v>
+      </c>
+      <c r="E22">
+        <f>B22/(B22+C22)</f>
+        <v>0.60199623624764098</v>
+      </c>
+      <c r="H22" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="17">
+        <f>I15+J15+K15</f>
+        <v>372.75157999999999</v>
+      </c>
+      <c r="J22" s="17">
+        <f>I16+J16+K16</f>
+        <v>142.23842000000002</v>
+      </c>
+      <c r="M22">
+        <f>I22/(I22+J22)</f>
+        <v>0.72380353016563426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="15">
+        <f>B21*C22/C21/B22</f>
+        <v>8.4783479955198739</v>
+      </c>
+      <c r="K24" t="s">
+        <v>97</v>
+      </c>
+      <c r="L24" s="15">
+        <f>I21*J22/J21/I22</f>
+        <v>5.7068048774948226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="15">
+        <f>(B21/(B21+C21))/(B22/(B22+C22))</f>
+        <v>1.5409750168597309</v>
+      </c>
+      <c r="K25" t="s">
+        <v>98</v>
+      </c>
+      <c r="L25" s="15">
+        <f>(I21/(I21+J21))/(I22/(I22+J22))</f>
+        <v>1.2949991616265983</v>
+      </c>
+      <c r="N25">
+        <f>M22*L25</f>
+        <v>0.93732496474686866</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" tooltip="Persistent link using digital object identifier" xr:uid="{4D626F25-AE3D-43BD-BCDE-4A5EC98FAE02}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16656,17 +16633,17 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>0</v>
@@ -16690,15 +16667,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D2" s="9">
         <v>2.4942686840898669E-2</v>
@@ -16719,18 +16696,18 @@
         <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D3" s="9">
         <v>6.7126436781609192E-2</v>
@@ -16751,15 +16728,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D4" s="9">
         <v>6.9954776710005648E-2</v>
@@ -16780,15 +16757,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D5" s="9">
         <v>5.6965357481309889E-2</v>
@@ -16809,15 +16786,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D6" s="9">
         <v>3.7692145714887347E-2</v>
@@ -16838,15 +16815,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D7" s="9">
         <v>1.5907447577729574E-2</v>
@@ -16867,15 +16844,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D8" s="9">
         <v>2.6074182886522218E-2</v>
@@ -16896,15 +16873,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D9" s="9">
         <v>5.373573794626426E-2</v>
@@ -16925,15 +16902,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="9">
         <v>6.8940493468795355E-2</v>
@@ -16954,15 +16931,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="9">
         <v>4.1410184667039732E-2</v>
@@ -16983,15 +16960,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="9">
         <v>3.7641154328732745E-2</v>
@@ -17012,15 +16989,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="9">
         <v>2.5056947608200455E-2</v>
@@ -17041,15 +17018,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D14" s="9">
         <v>2.436938862761864E-2</v>
@@ -17070,15 +17047,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D15" s="9">
         <v>6.2884483937115515E-2</v>
@@ -17099,15 +17076,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D16" s="9">
         <v>5.9245960502692999E-2</v>
@@ -17128,15 +17105,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D17" s="9">
         <v>4.6042617960426177E-2</v>
@@ -17157,15 +17134,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D18" s="9">
         <v>2.6683608640406607E-2</v>
@@ -17186,15 +17163,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D19" s="9">
         <v>2.9069767441860465E-2</v>
@@ -17215,15 +17192,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D20" s="9">
         <v>2.2212908633696564E-2</v>
@@ -17244,15 +17221,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D21" s="9">
         <v>5.5646481178396073E-2</v>
@@ -17273,15 +17250,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D22" s="9">
         <v>6.0267857142857144E-2</v>
@@ -17302,15 +17279,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D23" s="9">
         <v>4.1769041769041768E-2</v>
@@ -17331,15 +17308,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D24" s="9">
         <v>3.0120481927710843E-2</v>
@@ -17360,15 +17337,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D25" s="9">
         <v>1.7964071856287425E-2</v>
@@ -17389,15 +17366,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D26" s="9">
         <v>2.7733912356889063E-2</v>
@@ -17418,15 +17395,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D27" s="9">
         <v>6.7545891997861346E-2</v>
@@ -17447,15 +17424,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D28" s="9">
         <v>5.9462835727670207E-2</v>
@@ -17476,15 +17453,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D29" s="9">
         <v>4.374098124098124E-2</v>
@@ -17505,15 +17482,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D30" s="9">
         <v>3.1348543869411986E-2</v>
@@ -17534,15 +17511,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D31" s="9">
         <v>1.1685116851168511E-2</v>
@@ -17563,15 +17540,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D32" s="9">
         <v>3.5166479610924055E-2</v>
@@ -17592,15 +17569,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D33" s="9">
         <v>4.6284224250325946E-2</v>
@@ -17621,15 +17598,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D34" s="9">
         <v>4.4698544698544701E-2</v>
@@ -17650,15 +17627,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D35" s="9">
         <v>3.0814689742507388E-2</v>
@@ -17679,15 +17656,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D36" s="9">
         <v>3.125E-2</v>
@@ -17708,15 +17685,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D37" s="9">
         <v>8.3056478405315621E-3</v>
@@ -17737,15 +17714,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D38" s="9">
         <v>3.6120840630472856E-2</v>
@@ -17766,15 +17743,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D39" s="9">
         <v>5.2423777144110548E-2</v>
@@ -17795,15 +17772,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D40" s="9">
         <v>4.7795479807336047E-2</v>
@@ -17824,15 +17801,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D41" s="9">
         <v>3.065373787926181E-2</v>
@@ -17853,15 +17830,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D42" s="9">
         <v>1.3197969543147208E-2</v>
@@ -17882,15 +17859,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D43" s="9">
         <v>2.0876826722338204E-2</v>
@@ -17911,15 +17888,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D44" s="9">
         <v>3.0328919265271252E-2</v>
@@ -17940,15 +17917,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D45" s="9">
         <v>6.0930424042815977E-2</v>
@@ -17969,15 +17946,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D46" s="9">
         <v>4.7806155861165683E-2</v>
@@ -17998,15 +17975,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D47" s="9">
         <v>2.9858849077090119E-2</v>
@@ -18027,15 +18004,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D48" s="9">
         <v>2.3972602739726026E-2</v>
@@ -18056,15 +18033,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D49" s="9">
         <v>1.3927576601671309E-2</v>
@@ -18099,17 +18076,17 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>0</v>
@@ -18133,15 +18110,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D2" s="9">
         <v>3.9431453461714807E-3</v>
@@ -18162,18 +18139,18 @@
         <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D3" s="9">
         <v>5.6091954022988506E-2</v>
@@ -18194,15 +18171,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D4" s="9">
         <v>4.8473713962690783E-2</v>
@@ -18223,15 +18200,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D5" s="9">
         <v>2.2428135200589661E-2</v>
@@ -18252,15 +18229,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D6" s="9">
         <v>1.284480943356496E-2</v>
@@ -18281,15 +18258,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D7" s="9">
         <v>2.1691973969631237E-3</v>
@@ -18310,15 +18287,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D8" s="9">
         <v>1.1017260374586854E-3</v>
@@ -18339,15 +18316,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D9" s="9">
         <v>1.6562384983437616E-2</v>
@@ -18368,15 +18345,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="9">
         <v>2.0319303338171262E-2</v>
@@ -18397,15 +18374,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="9">
         <v>1.9026301063234472E-2</v>
@@ -18426,15 +18403,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="9">
         <v>3.7641154328732745E-2</v>
@@ -18455,15 +18432,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="9">
         <v>6.8337129840546698E-3</v>
@@ -18484,15 +18461,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D14" s="9">
         <v>3.3528918692372171E-3</v>
@@ -18513,15 +18490,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D15" s="9">
         <v>4.0916530278232409E-2</v>
@@ -18542,15 +18519,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D16" s="9">
         <v>3.9434523809523808E-2</v>
@@ -18571,15 +18548,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D17" s="9">
         <v>2.5798525798525797E-2</v>
@@ -18600,15 +18577,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D18" s="9">
         <v>1.2048192771084338E-2</v>
@@ -18629,15 +18606,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D19" s="9">
         <v>2.9940119760479044E-3</v>
@@ -18658,15 +18635,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D20" s="9">
         <v>3.8477982043608381E-3</v>
@@ -18687,15 +18664,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D21" s="9">
         <v>4.5340624287992709E-2</v>
@@ -18716,15 +18693,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D22" s="9">
         <v>3.7701974865350089E-2</v>
@@ -18745,15 +18722,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D23" s="9">
         <v>2.5875190258751901E-2</v>
@@ -18774,15 +18751,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D24" s="9">
         <v>1.5247776365946633E-2</v>
@@ -18803,15 +18780,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D25" s="9">
         <v>5.8139534883720929E-3</v>
@@ -18832,15 +18809,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D26" s="9">
         <v>3.3557046979865771E-3</v>
@@ -18861,15 +18838,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D27" s="9">
         <v>3.920869720192479E-2</v>
@@ -18890,15 +18867,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D28" s="9">
         <v>2.7357901311680199E-2</v>
@@ -18919,15 +18896,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D29" s="9">
         <v>1.0281385281385282E-2</v>
@@ -18948,15 +18925,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D30" s="9">
         <v>6.3068076423669081E-3</v>
@@ -18977,15 +18954,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D31" s="9">
         <v>1.025010250102501E-3</v>
@@ -19006,15 +18983,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D32" s="9">
         <v>1.4964459408903852E-3</v>
@@ -19035,15 +19012,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D33" s="9">
         <v>1.2059973924380704E-2</v>
@@ -19064,15 +19041,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D34" s="9">
         <v>1.0914760914760915E-2</v>
@@ -19093,15 +19070,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D35" s="9">
         <v>1.2241452089489235E-2</v>
@@ -19122,15 +19099,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D36" s="9">
         <v>1.46484375E-2</v>
@@ -19151,15 +19128,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D37" s="9">
         <v>0</v>
@@ -19180,15 +19157,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D38" s="9">
         <v>3.8445108927808629E-3</v>
@@ -19209,15 +19186,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D39" s="9">
         <v>3.1700288184438041E-2</v>
@@ -19238,15 +19215,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D40" s="9">
         <v>2.2920759659463E-2</v>
@@ -19267,15 +19244,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D41" s="9">
         <v>1.1400651465798045E-2</v>
@@ -19296,15 +19273,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D42" s="9">
         <v>5.1369863013698627E-3</v>
@@ -19325,15 +19302,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D43" s="9">
         <v>0</v>
@@ -19354,15 +19331,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D44" s="9">
         <v>4.5971978984238179E-3</v>
@@ -19383,15 +19360,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D45" s="9">
         <v>3.2243913138846239E-2</v>
@@ -19412,15 +19389,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D46" s="9">
         <v>1.7413856984068173E-2</v>
@@ -19441,15 +19418,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D47" s="9">
         <v>1.0009383797309979E-2</v>
@@ -19470,15 +19447,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D48" s="9">
         <v>5.076142131979695E-3</v>
@@ -19499,15 +19476,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D49" s="9">
         <v>0</v>
@@ -19538,27 +19515,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE310753-5FDB-4C95-9210-5EA6DD07A095}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="8.75" customWidth="1"/>
+    <col min="6" max="6" width="8.375" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>0</v>
@@ -19582,12 +19559,12 @@
         <v>6</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
@@ -19603,9 +19580,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -19621,9 +19598,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -19638,9 +19615,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -19655,9 +19632,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -19678,9 +19655,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -19699,15 +19676,15 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="J7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="K7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -19725,13 +19702,13 @@
         <v>0.1</v>
       </c>
       <c r="J8" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>50</v>
@@ -19746,9 +19723,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>50</v>
@@ -19763,9 +19740,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -19781,34 +19758,34 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D12" s="3">
         <v>0.19234100000000001</v>
       </c>
       <c r="J12" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="K12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E13" s="3"/>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F18" s="3"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F19" s="3"/>
       <c r="H19" s="4"/>
     </row>
@@ -19824,17 +19801,17 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -19858,9 +19835,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B2" s="2">
         <f>3587000/(3587000+891000)*0.176+891000/(3587000+891000)*0.079</f>
@@ -19875,12 +19852,12 @@
         <v>0.17030683340777131</v>
       </c>
       <c r="H2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B3" s="10">
         <v>0.25244517036746611</v>
@@ -19897,18 +19874,18 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -19929,18 +19906,18 @@
         <v>5</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B2">
         <v>13.3</v>
@@ -19965,16 +19942,16 @@
         <v>34.447000000000003</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B3">
         <v>70.2</v>
@@ -19999,16 +19976,16 @@
         <v>181.81799999999998</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K3" s="12"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B4">
         <v>128.80000000000001</v>
@@ -20033,13 +20010,13 @@
         <v>333.59199999999998</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B5">
         <v>194.7</v>
@@ -20064,13 +20041,13 @@
         <v>504.27299999999997</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B6">
         <v>359.9</v>
@@ -20095,13 +20072,13 @@
         <v>932.14099999999985</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>157</v>
-      </c>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>163</v>
       </c>
       <c r="B7">
         <v>886.7</v>
@@ -20126,13 +20103,13 @@
         <v>2296.5529999999999</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="K7" s="12"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B8">
         <v>4386.1000000000004</v>
@@ -20157,7 +20134,7 @@
         <v>11359.999</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="K8" s="12"/>
     </row>
@@ -20176,18 +20153,18 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.75" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>57</v>
@@ -20214,12 +20191,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C2" s="21">
         <v>7.5438493580000003E-3</v>
@@ -20231,12 +20208,12 @@
         <v>8.6259541200034429E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C3">
         <v>1.538E-2</v>
@@ -20248,23 +20225,29 @@
         <v>1.8575312252222864E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C5">
         <v>2.9</v>
@@ -20276,15 +20259,15 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C6" s="15">
         <v>2.9950980392156863</v>
@@ -20296,15 +20279,15 @@
         <v>5.9488195813894986</v>
       </c>
       <c r="F6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C7" s="15">
         <v>5.9153225806451619</v>
@@ -20316,12 +20299,12 @@
         <v>9.6985186018235687</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C8">
         <v>3.5</v>
@@ -20333,12 +20316,12 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -20350,31 +20333,32 @@
         <v>1.2</v>
       </c>
       <c r="I9" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2AC051-F066-42E9-A916-4CE8811C6F18}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -20398,64 +20382,85 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B2">
         <v>4.1800000000000002E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="B3">
         <v>2.0199999999999999E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B4">
         <v>8.2400000000000008E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="B5">
         <v>5.9500000000000004E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B6">
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>204</v>
       </c>
       <c r="B7">
         <v>2.5400000000000002E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B8">
         <v>4.5199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Inputs/MasterTable.xlsx
+++ b/Inputs/MasterTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Desktop\profound-model\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Desktop\profound-model_0113\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FA1864-FC11-43B2-8EB4-758711400916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C6B0B3-1C2C-4455-A43A-FF035F0C4F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InitialPop" sheetId="12" r:id="rId1"/>
@@ -33,7 +33,6 @@
     <sheet name="Cost" sheetId="16" r:id="rId18"/>
     <sheet name="Target" sheetId="23" r:id="rId19"/>
     <sheet name="CalibPar" sheetId="24" r:id="rId20"/>
-    <sheet name="NxOnSurv" sheetId="17" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="190">
   <si>
     <t>pe</t>
   </si>
@@ -240,9 +239,6 @@
     <t>OD_hosp</t>
   </si>
   <si>
-    <t>OD_cess</t>
-  </si>
-  <si>
     <t>par</t>
   </si>
   <si>
@@ -264,9 +260,6 @@
     <t>Proportion of population aged 12 years and older</t>
   </si>
   <si>
-    <t>White</t>
-  </si>
-  <si>
     <t>12to17</t>
   </si>
   <si>
@@ -283,9 +276,6 @@
   </si>
   <si>
     <t>65older</t>
-  </si>
-  <si>
-    <t>Black</t>
   </si>
   <si>
     <t>race</t>
@@ -312,64 +302,7 @@
     <t>OUD prevalence estimated from NSDUH data</t>
   </si>
   <si>
-    <t>Latino</t>
-  </si>
-  <si>
-    <t>Nx</t>
-  </si>
-  <si>
-    <t>Survive</t>
-  </si>
-  <si>
-    <t>Died</t>
-  </si>
-  <si>
-    <t>Survived</t>
-  </si>
-  <si>
-    <t>Nx_surv</t>
-  </si>
-  <si>
-    <t>NoNx_suv</t>
-  </si>
-  <si>
-    <t>NoNx</t>
-  </si>
-  <si>
-    <t>Nx_die</t>
-  </si>
-  <si>
-    <t>NoNx_die</t>
-  </si>
-  <si>
-    <t>Die</t>
-  </si>
-  <si>
-    <t>OR =</t>
-  </si>
-  <si>
-    <t>RR =</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.drugpo.2020.102718</t>
-  </si>
-  <si>
-    <t>Reported aOR=</t>
-  </si>
-  <si>
-    <t>To adjust population size of each race</t>
-  </si>
-  <si>
     <t>year</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>low</t>
   </si>
   <si>
     <t>group</t>
@@ -385,9 +318,6 @@
   </si>
   <si>
     <t>p.il.hr2il.lr</t>
-  </si>
-  <si>
-    <t>p.inact2relap</t>
   </si>
   <si>
     <t>ini.il</t>
@@ -540,9 +470,6 @@
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5117359/</t>
   </si>
   <si>
-    <t>Low2Priv</t>
-  </si>
-  <si>
     <t>beta</t>
   </si>
   <si>
@@ -589,9 +516,6 @@
   </si>
   <si>
     <t>gw.fx</t>
-  </si>
-  <si>
-    <t>annual growth rate in fentanyl exposure</t>
   </si>
   <si>
     <t>fentanyl proportion (10.1001/jamanetworkopen.2019.2851), sti population (NSDUH)</t>
@@ -655,10 +579,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>High2Pub</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>gw.m.2inact</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -700,6 +620,37 @@
   </si>
   <si>
     <t>initial transition probability from illegal low risk opioid use to inactive state</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/17265131/</t>
+  </si>
+  <si>
+    <t>OD_cess</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p.inact2relap</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>eff.pharNlx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/20579009/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.drugpo.2016.08.004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>beta</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthly growth rate in fentanyl exposure</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -787,7 +738,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -814,6 +765,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1099,7 +1051,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1110,7 +1062,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>46</v>
@@ -1139,7 +1091,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -1163,12 +1115,12 @@
         <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -1193,12 +1145,12 @@
         <v>50</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -1213,7 +1165,7 @@
         <v>6.7199999999999996E-2</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="7">
         <f>C4</f>
@@ -1224,14 +1176,14 @@
         <v>7.7551020408163258E-3</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
         <v>51</v>
@@ -1246,7 +1198,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" ref="G5:G6" si="0">C5</f>
@@ -1257,12 +1209,12 @@
         <v>2.5510204081632651E-3</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -1277,7 +1229,7 @@
         <v>1.9E-2</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="0"/>
@@ -1288,7 +1240,7 @@
         <v>1.5306122448979593E-3</v>
       </c>
       <c r="I6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1302,7 +1254,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1312,7 +1264,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1336,15 +1288,15 @@
         <v>6</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="B2">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="C2">
         <v>0.05</v>
@@ -1370,7 +1322,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="B4" s="14">
         <v>0.82</v>
@@ -1384,7 +1336,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="B5" s="14">
         <v>0.6</v>
@@ -1398,7 +1350,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="B6" s="14">
         <v>0.66200000000000003</v>
@@ -1411,15 +1363,15 @@
         <v>0.79900000000000004</v>
       </c>
       <c r="H6" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B7" s="15">
         <v>0.59</v>
@@ -1431,10 +1383,10 @@
         <v>0.7</v>
       </c>
       <c r="H7" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1453,7 +1405,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="B9" s="14">
         <v>7.5600000000000001E-2</v>
@@ -1465,7 +1417,7 @@
         <v>0.11579589999999999</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="F9">
         <v>19</v>
@@ -1475,10 +1427,10 @@
         <v>232</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1496,7 +1448,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1506,18 +1458,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="B2" s="23">
         <f>1-C2</f>
@@ -1538,7 +1490,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1548,13 +1500,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1581,7 +1533,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B4" s="13">
         <v>0.16700000000000001</v>
@@ -1592,7 +1544,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="B5" s="13">
         <v>0.29899999999999999</v>
@@ -1691,7 +1643,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="B14" s="13">
         <v>0.32100000000000001</v>
@@ -1735,7 +1687,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="B18" s="13">
         <v>0.51100000000000001</v>
@@ -1889,7 +1841,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="B32" s="13">
         <v>0.22600000000000001</v>
@@ -1944,7 +1896,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="B37" s="13">
         <v>0.33300000000000002</v>
@@ -1955,7 +1907,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="B38" s="13">
         <v>0.13900000000000001</v>
@@ -1966,7 +1918,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="B39" s="13">
         <v>0.19800000000000001</v>
@@ -1997,7 +1949,7 @@
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2007,7 +1959,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -2033,42 +1985,59 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="14">
+        <v>147</v>
+      </c>
+      <c r="B2" s="9">
         <f>9/153</f>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="C2">
-        <v>0.03</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D2">
-        <v>0.11</v>
+        <v>0.108</v>
+      </c>
+      <c r="E2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>153</v>
       </c>
       <c r="H2" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B3">
-        <v>8.9897260273972598E-3</v>
-      </c>
-      <c r="C3">
-        <v>7.2609325605900938E-3</v>
-      </c>
-      <c r="D3">
-        <v>1.1130136986301369E-2</v>
-      </c>
-      <c r="G3" s="14"/>
+        <v>161</v>
+      </c>
+      <c r="B3" s="9">
+        <v>8.5599999999999999E-3</v>
+      </c>
+      <c r="C3" s="9">
+        <v>5.5500000000000002E-3</v>
+      </c>
+      <c r="D3" s="14">
+        <v>1.32E-2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3" s="17">
+        <v>2336</v>
+      </c>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="B4">
         <v>0.58799999999999997</v>
@@ -2205,17 +2174,17 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE6D060-BD9A-4D96-B4CE-F2ECE1E1EF2B}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -2252,52 +2221,38 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="B3" s="5">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="5">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="D3" s="5">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.2</v>
+        <v>150</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6">
-        <v>0.9</v>
+        <v>185</v>
+      </c>
+      <c r="B5">
+        <v>2.69</v>
+      </c>
+      <c r="C5">
+        <v>2.5</v>
+      </c>
+      <c r="D5">
+        <v>2.9</v>
       </c>
     </row>
   </sheetData>
@@ -2309,1426 +2264,744 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C231C3-2912-4A67-95C1-06AD5483D65C}">
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AN6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="M1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="P1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="Q1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="R1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="T1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="V1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="X1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="Z1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AC1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AD1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="AE1" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="AF1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="AH1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="AI1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AJ1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="AK1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AL1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AM1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="AN1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2015</v>
       </c>
-      <c r="B2" t="s">
-        <v>104</v>
+      <c r="B2">
+        <v>4</v>
       </c>
       <c r="C2">
-        <f>ROUND(C4/3090*932,0)</f>
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>144</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>41</v>
+      </c>
+      <c r="L2">
+        <v>36</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
         <v>4</v>
       </c>
-      <c r="D2">
-        <f t="shared" ref="D2:AO2" si="0">ROUND(D4/3090*932,0)</f>
+      <c r="Q2">
+        <v>12</v>
+      </c>
+      <c r="R2">
+        <v>8</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>28</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>17</v>
+      </c>
+      <c r="X2">
+        <v>23</v>
+      </c>
+      <c r="Y2">
+        <v>14</v>
+      </c>
+      <c r="Z2">
+        <v>2</v>
+      </c>
+      <c r="AA2">
+        <v>80</v>
+      </c>
+      <c r="AB2">
+        <v>4</v>
+      </c>
+      <c r="AC2">
+        <v>207</v>
+      </c>
+      <c r="AD2">
+        <v>25</v>
+      </c>
+      <c r="AE2">
+        <v>3</v>
+      </c>
+      <c r="AF2">
+        <v>8</v>
+      </c>
+      <c r="AG2">
+        <v>33</v>
+      </c>
+      <c r="AH2">
+        <v>6</v>
+      </c>
+      <c r="AI2">
+        <v>13</v>
+      </c>
+      <c r="AJ2">
+        <v>53</v>
+      </c>
+      <c r="AK2">
+        <v>2</v>
+      </c>
+      <c r="AL2">
+        <v>29</v>
+      </c>
+      <c r="AM2">
+        <v>11</v>
+      </c>
+      <c r="AN2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2016</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>121</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>63</v>
+      </c>
+      <c r="H3">
+        <v>477</v>
+      </c>
+      <c r="I3">
+        <v>19</v>
+      </c>
+      <c r="J3">
+        <v>22</v>
+      </c>
+      <c r="K3">
+        <v>137</v>
+      </c>
+      <c r="L3">
+        <v>120</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>6</v>
+      </c>
+      <c r="P3">
+        <v>12</v>
+      </c>
+      <c r="Q3">
+        <v>40</v>
+      </c>
+      <c r="R3">
+        <v>27</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>93</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>56</v>
+      </c>
+      <c r="X3">
+        <v>77</v>
+      </c>
+      <c r="Y3">
+        <v>47</v>
+      </c>
+      <c r="Z3">
+        <v>5</v>
+      </c>
+      <c r="AA3">
+        <v>265</v>
+      </c>
+      <c r="AB3">
+        <v>13</v>
+      </c>
+      <c r="AC3">
+        <v>687</v>
+      </c>
+      <c r="AD3">
+        <v>83</v>
+      </c>
+      <c r="AE3">
+        <v>11</v>
+      </c>
+      <c r="AF3">
+        <v>27</v>
+      </c>
+      <c r="AG3">
+        <v>111</v>
+      </c>
+      <c r="AH3">
+        <v>20</v>
+      </c>
+      <c r="AI3">
+        <v>42</v>
+      </c>
+      <c r="AJ3">
+        <v>176</v>
+      </c>
+      <c r="AK3">
+        <v>7</v>
+      </c>
+      <c r="AL3">
+        <v>97</v>
+      </c>
+      <c r="AM3">
+        <v>35</v>
+      </c>
+      <c r="AN3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2017</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>53</v>
+      </c>
+      <c r="F4">
+        <v>27</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>225</v>
+      </c>
+      <c r="I4">
+        <v>78</v>
+      </c>
+      <c r="J4">
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <v>110</v>
+      </c>
+      <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <v>29</v>
+      </c>
+      <c r="N4">
+        <v>9</v>
+      </c>
+      <c r="O4">
+        <v>17</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>148</v>
+      </c>
+      <c r="R4">
+        <v>24</v>
+      </c>
+      <c r="S4">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>19</v>
+      </c>
+      <c r="U4">
+        <v>44</v>
+      </c>
+      <c r="V4">
+        <v>4</v>
+      </c>
+      <c r="W4">
+        <v>53</v>
+      </c>
+      <c r="X4">
+        <v>140</v>
+      </c>
+      <c r="Y4">
+        <v>80</v>
+      </c>
+      <c r="Z4">
+        <v>33</v>
+      </c>
+      <c r="AA4">
+        <v>450</v>
+      </c>
+      <c r="AB4">
+        <v>23</v>
+      </c>
+      <c r="AC4">
+        <v>1265</v>
+      </c>
+      <c r="AD4">
+        <v>57</v>
+      </c>
+      <c r="AE4">
+        <v>14</v>
+      </c>
+      <c r="AF4">
+        <v>35</v>
+      </c>
+      <c r="AG4">
+        <v>68</v>
+      </c>
+      <c r="AH4">
+        <v>16</v>
+      </c>
+      <c r="AI4">
         <v>10</v>
       </c>
-      <c r="E2">
-        <f t="shared" si="0"/>
+      <c r="AJ4">
+        <v>331</v>
+      </c>
+      <c r="AK4">
+        <v>12</v>
+      </c>
+      <c r="AL4">
+        <v>143</v>
+      </c>
+      <c r="AM4">
+        <v>106</v>
+      </c>
+      <c r="AN4">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2018</v>
+      </c>
+      <c r="B5">
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>105</v>
+      </c>
+      <c r="D5">
+        <v>61</v>
+      </c>
+      <c r="E5">
+        <v>91</v>
+      </c>
+      <c r="F5">
+        <v>32</v>
+      </c>
+      <c r="G5">
+        <v>155</v>
+      </c>
+      <c r="H5">
+        <v>600</v>
+      </c>
+      <c r="I5">
+        <v>98</v>
+      </c>
+      <c r="J5">
+        <v>33</v>
+      </c>
+      <c r="K5">
+        <v>150</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <v>29</v>
+      </c>
+      <c r="N5">
+        <v>25</v>
+      </c>
+      <c r="O5">
+        <v>42</v>
+      </c>
+      <c r="P5">
+        <v>9</v>
+      </c>
+      <c r="Q5">
+        <v>305</v>
+      </c>
+      <c r="R5">
+        <v>54</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5">
+        <v>44</v>
+      </c>
+      <c r="U5">
+        <v>55</v>
+      </c>
+      <c r="V5">
+        <v>64</v>
+      </c>
+      <c r="W5">
+        <v>90</v>
+      </c>
+      <c r="X5">
+        <v>170</v>
+      </c>
+      <c r="Y5">
+        <v>125</v>
+      </c>
+      <c r="Z5">
+        <v>47</v>
+      </c>
+      <c r="AA5">
+        <v>846</v>
+      </c>
+      <c r="AB5">
+        <v>81</v>
+      </c>
+      <c r="AC5">
+        <v>2601</v>
+      </c>
+      <c r="AD5">
+        <v>21</v>
+      </c>
+      <c r="AE5">
+        <v>38</v>
+      </c>
+      <c r="AF5">
+        <v>64</v>
+      </c>
+      <c r="AG5">
+        <v>93</v>
+      </c>
+      <c r="AH5">
+        <v>48</v>
+      </c>
+      <c r="AI5">
+        <v>30</v>
+      </c>
+      <c r="AJ5">
+        <v>544</v>
+      </c>
+      <c r="AK5">
+        <v>12</v>
+      </c>
+      <c r="AL5">
+        <v>218</v>
+      </c>
+      <c r="AM5">
+        <v>257</v>
+      </c>
+      <c r="AN5">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2019</v>
+      </c>
+      <c r="B6">
+        <v>115</v>
+      </c>
+      <c r="C6">
+        <v>277</v>
+      </c>
+      <c r="D6">
+        <v>93</v>
+      </c>
+      <c r="E6">
+        <v>101</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>182</v>
+      </c>
+      <c r="H6">
+        <v>486</v>
+      </c>
+      <c r="I6">
+        <v>63</v>
+      </c>
+      <c r="J6">
+        <v>48</v>
+      </c>
+      <c r="K6">
+        <v>301</v>
+      </c>
+      <c r="L6">
+        <v>25</v>
+      </c>
+      <c r="M6">
+        <v>19</v>
+      </c>
+      <c r="N6">
+        <v>19</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>134</v>
+      </c>
+      <c r="R6">
+        <v>71</v>
+      </c>
+      <c r="S6">
+        <v>8</v>
+      </c>
+      <c r="T6">
+        <v>44</v>
+      </c>
+      <c r="U6">
+        <v>49</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>123</v>
+      </c>
+      <c r="X6">
+        <v>195</v>
+      </c>
+      <c r="Y6">
+        <v>119</v>
+      </c>
+      <c r="Z6">
         <v>36</v>
       </c>
-      <c r="F2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="I2">
-        <f t="shared" si="0"/>
-        <v>144</v>
-      </c>
-      <c r="J2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="K2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L2">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="M2">
-        <f t="shared" si="0"/>
+      <c r="AA6">
+        <v>757</v>
+      </c>
+      <c r="AB6">
+        <v>68</v>
+      </c>
+      <c r="AC6">
+        <v>2808</v>
+      </c>
+      <c r="AD6">
+        <v>24</v>
+      </c>
+      <c r="AE6">
+        <v>64</v>
+      </c>
+      <c r="AF6">
+        <v>40</v>
+      </c>
+      <c r="AG6">
+        <v>120</v>
+      </c>
+      <c r="AH6">
         <v>36</v>
       </c>
-      <c r="N2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="R2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="S2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="T2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="W2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="Y2">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="Z2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="AA2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AB2">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="AC2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AD2">
-        <f t="shared" si="0"/>
-        <v>207</v>
-      </c>
-      <c r="AE2">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="AF2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AG2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="AH2">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="AI2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AJ2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AK2">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="AL2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AM2">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="AN2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="AO2">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2015</v>
-      </c>
-      <c r="B3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2016</v>
-      </c>
-      <c r="B4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>32</v>
-      </c>
-      <c r="E4">
-        <v>121</v>
-      </c>
-      <c r="F4">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>16</v>
-      </c>
-      <c r="H4">
-        <v>63</v>
-      </c>
-      <c r="I4">
-        <v>477</v>
-      </c>
-      <c r="J4">
-        <v>19</v>
-      </c>
-      <c r="K4">
-        <v>22</v>
-      </c>
-      <c r="L4">
-        <v>137</v>
-      </c>
-      <c r="M4">
-        <v>120</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>6</v>
-      </c>
-      <c r="Q4">
-        <v>12</v>
-      </c>
-      <c r="R4">
-        <v>40</v>
-      </c>
-      <c r="S4">
-        <v>27</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>4</v>
-      </c>
-      <c r="V4">
-        <v>93</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>56</v>
-      </c>
-      <c r="Y4">
-        <v>77</v>
-      </c>
-      <c r="Z4">
-        <v>47</v>
-      </c>
-      <c r="AA4">
-        <v>5</v>
-      </c>
-      <c r="AB4">
-        <v>265</v>
-      </c>
-      <c r="AC4">
-        <v>13</v>
-      </c>
-      <c r="AD4">
-        <v>687</v>
-      </c>
-      <c r="AE4">
-        <v>83</v>
-      </c>
-      <c r="AF4">
-        <v>11</v>
-      </c>
-      <c r="AG4">
-        <v>27</v>
-      </c>
-      <c r="AH4">
-        <v>111</v>
-      </c>
-      <c r="AI4">
-        <v>20</v>
-      </c>
-      <c r="AJ4">
+      <c r="AI6">
+        <v>127</v>
+      </c>
+      <c r="AJ6">
+        <v>469</v>
+      </c>
+      <c r="AK6">
         <v>42</v>
       </c>
-      <c r="AK4">
-        <v>176</v>
-      </c>
-      <c r="AL4">
-        <v>7</v>
-      </c>
-      <c r="AM4">
-        <v>97</v>
-      </c>
-      <c r="AN4">
-        <v>35</v>
-      </c>
-      <c r="AO4">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2016</v>
-      </c>
-      <c r="B5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2017</v>
-      </c>
-      <c r="B6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>35</v>
-      </c>
-      <c r="E6">
-        <v>28</v>
-      </c>
-      <c r="F6">
-        <v>53</v>
-      </c>
-      <c r="G6">
-        <v>27</v>
-      </c>
-      <c r="H6">
-        <v>49</v>
-      </c>
-      <c r="I6">
-        <v>225</v>
-      </c>
-      <c r="J6">
-        <v>78</v>
-      </c>
-      <c r="K6">
-        <v>17</v>
-      </c>
-      <c r="L6">
-        <v>110</v>
-      </c>
-      <c r="M6">
-        <v>6</v>
-      </c>
-      <c r="N6">
-        <v>29</v>
-      </c>
-      <c r="O6">
-        <v>9</v>
-      </c>
-      <c r="P6">
-        <v>17</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>147</v>
-      </c>
-      <c r="S6">
-        <v>23</v>
-      </c>
-      <c r="T6">
-        <v>3</v>
-      </c>
-      <c r="U6">
-        <v>19</v>
-      </c>
-      <c r="V6">
-        <v>42</v>
-      </c>
-      <c r="W6">
-        <v>4</v>
-      </c>
-      <c r="X6">
-        <v>53</v>
-      </c>
-      <c r="Y6">
-        <v>139</v>
-      </c>
-      <c r="Z6">
-        <v>80</v>
-      </c>
-      <c r="AA6">
-        <v>32</v>
-      </c>
-      <c r="AB6">
-        <v>448</v>
-      </c>
-      <c r="AC6">
-        <v>23</v>
-      </c>
-      <c r="AD6">
-        <v>1257</v>
-      </c>
-      <c r="AE6">
-        <v>57</v>
-      </c>
-      <c r="AF6">
-        <v>13</v>
-      </c>
-      <c r="AG6">
-        <v>34</v>
-      </c>
-      <c r="AH6">
-        <v>67</v>
-      </c>
-      <c r="AI6">
-        <v>16</v>
-      </c>
-      <c r="AJ6">
-        <v>10</v>
-      </c>
-      <c r="AK6">
-        <v>329</v>
-      </c>
       <c r="AL6">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="AM6">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="AN6">
-        <v>106</v>
-      </c>
-      <c r="AO6">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2017</v>
-      </c>
-      <c r="B7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>2</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>1</v>
-      </c>
-      <c r="AB7">
-        <v>2</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>8</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>1</v>
-      </c>
-      <c r="AG7">
-        <v>1</v>
-      </c>
-      <c r="AH7">
-        <v>1</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>2</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2018</v>
-      </c>
-      <c r="B8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8">
-        <v>44</v>
-      </c>
-      <c r="D8">
-        <v>103</v>
-      </c>
-      <c r="E8">
-        <v>57</v>
-      </c>
-      <c r="F8">
-        <v>85</v>
-      </c>
-      <c r="G8">
-        <v>32</v>
-      </c>
-      <c r="H8">
-        <v>151</v>
-      </c>
-      <c r="I8">
-        <v>582</v>
-      </c>
-      <c r="J8">
-        <v>85</v>
-      </c>
-      <c r="K8">
-        <v>32</v>
-      </c>
-      <c r="L8">
-        <v>138</v>
-      </c>
-      <c r="M8">
-        <v>7</v>
-      </c>
-      <c r="N8">
-        <v>29</v>
-      </c>
-      <c r="O8">
-        <v>25</v>
-      </c>
-      <c r="P8">
-        <v>41</v>
-      </c>
-      <c r="Q8">
-        <v>8</v>
-      </c>
-      <c r="R8">
-        <v>291</v>
-      </c>
-      <c r="S8">
-        <v>46</v>
-      </c>
-      <c r="T8">
-        <v>4</v>
-      </c>
-      <c r="U8">
-        <v>41</v>
-      </c>
-      <c r="V8">
-        <v>53</v>
-      </c>
-      <c r="W8">
-        <v>64</v>
-      </c>
-      <c r="X8">
-        <v>88</v>
-      </c>
-      <c r="Y8">
-        <v>165</v>
-      </c>
-      <c r="Z8">
-        <v>120</v>
-      </c>
-      <c r="AA8">
-        <v>43</v>
-      </c>
-      <c r="AB8">
-        <v>824</v>
-      </c>
-      <c r="AC8">
-        <v>79</v>
-      </c>
-      <c r="AD8">
-        <v>2553</v>
-      </c>
-      <c r="AE8">
-        <v>21</v>
-      </c>
-      <c r="AF8">
-        <v>37</v>
-      </c>
-      <c r="AG8">
-        <v>59</v>
-      </c>
-      <c r="AH8">
-        <v>90</v>
-      </c>
-      <c r="AI8">
-        <v>46</v>
-      </c>
-      <c r="AJ8">
-        <v>29</v>
-      </c>
-      <c r="AK8">
-        <v>520</v>
-      </c>
-      <c r="AL8">
-        <v>9</v>
-      </c>
-      <c r="AM8">
-        <v>213</v>
-      </c>
-      <c r="AN8">
-        <v>256</v>
-      </c>
-      <c r="AO8">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2018</v>
-      </c>
-      <c r="B9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
-      <c r="I9">
-        <v>18</v>
-      </c>
-      <c r="J9">
-        <v>13</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>12</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>14</v>
-      </c>
-      <c r="S9">
-        <v>8</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>3</v>
-      </c>
-      <c r="V9">
-        <v>2</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>2</v>
-      </c>
-      <c r="Y9">
-        <v>5</v>
-      </c>
-      <c r="Z9">
-        <v>5</v>
-      </c>
-      <c r="AA9">
-        <v>4</v>
-      </c>
-      <c r="AB9">
-        <v>22</v>
-      </c>
-      <c r="AC9">
-        <v>2</v>
-      </c>
-      <c r="AD9">
-        <v>48</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>1</v>
-      </c>
-      <c r="AG9">
-        <v>5</v>
-      </c>
-      <c r="AH9">
-        <v>3</v>
-      </c>
-      <c r="AI9">
-        <v>2</v>
-      </c>
-      <c r="AJ9">
-        <v>1</v>
-      </c>
-      <c r="AK9">
-        <v>24</v>
-      </c>
-      <c r="AL9">
-        <v>3</v>
-      </c>
-      <c r="AM9">
-        <v>5</v>
-      </c>
-      <c r="AN9">
-        <v>1</v>
-      </c>
-      <c r="AO9">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2019</v>
-      </c>
-      <c r="B10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10">
-        <v>55</v>
-      </c>
-      <c r="D10">
-        <v>209</v>
-      </c>
-      <c r="E10">
-        <v>92</v>
-      </c>
-      <c r="F10">
-        <v>91</v>
-      </c>
-      <c r="G10">
-        <v>13</v>
-      </c>
-      <c r="H10">
-        <v>156</v>
-      </c>
-      <c r="I10">
-        <v>454</v>
-      </c>
-      <c r="J10">
-        <v>48</v>
-      </c>
-      <c r="K10">
-        <v>41</v>
-      </c>
-      <c r="L10">
-        <v>260</v>
-      </c>
-      <c r="M10">
-        <v>21</v>
-      </c>
-      <c r="N10">
-        <v>19</v>
-      </c>
-      <c r="O10">
-        <v>14</v>
-      </c>
-      <c r="P10">
-        <v>3</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>129</v>
-      </c>
-      <c r="S10">
-        <v>55</v>
-      </c>
-      <c r="T10">
-        <v>7</v>
-      </c>
-      <c r="U10">
-        <v>28</v>
-      </c>
-      <c r="V10">
-        <v>39</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>79</v>
-      </c>
-      <c r="Y10">
-        <v>140</v>
-      </c>
-      <c r="Z10">
-        <v>110</v>
-      </c>
-      <c r="AA10">
-        <v>34</v>
-      </c>
-      <c r="AB10">
-        <v>725</v>
-      </c>
-      <c r="AC10">
-        <v>38</v>
-      </c>
-      <c r="AD10">
-        <v>2622</v>
-      </c>
-      <c r="AE10">
-        <v>21</v>
-      </c>
-      <c r="AF10">
-        <v>60</v>
-      </c>
-      <c r="AG10">
-        <v>35</v>
-      </c>
-      <c r="AH10">
-        <v>101</v>
-      </c>
-      <c r="AI10">
-        <v>17</v>
-      </c>
-      <c r="AJ10">
-        <v>106</v>
-      </c>
-      <c r="AK10">
-        <v>434</v>
-      </c>
-      <c r="AL10">
-        <v>40</v>
-      </c>
-      <c r="AM10">
-        <v>212</v>
-      </c>
-      <c r="AN10">
-        <v>59</v>
-      </c>
-      <c r="AO10">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11">
-        <v>60</v>
-      </c>
-      <c r="D11">
-        <v>68</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>26</v>
-      </c>
-      <c r="I11">
-        <v>32</v>
-      </c>
-      <c r="J11">
-        <v>15</v>
-      </c>
-      <c r="K11">
-        <v>7</v>
-      </c>
-      <c r="L11">
-        <v>41</v>
-      </c>
-      <c r="M11">
-        <v>4</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>5</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>5</v>
-      </c>
-      <c r="S11">
-        <v>16</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <v>16</v>
-      </c>
-      <c r="V11">
-        <v>10</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>44</v>
-      </c>
-      <c r="Y11">
-        <v>55</v>
-      </c>
-      <c r="Z11">
-        <v>9</v>
-      </c>
-      <c r="AA11">
-        <v>2</v>
-      </c>
-      <c r="AB11">
-        <v>32</v>
-      </c>
-      <c r="AC11">
-        <v>30</v>
-      </c>
-      <c r="AD11">
-        <v>186</v>
-      </c>
-      <c r="AE11">
-        <v>3</v>
-      </c>
-      <c r="AF11">
-        <v>4</v>
-      </c>
-      <c r="AG11">
-        <v>5</v>
-      </c>
-      <c r="AH11">
-        <v>19</v>
-      </c>
-      <c r="AI11">
-        <v>19</v>
-      </c>
-      <c r="AJ11">
-        <v>21</v>
-      </c>
-      <c r="AK11">
-        <v>35</v>
-      </c>
-      <c r="AL11">
-        <v>2</v>
-      </c>
-      <c r="AM11">
-        <v>46</v>
-      </c>
-      <c r="AN11">
-        <v>3</v>
-      </c>
-      <c r="AO11">
-        <v>170</v>
+        <v>837</v>
       </c>
     </row>
   </sheetData>
@@ -3743,14 +3016,14 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3806,8 +3079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6B4D2B-1423-4BB1-B82C-0D272D8DA6C7}">
   <dimension ref="A1:AN40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4303,7 +3576,7 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="B5" s="20">
         <v>0</v>
@@ -8703,13 +7976,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC045363-D7FC-49B9-A9BB-CFCFB09307A2}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -8735,7 +8010,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="B2">
         <v>1019</v>
@@ -8761,7 +8036,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="B3">
         <v>1511</v>
@@ -8787,7 +8062,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="B4">
         <v>1511</v>
@@ -8813,7 +8088,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B5">
         <v>631</v>
@@ -8839,7 +8114,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B6" s="5">
         <v>2000</v>
@@ -8865,7 +8140,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B7">
         <v>61.5</v>
@@ -8891,7 +8166,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -8917,7 +8192,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B9">
         <v>500</v>
@@ -8943,7 +8218,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="B10" s="5">
         <v>1034</v>
@@ -8978,17 +8253,17 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q46" sqref="Q46"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
@@ -8996,7 +8271,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="B2" s="24">
         <v>2016</v>
@@ -9007,7 +8282,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="B3" s="24">
         <v>2017</v>
@@ -9018,7 +8293,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="B4" s="24">
         <v>2018</v>
@@ -9029,7 +8304,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="B5" s="24">
         <v>2019</v>
@@ -9040,7 +8315,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="B6">
         <v>2016</v>
@@ -9052,7 +8327,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="B7">
         <v>2017</v>
@@ -9064,7 +8339,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="B8">
         <v>2018</v>
@@ -9076,7 +8351,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="B9">
         <v>2019</v>
@@ -9088,7 +8363,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="B10">
         <v>2016</v>
@@ -9100,7 +8375,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="B11">
         <v>2017</v>
@@ -9112,7 +8387,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="B12">
         <v>2018</v>
@@ -9124,7 +8399,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="B13">
         <v>2019</v>
@@ -9145,7 +8420,7 @@
   <dimension ref="A1:CC52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9161,10 +8436,10 @@
         <v>46</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>34</v>
@@ -9176,7 +8451,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>37</v>
@@ -9289,10 +8564,10 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="11">
         <v>919</v>
@@ -9456,10 +8731,10 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D3" s="11">
         <v>462</v>
@@ -9623,10 +8898,10 @@
         <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="11">
         <v>301</v>
@@ -9790,10 +9065,10 @@
         <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D5" s="11">
         <v>1630</v>
@@ -9957,10 +9232,10 @@
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D6" s="11">
         <v>1800</v>
@@ -10124,10 +9399,10 @@
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D7" s="11">
         <v>998</v>
@@ -10291,10 +9566,10 @@
         <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" s="11">
         <v>6</v>
@@ -10419,10 +9694,10 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D9" s="11">
         <v>6</v>
@@ -10547,10 +9822,10 @@
         <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" s="11">
         <v>2</v>
@@ -10675,10 +9950,10 @@
         <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="11">
         <v>10</v>
@@ -10803,10 +10078,10 @@
         <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D12" s="11">
         <v>6</v>
@@ -10931,10 +10206,10 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" s="11">
         <v>3</v>
@@ -11059,10 +10334,10 @@
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="11">
         <v>28</v>
@@ -11187,10 +10462,10 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D15" s="11">
         <v>17</v>
@@ -11315,10 +10590,10 @@
         <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D16" s="11">
         <v>11</v>
@@ -11443,10 +10718,10 @@
         <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D17" s="11">
         <v>33</v>
@@ -11571,10 +10846,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D18" s="11">
         <v>19</v>
@@ -11699,10 +10974,10 @@
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D19" s="11">
         <v>6</v>
@@ -11827,10 +11102,10 @@
         <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D20" s="11">
         <v>60</v>
@@ -11955,10 +11230,10 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D21" s="11">
         <v>13</v>
@@ -12083,10 +11358,10 @@
         <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D22" s="11">
         <v>16</v>
@@ -12211,10 +11486,10 @@
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" s="11">
         <v>79</v>
@@ -12339,10 +11614,10 @@
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="11">
         <v>47</v>
@@ -12467,10 +11742,10 @@
         <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D25" s="11">
         <v>18</v>
@@ -12595,10 +11870,10 @@
         <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D26" s="11">
         <v>803</v>
@@ -12723,10 +11998,10 @@
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D27" s="11">
         <v>367</v>
@@ -12851,10 +12126,10 @@
         <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="11">
         <v>390</v>
@@ -12979,10 +12254,10 @@
         <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D29" s="11">
         <v>1883</v>
@@ -13107,10 +12382,10 @@
         <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D30" s="11">
         <v>1943</v>
@@ -13235,10 +12510,10 @@
         <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D31" s="11">
         <v>1325</v>
@@ -13363,10 +12638,10 @@
         <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D32" s="11">
         <v>5</v>
@@ -13491,10 +12766,10 @@
         <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D33" s="11">
         <v>5</v>
@@ -13619,10 +12894,10 @@
         <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D34" s="11">
         <v>3</v>
@@ -13747,10 +13022,10 @@
         <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D35" s="11">
         <v>12</v>
@@ -13875,10 +13150,10 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D36" s="11">
         <v>7</v>
@@ -14003,10 +13278,10 @@
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D37" s="11">
         <v>3</v>
@@ -14131,10 +13406,10 @@
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D38" s="11">
         <v>24</v>
@@ -14259,10 +13534,10 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D39" s="11">
         <v>13</v>
@@ -14387,10 +13662,10 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D40" s="11">
         <v>14</v>
@@ -14515,10 +13790,10 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D41" s="11">
         <v>38</v>
@@ -14643,10 +13918,10 @@
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D42" s="11">
         <v>20</v>
@@ -14771,10 +14046,10 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D43" s="11">
         <v>9</v>
@@ -14899,10 +14174,10 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D44" s="11">
         <v>52</v>
@@ -15027,10 +14302,10 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D45" s="11">
         <v>11</v>
@@ -15155,10 +14430,10 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D46" s="11">
         <v>21</v>
@@ -15283,10 +14558,10 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D47" s="11">
         <v>92</v>
@@ -15411,10 +14686,10 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D48" s="11">
         <v>50</v>
@@ -15539,10 +14814,10 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C49" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D49" s="11">
         <v>24</v>
@@ -15673,10 +14948,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FBC180-692F-4365-89A2-152D7783C468}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15686,7 +14961,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -15712,7 +14987,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="B2" s="4">
         <f>OpioidPattern!D7</f>
@@ -15730,11 +15005,11 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="23">
+        <v>154</v>
+      </c>
+      <c r="B3" s="4">
         <f>OpioidPattern!D8</f>
-        <v>0.05</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C3" s="23">
         <f>OpioidPattern!E8</f>
@@ -15742,30 +15017,30 @@
       </c>
       <c r="D3" s="23">
         <f>OpioidPattern!F8</f>
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="B4" s="21">
         <f>OverdoseRisk!C2</f>
-        <v>7.5438493580000003E-3</v>
+        <v>2.6026429525052852E-3</v>
       </c>
       <c r="C4" s="21">
         <f>OverdoseRisk!D2</f>
-        <v>6.5657605787018403E-3</v>
+        <v>1.2058338996029372E-3</v>
       </c>
       <c r="D4" s="21">
         <f>OverdoseRisk!E2</f>
-        <v>8.6259541200034429E-3</v>
+        <v>4.5480147401865678E-3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="B5">
         <f>OverdoseRisk!C3</f>
@@ -15782,58 +15057,58 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B6">
         <f>OverdoseRisk!C5</f>
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="C6">
         <f>OverdoseRisk!D5</f>
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="D6">
         <f>OverdoseRisk!E5</f>
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="B7" s="15">
         <f>OverdoseRisk!C6</f>
-        <v>2.9950980392156863</v>
+        <v>6.0709999999999997</v>
       </c>
       <c r="C7" s="15">
         <f>OverdoseRisk!D6</f>
-        <v>1.5079650915246505</v>
+        <v>3.6269999999999998</v>
       </c>
       <c r="D7" s="15">
         <f>OverdoseRisk!E6</f>
-        <v>5.9488195813894986</v>
+        <v>10.162000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B8" s="15">
         <f>OverdoseRisk!C7</f>
-        <v>5.9153225806451619</v>
+        <v>4.3</v>
       </c>
       <c r="C8" s="15">
         <f>OverdoseRisk!D7</f>
-        <v>3.6078748383811243</v>
+        <v>3.6</v>
       </c>
       <c r="D8" s="15">
         <f>OverdoseRisk!E7</f>
-        <v>9.6985186018235687</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="B9">
         <f>OverdoseRisk!C8</f>
@@ -15850,41 +15125,41 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10" s="14">
+        <v>147</v>
+      </c>
+      <c r="B10" s="9">
         <f>Mortality!B2</f>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="C10" s="14">
         <f>Mortality!C2</f>
-        <v>0.03</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D10" s="14">
         <f>Mortality!D2</f>
-        <v>0.11</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>186</v>
-      </c>
-      <c r="B11" s="14">
+        <v>161</v>
+      </c>
+      <c r="B11" s="9">
         <f>Mortality!B3</f>
-        <v>8.9897260273972598E-3</v>
+        <v>8.5599999999999999E-3</v>
       </c>
       <c r="C11" s="14">
         <f>Mortality!C3</f>
-        <v>7.2609325605900938E-3</v>
+        <v>5.5500000000000002E-3</v>
       </c>
       <c r="D11" s="14">
         <f>Mortality!D3</f>
-        <v>1.1130136986301369E-2</v>
+        <v>1.32E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="B12">
         <f>Mortality!B4</f>
@@ -15901,7 +15176,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="B13" s="15">
         <f>DecisionTree!B4</f>
@@ -15953,7 +15228,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="B16" s="14">
         <f>DecisionTree!B9</f>
@@ -15969,659 +15244,27 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="str">
-        <f>NxKit!A3</f>
-        <v>Low2Priv</v>
+      <c r="A17" t="s">
+        <v>141</v>
       </c>
       <c r="B17">
         <f>NxKit!B3</f>
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <f>NxKit!C3</f>
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="D17">
         <f>NxKit!D3</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="str">
-        <f>NxKit!A4</f>
-        <v>High2Pub</v>
-      </c>
-      <c r="B18">
-        <f>NxKit!B4</f>
-        <v>0.1</v>
-      </c>
-      <c r="C18">
-        <f>NxKit!C4</f>
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <f>NxKit!D4</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>165</v>
-      </c>
-      <c r="B19">
-        <f>NxKit!B5</f>
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <f>NxKit!C5</f>
-        <v>0.5</v>
-      </c>
-      <c r="D19">
-        <f>NxKit!D5</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0880A51-D5C0-4CC2-9F82-0D2250CCEDDE}">
-  <dimension ref="A1:N25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="6" max="6" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2">
-        <v>5.7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>519</v>
-      </c>
-      <c r="C3">
-        <v>7474</v>
-      </c>
-      <c r="D3">
-        <v>593</v>
-      </c>
-      <c r="I3">
-        <v>600</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
-      <c r="K3">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="13">
-        <v>0.69750000000000001</v>
-      </c>
-      <c r="C4" s="13">
-        <f>0.6549</f>
-        <v>0.65490000000000004</v>
-      </c>
-      <c r="D4" s="13">
-        <v>0.66779999999999995</v>
-      </c>
-      <c r="H4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0.69750000000000001</v>
-      </c>
-      <c r="J4" s="13">
-        <f>0.6549</f>
-        <v>0.65490000000000004</v>
-      </c>
-      <c r="K4" s="13">
-        <v>0.66779999999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="13">
-        <f>1-B4</f>
-        <v>0.30249999999999999</v>
-      </c>
-      <c r="C5" s="13">
-        <f t="shared" ref="C5:D5" si="0">1-C4</f>
-        <v>0.34509999999999996</v>
-      </c>
-      <c r="D5" s="13">
-        <f t="shared" si="0"/>
-        <v>0.33220000000000005</v>
-      </c>
-      <c r="H5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I5" s="13">
-        <f>1-I4</f>
-        <v>0.30249999999999999</v>
-      </c>
-      <c r="J5" s="13">
-        <f t="shared" ref="J5:K5" si="1">1-J4</f>
-        <v>0.34509999999999996</v>
-      </c>
-      <c r="K5" s="13">
-        <f t="shared" si="1"/>
-        <v>0.33220000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="13">
-        <v>0.879</v>
-      </c>
-      <c r="C6" s="13">
-        <v>0.80940000000000001</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0.87019999999999997</v>
-      </c>
-      <c r="H6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0.879</v>
-      </c>
-      <c r="J6" s="13">
-        <v>0.80940000000000001</v>
-      </c>
-      <c r="K6" s="13">
-        <v>0.87019999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="13">
-        <f>1-B6</f>
-        <v>0.121</v>
-      </c>
-      <c r="C7" s="13">
-        <f t="shared" ref="C7:D7" si="2">1-C6</f>
-        <v>0.19059999999999999</v>
-      </c>
-      <c r="D7" s="13">
-        <f t="shared" si="2"/>
-        <v>0.12980000000000003</v>
-      </c>
-      <c r="H7" t="s">
-        <v>89</v>
-      </c>
-      <c r="I7" s="13">
-        <f>1-I6</f>
-        <v>0.121</v>
-      </c>
-      <c r="J7" s="13">
-        <f t="shared" ref="J7:K7" si="3">1-J6</f>
-        <v>0.19059999999999999</v>
-      </c>
-      <c r="K7" s="13">
-        <f t="shared" si="3"/>
-        <v>0.12980000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="13">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="C8" s="13">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="H8" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" s="13">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="J8" s="13">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="K8" s="13">
-        <v>0.93600000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" s="13">
-        <f>1-B8</f>
-        <v>5.9000000000000052E-2</v>
-      </c>
-      <c r="C9" s="13">
-        <f t="shared" ref="C9:D9" si="4">1-C8</f>
-        <v>7.3999999999999955E-2</v>
-      </c>
-      <c r="D9" s="13">
-        <f t="shared" si="4"/>
-        <v>6.3999999999999946E-2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="13">
-        <f>1-I8</f>
-        <v>5.9000000000000052E-2</v>
-      </c>
-      <c r="J9" s="13">
-        <f t="shared" ref="J9:K9" si="5">1-J8</f>
-        <v>7.3999999999999955E-2</v>
-      </c>
-      <c r="K9" s="13">
-        <f t="shared" si="5"/>
-        <v>6.3999999999999946E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="13">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="C10" s="13">
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="D10" s="13">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="H10" t="s">
-        <v>92</v>
-      </c>
-      <c r="I10" s="13">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="J10" s="13">
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="K10" s="13">
-        <v>0.73799999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="13">
-        <f>1-B10</f>
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="C11" s="13">
-        <f t="shared" ref="C11:D11" si="6">1-C10</f>
-        <v>0.41600000000000004</v>
-      </c>
-      <c r="D11" s="13">
-        <f t="shared" si="6"/>
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="H11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I11" s="13">
-        <f>1-I10</f>
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="J11" s="13">
-        <f t="shared" ref="J11:K11" si="7">1-J10</f>
-        <v>0.41600000000000004</v>
-      </c>
-      <c r="K11" s="13">
-        <f t="shared" si="7"/>
-        <v>0.26200000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="17">
-        <f>B3*B4*B8</f>
-        <v>340.64435249999997</v>
-      </c>
-      <c r="C13" s="17">
-        <f t="shared" ref="C13:D13" si="8">C3*C4*C8</f>
-        <v>4532.5131276000002</v>
-      </c>
-      <c r="D13" s="17">
-        <f t="shared" si="8"/>
-        <v>370.66105439999995</v>
-      </c>
-      <c r="H13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I13" s="17">
-        <f>I3*I4*I8</f>
-        <v>393.80849999999998</v>
-      </c>
-      <c r="J13" s="17">
-        <f t="shared" ref="J13:K13" si="9">J3*J4*J8</f>
-        <v>60.643740000000008</v>
-      </c>
-      <c r="K13" s="17">
-        <f t="shared" si="9"/>
-        <v>562.55471999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="17">
-        <f>B3*B4*B9</f>
-        <v>21.358147500000019</v>
-      </c>
-      <c r="C14" s="17">
-        <f t="shared" ref="C14:D14" si="10">C3*C4*C9</f>
-        <v>362.20947239999975</v>
-      </c>
-      <c r="D14" s="17">
-        <f t="shared" si="10"/>
-        <v>25.344345599999976</v>
-      </c>
-      <c r="H14" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="17">
-        <f>I3*I4*I9</f>
-        <v>24.691500000000023</v>
-      </c>
-      <c r="J14" s="17">
-        <f t="shared" ref="J14:K14" si="11">J3*J4*J9</f>
-        <v>4.8462599999999973</v>
-      </c>
-      <c r="K14" s="17">
-        <f t="shared" si="11"/>
-        <v>38.465279999999964</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="17">
-        <f>B3*B5*B10</f>
-        <v>114.13718249999999</v>
-      </c>
-      <c r="C15" s="17">
-        <f t="shared" ref="C15:D15" si="12">C3*C5*C10</f>
-        <v>1506.2980015999999</v>
-      </c>
-      <c r="D15" s="17">
-        <f t="shared" si="12"/>
-        <v>145.38201480000001</v>
-      </c>
-      <c r="H15" t="s">
-        <v>92</v>
-      </c>
-      <c r="I15" s="17">
-        <f>I3*I5*I10</f>
-        <v>131.95050000000001</v>
-      </c>
-      <c r="J15" s="17">
-        <f t="shared" ref="J15:K15" si="13">J3*J5*J10</f>
-        <v>20.153839999999999</v>
-      </c>
-      <c r="K15" s="17">
-        <f t="shared" si="13"/>
-        <v>220.64724000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="17">
-        <f>B3*B5*B11</f>
-        <v>42.860317500000001</v>
-      </c>
-      <c r="C16" s="17">
-        <f t="shared" ref="C16:D16" si="14">C3*C5*C11</f>
-        <v>1072.9793984</v>
-      </c>
-      <c r="D16" s="17">
-        <f t="shared" si="14"/>
-        <v>51.612585200000005</v>
-      </c>
-      <c r="H16" t="s">
-        <v>95</v>
-      </c>
-      <c r="I16" s="17">
-        <f>I3*I5*I11</f>
-        <v>49.549500000000002</v>
-      </c>
-      <c r="J16" s="17">
-        <f t="shared" ref="J16:K16" si="15">J3*J5*J11</f>
-        <v>14.356160000000001</v>
-      </c>
-      <c r="K16" s="17">
-        <f t="shared" si="15"/>
-        <v>78.332760000000007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <f>B13/(B13+B14)</f>
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ref="C17:D17" si="16">C13/(C13+C14)</f>
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="16"/>
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="I17">
-        <f>I13/(I13+I14)</f>
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="J17">
-        <f t="shared" ref="J17:K17" si="17">J13/(J13+J14)</f>
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="17"/>
-        <v>0.93599999999999994</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <f>B15/(B15+B16)</f>
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="C18">
-        <f t="shared" ref="C18" si="18">C15/(C15+C16)</f>
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="D18">
-        <f>D15/(D15+D16)</f>
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="I18">
-        <f>I15/(I15+I16)</f>
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="J18">
-        <f t="shared" ref="J18" si="19">J15/(J15+J16)</f>
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="K18">
-        <f>K15/(K15+K16)</f>
-        <v>0.73799999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" t="s">
-        <v>96</v>
-      </c>
-      <c r="I20" t="s">
-        <v>88</v>
-      </c>
-      <c r="J20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="17">
-        <f>B13+C13+D13</f>
-        <v>5243.8185345000002</v>
-      </c>
-      <c r="C21" s="17">
-        <f>B14+C14+D14</f>
-        <v>408.91196549999978</v>
-      </c>
-      <c r="H21" t="s">
-        <v>87</v>
-      </c>
-      <c r="I21" s="17">
-        <f>I13+J13+K13</f>
-        <v>1017.0069599999999</v>
-      </c>
-      <c r="J21" s="17">
-        <f>I14+J14+K14</f>
-        <v>68.003039999999984</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="17">
-        <f>B15+C15+D15</f>
-        <v>1765.8171988999998</v>
-      </c>
-      <c r="C22" s="17">
-        <f>B16+C16+D16</f>
-        <v>1167.4523011000001</v>
-      </c>
-      <c r="E22">
-        <f>B22/(B22+C22)</f>
-        <v>0.60199623624764098</v>
-      </c>
-      <c r="H22" t="s">
-        <v>93</v>
-      </c>
-      <c r="I22" s="17">
-        <f>I15+J15+K15</f>
-        <v>372.75157999999999</v>
-      </c>
-      <c r="J22" s="17">
-        <f>I16+J16+K16</f>
-        <v>142.23842000000002</v>
-      </c>
-      <c r="M22">
-        <f>I22/(I22+J22)</f>
-        <v>0.72380353016563426</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="15">
-        <f>B21*C22/C21/B22</f>
-        <v>8.4783479955198739</v>
-      </c>
-      <c r="K24" t="s">
-        <v>97</v>
-      </c>
-      <c r="L24" s="15">
-        <f>I21*J22/J21/I22</f>
-        <v>5.7068048774948226</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D25" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="15">
-        <f>(B21/(B21+C21))/(B22/(B22+C22))</f>
-        <v>1.5409750168597309</v>
-      </c>
-      <c r="K25" t="s">
-        <v>98</v>
-      </c>
-      <c r="L25" s="15">
-        <f>(I21/(I21+J21))/(I22/(I22+J22))</f>
-        <v>1.2949991616265983</v>
-      </c>
-      <c r="N25">
-        <f>M22*L25</f>
-        <v>0.93732496474686866</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" tooltip="Persistent link using digital object identifier" xr:uid="{4D626F25-AE3D-43BD-BCDE-4A5EC98FAE02}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -16630,7 +15273,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16640,10 +15283,10 @@
         <v>46</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>0</v>
@@ -16672,10 +15315,10 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="9">
         <v>2.4942686840898669E-2</v>
@@ -16696,7 +15339,7 @@
         <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -16704,10 +15347,10 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D3" s="9">
         <v>6.7126436781609192E-2</v>
@@ -16733,10 +15376,10 @@
         <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="9">
         <v>6.9954776710005648E-2</v>
@@ -16762,10 +15405,10 @@
         <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D5" s="9">
         <v>5.6965357481309889E-2</v>
@@ -16791,10 +15434,10 @@
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D6" s="9">
         <v>3.7692145714887347E-2</v>
@@ -16820,10 +15463,10 @@
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D7" s="9">
         <v>1.5907447577729574E-2</v>
@@ -16849,10 +15492,10 @@
         <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" s="9">
         <v>2.6074182886522218E-2</v>
@@ -16878,10 +15521,10 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D9" s="9">
         <v>5.373573794626426E-2</v>
@@ -16907,10 +15550,10 @@
         <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" s="9">
         <v>6.8940493468795355E-2</v>
@@ -16936,10 +15579,10 @@
         <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="9">
         <v>4.1410184667039732E-2</v>
@@ -16965,10 +15608,10 @@
         <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D12" s="9">
         <v>3.7641154328732745E-2</v>
@@ -16994,10 +15637,10 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" s="9">
         <v>2.5056947608200455E-2</v>
@@ -17023,10 +15666,10 @@
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="9">
         <v>2.436938862761864E-2</v>
@@ -17052,10 +15695,10 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D15" s="9">
         <v>6.2884483937115515E-2</v>
@@ -17081,10 +15724,10 @@
         <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D16" s="9">
         <v>5.9245960502692999E-2</v>
@@ -17110,10 +15753,10 @@
         <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D17" s="9">
         <v>4.6042617960426177E-2</v>
@@ -17139,10 +15782,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D18" s="9">
         <v>2.6683608640406607E-2</v>
@@ -17168,10 +15811,10 @@
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D19" s="9">
         <v>2.9069767441860465E-2</v>
@@ -17197,10 +15840,10 @@
         <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D20" s="9">
         <v>2.2212908633696564E-2</v>
@@ -17226,10 +15869,10 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D21" s="9">
         <v>5.5646481178396073E-2</v>
@@ -17255,10 +15898,10 @@
         <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D22" s="9">
         <v>6.0267857142857144E-2</v>
@@ -17284,10 +15927,10 @@
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" s="9">
         <v>4.1769041769041768E-2</v>
@@ -17313,10 +15956,10 @@
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="9">
         <v>3.0120481927710843E-2</v>
@@ -17342,10 +15985,10 @@
         <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D25" s="9">
         <v>1.7964071856287425E-2</v>
@@ -17371,10 +16014,10 @@
         <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D26" s="9">
         <v>2.7733912356889063E-2</v>
@@ -17400,10 +16043,10 @@
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D27" s="9">
         <v>6.7545891997861346E-2</v>
@@ -17429,10 +16072,10 @@
         <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="9">
         <v>5.9462835727670207E-2</v>
@@ -17458,10 +16101,10 @@
         <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D29" s="9">
         <v>4.374098124098124E-2</v>
@@ -17487,10 +16130,10 @@
         <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D30" s="9">
         <v>3.1348543869411986E-2</v>
@@ -17516,10 +16159,10 @@
         <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D31" s="9">
         <v>1.1685116851168511E-2</v>
@@ -17545,10 +16188,10 @@
         <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D32" s="9">
         <v>3.5166479610924055E-2</v>
@@ -17574,10 +16217,10 @@
         <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D33" s="9">
         <v>4.6284224250325946E-2</v>
@@ -17603,10 +16246,10 @@
         <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D34" s="9">
         <v>4.4698544698544701E-2</v>
@@ -17632,10 +16275,10 @@
         <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D35" s="9">
         <v>3.0814689742507388E-2</v>
@@ -17661,10 +16304,10 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D36" s="9">
         <v>3.125E-2</v>
@@ -17690,10 +16333,10 @@
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D37" s="9">
         <v>8.3056478405315621E-3</v>
@@ -17719,10 +16362,10 @@
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D38" s="9">
         <v>3.6120840630472856E-2</v>
@@ -17748,10 +16391,10 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D39" s="9">
         <v>5.2423777144110548E-2</v>
@@ -17777,10 +16420,10 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D40" s="9">
         <v>4.7795479807336047E-2</v>
@@ -17806,10 +16449,10 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D41" s="9">
         <v>3.065373787926181E-2</v>
@@ -17835,10 +16478,10 @@
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D42" s="9">
         <v>1.3197969543147208E-2</v>
@@ -17864,10 +16507,10 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D43" s="9">
         <v>2.0876826722338204E-2</v>
@@ -17893,10 +16536,10 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D44" s="9">
         <v>3.0328919265271252E-2</v>
@@ -17922,10 +16565,10 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D45" s="9">
         <v>6.0930424042815977E-2</v>
@@ -17951,10 +16594,10 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D46" s="9">
         <v>4.7806155861165683E-2</v>
@@ -17980,10 +16623,10 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D47" s="9">
         <v>2.9858849077090119E-2</v>
@@ -18009,10 +16652,10 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D48" s="9">
         <v>2.3972602739726026E-2</v>
@@ -18038,10 +16681,10 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C49" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D49" s="9">
         <v>1.3927576601671309E-2</v>
@@ -18073,7 +16716,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18083,10 +16726,10 @@
         <v>46</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>0</v>
@@ -18115,10 +16758,10 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="9">
         <v>3.9431453461714807E-3</v>
@@ -18139,7 +16782,7 @@
         <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -18147,10 +16790,10 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D3" s="9">
         <v>5.6091954022988506E-2</v>
@@ -18176,10 +16819,10 @@
         <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="9">
         <v>4.8473713962690783E-2</v>
@@ -18205,10 +16848,10 @@
         <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D5" s="9">
         <v>2.2428135200589661E-2</v>
@@ -18234,10 +16877,10 @@
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D6" s="9">
         <v>1.284480943356496E-2</v>
@@ -18263,10 +16906,10 @@
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D7" s="9">
         <v>2.1691973969631237E-3</v>
@@ -18292,10 +16935,10 @@
         <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" s="9">
         <v>1.1017260374586854E-3</v>
@@ -18321,10 +16964,10 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D9" s="9">
         <v>1.6562384983437616E-2</v>
@@ -18350,10 +16993,10 @@
         <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" s="9">
         <v>2.0319303338171262E-2</v>
@@ -18379,10 +17022,10 @@
         <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="9">
         <v>1.9026301063234472E-2</v>
@@ -18408,10 +17051,10 @@
         <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D12" s="9">
         <v>3.7641154328732745E-2</v>
@@ -18437,10 +17080,10 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" s="9">
         <v>6.8337129840546698E-3</v>
@@ -18466,10 +17109,10 @@
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="9">
         <v>3.3528918692372171E-3</v>
@@ -18495,10 +17138,10 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D15" s="9">
         <v>4.0916530278232409E-2</v>
@@ -18524,10 +17167,10 @@
         <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D16" s="9">
         <v>3.9434523809523808E-2</v>
@@ -18553,10 +17196,10 @@
         <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D17" s="9">
         <v>2.5798525798525797E-2</v>
@@ -18582,10 +17225,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D18" s="9">
         <v>1.2048192771084338E-2</v>
@@ -18611,10 +17254,10 @@
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D19" s="9">
         <v>2.9940119760479044E-3</v>
@@ -18640,10 +17283,10 @@
         <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D20" s="9">
         <v>3.8477982043608381E-3</v>
@@ -18669,10 +17312,10 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D21" s="9">
         <v>4.5340624287992709E-2</v>
@@ -18698,10 +17341,10 @@
         <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D22" s="9">
         <v>3.7701974865350089E-2</v>
@@ -18727,10 +17370,10 @@
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" s="9">
         <v>2.5875190258751901E-2</v>
@@ -18756,10 +17399,10 @@
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="9">
         <v>1.5247776365946633E-2</v>
@@ -18785,10 +17428,10 @@
         <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D25" s="9">
         <v>5.8139534883720929E-3</v>
@@ -18814,10 +17457,10 @@
         <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D26" s="9">
         <v>3.3557046979865771E-3</v>
@@ -18843,10 +17486,10 @@
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D27" s="9">
         <v>3.920869720192479E-2</v>
@@ -18872,10 +17515,10 @@
         <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="9">
         <v>2.7357901311680199E-2</v>
@@ -18901,10 +17544,10 @@
         <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D29" s="9">
         <v>1.0281385281385282E-2</v>
@@ -18930,10 +17573,10 @@
         <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D30" s="9">
         <v>6.3068076423669081E-3</v>
@@ -18959,10 +17602,10 @@
         <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D31" s="9">
         <v>1.025010250102501E-3</v>
@@ -18988,10 +17631,10 @@
         <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D32" s="9">
         <v>1.4964459408903852E-3</v>
@@ -19017,10 +17660,10 @@
         <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D33" s="9">
         <v>1.2059973924380704E-2</v>
@@ -19046,10 +17689,10 @@
         <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D34" s="9">
         <v>1.0914760914760915E-2</v>
@@ -19075,10 +17718,10 @@
         <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D35" s="9">
         <v>1.2241452089489235E-2</v>
@@ -19104,10 +17747,10 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D36" s="9">
         <v>1.46484375E-2</v>
@@ -19133,10 +17776,10 @@
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D37" s="9">
         <v>0</v>
@@ -19162,10 +17805,10 @@
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D38" s="9">
         <v>3.8445108927808629E-3</v>
@@ -19191,10 +17834,10 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D39" s="9">
         <v>3.1700288184438041E-2</v>
@@ -19220,10 +17863,10 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D40" s="9">
         <v>2.2920759659463E-2</v>
@@ -19249,10 +17892,10 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D41" s="9">
         <v>1.1400651465798045E-2</v>
@@ -19278,10 +17921,10 @@
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D42" s="9">
         <v>5.1369863013698627E-3</v>
@@ -19307,10 +17950,10 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D43" s="9">
         <v>0</v>
@@ -19336,10 +17979,10 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D44" s="9">
         <v>4.5971978984238179E-3</v>
@@ -19365,10 +18008,10 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D45" s="9">
         <v>3.2243913138846239E-2</v>
@@ -19394,10 +18037,10 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D46" s="9">
         <v>1.7413856984068173E-2</v>
@@ -19423,10 +18066,10 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D47" s="9">
         <v>1.0009383797309979E-2</v>
@@ -19452,10 +18095,10 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D48" s="9">
         <v>5.076142131979695E-3</v>
@@ -19481,10 +18124,10 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C49" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D49" s="9">
         <v>0</v>
@@ -19516,7 +18159,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19529,13 +18172,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>0</v>
@@ -19559,12 +18202,12 @@
         <v>6</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
@@ -19582,7 +18225,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -19600,7 +18243,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -19617,7 +18260,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -19634,7 +18277,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -19657,7 +18300,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -19676,15 +18319,15 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="J7" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="K7" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -19693,22 +18336,22 @@
         <v>50</v>
       </c>
       <c r="D8" s="23">
-        <v>0.05</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E8" s="23">
         <v>0</v>
       </c>
       <c r="F8" s="23">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="J8" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>50</v>
@@ -19725,7 +18368,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>50</v>
@@ -19742,7 +18385,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -19760,22 +18403,22 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="D12" s="3">
         <v>0.19234100000000001</v>
       </c>
       <c r="J12" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="K12" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -19801,7 +18444,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19811,7 +18454,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -19837,7 +18480,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2">
         <f>3587000/(3587000+891000)*0.176+891000/(3587000+891000)*0.079</f>
@@ -19852,12 +18495,12 @@
         <v>0.17030683340777131</v>
       </c>
       <c r="H2" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="B3" s="10">
         <v>0.25244517036746611</v>
@@ -19874,7 +18517,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19885,7 +18528,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -19906,18 +18549,18 @@
         <v>5</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="B2">
         <v>13.3</v>
@@ -19942,16 +18585,16 @@
         <v>34.447000000000003</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B3">
         <v>70.2</v>
@@ -19976,16 +18619,16 @@
         <v>181.81799999999998</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B4">
         <v>128.80000000000001</v>
@@ -20010,13 +18653,13 @@
         <v>333.59199999999998</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B5">
         <v>194.7</v>
@@ -20041,13 +18684,13 @@
         <v>504.27299999999997</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="B6">
         <v>359.9</v>
@@ -20072,13 +18715,13 @@
         <v>932.14099999999985</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B7">
         <v>886.7</v>
@@ -20103,13 +18746,13 @@
         <v>2296.5529999999999</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B8">
         <v>4386.1000000000004</v>
@@ -20134,7 +18777,7 @@
         <v>11359.999</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="K8" s="12"/>
     </row>
@@ -20145,6 +18788,7 @@
     <hyperlink ref="J3" r:id="rId2" xr:uid="{9C3EACCD-C7A2-4F18-B733-6791FB183874}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -20153,7 +18797,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20164,7 +18808,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>57</v>
@@ -20193,27 +18837,27 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C2" s="21">
-        <v>7.5438493580000003E-3</v>
+        <v>2.6026429525052852E-3</v>
       </c>
       <c r="D2" s="25">
-        <v>6.5657605787018403E-3</v>
+        <v>1.2058338996029372E-3</v>
       </c>
       <c r="E2" s="25">
-        <v>8.6259541200034429E-3</v>
+        <v>4.5480147401865678E-3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C3">
         <v>1.538E-2</v>
@@ -20227,10 +18871,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -20244,67 +18888,73 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="C5">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D5">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F5" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="15">
-        <v>2.9950980392156863</v>
-      </c>
-      <c r="D6" s="15">
-        <v>1.5079650915246505</v>
-      </c>
-      <c r="E6" s="15">
-        <v>5.9488195813894986</v>
+      <c r="A6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="26">
+        <v>6.0709999999999997</v>
+      </c>
+      <c r="D6" s="26">
+        <v>3.6269999999999998</v>
+      </c>
+      <c r="E6" s="26">
+        <v>10.162000000000001</v>
       </c>
       <c r="F6" t="s">
-        <v>170</v>
+        <v>146</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="15">
-        <v>5.9153225806451619</v>
-      </c>
-      <c r="D7" s="15">
-        <v>3.6078748383811243</v>
-      </c>
-      <c r="E7" s="15">
-        <v>9.6985186018235687</v>
+      <c r="A7" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="26">
+        <v>4.3</v>
+      </c>
+      <c r="D7" s="26">
+        <v>3.6</v>
+      </c>
+      <c r="E7" s="26">
+        <v>5.2</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="C8">
         <v>3.5</v>
@@ -20315,13 +18965,16 @@
       <c r="E8">
         <v>6.4</v>
       </c>
+      <c r="I8" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -20333,13 +18986,17 @@
         <v>1.2</v>
       </c>
       <c r="I9" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I7" r:id="rId1" xr:uid="{D2BDE243-70FF-4BEE-8004-6DBDAB5E3597}"/>
+    <hyperlink ref="I6" r:id="rId2" xr:uid="{58A6FE53-B34F-4D13-8456-291B6D396695}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -20348,7 +19005,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20358,7 +19015,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -20384,7 +19041,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B2">
         <v>4.1800000000000002E-4</v>
@@ -20392,18 +19049,18 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="B3">
-        <v>2.0199999999999999E-2</v>
+        <v>3.7399999999999998E-3</v>
       </c>
       <c r="H3" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B4">
         <v>8.2400000000000008E-3</v>
@@ -20411,18 +19068,18 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="B5">
         <v>5.9500000000000004E-3</v>
       </c>
       <c r="H5" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B6">
         <v>1.4800000000000001E-2</v>
@@ -20430,18 +19087,18 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="B7">
         <v>2.5400000000000002E-3</v>
       </c>
       <c r="H7" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="B8">
         <v>4.5199999999999997E-2</v>
@@ -20449,13 +19106,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="B9" s="3">
-        <v>5.8999999999999999E-3</v>
+        <v>5.94E-3</v>
       </c>
       <c r="H9" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/MasterTable.xlsx
+++ b/Inputs/MasterTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Desktop\profound-model_0113\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C6B0B3-1C2C-4455-A43A-FF035F0C4F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED939F9B-9152-47E1-A3C7-75652CA5E23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3585" yWindow="420" windowWidth="22200" windowHeight="7680" firstSheet="12" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InitialPop" sheetId="12" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="193">
   <si>
     <t>pe</t>
   </si>
@@ -230,9 +230,6 @@
     <t>LossExp</t>
   </si>
   <si>
-    <t>Avergae number of months a kit is expired/lost and out of circulation</t>
-  </si>
-  <si>
     <t>OD_wit</t>
   </si>
   <si>
@@ -363,9 +360,6 @@
   </si>
   <si>
     <t>c.nlx.kit</t>
-  </si>
-  <si>
-    <t>c.nlx.dtb</t>
   </si>
   <si>
     <t>c.EMS</t>
@@ -536,10 +530,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>previous estimates: 0.111(0.0685,0.175241)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>mor_nx</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -651,6 +641,30 @@
   </si>
   <si>
     <t>monthly growth rate in fentanyl exposure</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avergae number of months a kit is expired/lost and out of circulation</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bird et al.2015</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> et al, 2016</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.nlx.dtb.ssp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.nlx.dtb.mailevent</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.nlx.dtb.healthcare</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1051,7 +1065,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1062,7 +1076,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>46</v>
@@ -1091,7 +1105,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -1115,12 +1129,12 @@
         <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -1145,12 +1159,12 @@
         <v>50</v>
       </c>
       <c r="I3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -1165,7 +1179,7 @@
         <v>6.7199999999999996E-2</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="7">
         <f>C4</f>
@@ -1176,14 +1190,14 @@
         <v>7.7551020408163258E-3</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
         <v>51</v>
@@ -1198,23 +1212,23 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" ref="G5:G6" si="0">C5</f>
+        <f>C5</f>
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H6" si="1">(E5-D5)/2/1.96</f>
+        <f>(E5-D5)/2/1.96</f>
         <v>2.5510204081632651E-3</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -1229,18 +1243,18 @@
         <v>1.9E-2</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="7">
-        <f t="shared" si="0"/>
+        <f>C6</f>
         <v>1.6E-2</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f>(E6-D6)/2/1.96</f>
         <v>1.5306122448979593E-3</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1254,7 +1268,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1264,7 +1278,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1288,12 +1302,12 @@
         <v>6</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B2">
         <v>0.12</v>
@@ -1307,7 +1321,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="14">
         <v>0.64500000000000002</v>
@@ -1322,7 +1336,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B4" s="14">
         <v>0.82</v>
@@ -1336,7 +1350,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B5" s="14">
         <v>0.6</v>
@@ -1350,7 +1364,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B6" s="14">
         <v>0.66200000000000003</v>
@@ -1363,15 +1377,15 @@
         <v>0.79900000000000004</v>
       </c>
       <c r="H6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I6" s="22" t="s">
         <v>163</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B7" s="15">
         <v>0.59</v>
@@ -1383,15 +1397,15 @@
         <v>0.7</v>
       </c>
       <c r="H7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="14">
         <v>0.9</v>
@@ -1405,7 +1419,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B9" s="14">
         <v>7.5600000000000001E-2</v>
@@ -1417,7 +1431,7 @@
         <v>0.11579589999999999</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F9">
         <v>19</v>
@@ -1427,10 +1441,10 @@
         <v>232</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1448,7 +1462,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1458,18 +1472,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" s="23">
         <f>1-C2</f>
@@ -1490,7 +1504,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1500,13 +1514,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1533,7 +1547,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B4" s="13">
         <v>0.16700000000000001</v>
@@ -1544,7 +1558,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" s="13">
         <v>0.29899999999999999</v>
@@ -1643,7 +1657,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B14" s="13">
         <v>0.32100000000000001</v>
@@ -1687,7 +1701,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B18" s="13">
         <v>0.51100000000000001</v>
@@ -1841,7 +1855,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B32" s="13">
         <v>0.22600000000000001</v>
@@ -1896,7 +1910,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B37" s="13">
         <v>0.33300000000000002</v>
@@ -1907,7 +1921,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B38" s="13">
         <v>0.13900000000000001</v>
@@ -1918,7 +1932,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B39" s="13">
         <v>0.19800000000000001</v>
@@ -1949,7 +1963,7 @@
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1959,7 +1973,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1985,7 +1999,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="9">
         <f>9/153</f>
@@ -1998,7 +2012,7 @@
         <v>0.108</v>
       </c>
       <c r="E2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F2">
         <v>9</v>
@@ -2007,12 +2021,12 @@
         <v>153</v>
       </c>
       <c r="H2" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B3" s="9">
         <v>8.5599999999999999E-3</v>
@@ -2024,7 +2038,7 @@
         <v>1.32E-2</v>
       </c>
       <c r="E3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -2032,12 +2046,14 @@
       <c r="G3" s="17">
         <v>2336</v>
       </c>
-      <c r="H3" s="14"/>
+      <c r="H3" s="14" t="s">
+        <v>189</v>
+      </c>
       <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B4">
         <v>0.58799999999999997</v>
@@ -2176,15 +2192,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE6D060-BD9A-4D96-B4CE-F2ECE1E1EF2B}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -2216,12 +2232,12 @@
         <v>15.5</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -2235,7 +2251,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2243,7 +2259,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B5">
         <v>2.69</v>
@@ -2274,7 +2290,7 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
         <v>34</v>
@@ -3023,7 +3039,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3079,7 +3095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6B4D2B-1423-4BB1-B82C-0D272D8DA6C7}">
   <dimension ref="A1:AN40"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
@@ -3576,7 +3592,7 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" s="20">
         <v>0</v>
@@ -7974,17 +7990,17 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC045363-D7FC-49B9-A9BB-CFCFB09307A2}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -8010,7 +8026,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2">
         <v>1019</v>
@@ -8036,7 +8052,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3">
         <v>1511</v>
@@ -8062,7 +8078,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4">
         <v>1511</v>
@@ -8088,7 +8104,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5">
         <v>631</v>
@@ -8114,9 +8130,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="5">
+        <v>101</v>
+      </c>
+      <c r="B6" s="6">
         <v>2000</v>
       </c>
       <c r="C6" t="s">
@@ -8140,10 +8156,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7">
-        <v>61.5</v>
+        <v>55.2</v>
       </c>
       <c r="C7" t="s">
         <v>50</v>
@@ -8166,10 +8182,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
         <v>50</v>
@@ -8192,10 +8208,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="B9">
-        <v>500</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
         <v>50</v>
@@ -8218,27 +8234,79 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="5">
+        <v>192</v>
+      </c>
+      <c r="B10">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11">
+        <v>500</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="6">
         <v>1034</v>
       </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
         <v>50</v>
       </c>
     </row>
@@ -8260,10 +8328,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
@@ -8271,7 +8339,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B2" s="24">
         <v>2016</v>
@@ -8282,7 +8350,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B3" s="24">
         <v>2017</v>
@@ -8293,7 +8361,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B4" s="24">
         <v>2018</v>
@@ -8304,7 +8372,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B5" s="24">
         <v>2019</v>
@@ -8315,7 +8383,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B6">
         <v>2016</v>
@@ -8327,7 +8395,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7">
         <v>2017</v>
@@ -8339,7 +8407,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B8">
         <v>2018</v>
@@ -8351,7 +8419,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B9">
         <v>2019</v>
@@ -8363,7 +8431,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B10">
         <v>2016</v>
@@ -8375,7 +8443,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B11">
         <v>2017</v>
@@ -8387,7 +8455,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12">
         <v>2018</v>
@@ -8399,7 +8467,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B13">
         <v>2019</v>
@@ -8420,7 +8488,7 @@
   <dimension ref="A1:CC52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8436,10 +8504,10 @@
         <v>46</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>34</v>
@@ -8451,7 +8519,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>37</v>
@@ -8564,10 +8632,10 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="11">
         <v>919</v>
@@ -8731,10 +8799,10 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="11">
         <v>462</v>
@@ -8898,10 +8966,10 @@
         <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="11">
         <v>301</v>
@@ -9065,10 +9133,10 @@
         <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="11">
         <v>1630</v>
@@ -9232,10 +9300,10 @@
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="11">
         <v>1800</v>
@@ -9399,10 +9467,10 @@
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="11">
         <v>998</v>
@@ -9566,10 +9634,10 @@
         <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="11">
         <v>6</v>
@@ -9694,10 +9762,10 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="11">
         <v>6</v>
@@ -9822,10 +9890,10 @@
         <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="11">
         <v>2</v>
@@ -9950,10 +10018,10 @@
         <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="11">
         <v>10</v>
@@ -10078,10 +10146,10 @@
         <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="11">
         <v>6</v>
@@ -10206,10 +10274,10 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="11">
         <v>3</v>
@@ -10334,10 +10402,10 @@
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="11">
         <v>28</v>
@@ -10462,10 +10530,10 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="11">
         <v>17</v>
@@ -10590,10 +10658,10 @@
         <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="11">
         <v>11</v>
@@ -10718,10 +10786,10 @@
         <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="11">
         <v>33</v>
@@ -10846,10 +10914,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" s="11">
         <v>19</v>
@@ -10974,10 +11042,10 @@
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="11">
         <v>6</v>
@@ -11102,10 +11170,10 @@
         <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="11">
         <v>60</v>
@@ -11230,10 +11298,10 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="11">
         <v>13</v>
@@ -11358,10 +11426,10 @@
         <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="11">
         <v>16</v>
@@ -11486,10 +11554,10 @@
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="11">
         <v>79</v>
@@ -11614,10 +11682,10 @@
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="11">
         <v>47</v>
@@ -11742,10 +11810,10 @@
         <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="11">
         <v>18</v>
@@ -11870,10 +11938,10 @@
         <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="11">
         <v>803</v>
@@ -11998,10 +12066,10 @@
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="11">
         <v>367</v>
@@ -12126,10 +12194,10 @@
         <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D28" s="11">
         <v>390</v>
@@ -12254,10 +12322,10 @@
         <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" s="11">
         <v>1883</v>
@@ -12382,10 +12450,10 @@
         <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D30" s="11">
         <v>1943</v>
@@ -12510,10 +12578,10 @@
         <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D31" s="11">
         <v>1325</v>
@@ -12638,10 +12706,10 @@
         <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" s="11">
         <v>5</v>
@@ -12766,10 +12834,10 @@
         <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D33" s="11">
         <v>5</v>
@@ -12894,10 +12962,10 @@
         <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D34" s="11">
         <v>3</v>
@@ -13022,10 +13090,10 @@
         <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D35" s="11">
         <v>12</v>
@@ -13150,10 +13218,10 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D36" s="11">
         <v>7</v>
@@ -13278,10 +13346,10 @@
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D37" s="11">
         <v>3</v>
@@ -13406,10 +13474,10 @@
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D38" s="11">
         <v>24</v>
@@ -13534,10 +13602,10 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D39" s="11">
         <v>13</v>
@@ -13662,10 +13730,10 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D40" s="11">
         <v>14</v>
@@ -13790,10 +13858,10 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D41" s="11">
         <v>38</v>
@@ -13918,10 +13986,10 @@
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D42" s="11">
         <v>20</v>
@@ -14046,10 +14114,10 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D43" s="11">
         <v>9</v>
@@ -14174,10 +14242,10 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D44" s="11">
         <v>52</v>
@@ -14302,10 +14370,10 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D45" s="11">
         <v>11</v>
@@ -14430,10 +14498,10 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D46" s="11">
         <v>21</v>
@@ -14558,10 +14626,10 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D47" s="11">
         <v>92</v>
@@ -14686,10 +14754,10 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D48" s="11">
         <v>50</v>
@@ -14814,10 +14882,10 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D49" s="11">
         <v>24</v>
@@ -14951,7 +15019,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14961,7 +15029,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -14987,7 +15055,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="4">
         <f>OpioidPattern!D7</f>
@@ -15005,7 +15073,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B3" s="4">
         <f>OpioidPattern!D8</f>
@@ -15023,7 +15091,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B4" s="21">
         <f>OverdoseRisk!C2</f>
@@ -15040,7 +15108,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B5">
         <f>OverdoseRisk!C3</f>
@@ -15057,7 +15125,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6">
         <f>OverdoseRisk!C5</f>
@@ -15074,7 +15142,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="15">
         <f>OverdoseRisk!C6</f>
@@ -15091,7 +15159,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="15">
         <f>OverdoseRisk!C7</f>
@@ -15108,7 +15176,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B9">
         <f>OverdoseRisk!C8</f>
@@ -15125,7 +15193,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B10" s="9">
         <f>Mortality!B2</f>
@@ -15142,7 +15210,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B11" s="9">
         <f>Mortality!B3</f>
@@ -15159,7 +15227,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B12">
         <f>Mortality!B4</f>
@@ -15176,7 +15244,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B13" s="15">
         <f>DecisionTree!B4</f>
@@ -15211,7 +15279,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15">
         <f>DecisionTree!B8</f>
@@ -15228,7 +15296,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B16" s="14">
         <f>DecisionTree!B9</f>
@@ -15245,7 +15313,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B17">
         <f>NxKit!B3</f>
@@ -15283,10 +15351,10 @@
         <v>46</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>0</v>
@@ -15315,10 +15383,10 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="9">
         <v>2.4942686840898669E-2</v>
@@ -15339,7 +15407,7 @@
         <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -15347,10 +15415,10 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="9">
         <v>6.7126436781609192E-2</v>
@@ -15376,10 +15444,10 @@
         <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="9">
         <v>6.9954776710005648E-2</v>
@@ -15405,10 +15473,10 @@
         <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="9">
         <v>5.6965357481309889E-2</v>
@@ -15434,10 +15502,10 @@
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="9">
         <v>3.7692145714887347E-2</v>
@@ -15463,10 +15531,10 @@
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="9">
         <v>1.5907447577729574E-2</v>
@@ -15492,10 +15560,10 @@
         <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="9">
         <v>2.6074182886522218E-2</v>
@@ -15521,10 +15589,10 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="9">
         <v>5.373573794626426E-2</v>
@@ -15550,10 +15618,10 @@
         <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="9">
         <v>6.8940493468795355E-2</v>
@@ -15579,10 +15647,10 @@
         <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="9">
         <v>4.1410184667039732E-2</v>
@@ -15608,10 +15676,10 @@
         <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="9">
         <v>3.7641154328732745E-2</v>
@@ -15637,10 +15705,10 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="9">
         <v>2.5056947608200455E-2</v>
@@ -15666,10 +15734,10 @@
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="9">
         <v>2.436938862761864E-2</v>
@@ -15695,10 +15763,10 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="9">
         <v>6.2884483937115515E-2</v>
@@ -15724,10 +15792,10 @@
         <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="9">
         <v>5.9245960502692999E-2</v>
@@ -15753,10 +15821,10 @@
         <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="9">
         <v>4.6042617960426177E-2</v>
@@ -15782,10 +15850,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" s="9">
         <v>2.6683608640406607E-2</v>
@@ -15811,10 +15879,10 @@
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="9">
         <v>2.9069767441860465E-2</v>
@@ -15840,10 +15908,10 @@
         <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="9">
         <v>2.2212908633696564E-2</v>
@@ -15869,10 +15937,10 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="9">
         <v>5.5646481178396073E-2</v>
@@ -15898,10 +15966,10 @@
         <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="9">
         <v>6.0267857142857144E-2</v>
@@ -15927,10 +15995,10 @@
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="9">
         <v>4.1769041769041768E-2</v>
@@ -15956,10 +16024,10 @@
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="9">
         <v>3.0120481927710843E-2</v>
@@ -15985,10 +16053,10 @@
         <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="9">
         <v>1.7964071856287425E-2</v>
@@ -16014,10 +16082,10 @@
         <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="9">
         <v>2.7733912356889063E-2</v>
@@ -16043,10 +16111,10 @@
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="9">
         <v>6.7545891997861346E-2</v>
@@ -16072,10 +16140,10 @@
         <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D28" s="9">
         <v>5.9462835727670207E-2</v>
@@ -16101,10 +16169,10 @@
         <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" s="9">
         <v>4.374098124098124E-2</v>
@@ -16130,10 +16198,10 @@
         <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D30" s="9">
         <v>3.1348543869411986E-2</v>
@@ -16159,10 +16227,10 @@
         <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D31" s="9">
         <v>1.1685116851168511E-2</v>
@@ -16188,10 +16256,10 @@
         <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" s="9">
         <v>3.5166479610924055E-2</v>
@@ -16217,10 +16285,10 @@
         <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D33" s="9">
         <v>4.6284224250325946E-2</v>
@@ -16246,10 +16314,10 @@
         <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D34" s="9">
         <v>4.4698544698544701E-2</v>
@@ -16275,10 +16343,10 @@
         <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D35" s="9">
         <v>3.0814689742507388E-2</v>
@@ -16304,10 +16372,10 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D36" s="9">
         <v>3.125E-2</v>
@@ -16333,10 +16401,10 @@
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D37" s="9">
         <v>8.3056478405315621E-3</v>
@@ -16362,10 +16430,10 @@
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D38" s="9">
         <v>3.6120840630472856E-2</v>
@@ -16391,10 +16459,10 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D39" s="9">
         <v>5.2423777144110548E-2</v>
@@ -16420,10 +16488,10 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D40" s="9">
         <v>4.7795479807336047E-2</v>
@@ -16449,10 +16517,10 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D41" s="9">
         <v>3.065373787926181E-2</v>
@@ -16478,10 +16546,10 @@
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D42" s="9">
         <v>1.3197969543147208E-2</v>
@@ -16507,10 +16575,10 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D43" s="9">
         <v>2.0876826722338204E-2</v>
@@ -16536,10 +16604,10 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D44" s="9">
         <v>3.0328919265271252E-2</v>
@@ -16565,10 +16633,10 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D45" s="9">
         <v>6.0930424042815977E-2</v>
@@ -16594,10 +16662,10 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D46" s="9">
         <v>4.7806155861165683E-2</v>
@@ -16623,10 +16691,10 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D47" s="9">
         <v>2.9858849077090119E-2</v>
@@ -16652,10 +16720,10 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D48" s="9">
         <v>2.3972602739726026E-2</v>
@@ -16681,10 +16749,10 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D49" s="9">
         <v>1.3927576601671309E-2</v>
@@ -16726,10 +16794,10 @@
         <v>46</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>0</v>
@@ -16758,10 +16826,10 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="9">
         <v>3.9431453461714807E-3</v>
@@ -16782,7 +16850,7 @@
         <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -16790,10 +16858,10 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="9">
         <v>5.6091954022988506E-2</v>
@@ -16819,10 +16887,10 @@
         <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="9">
         <v>4.8473713962690783E-2</v>
@@ -16848,10 +16916,10 @@
         <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="9">
         <v>2.2428135200589661E-2</v>
@@ -16877,10 +16945,10 @@
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="9">
         <v>1.284480943356496E-2</v>
@@ -16906,10 +16974,10 @@
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="9">
         <v>2.1691973969631237E-3</v>
@@ -16935,10 +17003,10 @@
         <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="9">
         <v>1.1017260374586854E-3</v>
@@ -16964,10 +17032,10 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="9">
         <v>1.6562384983437616E-2</v>
@@ -16993,10 +17061,10 @@
         <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="9">
         <v>2.0319303338171262E-2</v>
@@ -17022,10 +17090,10 @@
         <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="9">
         <v>1.9026301063234472E-2</v>
@@ -17051,10 +17119,10 @@
         <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="9">
         <v>3.7641154328732745E-2</v>
@@ -17080,10 +17148,10 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="9">
         <v>6.8337129840546698E-3</v>
@@ -17109,10 +17177,10 @@
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="9">
         <v>3.3528918692372171E-3</v>
@@ -17138,10 +17206,10 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="9">
         <v>4.0916530278232409E-2</v>
@@ -17167,10 +17235,10 @@
         <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="9">
         <v>3.9434523809523808E-2</v>
@@ -17196,10 +17264,10 @@
         <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="9">
         <v>2.5798525798525797E-2</v>
@@ -17225,10 +17293,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" s="9">
         <v>1.2048192771084338E-2</v>
@@ -17254,10 +17322,10 @@
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="9">
         <v>2.9940119760479044E-3</v>
@@ -17283,10 +17351,10 @@
         <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="9">
         <v>3.8477982043608381E-3</v>
@@ -17312,10 +17380,10 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="9">
         <v>4.5340624287992709E-2</v>
@@ -17341,10 +17409,10 @@
         <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="9">
         <v>3.7701974865350089E-2</v>
@@ -17370,10 +17438,10 @@
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="9">
         <v>2.5875190258751901E-2</v>
@@ -17399,10 +17467,10 @@
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="9">
         <v>1.5247776365946633E-2</v>
@@ -17428,10 +17496,10 @@
         <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="9">
         <v>5.8139534883720929E-3</v>
@@ -17457,10 +17525,10 @@
         <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="9">
         <v>3.3557046979865771E-3</v>
@@ -17486,10 +17554,10 @@
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="9">
         <v>3.920869720192479E-2</v>
@@ -17515,10 +17583,10 @@
         <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D28" s="9">
         <v>2.7357901311680199E-2</v>
@@ -17544,10 +17612,10 @@
         <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" s="9">
         <v>1.0281385281385282E-2</v>
@@ -17573,10 +17641,10 @@
         <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D30" s="9">
         <v>6.3068076423669081E-3</v>
@@ -17602,10 +17670,10 @@
         <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D31" s="9">
         <v>1.025010250102501E-3</v>
@@ -17631,10 +17699,10 @@
         <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" s="9">
         <v>1.4964459408903852E-3</v>
@@ -17660,10 +17728,10 @@
         <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D33" s="9">
         <v>1.2059973924380704E-2</v>
@@ -17689,10 +17757,10 @@
         <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D34" s="9">
         <v>1.0914760914760915E-2</v>
@@ -17718,10 +17786,10 @@
         <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D35" s="9">
         <v>1.2241452089489235E-2</v>
@@ -17747,10 +17815,10 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D36" s="9">
         <v>1.46484375E-2</v>
@@ -17776,10 +17844,10 @@
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D37" s="9">
         <v>0</v>
@@ -17805,10 +17873,10 @@
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D38" s="9">
         <v>3.8445108927808629E-3</v>
@@ -17834,10 +17902,10 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D39" s="9">
         <v>3.1700288184438041E-2</v>
@@ -17863,10 +17931,10 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D40" s="9">
         <v>2.2920759659463E-2</v>
@@ -17892,10 +17960,10 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D41" s="9">
         <v>1.1400651465798045E-2</v>
@@ -17921,10 +17989,10 @@
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D42" s="9">
         <v>5.1369863013698627E-3</v>
@@ -17950,10 +18018,10 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D43" s="9">
         <v>0</v>
@@ -17979,10 +18047,10 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D44" s="9">
         <v>4.5971978984238179E-3</v>
@@ -18008,10 +18076,10 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D45" s="9">
         <v>3.2243913138846239E-2</v>
@@ -18037,10 +18105,10 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D46" s="9">
         <v>1.7413856984068173E-2</v>
@@ -18066,10 +18134,10 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D47" s="9">
         <v>1.0009383797309979E-2</v>
@@ -18095,10 +18163,10 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D48" s="9">
         <v>5.076142131979695E-3</v>
@@ -18124,10 +18192,10 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D49" s="9">
         <v>0</v>
@@ -18172,13 +18240,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>0</v>
@@ -18202,12 +18270,12 @@
         <v>6</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
@@ -18225,7 +18293,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -18243,7 +18311,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -18260,7 +18328,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -18277,7 +18345,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -18300,7 +18368,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -18319,15 +18387,15 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="J7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K7" t="s">
         <v>151</v>
-      </c>
-      <c r="K7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -18345,13 +18413,13 @@
         <v>0.01</v>
       </c>
       <c r="J8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>50</v>
@@ -18368,7 +18436,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>50</v>
@@ -18385,7 +18453,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -18403,22 +18471,22 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D12" s="3">
         <v>0.19234100000000001</v>
       </c>
       <c r="J12" t="s">
+        <v>155</v>
+      </c>
+      <c r="K12" t="s">
         <v>157</v>
-      </c>
-      <c r="K12" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -18444,7 +18512,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18454,7 +18522,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -18480,7 +18548,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="2">
         <f>3587000/(3587000+891000)*0.176+891000/(3587000+891000)*0.079</f>
@@ -18495,12 +18563,12 @@
         <v>0.17030683340777131</v>
       </c>
       <c r="H2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="10">
         <v>0.25244517036746611</v>
@@ -18528,7 +18596,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -18549,18 +18617,18 @@
         <v>5</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B2">
         <v>13.3</v>
@@ -18581,20 +18649,20 @@
         <v>50</v>
       </c>
       <c r="H2" s="16">
-        <f>B2*2.59</f>
+        <f t="shared" ref="H2:H8" si="0">B2*2.59</f>
         <v>34.447000000000003</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B3">
         <v>70.2</v>
@@ -18615,20 +18683,20 @@
         <v>50</v>
       </c>
       <c r="H3" s="16">
-        <f>B3*2.59</f>
+        <f t="shared" si="0"/>
         <v>181.81799999999998</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B4">
         <v>128.80000000000001</v>
@@ -18649,17 +18717,17 @@
         <v>50</v>
       </c>
       <c r="H4" s="16">
-        <f t="shared" ref="H4:H8" si="0">B4*2.59</f>
+        <f t="shared" si="0"/>
         <v>333.59199999999998</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B5">
         <v>194.7</v>
@@ -18684,13 +18752,13 @@
         <v>504.27299999999997</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B6">
         <v>359.9</v>
@@ -18715,13 +18783,13 @@
         <v>932.14099999999985</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B7">
         <v>886.7</v>
@@ -18746,13 +18814,13 @@
         <v>2296.5529999999999</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B8">
         <v>4386.1000000000004</v>
@@ -18777,7 +18845,7 @@
         <v>11359.999</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K8" s="12"/>
     </row>
@@ -18808,7 +18876,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>57</v>
@@ -18837,10 +18905,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="21">
         <v>2.6026429525052852E-3</v>
@@ -18854,10 +18922,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3">
         <v>1.538E-2</v>
@@ -18871,10 +18939,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18888,10 +18956,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C5">
         <v>3.1</v>
@@ -18903,15 +18971,15 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C6" s="26">
         <v>6.0709999999999997</v>
@@ -18923,18 +18991,18 @@
         <v>10.162000000000001</v>
       </c>
       <c r="F6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C7" s="26">
         <v>4.3</v>
@@ -18946,15 +19014,15 @@
         <v>5.2</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C8">
         <v>3.5</v>
@@ -18966,15 +19034,15 @@
         <v>6.4</v>
       </c>
       <c r="I8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -18986,7 +19054,7 @@
         <v>1.2</v>
       </c>
       <c r="I9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -19005,7 +19073,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="A7:B7"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19015,7 +19083,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -19041,7 +19109,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2">
         <v>4.1800000000000002E-4</v>
@@ -19049,18 +19117,18 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B3">
         <v>3.7399999999999998E-3</v>
       </c>
       <c r="H3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4">
         <v>8.2400000000000008E-3</v>
@@ -19068,18 +19136,18 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B5">
         <v>5.9500000000000004E-3</v>
       </c>
       <c r="H5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6">
         <v>1.4800000000000001E-2</v>
@@ -19087,18 +19155,18 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B7">
         <v>2.5400000000000002E-3</v>
       </c>
       <c r="H7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B8">
         <v>4.5199999999999997E-2</v>
@@ -19106,13 +19174,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B9" s="3">
         <v>5.94E-3</v>
       </c>
       <c r="H9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/MasterTable.xlsx
+++ b/Inputs/MasterTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Desktop\profound-model_0113\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Desktop\Working folder\profound-model_RI\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED939F9B-9152-47E1-A3C7-75652CA5E23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283889E4-1578-4B99-AB23-DB5B8720EC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="420" windowWidth="22200" windowHeight="7680" firstSheet="12" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InitialPop" sheetId="12" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="196">
   <si>
     <t>pe</t>
   </si>
@@ -212,9 +212,6 @@
     <t>f</t>
   </si>
   <si>
-    <t>inactive opioid use (recovery)</t>
-  </si>
-  <si>
     <t>ever overdosed</t>
   </si>
   <si>
@@ -473,9 +470,6 @@
     <t>nlx.adj</t>
   </si>
   <si>
-    <t>Cease opioid use following overdose</t>
-  </si>
-  <si>
     <t>Overall</t>
   </si>
   <si>
@@ -510,9 +504,6 @@
   </si>
   <si>
     <t>gw.fx</t>
-  </si>
-  <si>
-    <t>fentanyl proportion (10.1001/jamanetworkopen.2019.2851), sti population (NSDUH)</t>
   </si>
   <si>
     <t>ODD Fx, range assumed</t>
@@ -613,9 +604,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/17265131/</t>
-  </si>
-  <si>
     <t>OD_cess</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -665,6 +653,34 @@
   </si>
   <si>
     <t>c.nlx.dtb.healthcare</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cease opioid use following overdose</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/17265131/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>inactive opioid use (recovery)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yedinak</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculated, PORI</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fentanyl proportion (10.1001/jamanetworkopen.2019.2851), sti population (NSDUH)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prev.NODU</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1065,18 +1081,18 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="12.73046875" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>46</v>
@@ -1103,9 +1119,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -1129,12 +1145,12 @@
         <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -1159,12 +1175,12 @@
         <v>50</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -1179,7 +1195,7 @@
         <v>6.7199999999999996E-2</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" s="7">
         <f>C4</f>
@@ -1190,14 +1206,14 @@
         <v>7.7551020408163258E-3</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="B5" t="s">
         <v>51</v>
@@ -1212,7 +1228,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5" s="7">
         <f>C5</f>
@@ -1223,12 +1239,12 @@
         <v>2.5510204081632651E-3</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -1243,7 +1259,7 @@
         <v>1.9E-2</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6" s="7">
         <f>C6</f>
@@ -1254,7 +1270,7 @@
         <v>1.5306122448979593E-3</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1268,17 +1284,17 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="15.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1302,12 +1318,12 @@
         <v>6</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B2">
         <v>0.12</v>
@@ -1319,9 +1335,9 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="14">
         <v>0.64500000000000002</v>
@@ -1334,9 +1350,9 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B4" s="14">
         <v>0.82</v>
@@ -1348,9 +1364,9 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B5" s="14">
         <v>0.6</v>
@@ -1362,9 +1378,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B6" s="14">
         <v>0.66200000000000003</v>
@@ -1377,15 +1393,15 @@
         <v>0.79900000000000004</v>
       </c>
       <c r="H6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="I6" s="22" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>166</v>
       </c>
       <c r="B7" s="15">
         <v>0.59</v>
@@ -1397,15 +1413,15 @@
         <v>0.7</v>
       </c>
       <c r="H7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="14">
         <v>0.9</v>
@@ -1417,9 +1433,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B9" s="14">
         <v>7.5600000000000001E-2</v>
@@ -1431,7 +1447,7 @@
         <v>0.11579589999999999</v>
       </c>
       <c r="E9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F9">
         <v>19</v>
@@ -1441,10 +1457,10 @@
         <v>232</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1462,28 +1478,28 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
         <v>105</v>
       </c>
-      <c r="C1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" s="23">
         <f>1-C2</f>
@@ -1504,26 +1520,26 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
         <v>105</v>
       </c>
-      <c r="C1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1534,7 +1550,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1545,9 +1561,9 @@
         <v>0.69699999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="13">
         <v>0.16700000000000001</v>
@@ -1556,9 +1572,9 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="13">
         <v>0.29899999999999999</v>
@@ -1567,7 +1583,7 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1578,7 +1594,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1589,7 +1605,7 @@
         <v>0.81899999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1600,7 +1616,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1611,7 +1627,7 @@
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1622,7 +1638,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1633,7 +1649,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1644,7 +1660,7 @@
         <v>0.55200000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1655,9 +1671,9 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="13">
         <v>0.32100000000000001</v>
@@ -1666,7 +1682,7 @@
         <v>0.67900000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1677,7 +1693,7 @@
         <v>0.89600000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1688,7 +1704,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1699,9 +1715,9 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" s="13">
         <v>0.51100000000000001</v>
@@ -1710,7 +1726,7 @@
         <v>0.48899999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1721,7 +1737,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1732,7 +1748,7 @@
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1743,7 +1759,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1754,7 +1770,7 @@
         <v>0.75105263157894742</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1765,7 +1781,7 @@
         <v>0.76700000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1776,7 +1792,7 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1787,7 +1803,7 @@
         <v>0.74399999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1798,7 +1814,7 @@
         <v>0.69799999999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1809,7 +1825,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1820,7 +1836,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1831,7 +1847,7 @@
         <v>0.56100000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1842,7 +1858,7 @@
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1853,9 +1869,9 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B32" s="13">
         <v>0.22600000000000001</v>
@@ -1864,7 +1880,7 @@
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -1875,7 +1891,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -1886,7 +1902,7 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1897,7 +1913,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -1908,9 +1924,9 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B37" s="13">
         <v>0.33300000000000002</v>
@@ -1919,9 +1935,9 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B38" s="13">
         <v>0.13900000000000001</v>
@@ -1930,9 +1946,9 @@
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B39" s="13">
         <v>0.19800000000000001</v>
@@ -1941,7 +1957,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -1963,17 +1979,17 @@
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1997,9 +2013,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="9">
         <f>9/153</f>
@@ -2012,7 +2028,7 @@
         <v>0.108</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F2">
         <v>9</v>
@@ -2021,12 +2037,12 @@
         <v>153</v>
       </c>
       <c r="H2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B3" s="9">
         <v>8.5599999999999999E-3</v>
@@ -2038,7 +2054,7 @@
         <v>1.32E-2</v>
       </c>
       <c r="E3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -2047,13 +2063,13 @@
         <v>2336</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B4">
         <v>0.58799999999999997</v>
@@ -2065,7 +2081,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
@@ -2073,7 +2089,7 @@
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
@@ -2081,7 +2097,7 @@
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
@@ -2089,7 +2105,7 @@
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
@@ -2097,7 +2113,7 @@
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
@@ -2105,7 +2121,7 @@
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
     </row>
-    <row r="17" spans="12:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="12:22" x14ac:dyDescent="0.4">
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
@@ -2113,7 +2129,7 @@
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
     </row>
-    <row r="18" spans="12:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="12:22" x14ac:dyDescent="0.4">
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
@@ -2121,7 +2137,7 @@
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
     </row>
-    <row r="19" spans="12:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="12:22" x14ac:dyDescent="0.4">
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
@@ -2129,7 +2145,7 @@
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
     </row>
-    <row r="21" spans="12:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="12:22" x14ac:dyDescent="0.4">
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
@@ -2137,7 +2153,7 @@
       <c r="T21" s="17"/>
       <c r="U21" s="17"/>
     </row>
-    <row r="22" spans="12:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="12:22" x14ac:dyDescent="0.4">
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
@@ -2145,7 +2161,7 @@
       <c r="T22" s="17"/>
       <c r="U22" s="17"/>
     </row>
-    <row r="23" spans="12:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="12:22" x14ac:dyDescent="0.4">
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
@@ -2153,7 +2169,7 @@
       <c r="T23" s="17"/>
       <c r="U23" s="17"/>
     </row>
-    <row r="24" spans="12:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="12:22" x14ac:dyDescent="0.4">
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
@@ -2161,23 +2177,23 @@
       <c r="T24" s="17"/>
       <c r="U24" s="17"/>
     </row>
-    <row r="29" spans="12:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="12:22" x14ac:dyDescent="0.4">
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
       <c r="S29" s="17"/>
       <c r="T29" s="17"/>
     </row>
-    <row r="30" spans="12:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="12:22" x14ac:dyDescent="0.4">
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
     </row>
-    <row r="32" spans="12:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="12:22" x14ac:dyDescent="0.4">
       <c r="O32" s="15"/>
       <c r="V32" s="15"/>
     </row>
-    <row r="33" spans="15:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="15:22" x14ac:dyDescent="0.4">
       <c r="O33" s="15"/>
       <c r="V33" s="15"/>
     </row>
@@ -2193,14 +2209,14 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -2224,20 +2240,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>15.5</v>
       </c>
       <c r="H2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -2249,17 +2265,17 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B5">
         <v>2.69</v>
@@ -2282,15 +2298,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C231C3-2912-4A67-95C1-06AD5483D65C}">
   <dimension ref="A1:AN6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
         <v>34</v>
@@ -2410,7 +2426,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -2532,7 +2548,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -2654,7 +2670,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -2776,7 +2792,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -2898,7 +2914,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -3035,17 +3051,17 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -3053,7 +3069,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -3061,7 +3077,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -3069,7 +3085,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -3077,7 +3093,7 @@
         <v>8007</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -3096,16 +3112,16 @@
   <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="19" customWidth="1"/>
-    <col min="2" max="16384" width="9.125" style="19"/>
+    <col min="1" max="1" width="16.73046875" style="19" customWidth="1"/>
+    <col min="2" max="16384" width="9.1328125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.4">
       <c r="B1" s="19" t="s">
         <v>34</v>
       </c>
@@ -3224,7 +3240,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A2" s="19" t="s">
         <v>34</v>
       </c>
@@ -3346,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A3" s="19" t="s">
         <v>35</v>
       </c>
@@ -3468,7 +3484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
         <v>7</v>
       </c>
@@ -3590,9 +3606,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A5" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="20">
         <v>0</v>
@@ -3712,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A6" s="19" t="s">
         <v>37</v>
       </c>
@@ -3834,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A7" s="19" t="s">
         <v>29</v>
       </c>
@@ -3956,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A8" s="19" t="s">
         <v>9</v>
       </c>
@@ -4078,7 +4094,7 @@
         <v>1.9736842105263157E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A9" s="19" t="s">
         <v>10</v>
       </c>
@@ -4200,7 +4216,7 @@
         <v>7.3684210526315783E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A10" s="19" t="s">
         <v>30</v>
       </c>
@@ -4322,7 +4338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A11" s="19" t="s">
         <v>11</v>
       </c>
@@ -4444,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A12" s="19" t="s">
         <v>38</v>
       </c>
@@ -4566,7 +4582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A13" s="19" t="s">
         <v>12</v>
       </c>
@@ -4688,7 +4704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A14" s="19" t="s">
         <v>13</v>
       </c>
@@ -4810,7 +4826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A15" s="19" t="s">
         <v>39</v>
       </c>
@@ -4932,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A16" s="19" t="s">
         <v>23</v>
       </c>
@@ -5054,7 +5070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A17" s="19" t="s">
         <v>14</v>
       </c>
@@ -5176,7 +5192,7 @@
         <v>6.5637065637065631E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A18" s="19" t="s">
         <v>15</v>
       </c>
@@ -5298,7 +5314,7 @@
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A19" s="19" t="s">
         <v>24</v>
       </c>
@@ -5420,7 +5436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A20" s="19" t="s">
         <v>25</v>
       </c>
@@ -5542,7 +5558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A21" s="19" t="s">
         <v>40</v>
       </c>
@@ -5664,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A22" s="19" t="s">
         <v>41</v>
       </c>
@@ -5786,7 +5802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A23" s="19" t="s">
         <v>26</v>
       </c>
@@ -5908,7 +5924,7 @@
         <v>8.1967213114754103E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A24" s="19" t="s">
         <v>42</v>
       </c>
@@ -6030,7 +6046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A25" s="19" t="s">
         <v>16</v>
       </c>
@@ -6152,7 +6168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A26" s="19" t="s">
         <v>17</v>
       </c>
@@ -6274,7 +6290,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A27" s="19" t="s">
         <v>18</v>
       </c>
@@ -6396,7 +6412,7 @@
         <v>2.8772753963593658E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A28" s="19" t="s">
         <v>27</v>
       </c>
@@ -6518,7 +6534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A29" s="19" t="s">
         <v>19</v>
       </c>
@@ -6640,7 +6656,7 @@
         <v>2.7018486332753989E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A30" s="19" t="s">
         <v>43</v>
       </c>
@@ -6762,7 +6778,7 @@
         <v>7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A31" s="19" t="s">
         <v>20</v>
       </c>
@@ -6884,7 +6900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A32" s="19" t="s">
         <v>21</v>
       </c>
@@ -7006,7 +7022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A33" s="19" t="s">
         <v>44</v>
       </c>
@@ -7128,7 +7144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A34" s="19" t="s">
         <v>28</v>
       </c>
@@ -7250,7 +7266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A35" s="19" t="s">
         <v>36</v>
       </c>
@@ -7372,7 +7388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A36" s="19" t="s">
         <v>31</v>
       </c>
@@ -7494,7 +7510,7 @@
         <v>9.1923834537097834E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A37" s="19" t="s">
         <v>32</v>
       </c>
@@ -7616,7 +7632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A38" s="19" t="s">
         <v>33</v>
       </c>
@@ -7738,7 +7754,7 @@
         <v>2.6595744680851064E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A39" s="19" t="s">
         <v>45</v>
       </c>
@@ -7860,7 +7876,7 @@
         <v>1.3157894736842105E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A40" s="19" t="s">
         <v>22</v>
       </c>
@@ -7992,15 +8008,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC045363-D7FC-49B9-A9BB-CFCFB09307A2}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -8024,9 +8040,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2">
         <v>1019</v>
@@ -8050,9 +8066,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3">
         <v>1511</v>
@@ -8076,9 +8092,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4">
         <v>1511</v>
@@ -8102,9 +8118,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5">
         <v>631</v>
@@ -8128,9 +8144,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="6">
         <v>2000</v>
@@ -8154,9 +8170,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7">
         <v>55.2</v>
@@ -8180,9 +8196,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B8">
         <v>101</v>
@@ -8206,9 +8222,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B9">
         <v>162</v>
@@ -8232,9 +8248,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B10">
         <v>116</v>
@@ -8258,9 +8274,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11">
         <v>500</v>
@@ -8284,9 +8300,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" s="6">
         <v>1034</v>
@@ -8321,25 +8337,25 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="24">
         <v>2016</v>
@@ -8348,9 +8364,9 @@
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B3" s="24">
         <v>2017</v>
@@ -8359,9 +8375,9 @@
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B4" s="24">
         <v>2018</v>
@@ -8370,9 +8386,9 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B5" s="24">
         <v>2019</v>
@@ -8381,9 +8397,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B6">
         <v>2016</v>
@@ -8393,9 +8409,9 @@
         <v>0.67931034482758623</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B7">
         <v>2017</v>
@@ -8405,9 +8421,9 @@
         <v>0.72377622377622375</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B8">
         <v>2018</v>
@@ -8417,9 +8433,9 @@
         <v>0.83088235294117652</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B9">
         <v>2019</v>
@@ -8429,9 +8445,9 @@
         <v>0.8359375</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B10">
         <v>2016</v>
@@ -8441,9 +8457,9 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B11">
         <v>2017</v>
@@ -8453,9 +8469,9 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B12">
         <v>2018</v>
@@ -8465,9 +8481,9 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B13">
         <v>2019</v>
@@ -8488,26 +8504,26 @@
   <dimension ref="A1:CC52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="8" width="11.125" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="4" max="8" width="11.1328125" customWidth="1"/>
+    <col min="9" max="9" width="10.3984375" customWidth="1"/>
+    <col min="10" max="10" width="10.46484375" customWidth="1"/>
+    <col min="11" max="11" width="11.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>34</v>
@@ -8519,7 +8535,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>37</v>
@@ -8627,15 +8643,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" s="11">
         <v>919</v>
@@ -8794,15 +8810,15 @@
       <c r="CB2" s="7"/>
       <c r="CC2" s="7"/>
     </row>
-    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="11">
         <v>462</v>
@@ -8961,15 +8977,15 @@
       <c r="CB3" s="7"/>
       <c r="CC3" s="7"/>
     </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="11">
         <v>301</v>
@@ -9128,15 +9144,15 @@
       <c r="CB4" s="7"/>
       <c r="CC4" s="7"/>
     </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="11">
         <v>1630</v>
@@ -9295,15 +9311,15 @@
       <c r="CB5" s="7"/>
       <c r="CC5" s="7"/>
     </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="11">
         <v>1800</v>
@@ -9462,15 +9478,15 @@
       <c r="CB6" s="7"/>
       <c r="CC6" s="7"/>
     </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="11">
         <v>998</v>
@@ -9629,15 +9645,15 @@
       <c r="CB7" s="7"/>
       <c r="CC7" s="7"/>
     </row>
-    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="11">
         <v>6</v>
@@ -9757,15 +9773,15 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="11">
         <v>6</v>
@@ -9885,15 +9901,15 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="11">
         <v>2</v>
@@ -10013,15 +10029,15 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="11">
         <v>10</v>
@@ -10141,15 +10157,15 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="11">
         <v>6</v>
@@ -10269,15 +10285,15 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="11">
         <v>3</v>
@@ -10397,15 +10413,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="11">
         <v>28</v>
@@ -10525,15 +10541,15 @@
         <v>423</v>
       </c>
     </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="11">
         <v>17</v>
@@ -10653,15 +10669,15 @@
         <v>386</v>
       </c>
     </row>
-    <row r="16" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="11">
         <v>11</v>
@@ -10781,15 +10797,15 @@
         <v>391</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="11">
         <v>33</v>
@@ -10909,15 +10925,15 @@
         <v>471</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="11">
         <v>19</v>
@@ -11037,15 +11053,15 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="11">
         <v>6</v>
@@ -11165,15 +11181,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" s="11">
         <v>60</v>
@@ -11293,15 +11309,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="11">
         <v>13</v>
@@ -11421,15 +11437,15 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="11">
         <v>16</v>
@@ -11549,15 +11565,15 @@
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="11">
         <v>79</v>
@@ -11677,15 +11693,15 @@
         <v>317</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="11">
         <v>47</v>
@@ -11805,15 +11821,15 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="11">
         <v>18</v>
@@ -11933,15 +11949,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" s="11">
         <v>803</v>
@@ -12061,15 +12077,15 @@
         <v>815</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D27" s="11">
         <v>367</v>
@@ -12189,15 +12205,15 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="11">
         <v>390</v>
@@ -12317,15 +12333,15 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D29" s="11">
         <v>1883</v>
@@ -12445,15 +12461,15 @@
         <v>3155</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D30" s="11">
         <v>1943</v>
@@ -12573,15 +12589,15 @@
         <v>3235</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D31" s="11">
         <v>1325</v>
@@ -12701,15 +12717,15 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D32" s="11">
         <v>5</v>
@@ -12829,15 +12845,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D33" s="11">
         <v>5</v>
@@ -12957,15 +12973,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D34" s="11">
         <v>3</v>
@@ -13085,15 +13101,15 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D35" s="11">
         <v>12</v>
@@ -13213,15 +13229,15 @@
         <v>293</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D36" s="11">
         <v>7</v>
@@ -13341,15 +13357,15 @@
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D37" s="11">
         <v>3</v>
@@ -13469,15 +13485,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D38" s="11">
         <v>24</v>
@@ -13597,15 +13613,15 @@
         <v>391</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D39" s="11">
         <v>13</v>
@@ -13725,15 +13741,15 @@
         <v>416</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D40" s="11">
         <v>14</v>
@@ -13853,15 +13869,15 @@
         <v>423</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D41" s="11">
         <v>38</v>
@@ -13981,15 +13997,15 @@
         <v>487</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D42" s="11">
         <v>20</v>
@@ -14109,15 +14125,15 @@
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D43" s="11">
         <v>9</v>
@@ -14237,15 +14253,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D44" s="11">
         <v>52</v>
@@ -14365,15 +14381,15 @@
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D45" s="11">
         <v>11</v>
@@ -14493,15 +14509,15 @@
         <v>212</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D46" s="11">
         <v>21</v>
@@ -14621,15 +14637,15 @@
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D47" s="11">
         <v>92</v>
@@ -14749,15 +14765,15 @@
         <v>327</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D48" s="11">
         <v>50</v>
@@ -14877,15 +14893,15 @@
         <v>219</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D49" s="11">
         <v>24</v>
@@ -15005,7 +15021,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.4">
       <c r="D52" s="4"/>
     </row>
   </sheetData>
@@ -15019,17 +15035,17 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -15053,9 +15069,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="4">
         <f>OpioidPattern!D7</f>
@@ -15071,27 +15087,27 @@
       </c>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" s="4">
+        <v>150</v>
+      </c>
+      <c r="B3" s="3">
         <f>OpioidPattern!D8</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="3">
         <f>OpioidPattern!E8</f>
         <v>0</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="3">
         <f>OpioidPattern!F8</f>
         <v>0.01</v>
       </c>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="21">
         <f>OverdoseRisk!C2</f>
@@ -15106,9 +15122,9 @@
         <v>4.5480147401865678E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5">
         <f>OverdoseRisk!C3</f>
@@ -15123,26 +15139,26 @@
         <v>1.8575312252222864E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6">
+        <v>92</v>
+      </c>
+      <c r="B6" s="15">
         <f>OverdoseRisk!C5</f>
         <v>3.1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="15">
         <f>OverdoseRisk!D5</f>
         <v>1.8</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="15">
         <f>OverdoseRisk!E5</f>
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="15">
         <f>OverdoseRisk!C6</f>
@@ -15157,9 +15173,9 @@
         <v>10.162000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="15">
         <f>OverdoseRisk!C7</f>
@@ -15174,60 +15190,60 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9">
+        <v>123</v>
+      </c>
+      <c r="B9" s="15">
         <f>OverdoseRisk!C8</f>
         <v>3.5</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="15">
         <f>OverdoseRisk!D8</f>
         <v>1.9</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="15">
         <f>OverdoseRisk!E8</f>
         <v>6.4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B10" s="9">
         <f>Mortality!B2</f>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="9">
         <f>Mortality!C2</f>
         <v>3.1E-2</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="9">
         <f>Mortality!D2</f>
         <v>0.108</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B11" s="9">
         <f>Mortality!B3</f>
         <v>8.5599999999999999E-3</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="9">
         <f>Mortality!C3</f>
         <v>5.5500000000000002E-3</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="9">
         <f>Mortality!D3</f>
         <v>1.32E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B12">
         <f>Mortality!B4</f>
@@ -15242,9 +15258,9 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B13" s="15">
         <f>DecisionTree!B4</f>
@@ -15259,7 +15275,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="str">
         <f>DecisionTree!A6</f>
         <v>OD_911_pub</v>
@@ -15277,9 +15293,9 @@
         <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15">
         <f>DecisionTree!B8</f>
@@ -15294,9 +15310,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B16" s="14">
         <f>DecisionTree!B9</f>
@@ -15311,9 +15327,9 @@
         <v>0.11579589999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B17">
         <f>NxKit!B3</f>
@@ -15328,7 +15344,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15340,21 +15356,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3F1794-BA7F-46A4-A538-473EACC83541}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>0</v>
@@ -15378,15 +15394,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" s="9">
         <v>2.4942686840898669E-2</v>
@@ -15407,18 +15423,18 @@
         <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="9">
         <v>6.7126436781609192E-2</v>
@@ -15439,15 +15455,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="9">
         <v>6.9954776710005648E-2</v>
@@ -15468,15 +15484,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="9">
         <v>5.6965357481309889E-2</v>
@@ -15497,15 +15513,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="9">
         <v>3.7692145714887347E-2</v>
@@ -15526,15 +15542,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="9">
         <v>1.5907447577729574E-2</v>
@@ -15555,15 +15571,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="9">
         <v>2.6074182886522218E-2</v>
@@ -15584,15 +15600,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="9">
         <v>5.373573794626426E-2</v>
@@ -15613,15 +15629,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="9">
         <v>6.8940493468795355E-2</v>
@@ -15642,15 +15658,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="9">
         <v>4.1410184667039732E-2</v>
@@ -15671,15 +15687,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="9">
         <v>3.7641154328732745E-2</v>
@@ -15700,15 +15716,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="9">
         <v>2.5056947608200455E-2</v>
@@ -15729,15 +15745,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="9">
         <v>2.436938862761864E-2</v>
@@ -15758,15 +15774,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="9">
         <v>6.2884483937115515E-2</v>
@@ -15787,15 +15803,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="9">
         <v>5.9245960502692999E-2</v>
@@ -15816,15 +15832,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="9">
         <v>4.6042617960426177E-2</v>
@@ -15845,15 +15861,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="9">
         <v>2.6683608640406607E-2</v>
@@ -15874,15 +15890,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="9">
         <v>2.9069767441860465E-2</v>
@@ -15903,15 +15919,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" s="9">
         <v>2.2212908633696564E-2</v>
@@ -15932,15 +15948,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="9">
         <v>5.5646481178396073E-2</v>
@@ -15961,15 +15977,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="9">
         <v>6.0267857142857144E-2</v>
@@ -15990,15 +16006,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="9">
         <v>4.1769041769041768E-2</v>
@@ -16019,15 +16035,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="9">
         <v>3.0120481927710843E-2</v>
@@ -16048,15 +16064,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="9">
         <v>1.7964071856287425E-2</v>
@@ -16077,15 +16093,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" s="9">
         <v>2.7733912356889063E-2</v>
@@ -16106,15 +16122,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D27" s="9">
         <v>6.7545891997861346E-2</v>
@@ -16135,15 +16151,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="9">
         <v>5.9462835727670207E-2</v>
@@ -16164,15 +16180,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D29" s="9">
         <v>4.374098124098124E-2</v>
@@ -16193,15 +16209,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D30" s="9">
         <v>3.1348543869411986E-2</v>
@@ -16222,15 +16238,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D31" s="9">
         <v>1.1685116851168511E-2</v>
@@ -16251,15 +16267,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D32" s="9">
         <v>3.5166479610924055E-2</v>
@@ -16280,15 +16296,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D33" s="9">
         <v>4.6284224250325946E-2</v>
@@ -16309,15 +16325,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D34" s="9">
         <v>4.4698544698544701E-2</v>
@@ -16338,15 +16354,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D35" s="9">
         <v>3.0814689742507388E-2</v>
@@ -16367,15 +16383,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D36" s="9">
         <v>3.125E-2</v>
@@ -16396,15 +16412,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D37" s="9">
         <v>8.3056478405315621E-3</v>
@@ -16425,15 +16441,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D38" s="9">
         <v>3.6120840630472856E-2</v>
@@ -16454,15 +16470,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D39" s="9">
         <v>5.2423777144110548E-2</v>
@@ -16483,15 +16499,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D40" s="9">
         <v>4.7795479807336047E-2</v>
@@ -16512,15 +16528,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D41" s="9">
         <v>3.065373787926181E-2</v>
@@ -16541,15 +16557,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D42" s="9">
         <v>1.3197969543147208E-2</v>
@@ -16570,15 +16586,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D43" s="9">
         <v>2.0876826722338204E-2</v>
@@ -16599,15 +16615,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D44" s="9">
         <v>3.0328919265271252E-2</v>
@@ -16628,15 +16644,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D45" s="9">
         <v>6.0930424042815977E-2</v>
@@ -16657,15 +16673,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D46" s="9">
         <v>4.7806155861165683E-2</v>
@@ -16686,15 +16702,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D47" s="9">
         <v>2.9858849077090119E-2</v>
@@ -16715,15 +16731,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D48" s="9">
         <v>2.3972602739726026E-2</v>
@@ -16744,15 +16760,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D49" s="9">
         <v>1.3927576601671309E-2</v>
@@ -16784,20 +16800,20 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>0</v>
@@ -16821,15 +16837,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" s="9">
         <v>3.9431453461714807E-3</v>
@@ -16850,18 +16866,18 @@
         <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="9">
         <v>5.6091954022988506E-2</v>
@@ -16882,15 +16898,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="9">
         <v>4.8473713962690783E-2</v>
@@ -16911,15 +16927,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="9">
         <v>2.2428135200589661E-2</v>
@@ -16940,15 +16956,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="9">
         <v>1.284480943356496E-2</v>
@@ -16969,15 +16985,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="9">
         <v>2.1691973969631237E-3</v>
@@ -16998,15 +17014,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="9">
         <v>1.1017260374586854E-3</v>
@@ -17027,15 +17043,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="9">
         <v>1.6562384983437616E-2</v>
@@ -17056,15 +17072,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="9">
         <v>2.0319303338171262E-2</v>
@@ -17085,15 +17101,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="9">
         <v>1.9026301063234472E-2</v>
@@ -17114,15 +17130,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="9">
         <v>3.7641154328732745E-2</v>
@@ -17143,15 +17159,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="9">
         <v>6.8337129840546698E-3</v>
@@ -17172,15 +17188,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="9">
         <v>3.3528918692372171E-3</v>
@@ -17201,15 +17217,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="9">
         <v>4.0916530278232409E-2</v>
@@ -17230,15 +17246,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="9">
         <v>3.9434523809523808E-2</v>
@@ -17259,15 +17275,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="9">
         <v>2.5798525798525797E-2</v>
@@ -17288,15 +17304,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="9">
         <v>1.2048192771084338E-2</v>
@@ -17317,15 +17333,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="9">
         <v>2.9940119760479044E-3</v>
@@ -17346,15 +17362,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" s="9">
         <v>3.8477982043608381E-3</v>
@@ -17375,15 +17391,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="9">
         <v>4.5340624287992709E-2</v>
@@ -17404,15 +17420,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="9">
         <v>3.7701974865350089E-2</v>
@@ -17433,15 +17449,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="9">
         <v>2.5875190258751901E-2</v>
@@ -17462,15 +17478,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="9">
         <v>1.5247776365946633E-2</v>
@@ -17491,15 +17507,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="9">
         <v>5.8139534883720929E-3</v>
@@ -17520,15 +17536,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" s="9">
         <v>3.3557046979865771E-3</v>
@@ -17549,15 +17565,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D27" s="9">
         <v>3.920869720192479E-2</v>
@@ -17578,15 +17594,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="9">
         <v>2.7357901311680199E-2</v>
@@ -17607,15 +17623,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D29" s="9">
         <v>1.0281385281385282E-2</v>
@@ -17636,15 +17652,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D30" s="9">
         <v>6.3068076423669081E-3</v>
@@ -17665,15 +17681,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D31" s="9">
         <v>1.025010250102501E-3</v>
@@ -17694,15 +17710,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D32" s="9">
         <v>1.4964459408903852E-3</v>
@@ -17723,15 +17739,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D33" s="9">
         <v>1.2059973924380704E-2</v>
@@ -17752,15 +17768,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D34" s="9">
         <v>1.0914760914760915E-2</v>
@@ -17781,15 +17797,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D35" s="9">
         <v>1.2241452089489235E-2</v>
@@ -17810,15 +17826,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D36" s="9">
         <v>1.46484375E-2</v>
@@ -17839,15 +17855,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D37" s="9">
         <v>0</v>
@@ -17868,15 +17884,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D38" s="9">
         <v>3.8445108927808629E-3</v>
@@ -17897,15 +17913,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D39" s="9">
         <v>3.1700288184438041E-2</v>
@@ -17926,15 +17942,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D40" s="9">
         <v>2.2920759659463E-2</v>
@@ -17955,15 +17971,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D41" s="9">
         <v>1.1400651465798045E-2</v>
@@ -17984,15 +18000,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D42" s="9">
         <v>5.1369863013698627E-3</v>
@@ -18013,15 +18029,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D43" s="9">
         <v>0</v>
@@ -18042,15 +18058,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D44" s="9">
         <v>4.5971978984238179E-3</v>
@@ -18071,15 +18087,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D45" s="9">
         <v>3.2243913138846239E-2</v>
@@ -18100,15 +18116,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D46" s="9">
         <v>1.7413856984068173E-2</v>
@@ -18129,15 +18145,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D47" s="9">
         <v>1.0009383797309979E-2</v>
@@ -18158,15 +18174,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D48" s="9">
         <v>5.076142131979695E-3</v>
@@ -18187,15 +18203,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D49" s="9">
         <v>0</v>
@@ -18227,26 +18243,26 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="8.75" customWidth="1"/>
-    <col min="6" max="6" width="8.375" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="1" max="1" width="13.46484375" customWidth="1"/>
+    <col min="5" max="5" width="8.73046875" customWidth="1"/>
+    <col min="6" max="6" width="8.3984375" customWidth="1"/>
+    <col min="8" max="8" width="9.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>0</v>
@@ -18270,12 +18286,12 @@
         <v>6</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
@@ -18288,12 +18304,15 @@
         <v>0.16559829059829059</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="K2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -18306,12 +18325,15 @@
         <v>0.12125534950071326</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -18323,12 +18345,15 @@
         <v>0.48599999999999999</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="K4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -18340,12 +18365,15 @@
         <v>0.41049999999999998</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="K5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -18363,12 +18391,15 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="K6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -18387,15 +18418,15 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="J7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K7" t="s">
         <v>149</v>
       </c>
-      <c r="K7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -18403,7 +18434,7 @@
       <c r="C8" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E8" s="23">
@@ -18413,13 +18444,15 @@
         <v>0.01</v>
       </c>
       <c r="J8" t="s">
-        <v>186</v>
-      </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>50</v>
@@ -18431,12 +18464,12 @@
         <v>0.191</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>50</v>
@@ -18448,12 +18481,12 @@
         <v>0.25244517036746611</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -18466,37 +18499,37 @@
         <v>0.47932725998598458</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D12" s="3">
         <v>0.19234100000000001</v>
       </c>
       <c r="J12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="E13" s="3"/>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.4">
       <c r="F18" s="3"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.4">
       <c r="F19" s="3"/>
       <c r="H19" s="4"/>
     </row>
@@ -18512,17 +18545,17 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -18546,9 +18579,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2">
         <f>3587000/(3587000+891000)*0.176+891000/(3587000+891000)*0.079</f>
@@ -18563,12 +18596,12 @@
         <v>0.17030683340777131</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="10">
         <v>0.25244517036746611</v>
@@ -18585,18 +18618,18 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="11.46484375" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -18617,18 +18650,18 @@
         <v>5</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2">
         <v>13.3</v>
@@ -18649,20 +18682,20 @@
         <v>50</v>
       </c>
       <c r="H2" s="16">
-        <f t="shared" ref="H2:H8" si="0">B2*2.59</f>
+        <f>B2*2.59</f>
         <v>34.447000000000003</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3">
         <v>70.2</v>
@@ -18683,20 +18716,20 @@
         <v>50</v>
       </c>
       <c r="H3" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H3:H8" si="0">B3*2.59</f>
         <v>181.81799999999998</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K3" s="12"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4">
         <v>128.80000000000001</v>
@@ -18721,13 +18754,13 @@
         <v>333.59199999999998</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5">
         <v>194.7</v>
@@ -18752,13 +18785,13 @@
         <v>504.27299999999997</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6">
         <v>359.9</v>
@@ -18783,13 +18816,13 @@
         <v>932.14099999999985</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K6" s="12"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7">
         <v>886.7</v>
@@ -18814,13 +18847,13 @@
         <v>2296.5529999999999</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K7" s="12"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8">
         <v>4386.1000000000004</v>
@@ -18845,7 +18878,7 @@
         <v>11359.999</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K8" s="12"/>
     </row>
@@ -18865,21 +18898,22 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="9.73046875" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" customWidth="1"/>
+    <col min="7" max="7" width="9.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
@@ -18903,12 +18937,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="21">
         <v>2.6026429525052852E-3</v>
@@ -18920,12 +18954,12 @@
         <v>4.5480147401865678E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3">
         <v>1.538E-2</v>
@@ -18936,13 +18970,16 @@
       <c r="E3" s="25">
         <v>1.8575312252222864E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -18954,12 +18991,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5">
         <v>3.1</v>
@@ -18971,15 +19008,15 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="26">
         <v>6.0709999999999997</v>
@@ -18991,18 +19028,18 @@
         <v>10.162000000000001</v>
       </c>
       <c r="F6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="26">
         <v>4.3</v>
@@ -19014,15 +19051,15 @@
         <v>5.2</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" t="s">
         <v>124</v>
-      </c>
-      <c r="B8" t="s">
-        <v>125</v>
       </c>
       <c r="C8">
         <v>3.5</v>
@@ -19033,16 +19070,16 @@
       <c r="E8">
         <v>6.4</v>
       </c>
-      <c r="I8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I8" s="18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -19054,7 +19091,7 @@
         <v>1.2</v>
       </c>
       <c r="I9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -19062,9 +19099,10 @@
   <hyperlinks>
     <hyperlink ref="I7" r:id="rId1" xr:uid="{D2BDE243-70FF-4BEE-8004-6DBDAB5E3597}"/>
     <hyperlink ref="I6" r:id="rId2" xr:uid="{58A6FE53-B34F-4D13-8456-291B6D396695}"/>
+    <hyperlink ref="I8" r:id="rId3" xr:uid="{B0E0D4B5-BC6F-4215-9859-1CDF8A0A1005}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -19073,17 +19111,17 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="12.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -19107,80 +19145,80 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2">
         <v>4.1800000000000002E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B3">
         <v>3.7399999999999998E-3</v>
       </c>
       <c r="H3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4">
         <v>8.2400000000000008E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B5">
         <v>5.9500000000000004E-3</v>
       </c>
       <c r="H5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6">
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B7">
         <v>2.5400000000000002E-3</v>
       </c>
       <c r="H7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>181</v>
       </c>
       <c r="B8">
         <v>4.5199999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B9" s="3">
         <v>5.94E-3</v>
       </c>
       <c r="H9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
